--- a/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\15 minute\postare saptamanala si zilnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6CEBC5-8D41-4008-BA2D-87932CABC2E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9829376D-7BC2-4396-9FFE-B4DF60BBFC92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-1245" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valori brute (gross values)" sheetId="1" r:id="rId1"/>
@@ -1572,7 +1572,7 @@
   <dimension ref="B1:CY107"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28:CU29"/>
+      <selection activeCell="D31" sqref="D31:CU32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7943,7 +7943,7 @@
     </row>
     <row r="29" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="C29" s="9">
         <v>45737</v>
@@ -7955,291 +7955,291 @@
         <v>6080</v>
       </c>
       <c r="F29" s="1">
-        <v>6020</v>
+        <v>6030</v>
       </c>
       <c r="G29" s="1">
-        <v>5960</v>
+        <v>5970</v>
       </c>
       <c r="H29" s="1">
-        <v>5910</v>
+        <v>5920</v>
       </c>
       <c r="I29" s="1">
-        <v>5870</v>
+        <v>5880</v>
       </c>
       <c r="J29" s="1">
-        <v>5850</v>
+        <v>5860</v>
       </c>
       <c r="K29" s="1">
-        <v>5820</v>
+        <v>5830</v>
       </c>
       <c r="L29" s="1">
+        <v>5800</v>
+      </c>
+      <c r="M29" s="1">
         <v>5790</v>
       </c>
-      <c r="M29" s="1">
+      <c r="N29" s="1">
         <v>5770</v>
       </c>
-      <c r="N29" s="1">
-        <v>5760</v>
-      </c>
       <c r="O29" s="1">
-        <v>5750</v>
+        <v>5770</v>
       </c>
       <c r="P29" s="1">
         <v>5760</v>
       </c>
       <c r="Q29" s="1">
+        <v>5760</v>
+      </c>
+      <c r="R29" s="1">
+        <v>5760</v>
+      </c>
+      <c r="S29" s="1">
         <v>5770</v>
       </c>
-      <c r="R29" s="1">
-        <v>5780</v>
-      </c>
-      <c r="S29" s="1">
+      <c r="T29" s="1">
         <v>5800</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
+        <v>5810</v>
+      </c>
+      <c r="V29" s="1">
         <v>5820</v>
       </c>
-      <c r="U29" s="1">
-        <v>5840</v>
-      </c>
-      <c r="V29" s="1">
-        <v>5870</v>
-      </c>
       <c r="W29" s="1">
-        <v>5910</v>
+        <v>5860</v>
       </c>
       <c r="X29" s="1">
-        <v>5980</v>
+        <v>5930</v>
       </c>
       <c r="Y29" s="1">
-        <v>6060</v>
+        <v>6000</v>
       </c>
       <c r="Z29" s="1">
-        <v>6150</v>
+        <v>6090</v>
       </c>
       <c r="AA29" s="1">
-        <v>6270</v>
+        <v>6200</v>
       </c>
       <c r="AB29" s="1">
-        <v>6400</v>
+        <v>6310</v>
       </c>
       <c r="AC29" s="1">
-        <v>6530</v>
+        <v>6430</v>
       </c>
       <c r="AD29" s="1">
+        <v>6550</v>
+      </c>
+      <c r="AE29" s="1">
         <v>6660</v>
       </c>
-      <c r="AE29" s="1">
-        <v>6790</v>
-      </c>
       <c r="AF29" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AG29" s="1">
         <v>6900</v>
       </c>
-      <c r="AG29" s="1">
-        <v>6980</v>
-      </c>
       <c r="AH29" s="1">
-        <v>7050</v>
+        <v>6930</v>
       </c>
       <c r="AI29" s="1">
-        <v>7090</v>
+        <v>6930</v>
       </c>
       <c r="AJ29" s="1">
-        <v>7100</v>
+        <v>6850</v>
       </c>
       <c r="AK29" s="1">
-        <v>7100</v>
+        <v>6750</v>
       </c>
       <c r="AL29" s="1">
-        <v>7090</v>
+        <v>6660</v>
       </c>
       <c r="AM29" s="1">
-        <v>7070</v>
+        <v>6540</v>
       </c>
       <c r="AN29" s="1">
-        <v>7000</v>
+        <v>6390</v>
       </c>
       <c r="AO29" s="1">
+        <v>6250</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>6100</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>5970</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>5850</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>5730</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>5630</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>5530</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>5360</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>5290</v>
+      </c>
+      <c r="AY29" s="1">
+        <v>5220</v>
+      </c>
+      <c r="AZ29" s="1">
+        <v>5150</v>
+      </c>
+      <c r="BA29" s="1">
+        <v>5100</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BC29" s="1">
+        <v>5030</v>
+      </c>
+      <c r="BD29" s="1">
+        <v>5040</v>
+      </c>
+      <c r="BE29" s="1">
+        <v>5050</v>
+      </c>
+      <c r="BF29" s="1">
+        <v>5050</v>
+      </c>
+      <c r="BG29" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BH29" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BI29" s="1">
+        <v>5080</v>
+      </c>
+      <c r="BJ29" s="1">
+        <v>5120</v>
+      </c>
+      <c r="BK29" s="1">
+        <v>5160</v>
+      </c>
+      <c r="BL29" s="1">
+        <v>5230</v>
+      </c>
+      <c r="BM29" s="1">
+        <v>5300</v>
+      </c>
+      <c r="BN29" s="1">
+        <v>5390</v>
+      </c>
+      <c r="BO29" s="1">
+        <v>5500</v>
+      </c>
+      <c r="BP29" s="1">
+        <v>5650</v>
+      </c>
+      <c r="BQ29" s="1">
+        <v>5810</v>
+      </c>
+      <c r="BR29" s="1">
+        <v>5990</v>
+      </c>
+      <c r="BS29" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BT29" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BU29" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BV29" s="1">
+        <v>6720</v>
+      </c>
+      <c r="BW29" s="1">
+        <v>6890</v>
+      </c>
+      <c r="BX29" s="1">
+        <v>7080</v>
+      </c>
+      <c r="BY29" s="1">
+        <v>7250</v>
+      </c>
+      <c r="BZ29" s="1">
+        <v>7420</v>
+      </c>
+      <c r="CA29" s="1">
+        <v>7570</v>
+      </c>
+      <c r="CB29" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CC29" s="1">
+        <v>7870</v>
+      </c>
+      <c r="CD29" s="1">
+        <v>7940</v>
+      </c>
+      <c r="CE29" s="1">
+        <v>7960</v>
+      </c>
+      <c r="CF29" s="1">
+        <v>7950</v>
+      </c>
+      <c r="CG29" s="1">
+        <v>7880</v>
+      </c>
+      <c r="CH29" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CI29" s="1">
+        <v>7730</v>
+      </c>
+      <c r="CJ29" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CK29" s="1">
+        <v>7500</v>
+      </c>
+      <c r="CL29" s="1">
+        <v>7390</v>
+      </c>
+      <c r="CM29" s="1">
+        <v>7240</v>
+      </c>
+      <c r="CN29" s="1">
+        <v>7040</v>
+      </c>
+      <c r="CO29" s="1">
         <v>6910</v>
       </c>
-      <c r="AP29" s="1">
-        <v>6800</v>
-      </c>
-      <c r="AQ29" s="1">
-        <v>6690</v>
-      </c>
-      <c r="AR29" s="1">
-        <v>6560</v>
-      </c>
-      <c r="AS29" s="1">
-        <v>6430</v>
-      </c>
-      <c r="AT29" s="1">
-        <v>6300</v>
-      </c>
-      <c r="AU29" s="1">
-        <v>6170</v>
-      </c>
-      <c r="AV29" s="1">
-        <v>6050</v>
-      </c>
-      <c r="AW29" s="1">
-        <v>5940</v>
-      </c>
-      <c r="AX29" s="1">
-        <v>5840</v>
-      </c>
-      <c r="AY29" s="1">
-        <v>5750</v>
-      </c>
-      <c r="AZ29" s="1">
-        <v>5670</v>
-      </c>
-      <c r="BA29" s="1">
-        <v>5610</v>
-      </c>
-      <c r="BB29" s="1">
-        <v>5570</v>
-      </c>
-      <c r="BC29" s="1">
-        <v>5540</v>
-      </c>
-      <c r="BD29" s="1">
-        <v>5520</v>
-      </c>
-      <c r="BE29" s="1">
-        <v>5520</v>
-      </c>
-      <c r="BF29" s="1">
-        <v>5530</v>
-      </c>
-      <c r="BG29" s="1">
-        <v>5550</v>
-      </c>
-      <c r="BH29" s="1">
-        <v>5580</v>
-      </c>
-      <c r="BI29" s="1">
-        <v>5620</v>
-      </c>
-      <c r="BJ29" s="1">
-        <v>5670</v>
-      </c>
-      <c r="BK29" s="1">
-        <v>5730</v>
-      </c>
-      <c r="BL29" s="1">
-        <v>5790</v>
-      </c>
-      <c r="BM29" s="1">
-        <v>5870</v>
-      </c>
-      <c r="BN29" s="1">
-        <v>5960</v>
-      </c>
-      <c r="BO29" s="1">
-        <v>6060</v>
-      </c>
-      <c r="BP29" s="1">
-        <v>6160</v>
-      </c>
-      <c r="BQ29" s="1">
-        <v>6280</v>
-      </c>
-      <c r="BR29" s="1">
-        <v>6400</v>
-      </c>
-      <c r="BS29" s="1">
-        <v>6520</v>
-      </c>
-      <c r="BT29" s="1">
-        <v>6640</v>
-      </c>
-      <c r="BU29" s="1">
-        <v>6760</v>
-      </c>
-      <c r="BV29" s="1">
-        <v>6870</v>
-      </c>
-      <c r="BW29" s="1">
-        <v>7020</v>
-      </c>
-      <c r="BX29" s="1">
-        <v>7170</v>
-      </c>
-      <c r="BY29" s="1">
-        <v>7300</v>
-      </c>
-      <c r="BZ29" s="1">
-        <v>7460</v>
-      </c>
-      <c r="CA29" s="1">
-        <v>7600</v>
-      </c>
-      <c r="CB29" s="1">
-        <v>7770</v>
-      </c>
-      <c r="CC29" s="1">
-        <v>7900</v>
-      </c>
-      <c r="CD29" s="1">
-        <v>7950</v>
-      </c>
-      <c r="CE29" s="1">
-        <v>7950</v>
-      </c>
-      <c r="CF29" s="1">
-        <v>7930</v>
-      </c>
-      <c r="CG29" s="1">
-        <v>7860</v>
-      </c>
-      <c r="CH29" s="1">
-        <v>7790</v>
-      </c>
-      <c r="CI29" s="1">
-        <v>7670</v>
-      </c>
-      <c r="CJ29" s="1">
-        <v>7510</v>
-      </c>
-      <c r="CK29" s="1">
-        <v>7370</v>
-      </c>
-      <c r="CL29" s="1">
-        <v>7250</v>
-      </c>
-      <c r="CM29" s="1">
-        <v>7110</v>
-      </c>
-      <c r="CN29" s="1">
-        <v>6960</v>
-      </c>
-      <c r="CO29" s="1">
-        <v>6820</v>
-      </c>
       <c r="CP29" s="1">
-        <v>6670</v>
+        <v>6740</v>
       </c>
       <c r="CQ29" s="1">
-        <v>6520</v>
+        <v>6590</v>
       </c>
       <c r="CR29" s="1">
-        <v>6350</v>
+        <v>6470</v>
       </c>
       <c r="CS29" s="1">
+        <v>6320</v>
+      </c>
+      <c r="CT29" s="1">
         <v>6210</v>
       </c>
-      <c r="CT29" s="1">
-        <v>6090</v>
-      </c>
       <c r="CU29" s="1">
-        <v>5980</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="30" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C30" s="9">
         <v>45738</v>
@@ -8248,283 +8248,283 @@
         <v>6000</v>
       </c>
       <c r="E30" s="10">
+        <v>5950</v>
+      </c>
+      <c r="F30" s="1">
+        <v>5900</v>
+      </c>
+      <c r="G30" s="1">
+        <v>5860</v>
+      </c>
+      <c r="H30" s="1">
+        <v>5830</v>
+      </c>
+      <c r="I30" s="1">
+        <v>5790</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5750</v>
+      </c>
+      <c r="K30" s="1">
+        <v>5710</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5690</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5670</v>
+      </c>
+      <c r="N30" s="1">
+        <v>5640</v>
+      </c>
+      <c r="O30" s="1">
+        <v>5620</v>
+      </c>
+      <c r="P30" s="1">
+        <v>5610</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>5600</v>
+      </c>
+      <c r="R30" s="1">
+        <v>5600</v>
+      </c>
+      <c r="S30" s="1">
+        <v>5610</v>
+      </c>
+      <c r="T30" s="1">
+        <v>5620</v>
+      </c>
+      <c r="U30" s="1">
+        <v>5630</v>
+      </c>
+      <c r="V30" s="1">
+        <v>5640</v>
+      </c>
+      <c r="W30" s="1">
+        <v>5660</v>
+      </c>
+      <c r="X30" s="1">
+        <v>5680</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>5710</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>5730</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>5760</v>
+      </c>
+      <c r="AB30" s="1">
+        <v>5810</v>
+      </c>
+      <c r="AC30" s="1">
+        <v>5850</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>5870</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>5890</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>5910</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>5910</v>
+      </c>
+      <c r="AH30" s="1">
+        <v>5900</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>5880</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>5850</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>5810</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>5760</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>5690</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>5600</v>
+      </c>
+      <c r="AO30" s="1">
+        <v>5520</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AQ30" s="1">
+        <v>5350</v>
+      </c>
+      <c r="AR30" s="1">
+        <v>5260</v>
+      </c>
+      <c r="AS30" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>5110</v>
+      </c>
+      <c r="AU30" s="1">
+        <v>5050</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>5000</v>
+      </c>
+      <c r="AW30" s="1">
+        <v>4950</v>
+      </c>
+      <c r="AX30" s="1">
+        <v>4910</v>
+      </c>
+      <c r="AY30" s="1">
+        <v>4860</v>
+      </c>
+      <c r="AZ30" s="1">
+        <v>4810</v>
+      </c>
+      <c r="BA30" s="1">
+        <v>4780</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BC30" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BD30" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BE30" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BF30" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BG30" s="1">
+        <v>4780</v>
+      </c>
+      <c r="BH30" s="1">
+        <v>4810</v>
+      </c>
+      <c r="BI30" s="1">
+        <v>4830</v>
+      </c>
+      <c r="BJ30" s="1">
+        <v>4850</v>
+      </c>
+      <c r="BK30" s="1">
+        <v>4900</v>
+      </c>
+      <c r="BL30" s="1">
+        <v>4980</v>
+      </c>
+      <c r="BM30" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BN30" s="1">
+        <v>5140</v>
+      </c>
+      <c r="BO30" s="1">
+        <v>5240</v>
+      </c>
+      <c r="BP30" s="1">
+        <v>5370</v>
+      </c>
+      <c r="BQ30" s="1">
+        <v>5510</v>
+      </c>
+      <c r="BR30" s="1">
+        <v>5650</v>
+      </c>
+      <c r="BS30" s="1">
+        <v>5790</v>
+      </c>
+      <c r="BT30" s="1">
+        <v>5950</v>
+      </c>
+      <c r="BU30" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BV30" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BW30" s="1">
+        <v>6450</v>
+      </c>
+      <c r="BX30" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BY30" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BZ30" s="1">
+        <v>6950</v>
+      </c>
+      <c r="CA30" s="1">
+        <v>7110</v>
+      </c>
+      <c r="CB30" s="1">
+        <v>7260</v>
+      </c>
+      <c r="CC30" s="1">
+        <v>7340</v>
+      </c>
+      <c r="CD30" s="1">
+        <v>7370</v>
+      </c>
+      <c r="CE30" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CF30" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CG30" s="1">
+        <v>7350</v>
+      </c>
+      <c r="CH30" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CI30" s="1">
+        <v>7190</v>
+      </c>
+      <c r="CJ30" s="1">
+        <v>7070</v>
+      </c>
+      <c r="CK30" s="1">
+        <v>6950</v>
+      </c>
+      <c r="CL30" s="1">
+        <v>6850</v>
+      </c>
+      <c r="CM30" s="1">
+        <v>6720</v>
+      </c>
+      <c r="CN30" s="1">
+        <v>6580</v>
+      </c>
+      <c r="CO30" s="1">
+        <v>6440</v>
+      </c>
+      <c r="CP30" s="1">
+        <v>6300</v>
+      </c>
+      <c r="CQ30" s="1">
+        <v>6170</v>
+      </c>
+      <c r="CR30" s="1">
+        <v>6050</v>
+      </c>
+      <c r="CS30" s="1">
         <v>5930</v>
-      </c>
-      <c r="F30" s="1">
-        <v>5890</v>
-      </c>
-      <c r="G30" s="1">
-        <v>5850</v>
-      </c>
-      <c r="H30" s="1">
-        <v>5810</v>
-      </c>
-      <c r="I30" s="1">
-        <v>5780</v>
-      </c>
-      <c r="J30" s="1">
-        <v>5740</v>
-      </c>
-      <c r="K30" s="1">
-        <v>5690</v>
-      </c>
-      <c r="L30" s="1">
-        <v>5650</v>
-      </c>
-      <c r="M30" s="1">
-        <v>5620</v>
-      </c>
-      <c r="N30" s="1">
-        <v>5590</v>
-      </c>
-      <c r="O30" s="1">
-        <v>5580</v>
-      </c>
-      <c r="P30" s="1">
-        <v>5570</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>5570</v>
-      </c>
-      <c r="R30" s="1">
-        <v>5570</v>
-      </c>
-      <c r="S30" s="1">
-        <v>5580</v>
-      </c>
-      <c r="T30" s="1">
-        <v>5590</v>
-      </c>
-      <c r="U30" s="1">
-        <v>5600</v>
-      </c>
-      <c r="V30" s="1">
-        <v>5620</v>
-      </c>
-      <c r="W30" s="1">
-        <v>5640</v>
-      </c>
-      <c r="X30" s="1">
-        <v>5670</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>5720</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>5760</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>5820</v>
-      </c>
-      <c r="AB30" s="1">
-        <v>5870</v>
-      </c>
-      <c r="AC30" s="1">
-        <v>5930</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>5970</v>
-      </c>
-      <c r="AE30" s="1">
-        <v>6010</v>
-      </c>
-      <c r="AF30" s="1">
-        <v>6040</v>
-      </c>
-      <c r="AG30" s="1">
-        <v>6050</v>
-      </c>
-      <c r="AH30" s="1">
-        <v>6040</v>
-      </c>
-      <c r="AI30" s="1">
-        <v>6020</v>
-      </c>
-      <c r="AJ30" s="1">
-        <v>5980</v>
-      </c>
-      <c r="AK30" s="1">
-        <v>5920</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>5850</v>
-      </c>
-      <c r="AM30" s="1">
-        <v>5760</v>
-      </c>
-      <c r="AN30" s="1">
-        <v>5670</v>
-      </c>
-      <c r="AO30" s="1">
-        <v>5570</v>
-      </c>
-      <c r="AP30" s="1">
-        <v>5460</v>
-      </c>
-      <c r="AQ30" s="1">
-        <v>5360</v>
-      </c>
-      <c r="AR30" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AS30" s="1">
-        <v>5160</v>
-      </c>
-      <c r="AT30" s="1">
-        <v>5070</v>
-      </c>
-      <c r="AU30" s="1">
-        <v>4990</v>
-      </c>
-      <c r="AV30" s="1">
-        <v>4920</v>
-      </c>
-      <c r="AW30" s="1">
-        <v>4870</v>
-      </c>
-      <c r="AX30" s="1">
-        <v>4820</v>
-      </c>
-      <c r="AY30" s="1">
-        <v>4770</v>
-      </c>
-      <c r="AZ30" s="1">
-        <v>4740</v>
-      </c>
-      <c r="BA30" s="1">
-        <v>4700</v>
-      </c>
-      <c r="BB30" s="1">
-        <v>4680</v>
-      </c>
-      <c r="BC30" s="1">
-        <v>4660</v>
-      </c>
-      <c r="BD30" s="1">
-        <v>4640</v>
-      </c>
-      <c r="BE30" s="1">
-        <v>4630</v>
-      </c>
-      <c r="BF30" s="1">
-        <v>4630</v>
-      </c>
-      <c r="BG30" s="1">
-        <v>4640</v>
-      </c>
-      <c r="BH30" s="1">
-        <v>4670</v>
-      </c>
-      <c r="BI30" s="1">
-        <v>4710</v>
-      </c>
-      <c r="BJ30" s="1">
-        <v>4750</v>
-      </c>
-      <c r="BK30" s="1">
-        <v>4820</v>
-      </c>
-      <c r="BL30" s="1">
-        <v>4890</v>
-      </c>
-      <c r="BM30" s="1">
-        <v>4970</v>
-      </c>
-      <c r="BN30" s="1">
-        <v>5060</v>
-      </c>
-      <c r="BO30" s="1">
-        <v>5170</v>
-      </c>
-      <c r="BP30" s="1">
-        <v>5290</v>
-      </c>
-      <c r="BQ30" s="1">
-        <v>5430</v>
-      </c>
-      <c r="BR30" s="1">
-        <v>5580</v>
-      </c>
-      <c r="BS30" s="1">
-        <v>5750</v>
-      </c>
-      <c r="BT30" s="1">
-        <v>5940</v>
-      </c>
-      <c r="BU30" s="1">
-        <v>6130</v>
-      </c>
-      <c r="BV30" s="1">
-        <v>6320</v>
-      </c>
-      <c r="BW30" s="1">
-        <v>6510</v>
-      </c>
-      <c r="BX30" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BY30" s="1">
-        <v>6850</v>
-      </c>
-      <c r="BZ30" s="1">
-        <v>6980</v>
-      </c>
-      <c r="CA30" s="1">
-        <v>7100</v>
-      </c>
-      <c r="CB30" s="1">
-        <v>7190</v>
-      </c>
-      <c r="CC30" s="1">
-        <v>7240</v>
-      </c>
-      <c r="CD30" s="1">
-        <v>7260</v>
-      </c>
-      <c r="CE30" s="1">
-        <v>7250</v>
-      </c>
-      <c r="CF30" s="1">
-        <v>7230</v>
-      </c>
-      <c r="CG30" s="1">
-        <v>7200</v>
-      </c>
-      <c r="CH30" s="1">
-        <v>7140</v>
-      </c>
-      <c r="CI30" s="1">
-        <v>7080</v>
-      </c>
-      <c r="CJ30" s="1">
-        <v>6970</v>
-      </c>
-      <c r="CK30" s="1">
-        <v>6830</v>
-      </c>
-      <c r="CL30" s="1">
-        <v>6760</v>
-      </c>
-      <c r="CM30" s="1">
-        <v>6690</v>
-      </c>
-      <c r="CN30" s="1">
-        <v>6570</v>
-      </c>
-      <c r="CO30" s="1">
-        <v>6480</v>
-      </c>
-      <c r="CP30" s="1">
-        <v>6320</v>
-      </c>
-      <c r="CQ30" s="1">
-        <v>6190</v>
-      </c>
-      <c r="CR30" s="1">
-        <v>6070</v>
-      </c>
-      <c r="CS30" s="1">
-        <v>5920</v>
       </c>
       <c r="CT30" s="1">
         <v>5830</v>
@@ -8535,928 +8535,928 @@
     </row>
     <row r="31" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>45730</v>
+        <v>45738</v>
       </c>
       <c r="C31" s="9">
         <v>45739</v>
       </c>
       <c r="D31" s="1">
-        <v>5650</v>
+        <v>5620</v>
       </c>
       <c r="E31" s="1">
+        <v>5570</v>
+      </c>
+      <c r="F31" s="1">
+        <v>5530</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5480</v>
+      </c>
+      <c r="H31" s="1">
+        <v>5440</v>
+      </c>
+      <c r="I31" s="1">
+        <v>5390</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5360</v>
+      </c>
+      <c r="K31" s="1">
+        <v>5330</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5300</v>
+      </c>
+      <c r="M31" s="1">
+        <v>5280</v>
+      </c>
+      <c r="N31" s="1">
+        <v>5260</v>
+      </c>
+      <c r="O31" s="1">
+        <v>5240</v>
+      </c>
+      <c r="P31" s="1">
+        <v>5200</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>5180</v>
+      </c>
+      <c r="R31" s="1">
+        <v>5170</v>
+      </c>
+      <c r="S31" s="1">
+        <v>5160</v>
+      </c>
+      <c r="T31" s="1">
+        <v>5150</v>
+      </c>
+      <c r="U31" s="1">
+        <v>5150</v>
+      </c>
+      <c r="V31" s="1">
+        <v>5150</v>
+      </c>
+      <c r="W31" s="1">
+        <v>5150</v>
+      </c>
+      <c r="X31" s="1">
+        <v>5160</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>5170</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>5190</v>
+      </c>
+      <c r="AB31" s="1">
+        <v>5210</v>
+      </c>
+      <c r="AC31" s="1">
+        <v>5230</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>5270</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>5300</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>5320</v>
+      </c>
+      <c r="AH31" s="1">
+        <v>5340</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>5350</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>5360</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>5330</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>5280</v>
+      </c>
+      <c r="AO31" s="1">
+        <v>5220</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>5160</v>
+      </c>
+      <c r="AQ31" s="1">
+        <v>5070</v>
+      </c>
+      <c r="AR31" s="1">
+        <v>4990</v>
+      </c>
+      <c r="AS31" s="1">
+        <v>4910</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>4840</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>4780</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>4720</v>
+      </c>
+      <c r="AW31" s="1">
+        <v>4670</v>
+      </c>
+      <c r="AX31" s="1">
+        <v>4640</v>
+      </c>
+      <c r="AY31" s="1">
+        <v>4610</v>
+      </c>
+      <c r="AZ31" s="1">
+        <v>4580</v>
+      </c>
+      <c r="BA31" s="1">
+        <v>4560</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>4550</v>
+      </c>
+      <c r="BC31" s="1">
+        <v>4550</v>
+      </c>
+      <c r="BD31" s="1">
+        <v>4550</v>
+      </c>
+      <c r="BE31" s="1">
+        <v>4550</v>
+      </c>
+      <c r="BF31" s="1">
+        <v>4560</v>
+      </c>
+      <c r="BG31" s="1">
+        <v>4570</v>
+      </c>
+      <c r="BH31" s="1">
+        <v>4600</v>
+      </c>
+      <c r="BI31" s="1">
+        <v>4640</v>
+      </c>
+      <c r="BJ31" s="1">
+        <v>4680</v>
+      </c>
+      <c r="BK31" s="1">
+        <v>4740</v>
+      </c>
+      <c r="BL31" s="1">
+        <v>4810</v>
+      </c>
+      <c r="BM31" s="1">
+        <v>4880</v>
+      </c>
+      <c r="BN31" s="1">
+        <v>4960</v>
+      </c>
+      <c r="BO31" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BP31" s="1">
+        <v>5180</v>
+      </c>
+      <c r="BQ31" s="1">
+        <v>5310</v>
+      </c>
+      <c r="BR31" s="1">
+        <v>5440</v>
+      </c>
+      <c r="BS31" s="1">
         <v>5580</v>
       </c>
-      <c r="F31" s="1">
-        <v>5540</v>
-      </c>
-      <c r="G31" s="1">
-        <v>5500</v>
-      </c>
-      <c r="H31" s="1">
-        <v>5460</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5430</v>
-      </c>
-      <c r="J31" s="1">
-        <v>5390</v>
-      </c>
-      <c r="K31" s="1">
-        <v>5360</v>
-      </c>
-      <c r="L31" s="1">
-        <v>5330</v>
-      </c>
-      <c r="M31" s="1">
-        <v>5310</v>
-      </c>
-      <c r="N31" s="1">
-        <v>5300</v>
-      </c>
-      <c r="O31" s="1">
-        <v>5280</v>
-      </c>
-      <c r="P31" s="1">
-        <v>5270</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>5260</v>
-      </c>
-      <c r="R31" s="1">
-        <v>5250</v>
-      </c>
-      <c r="S31" s="1">
-        <v>5250</v>
-      </c>
-      <c r="T31" s="1">
-        <v>5240</v>
-      </c>
-      <c r="U31" s="1">
-        <v>5240</v>
-      </c>
-      <c r="V31" s="1">
-        <v>5240</v>
-      </c>
-      <c r="W31" s="1">
-        <v>5250</v>
-      </c>
-      <c r="X31" s="1">
-        <v>5270</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>5290</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>5320</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>5340</v>
-      </c>
-      <c r="AB31" s="1">
-        <v>5370</v>
-      </c>
-      <c r="AC31" s="1">
-        <v>5380</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>5390</v>
-      </c>
-      <c r="AE31" s="1">
-        <v>5390</v>
-      </c>
-      <c r="AF31" s="1">
-        <v>5380</v>
-      </c>
-      <c r="AG31" s="1">
-        <v>5350</v>
-      </c>
-      <c r="AH31" s="1">
-        <v>5320</v>
-      </c>
-      <c r="AI31" s="1">
-        <v>5270</v>
-      </c>
-      <c r="AJ31" s="1">
-        <v>5210</v>
-      </c>
-      <c r="AK31" s="1">
-        <v>5140</v>
-      </c>
-      <c r="AL31" s="1">
-        <v>5060</v>
-      </c>
-      <c r="AM31" s="1">
-        <v>4970</v>
-      </c>
-      <c r="AN31" s="1">
-        <v>4870</v>
-      </c>
-      <c r="AO31" s="1">
-        <v>4770</v>
-      </c>
-      <c r="AP31" s="1">
-        <v>4660</v>
-      </c>
-      <c r="AQ31" s="1">
-        <v>4550</v>
-      </c>
-      <c r="AR31" s="1">
-        <v>4440</v>
-      </c>
-      <c r="AS31" s="1">
-        <v>4340</v>
-      </c>
-      <c r="AT31" s="1">
-        <v>4250</v>
-      </c>
-      <c r="AU31" s="1">
-        <v>4170</v>
-      </c>
-      <c r="AV31" s="1">
-        <v>4100</v>
-      </c>
-      <c r="AW31" s="1">
-        <v>4050</v>
-      </c>
-      <c r="AX31" s="1">
-        <v>4000</v>
-      </c>
-      <c r="AY31" s="1">
-        <v>3960</v>
-      </c>
-      <c r="AZ31" s="1">
-        <v>3930</v>
-      </c>
-      <c r="BA31" s="1">
-        <v>3910</v>
-      </c>
-      <c r="BB31" s="1">
-        <v>3900</v>
-      </c>
-      <c r="BC31" s="1">
-        <v>3890</v>
-      </c>
-      <c r="BD31" s="1">
-        <v>3890</v>
-      </c>
-      <c r="BE31" s="1">
-        <v>3900</v>
-      </c>
-      <c r="BF31" s="1">
-        <v>3920</v>
-      </c>
-      <c r="BG31" s="1">
-        <v>3950</v>
-      </c>
-      <c r="BH31" s="1">
-        <v>3990</v>
-      </c>
-      <c r="BI31" s="1">
-        <v>4030</v>
-      </c>
-      <c r="BJ31" s="1">
-        <v>4090</v>
-      </c>
-      <c r="BK31" s="1">
-        <v>4160</v>
-      </c>
-      <c r="BL31" s="1">
-        <v>4230</v>
-      </c>
-      <c r="BM31" s="1">
-        <v>4320</v>
-      </c>
-      <c r="BN31" s="1">
-        <v>4420</v>
-      </c>
-      <c r="BO31" s="1">
-        <v>4530</v>
-      </c>
-      <c r="BP31" s="1">
-        <v>4670</v>
-      </c>
-      <c r="BQ31" s="1">
-        <v>4830</v>
-      </c>
-      <c r="BR31" s="1">
-        <v>5000</v>
-      </c>
-      <c r="BS31" s="1">
-        <v>5180</v>
-      </c>
       <c r="BT31" s="1">
-        <v>5380</v>
+        <v>5720</v>
       </c>
       <c r="BU31" s="1">
-        <v>5560</v>
+        <v>5860</v>
       </c>
       <c r="BV31" s="1">
-        <v>5750</v>
+        <v>5990</v>
       </c>
       <c r="BW31" s="1">
-        <v>5910</v>
+        <v>6120</v>
       </c>
       <c r="BX31" s="1">
-        <v>6070</v>
+        <v>6260</v>
       </c>
       <c r="BY31" s="1">
-        <v>6220</v>
+        <v>6380</v>
       </c>
       <c r="BZ31" s="1">
-        <v>6360</v>
+        <v>6510</v>
       </c>
       <c r="CA31" s="1">
-        <v>6490</v>
+        <v>6650</v>
       </c>
       <c r="CB31" s="1">
-        <v>6620</v>
+        <v>6770</v>
       </c>
       <c r="CC31" s="1">
-        <v>6710</v>
+        <v>6850</v>
       </c>
       <c r="CD31" s="1">
-        <v>6770</v>
+        <v>6880</v>
       </c>
       <c r="CE31" s="1">
-        <v>6770</v>
+        <v>6880</v>
       </c>
       <c r="CF31" s="1">
+        <v>6850</v>
+      </c>
+      <c r="CG31" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CH31" s="1">
         <v>6750</v>
       </c>
-      <c r="CG31" s="1">
-        <v>6710</v>
-      </c>
-      <c r="CH31" s="1">
-        <v>6640</v>
-      </c>
       <c r="CI31" s="1">
-        <v>6580</v>
+        <v>6690</v>
       </c>
       <c r="CJ31" s="1">
-        <v>6490</v>
+        <v>6600</v>
       </c>
       <c r="CK31" s="1">
-        <v>6380</v>
+        <v>6520</v>
       </c>
       <c r="CL31" s="1">
-        <v>6330</v>
+        <v>6460</v>
       </c>
       <c r="CM31" s="1">
+        <v>6370</v>
+      </c>
+      <c r="CN31" s="1">
         <v>6260</v>
       </c>
-      <c r="CN31" s="1">
-        <v>6150</v>
-      </c>
       <c r="CO31" s="1">
+        <v>6160</v>
+      </c>
+      <c r="CP31" s="1">
         <v>6060</v>
       </c>
-      <c r="CP31" s="1">
-        <v>5930</v>
-      </c>
       <c r="CQ31" s="1">
-        <v>5820</v>
+        <v>5960</v>
       </c>
       <c r="CR31" s="1">
-        <v>5700</v>
+        <v>5850</v>
       </c>
       <c r="CS31" s="1">
-        <v>5610</v>
+        <v>5740</v>
       </c>
       <c r="CT31" s="1">
-        <v>5490</v>
+        <v>5640</v>
       </c>
       <c r="CU31" s="1">
-        <v>5390</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="32" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="C32" s="9">
         <v>45740</v>
       </c>
       <c r="D32" s="1">
+        <v>5500</v>
+      </c>
+      <c r="E32" s="10">
+        <v>5450</v>
+      </c>
+      <c r="F32" s="1">
+        <v>5420</v>
+      </c>
+      <c r="G32" s="1">
+        <v>5380</v>
+      </c>
+      <c r="H32" s="1">
+        <v>5340</v>
+      </c>
+      <c r="I32" s="1">
+        <v>5310</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5280</v>
+      </c>
+      <c r="K32" s="1">
+        <v>5250</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5220</v>
+      </c>
+      <c r="M32" s="1">
+        <v>5210</v>
+      </c>
+      <c r="N32" s="1">
+        <v>5190</v>
+      </c>
+      <c r="O32" s="1">
+        <v>5170</v>
+      </c>
+      <c r="P32" s="1">
+        <v>5160</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>5150</v>
+      </c>
+      <c r="R32" s="1">
+        <v>5150</v>
+      </c>
+      <c r="S32" s="1">
+        <v>5160</v>
+      </c>
+      <c r="T32" s="1">
+        <v>5190</v>
+      </c>
+      <c r="U32" s="1">
+        <v>5230</v>
+      </c>
+      <c r="V32" s="1">
+        <v>5270</v>
+      </c>
+      <c r="W32" s="1">
+        <v>5320</v>
+      </c>
+      <c r="X32" s="1">
         <v>5390</v>
       </c>
-      <c r="E32" s="10">
-        <v>5350</v>
-      </c>
-      <c r="F32" s="1">
-        <v>5280</v>
-      </c>
-      <c r="G32" s="1">
-        <v>5230</v>
-      </c>
-      <c r="H32" s="1">
-        <v>5210</v>
-      </c>
-      <c r="I32" s="1">
-        <v>5190</v>
-      </c>
-      <c r="J32" s="1">
-        <v>5160</v>
-      </c>
-      <c r="K32" s="1">
-        <v>5120</v>
-      </c>
-      <c r="L32" s="1">
-        <v>5080</v>
-      </c>
-      <c r="M32" s="1">
-        <v>5050</v>
-      </c>
-      <c r="N32" s="1">
-        <v>5030</v>
-      </c>
-      <c r="O32" s="1">
-        <v>5040</v>
-      </c>
-      <c r="P32" s="1">
-        <v>5050</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>5070</v>
-      </c>
-      <c r="R32" s="1">
-        <v>5100</v>
-      </c>
-      <c r="S32" s="1">
-        <v>5120</v>
-      </c>
-      <c r="T32" s="1">
-        <v>5130</v>
-      </c>
-      <c r="U32" s="1">
-        <v>5150</v>
-      </c>
-      <c r="V32" s="1">
-        <v>5190</v>
-      </c>
-      <c r="W32" s="1">
-        <v>5240</v>
-      </c>
-      <c r="X32" s="1">
-        <v>5310</v>
-      </c>
       <c r="Y32" s="1">
-        <v>5420</v>
+        <v>5470</v>
       </c>
       <c r="Z32" s="1">
-        <v>5550</v>
+        <v>5580</v>
       </c>
       <c r="AA32" s="1">
-        <v>5720</v>
+        <v>5710</v>
       </c>
       <c r="AB32" s="1">
-        <v>5900</v>
+        <v>5860</v>
       </c>
       <c r="AC32" s="1">
-        <v>6090</v>
+        <v>6020</v>
       </c>
       <c r="AD32" s="1">
-        <v>6280</v>
+        <v>6160</v>
       </c>
       <c r="AE32" s="1">
+        <v>6330</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>6480</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>6630</v>
+      </c>
+      <c r="AH32" s="1">
+        <v>6770</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>7050</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>7050</v>
+      </c>
+      <c r="AN32" s="1">
+        <v>7030</v>
+      </c>
+      <c r="AO32" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AQ32" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AR32" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AS32" s="1">
+        <v>6830</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AU32" s="1">
+        <v>6690</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>6630</v>
+      </c>
+      <c r="AW32" s="1">
+        <v>6580</v>
+      </c>
+      <c r="AX32" s="1">
+        <v>6540</v>
+      </c>
+      <c r="AY32" s="1">
+        <v>6500</v>
+      </c>
+      <c r="AZ32" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BA32" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BC32" s="1">
+        <v>6400</v>
+      </c>
+      <c r="BD32" s="1">
+        <v>6390</v>
+      </c>
+      <c r="BE32" s="1">
+        <v>6390</v>
+      </c>
+      <c r="BF32" s="1">
+        <v>6390</v>
+      </c>
+      <c r="BG32" s="1">
+        <v>6400</v>
+      </c>
+      <c r="BH32" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BI32" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BJ32" s="1">
         <v>6460</v>
       </c>
-      <c r="AF32" s="1">
-        <v>6620</v>
-      </c>
-      <c r="AG32" s="1">
-        <v>6750</v>
-      </c>
-      <c r="AH32" s="1">
-        <v>6840</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>6890</v>
-      </c>
-      <c r="AJ32" s="1">
+      <c r="BK32" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BL32" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BM32" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BN32" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BO32" s="1">
+        <v>6580</v>
+      </c>
+      <c r="BP32" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BQ32" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BR32" s="1">
+        <v>6760</v>
+      </c>
+      <c r="BS32" s="1">
+        <v>6860</v>
+      </c>
+      <c r="BT32" s="1">
+        <v>6960</v>
+      </c>
+      <c r="BU32" s="1">
+        <v>7080</v>
+      </c>
+      <c r="BV32" s="1">
+        <v>7190</v>
+      </c>
+      <c r="BW32" s="1">
+        <v>7300</v>
+      </c>
+      <c r="BX32" s="1">
+        <v>7410</v>
+      </c>
+      <c r="BY32" s="1">
+        <v>7520</v>
+      </c>
+      <c r="BZ32" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CA32" s="1">
+        <v>7710</v>
+      </c>
+      <c r="CB32" s="1">
+        <v>7790</v>
+      </c>
+      <c r="CC32" s="1">
+        <v>7850</v>
+      </c>
+      <c r="CD32" s="1">
+        <v>7850</v>
+      </c>
+      <c r="CE32" s="1">
+        <v>7840</v>
+      </c>
+      <c r="CF32" s="1">
+        <v>7820</v>
+      </c>
+      <c r="CG32" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CH32" s="1">
+        <v>7770</v>
+      </c>
+      <c r="CI32" s="1">
+        <v>7710</v>
+      </c>
+      <c r="CJ32" s="1">
+        <v>7580</v>
+      </c>
+      <c r="CK32" s="1">
+        <v>7460</v>
+      </c>
+      <c r="CL32" s="1">
+        <v>7350</v>
+      </c>
+      <c r="CM32" s="1">
+        <v>7220</v>
+      </c>
+      <c r="CN32" s="1">
+        <v>7040</v>
+      </c>
+      <c r="CO32" s="1">
         <v>6910</v>
       </c>
-      <c r="AK32" s="1">
-        <v>6890</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>6840</v>
-      </c>
-      <c r="AM32" s="1">
-        <v>6760</v>
-      </c>
-      <c r="AN32" s="1">
-        <v>6660</v>
-      </c>
-      <c r="AO32" s="1">
-        <v>6550</v>
-      </c>
-      <c r="AP32" s="1">
-        <v>6430</v>
-      </c>
-      <c r="AQ32" s="1">
-        <v>6310</v>
-      </c>
-      <c r="AR32" s="1">
-        <v>6180</v>
-      </c>
-      <c r="AS32" s="1">
-        <v>6060</v>
-      </c>
-      <c r="AT32" s="1">
-        <v>5950</v>
-      </c>
-      <c r="AU32" s="1">
-        <v>5840</v>
-      </c>
-      <c r="AV32" s="1">
-        <v>5740</v>
-      </c>
-      <c r="AW32" s="1">
-        <v>5660</v>
-      </c>
-      <c r="AX32" s="1">
-        <v>5580</v>
-      </c>
-      <c r="AY32" s="1">
-        <v>5520</v>
-      </c>
-      <c r="AZ32" s="1">
-        <v>5470</v>
-      </c>
-      <c r="BA32" s="1">
-        <v>5430</v>
-      </c>
-      <c r="BB32" s="1">
-        <v>5400</v>
-      </c>
-      <c r="BC32" s="1">
-        <v>5390</v>
-      </c>
-      <c r="BD32" s="1">
-        <v>5390</v>
-      </c>
-      <c r="BE32" s="1">
-        <v>5400</v>
-      </c>
-      <c r="BF32" s="1">
-        <v>5410</v>
-      </c>
-      <c r="BG32" s="1">
-        <v>5440</v>
-      </c>
-      <c r="BH32" s="1">
-        <v>5470</v>
-      </c>
-      <c r="BI32" s="1">
-        <v>5510</v>
-      </c>
-      <c r="BJ32" s="1">
-        <v>5550</v>
-      </c>
-      <c r="BK32" s="1">
-        <v>5610</v>
-      </c>
-      <c r="BL32" s="1">
-        <v>5660</v>
-      </c>
-      <c r="BM32" s="1">
-        <v>5730</v>
-      </c>
-      <c r="BN32" s="1">
-        <v>5810</v>
-      </c>
-      <c r="BO32" s="1">
-        <v>5910</v>
-      </c>
-      <c r="BP32" s="1">
-        <v>6010</v>
-      </c>
-      <c r="BQ32" s="1">
-        <v>6130</v>
-      </c>
-      <c r="BR32" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BS32" s="1">
-        <v>6390</v>
-      </c>
-      <c r="BT32" s="1">
-        <v>6530</v>
-      </c>
-      <c r="BU32" s="1">
-        <v>6660</v>
-      </c>
-      <c r="BV32" s="1">
-        <v>6790</v>
-      </c>
-      <c r="BW32" s="1">
-        <v>6920</v>
-      </c>
-      <c r="BX32" s="1">
-        <v>7040</v>
-      </c>
-      <c r="BY32" s="1">
-        <v>7170</v>
-      </c>
-      <c r="BZ32" s="1">
-        <v>7290</v>
-      </c>
-      <c r="CA32" s="1">
-        <v>7420</v>
-      </c>
-      <c r="CB32" s="1">
-        <v>7530</v>
-      </c>
-      <c r="CC32" s="1">
-        <v>7620</v>
-      </c>
-      <c r="CD32" s="1">
-        <v>7680</v>
-      </c>
-      <c r="CE32" s="1">
-        <v>7700</v>
-      </c>
-      <c r="CF32" s="1">
-        <v>7690</v>
-      </c>
-      <c r="CG32" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CH32" s="1">
-        <v>7590</v>
-      </c>
-      <c r="CI32" s="1">
-        <v>7510</v>
-      </c>
-      <c r="CJ32" s="1">
-        <v>7380</v>
-      </c>
-      <c r="CK32" s="1">
-        <v>7210</v>
-      </c>
-      <c r="CL32" s="1">
-        <v>7100</v>
-      </c>
-      <c r="CM32" s="1">
-        <v>6970</v>
-      </c>
-      <c r="CN32" s="1">
-        <v>6820</v>
-      </c>
-      <c r="CO32" s="1">
-        <v>6700</v>
-      </c>
       <c r="CP32" s="1">
-        <v>6520</v>
+        <v>6740</v>
       </c>
       <c r="CQ32" s="1">
-        <v>6360</v>
+        <v>6570</v>
       </c>
       <c r="CR32" s="1">
-        <v>6170</v>
+        <v>6400</v>
       </c>
       <c r="CS32" s="1">
-        <v>5980</v>
+        <v>6240</v>
       </c>
       <c r="CT32" s="1">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="CU32" s="1">
-        <v>5790</v>
+        <v>5970</v>
       </c>
     </row>
     <row r="33" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="C33" s="9">
         <v>45741</v>
       </c>
       <c r="D33" s="1">
-        <v>5890</v>
+        <v>5950</v>
       </c>
       <c r="E33" s="1">
+        <v>5900</v>
+      </c>
+      <c r="F33" s="1">
         <v>5860</v>
       </c>
-      <c r="F33" s="1">
-        <v>5780</v>
-      </c>
       <c r="G33" s="1">
-        <v>5720</v>
+        <v>5810</v>
       </c>
       <c r="H33" s="1">
+        <v>5750</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5710</v>
+      </c>
+      <c r="J33" s="1">
         <v>5680</v>
       </c>
-      <c r="I33" s="1">
+      <c r="K33" s="1">
         <v>5640</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
+        <v>5610</v>
+      </c>
+      <c r="M33" s="1">
         <v>5600</v>
       </c>
-      <c r="K33" s="1">
+      <c r="N33" s="1">
+        <v>5590</v>
+      </c>
+      <c r="O33" s="1">
+        <v>5580</v>
+      </c>
+      <c r="P33" s="1">
+        <v>5570</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>5550</v>
+      </c>
+      <c r="R33" s="1">
+        <v>5550</v>
+      </c>
+      <c r="S33" s="1">
         <v>5560</v>
       </c>
-      <c r="L33" s="1">
-        <v>5520</v>
-      </c>
-      <c r="M33" s="1">
-        <v>5500</v>
-      </c>
-      <c r="N33" s="1">
-        <v>5480</v>
-      </c>
-      <c r="O33" s="1">
-        <v>5480</v>
-      </c>
-      <c r="P33" s="1">
-        <v>5490</v>
-      </c>
-      <c r="Q33" s="1">
-        <v>5500</v>
-      </c>
-      <c r="R33" s="1">
-        <v>5510</v>
-      </c>
-      <c r="S33" s="1">
-        <v>5520</v>
-      </c>
       <c r="T33" s="1">
-        <v>5530</v>
+        <v>5580</v>
       </c>
       <c r="U33" s="1">
-        <v>5540</v>
+        <v>5600</v>
       </c>
       <c r="V33" s="1">
-        <v>5570</v>
+        <v>5630</v>
       </c>
       <c r="W33" s="1">
-        <v>5610</v>
+        <v>5680</v>
       </c>
       <c r="X33" s="1">
-        <v>5670</v>
+        <v>5740</v>
       </c>
       <c r="Y33" s="1">
-        <v>5750</v>
+        <v>5820</v>
       </c>
       <c r="Z33" s="1">
-        <v>5850</v>
+        <v>5920</v>
       </c>
       <c r="AA33" s="1">
-        <v>5960</v>
+        <v>6030</v>
       </c>
       <c r="AB33" s="1">
-        <v>6090</v>
+        <v>6150</v>
       </c>
       <c r="AC33" s="1">
-        <v>6220</v>
+        <v>6280</v>
       </c>
       <c r="AD33" s="1">
+        <v>6400</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>6520</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>6640</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AH33" s="1">
+        <v>6820</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>6990</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AO33" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AQ33" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AR33" s="1">
+        <v>6720</v>
+      </c>
+      <c r="AS33" s="1">
+        <v>6640</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>6560</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>6490</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AW33" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AX33" s="1">
+        <v>6360</v>
+      </c>
+      <c r="AY33" s="1">
         <v>6340</v>
       </c>
-      <c r="AE33" s="1">
-        <v>6450</v>
-      </c>
-      <c r="AF33" s="1">
-        <v>6540</v>
-      </c>
-      <c r="AG33" s="1">
-        <v>6620</v>
-      </c>
-      <c r="AH33" s="1">
-        <v>6660</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>6690</v>
-      </c>
-      <c r="AJ33" s="1">
-        <v>6680</v>
-      </c>
-      <c r="AK33" s="1">
+      <c r="AZ33" s="1">
+        <v>6330</v>
+      </c>
+      <c r="BA33" s="1">
+        <v>6320</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BC33" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BD33" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BE33" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BF33" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BG33" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BH33" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BI33" s="1">
+        <v>6330</v>
+      </c>
+      <c r="BJ33" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BK33" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BL33" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BM33" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BN33" s="1">
+        <v>6480</v>
+      </c>
+      <c r="BO33" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BP33" s="1">
+        <v>6580</v>
+      </c>
+      <c r="BQ33" s="1">
         <v>6650</v>
       </c>
-      <c r="AL33" s="1">
-        <v>6600</v>
-      </c>
-      <c r="AM33" s="1">
-        <v>6530</v>
-      </c>
-      <c r="AN33" s="1">
-        <v>6440</v>
-      </c>
-      <c r="AO33" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AP33" s="1">
-        <v>6220</v>
-      </c>
-      <c r="AQ33" s="1">
-        <v>6090</v>
-      </c>
-      <c r="AR33" s="1">
-        <v>5970</v>
-      </c>
-      <c r="AS33" s="1">
-        <v>5840</v>
-      </c>
-      <c r="AT33" s="1">
-        <v>5730</v>
-      </c>
-      <c r="AU33" s="1">
-        <v>5620</v>
-      </c>
-      <c r="AV33" s="1">
-        <v>5530</v>
-      </c>
-      <c r="AW33" s="1">
-        <v>5450</v>
-      </c>
-      <c r="AX33" s="1">
-        <v>5380</v>
-      </c>
-      <c r="AY33" s="1">
-        <v>5330</v>
-      </c>
-      <c r="AZ33" s="1">
-        <v>5290</v>
-      </c>
-      <c r="BA33" s="1">
-        <v>5260</v>
-      </c>
-      <c r="BB33" s="1">
-        <v>5240</v>
-      </c>
-      <c r="BC33" s="1">
-        <v>5230</v>
-      </c>
-      <c r="BD33" s="1">
-        <v>5230</v>
-      </c>
-      <c r="BE33" s="1">
-        <v>5240</v>
-      </c>
-      <c r="BF33" s="1">
-        <v>5250</v>
-      </c>
-      <c r="BG33" s="1">
-        <v>5280</v>
-      </c>
-      <c r="BH33" s="1">
-        <v>5320</v>
-      </c>
-      <c r="BI33" s="1">
-        <v>5370</v>
-      </c>
-      <c r="BJ33" s="1">
-        <v>5420</v>
-      </c>
-      <c r="BK33" s="1">
-        <v>5480</v>
-      </c>
-      <c r="BL33" s="1">
-        <v>5550</v>
-      </c>
-      <c r="BM33" s="1">
-        <v>5620</v>
-      </c>
-      <c r="BN33" s="1">
-        <v>5700</v>
-      </c>
-      <c r="BO33" s="1">
-        <v>5780</v>
-      </c>
-      <c r="BP33" s="1">
-        <v>5870</v>
-      </c>
-      <c r="BQ33" s="1">
-        <v>5970</v>
-      </c>
       <c r="BR33" s="1">
-        <v>6080</v>
+        <v>6730</v>
       </c>
       <c r="BS33" s="1">
-        <v>6200</v>
+        <v>6840</v>
       </c>
       <c r="BT33" s="1">
-        <v>6320</v>
+        <v>6950</v>
       </c>
       <c r="BU33" s="1">
-        <v>6460</v>
+        <v>7070</v>
       </c>
       <c r="BV33" s="1">
-        <v>6600</v>
+        <v>7200</v>
       </c>
       <c r="BW33" s="1">
-        <v>6730</v>
+        <v>7320</v>
       </c>
       <c r="BX33" s="1">
-        <v>6870</v>
+        <v>7420</v>
       </c>
       <c r="BY33" s="1">
-        <v>7010</v>
+        <v>7520</v>
       </c>
       <c r="BZ33" s="1">
-        <v>7150</v>
+        <v>7600</v>
       </c>
       <c r="CA33" s="1">
-        <v>7280</v>
+        <v>7670</v>
       </c>
       <c r="CB33" s="1">
-        <v>7400</v>
+        <v>7730</v>
       </c>
       <c r="CC33" s="1">
-        <v>7480</v>
+        <v>7750</v>
       </c>
       <c r="CD33" s="1">
-        <v>7520</v>
+        <v>7750</v>
       </c>
       <c r="CE33" s="1">
-        <v>7520</v>
+        <v>7730</v>
       </c>
       <c r="CF33" s="1">
-        <v>7480</v>
+        <v>7700</v>
       </c>
       <c r="CG33" s="1">
-        <v>7440</v>
+        <v>7670</v>
       </c>
       <c r="CH33" s="1">
-        <v>7380</v>
+        <v>7640</v>
       </c>
       <c r="CI33" s="1">
-        <v>7340</v>
+        <v>7570</v>
       </c>
       <c r="CJ33" s="1">
-        <v>7260</v>
+        <v>7470</v>
       </c>
       <c r="CK33" s="1">
-        <v>7150</v>
+        <v>7350</v>
       </c>
       <c r="CL33" s="1">
-        <v>7070</v>
+        <v>7250</v>
       </c>
       <c r="CM33" s="1">
+        <v>7120</v>
+      </c>
+      <c r="CN33" s="1">
         <v>6940</v>
       </c>
-      <c r="CN33" s="1">
-        <v>6760</v>
-      </c>
       <c r="CO33" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CP33" s="1">
         <v>6630</v>
       </c>
-      <c r="CP33" s="1">
+      <c r="CQ33" s="1">
         <v>6470</v>
       </c>
-      <c r="CQ33" s="1">
-        <v>6330</v>
-      </c>
       <c r="CR33" s="1">
-        <v>6130</v>
+        <v>6280</v>
       </c>
       <c r="CS33" s="1">
-        <v>5970</v>
+        <v>6120</v>
       </c>
       <c r="CT33" s="1">
+        <v>5990</v>
+      </c>
+      <c r="CU33" s="1">
         <v>5880</v>
-      </c>
-      <c r="CU33" s="1">
-        <v>5770</v>
       </c>
     </row>
     <row r="34" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B34" s="8">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="C34" s="9">
         <v>45742</v>
       </c>
       <c r="D34" s="1">
-        <v>5900</v>
+        <v>5850</v>
       </c>
       <c r="E34" s="1">
-        <v>5870</v>
+        <v>5800</v>
       </c>
       <c r="F34" s="1">
-        <v>5810</v>
+        <v>5750</v>
       </c>
       <c r="G34" s="1">
-        <v>5750</v>
+        <v>5710</v>
       </c>
       <c r="H34" s="1">
-        <v>5710</v>
+        <v>5680</v>
       </c>
       <c r="I34" s="1">
-        <v>5680</v>
+        <v>5640</v>
       </c>
       <c r="J34" s="1">
-        <v>5640</v>
+        <v>5620</v>
       </c>
       <c r="K34" s="1">
-        <v>5600</v>
+        <v>5590</v>
       </c>
       <c r="L34" s="1">
-        <v>5570</v>
+        <v>5560</v>
       </c>
       <c r="M34" s="1">
-        <v>5540</v>
+        <v>5550</v>
       </c>
       <c r="N34" s="1">
         <v>5530</v>
@@ -9465,226 +9465,226 @@
         <v>5530</v>
       </c>
       <c r="P34" s="1">
-        <v>5540</v>
+        <v>5520</v>
       </c>
       <c r="Q34" s="1">
-        <v>5550</v>
+        <v>5510</v>
       </c>
       <c r="R34" s="1">
-        <v>5550</v>
+        <v>5500</v>
       </c>
       <c r="S34" s="1">
-        <v>5560</v>
+        <v>5500</v>
       </c>
       <c r="T34" s="1">
+        <v>5510</v>
+      </c>
+      <c r="U34" s="1">
+        <v>5530</v>
+      </c>
+      <c r="V34" s="1">
         <v>5570</v>
       </c>
-      <c r="U34" s="1">
-        <v>5580</v>
-      </c>
-      <c r="V34" s="1">
-        <v>5610</v>
-      </c>
       <c r="W34" s="1">
-        <v>5650</v>
+        <v>5620</v>
       </c>
       <c r="X34" s="1">
-        <v>5720</v>
+        <v>5690</v>
       </c>
       <c r="Y34" s="1">
-        <v>5800</v>
+        <v>5770</v>
       </c>
       <c r="Z34" s="1">
-        <v>5910</v>
+        <v>5870</v>
       </c>
       <c r="AA34" s="1">
-        <v>6030</v>
+        <v>5980</v>
       </c>
       <c r="AB34" s="1">
-        <v>6170</v>
+        <v>6110</v>
       </c>
       <c r="AC34" s="1">
+        <v>6230</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>6350</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>6470</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>6590</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>6690</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>6770</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>6820</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>6750</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>6670</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>6590</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>6380</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AX34" s="1">
         <v>6300</v>
       </c>
-      <c r="AD34" s="1">
-        <v>6430</v>
-      </c>
-      <c r="AE34" s="1">
-        <v>6550</v>
-      </c>
-      <c r="AF34" s="1">
-        <v>6650</v>
-      </c>
-      <c r="AG34" s="1">
-        <v>6730</v>
-      </c>
-      <c r="AH34" s="1">
-        <v>6780</v>
-      </c>
-      <c r="AI34" s="1">
-        <v>6810</v>
-      </c>
-      <c r="AJ34" s="1">
-        <v>6800</v>
-      </c>
-      <c r="AK34" s="1">
-        <v>6770</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>6720</v>
-      </c>
-      <c r="AM34" s="1">
-        <v>6650</v>
-      </c>
-      <c r="AN34" s="1">
-        <v>6560</v>
-      </c>
-      <c r="AO34" s="1">
-        <v>6450</v>
-      </c>
-      <c r="AP34" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AQ34" s="1">
-        <v>6230</v>
-      </c>
-      <c r="AR34" s="1">
-        <v>6110</v>
-      </c>
-      <c r="AS34" s="1">
-        <v>6000</v>
-      </c>
-      <c r="AT34" s="1">
-        <v>5900</v>
-      </c>
-      <c r="AU34" s="1">
-        <v>5810</v>
-      </c>
-      <c r="AV34" s="1">
-        <v>5720</v>
-      </c>
-      <c r="AW34" s="1">
-        <v>5650</v>
-      </c>
-      <c r="AX34" s="1">
-        <v>5590</v>
-      </c>
       <c r="AY34" s="1">
-        <v>5540</v>
+        <v>6280</v>
       </c>
       <c r="AZ34" s="1">
-        <v>5500</v>
+        <v>6270</v>
       </c>
       <c r="BA34" s="1">
-        <v>5460</v>
+        <v>6260</v>
       </c>
       <c r="BB34" s="1">
-        <v>5440</v>
+        <v>6260</v>
       </c>
       <c r="BC34" s="1">
-        <v>5420</v>
+        <v>6260</v>
       </c>
       <c r="BD34" s="1">
-        <v>5410</v>
+        <v>6250</v>
       </c>
       <c r="BE34" s="1">
-        <v>5410</v>
+        <v>6250</v>
       </c>
       <c r="BF34" s="1">
-        <v>5410</v>
+        <v>6250</v>
       </c>
       <c r="BG34" s="1">
-        <v>5430</v>
+        <v>6250</v>
       </c>
       <c r="BH34" s="1">
-        <v>5450</v>
+        <v>6260</v>
       </c>
       <c r="BI34" s="1">
-        <v>5490</v>
+        <v>6280</v>
       </c>
       <c r="BJ34" s="1">
-        <v>5530</v>
+        <v>6300</v>
       </c>
       <c r="BK34" s="1">
-        <v>5570</v>
+        <v>6330</v>
       </c>
       <c r="BL34" s="1">
-        <v>5630</v>
+        <v>6370</v>
       </c>
       <c r="BM34" s="1">
-        <v>5690</v>
+        <v>6400</v>
       </c>
       <c r="BN34" s="1">
-        <v>5770</v>
+        <v>6440</v>
       </c>
       <c r="BO34" s="1">
-        <v>5860</v>
+        <v>6490</v>
       </c>
       <c r="BP34" s="1">
-        <v>5960</v>
+        <v>6540</v>
       </c>
       <c r="BQ34" s="1">
-        <v>6070</v>
+        <v>6610</v>
       </c>
       <c r="BR34" s="1">
-        <v>6200</v>
+        <v>6690</v>
       </c>
       <c r="BS34" s="1">
-        <v>6340</v>
+        <v>6790</v>
       </c>
       <c r="BT34" s="1">
-        <v>6480</v>
+        <v>6900</v>
       </c>
       <c r="BU34" s="1">
-        <v>6610</v>
+        <v>7020</v>
       </c>
       <c r="BV34" s="1">
-        <v>6740</v>
+        <v>7150</v>
       </c>
       <c r="BW34" s="1">
-        <v>6870</v>
+        <v>7260</v>
       </c>
       <c r="BX34" s="1">
-        <v>6990</v>
+        <v>7370</v>
       </c>
       <c r="BY34" s="1">
-        <v>7110</v>
+        <v>7470</v>
       </c>
       <c r="BZ34" s="1">
-        <v>7240</v>
+        <v>7550</v>
       </c>
       <c r="CA34" s="1">
-        <v>7370</v>
+        <v>7630</v>
       </c>
       <c r="CB34" s="1">
-        <v>7490</v>
+        <v>7680</v>
       </c>
       <c r="CC34" s="1">
+        <v>7700</v>
+      </c>
+      <c r="CD34" s="1">
+        <v>7700</v>
+      </c>
+      <c r="CE34" s="1">
+        <v>7680</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CG34" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CH34" s="1">
         <v>7580</v>
       </c>
-      <c r="CD34" s="1">
-        <v>7630</v>
-      </c>
-      <c r="CE34" s="1">
-        <v>7630</v>
-      </c>
-      <c r="CF34" s="1">
-        <v>7610</v>
-      </c>
-      <c r="CG34" s="1">
-        <v>7570</v>
-      </c>
-      <c r="CH34" s="1">
-        <v>7510</v>
-      </c>
       <c r="CI34" s="1">
-        <v>7460</v>
+        <v>7520</v>
       </c>
       <c r="CJ34" s="1">
-        <v>7380</v>
+        <v>7420</v>
       </c>
       <c r="CK34" s="1">
-        <v>7260</v>
+        <v>7300</v>
       </c>
       <c r="CL34" s="1">
         <v>7170</v>
@@ -9693,445 +9693,1213 @@
         <v>7030</v>
       </c>
       <c r="CN34" s="1">
-        <v>6860</v>
+        <v>6880</v>
       </c>
       <c r="CO34" s="1">
         <v>6740</v>
       </c>
       <c r="CP34" s="1">
-        <v>6580</v>
+        <v>6570</v>
       </c>
       <c r="CQ34" s="1">
-        <v>6410</v>
+        <v>6400</v>
       </c>
       <c r="CR34" s="1">
-        <v>6190</v>
+        <v>6200</v>
       </c>
       <c r="CS34" s="1">
-        <v>6010</v>
+        <v>6050</v>
       </c>
       <c r="CT34" s="1">
         <v>5930</v>
       </c>
       <c r="CU34" s="1">
-        <v>5820</v>
+        <v>5880</v>
       </c>
     </row>
     <row r="35" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="8">
+        <v>45736</v>
+      </c>
       <c r="C35" s="9">
         <v>45743</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="1"/>
-      <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
-      <c r="BZ35" s="1"/>
-      <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-      <c r="CI35" s="1"/>
-      <c r="CJ35" s="1"/>
-      <c r="CK35" s="1"/>
-      <c r="CL35" s="1"/>
-      <c r="CM35" s="1"/>
-      <c r="CN35" s="1"/>
-      <c r="CO35" s="1"/>
-      <c r="CP35" s="1"/>
-      <c r="CQ35" s="1"/>
-      <c r="CR35" s="1"/>
-      <c r="CS35" s="1"/>
-      <c r="CT35" s="1"/>
-      <c r="CU35" s="1"/>
+      <c r="D35" s="1">
+        <v>5870</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5840</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5790</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5750</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5710</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5680</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5650</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5630</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5610</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5590</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5570</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5560</v>
+      </c>
+      <c r="P35" s="1">
+        <v>5550</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5550</v>
+      </c>
+      <c r="R35" s="1">
+        <v>5560</v>
+      </c>
+      <c r="S35" s="1">
+        <v>5580</v>
+      </c>
+      <c r="T35" s="1">
+        <v>5620</v>
+      </c>
+      <c r="U35" s="1">
+        <v>5660</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5690</v>
+      </c>
+      <c r="W35" s="1">
+        <v>5730</v>
+      </c>
+      <c r="X35" s="1">
+        <v>5790</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>5870</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>5970</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>6080</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>6200</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>6330</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>6450</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>6570</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>6690</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>6790</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>7030</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>7050</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>7010</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>6770</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>6690</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>6620</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>6560</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>6470</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>6410</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>6400</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BH35" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>6400</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>6450</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>6480</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>6560</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>6600</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>6660</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>6730</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>6900</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>7010</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>7120</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>7230</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>7340</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>7440</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>7530</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>7690</v>
+      </c>
+      <c r="CB35" s="1">
+        <v>7760</v>
+      </c>
+      <c r="CC35" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CD35" s="1">
+        <v>7820</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>7770</v>
+      </c>
+      <c r="CG35" s="1">
+        <v>7730</v>
+      </c>
+      <c r="CH35" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CI35" s="1">
+        <v>7590</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>7470</v>
+      </c>
+      <c r="CK35" s="1">
+        <v>7330</v>
+      </c>
+      <c r="CL35" s="1">
+        <v>7220</v>
+      </c>
+      <c r="CM35" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>6930</v>
+      </c>
+      <c r="CO35" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CP35" s="1">
+        <v>6630</v>
+      </c>
+      <c r="CQ35" s="1">
+        <v>6480</v>
+      </c>
+      <c r="CR35" s="1">
+        <v>6300</v>
+      </c>
+      <c r="CS35" s="1">
+        <v>6160</v>
+      </c>
+      <c r="CT35" s="1">
+        <v>6030</v>
+      </c>
+      <c r="CU35" s="1">
+        <v>5950</v>
+      </c>
       <c r="CV35" s="13"/>
       <c r="CW35" s="13"/>
       <c r="CX35" s="13"/>
       <c r="CY35" s="13"/>
     </row>
     <row r="36" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="8">
+        <v>45736</v>
+      </c>
       <c r="C36" s="9">
         <v>45744</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
-      <c r="CT36" s="1"/>
-      <c r="CU36" s="1"/>
+      <c r="D36" s="1">
+        <v>5940</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5890</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5850</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5800</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5750</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5720</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5700</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5680</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5660</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5650</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5640</v>
+      </c>
+      <c r="O36" s="1">
+        <v>5630</v>
+      </c>
+      <c r="P36" s="1">
+        <v>5620</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5610</v>
+      </c>
+      <c r="R36" s="1">
+        <v>5610</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5620</v>
+      </c>
+      <c r="T36" s="1">
+        <v>5630</v>
+      </c>
+      <c r="U36" s="1">
+        <v>5650</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5680</v>
+      </c>
+      <c r="W36" s="1">
+        <v>5730</v>
+      </c>
+      <c r="X36" s="1">
+        <v>5780</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>5860</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>5950</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>6050</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>6160</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>6280</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>6500</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>6610</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>6700</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>6780</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>6810</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>6670</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>6590</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>6520</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>6460</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>6410</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>6370</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BE36" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BH36" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BJ36" s="1">
+        <v>6320</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BN36" s="1">
+        <v>6460</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>6560</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BS36" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>6910</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>7020</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>7130</v>
+      </c>
+      <c r="BW36" s="1">
+        <v>7240</v>
+      </c>
+      <c r="BX36" s="1">
+        <v>7340</v>
+      </c>
+      <c r="BY36" s="1">
+        <v>7430</v>
+      </c>
+      <c r="BZ36" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CA36" s="1">
+        <v>7590</v>
+      </c>
+      <c r="CB36" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CC36" s="1">
+        <v>7700</v>
+      </c>
+      <c r="CD36" s="1">
+        <v>7700</v>
+      </c>
+      <c r="CE36" s="1">
+        <v>7690</v>
+      </c>
+      <c r="CF36" s="1">
+        <v>7670</v>
+      </c>
+      <c r="CG36" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CH36" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CI36" s="1">
+        <v>7490</v>
+      </c>
+      <c r="CJ36" s="1">
+        <v>7370</v>
+      </c>
+      <c r="CK36" s="1">
+        <v>7240</v>
+      </c>
+      <c r="CL36" s="1">
+        <v>7130</v>
+      </c>
+      <c r="CM36" s="1">
+        <v>6980</v>
+      </c>
+      <c r="CN36" s="1">
+        <v>6820</v>
+      </c>
+      <c r="CO36" s="1">
+        <v>6700</v>
+      </c>
+      <c r="CP36" s="1">
+        <v>6530</v>
+      </c>
+      <c r="CQ36" s="1">
+        <v>6380</v>
+      </c>
+      <c r="CR36" s="1">
+        <v>6220</v>
+      </c>
+      <c r="CS36" s="1">
+        <v>6080</v>
+      </c>
+      <c r="CT36" s="1">
+        <v>5950</v>
+      </c>
+      <c r="CU36" s="1">
+        <v>5820</v>
+      </c>
     </row>
     <row r="37" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <v>45737</v>
+      </c>
       <c r="C37" s="9">
         <v>45745</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
-      <c r="BW37" s="1"/>
-      <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
-      <c r="BZ37" s="1"/>
-      <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
-      <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
-      <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
-      <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
-      <c r="CI37" s="1"/>
-      <c r="CJ37" s="1"/>
-      <c r="CK37" s="1"/>
-      <c r="CL37" s="1"/>
-      <c r="CM37" s="1"/>
-      <c r="CN37" s="1"/>
-      <c r="CO37" s="1"/>
-      <c r="CP37" s="1"/>
-      <c r="CQ37" s="1"/>
-      <c r="CR37" s="1"/>
-      <c r="CS37" s="1"/>
-      <c r="CT37" s="1"/>
-      <c r="CU37" s="1"/>
+      <c r="D37" s="1">
+        <v>5800</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5770</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5750</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5730</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5700</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5680</v>
+      </c>
+      <c r="J37" s="1">
+        <v>5660</v>
+      </c>
+      <c r="K37" s="1">
+        <v>5630</v>
+      </c>
+      <c r="L37" s="1">
+        <v>5610</v>
+      </c>
+      <c r="M37" s="1">
+        <v>5590</v>
+      </c>
+      <c r="N37" s="1">
+        <v>5580</v>
+      </c>
+      <c r="O37" s="1">
+        <v>5570</v>
+      </c>
+      <c r="P37" s="1">
+        <v>5560</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>5560</v>
+      </c>
+      <c r="R37" s="1">
+        <v>5560</v>
+      </c>
+      <c r="S37" s="1">
+        <v>5570</v>
+      </c>
+      <c r="T37" s="1">
+        <v>5570</v>
+      </c>
+      <c r="U37" s="1">
+        <v>5580</v>
+      </c>
+      <c r="V37" s="1">
+        <v>5590</v>
+      </c>
+      <c r="W37" s="1">
+        <v>5600</v>
+      </c>
+      <c r="X37" s="1">
+        <v>5630</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>5650</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>5690</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>5730</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>5770</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>5810</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>5840</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>5870</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>5890</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>5890</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>5890</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>5860</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>5830</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>5780</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>5710</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>5630</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>5460</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>5270</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>5090</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>5010</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>4940</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>4870</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>4810</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>4750</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>4700</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>4660</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>4630</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>4610</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>4590</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>4590</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>4600</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>4620</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>4650</v>
+      </c>
+      <c r="BH37" s="1">
+        <v>4700</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>4750</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>4810</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>4870</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>4950</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>5030</v>
+      </c>
+      <c r="BN37" s="1">
+        <v>5130</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>5230</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>5360</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>5500</v>
+      </c>
+      <c r="BR37" s="1">
+        <v>5650</v>
+      </c>
+      <c r="BS37" s="1">
+        <v>5810</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>5980</v>
+      </c>
+      <c r="BU37" s="1">
+        <v>6140</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BW37" s="1">
+        <v>6460</v>
+      </c>
+      <c r="BX37" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BY37" s="1">
+        <v>6770</v>
+      </c>
+      <c r="BZ37" s="1">
+        <v>6930</v>
+      </c>
+      <c r="CA37" s="1">
+        <v>7070</v>
+      </c>
+      <c r="CB37" s="1">
+        <v>7210</v>
+      </c>
+      <c r="CC37" s="1">
+        <v>7320</v>
+      </c>
+      <c r="CD37" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CE37" s="1">
+        <v>7390</v>
+      </c>
+      <c r="CF37" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CG37" s="1">
+        <v>7350</v>
+      </c>
+      <c r="CH37" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CI37" s="1">
+        <v>7200</v>
+      </c>
+      <c r="CJ37" s="1">
+        <v>7090</v>
+      </c>
+      <c r="CK37" s="1">
+        <v>6970</v>
+      </c>
+      <c r="CL37" s="1">
+        <v>6860</v>
+      </c>
+      <c r="CM37" s="1">
+        <v>6730</v>
+      </c>
+      <c r="CN37" s="1">
+        <v>6600</v>
+      </c>
+      <c r="CO37" s="1">
+        <v>6460</v>
+      </c>
+      <c r="CP37" s="1">
+        <v>6330</v>
+      </c>
+      <c r="CQ37" s="1">
+        <v>6200</v>
+      </c>
+      <c r="CR37" s="1">
+        <v>6080</v>
+      </c>
+      <c r="CS37" s="1">
+        <v>5950</v>
+      </c>
+      <c r="CT37" s="1">
+        <v>5830</v>
+      </c>
+      <c r="CU37" s="1">
+        <v>5720</v>
+      </c>
       <c r="CV37" s="13"/>
       <c r="CW37" s="13"/>
       <c r="CX37" s="13"/>
       <c r="CY37" s="13"/>
     </row>
     <row r="38" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="8"/>
+      <c r="B38" s="8">
+        <v>45737</v>
+      </c>
       <c r="C38" s="9">
         <v>45746</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="D38" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5540</v>
+      </c>
+      <c r="F38" s="1">
+        <v>5490</v>
+      </c>
+      <c r="G38" s="1">
+        <v>5440</v>
+      </c>
+      <c r="H38" s="1">
+        <v>5380</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5330</v>
+      </c>
+      <c r="J38" s="1">
+        <v>5290</v>
+      </c>
+      <c r="K38" s="1">
+        <v>5260</v>
+      </c>
+      <c r="L38" s="1">
+        <v>5220</v>
+      </c>
+      <c r="M38" s="1">
+        <v>5190</v>
+      </c>
+      <c r="N38" s="1">
+        <v>5160</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5130</v>
+      </c>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
       <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
-      <c r="AD38" s="1"/>
-      <c r="AE38" s="1"/>
-      <c r="AF38" s="1"/>
-      <c r="AG38" s="1"/>
-      <c r="AH38" s="1"/>
-      <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
-      <c r="AK38" s="1"/>
-      <c r="AL38" s="1"/>
-      <c r="AM38" s="1"/>
-      <c r="AN38" s="1"/>
-      <c r="AO38" s="1"/>
-      <c r="AP38" s="1"/>
-      <c r="AQ38" s="1"/>
-      <c r="AR38" s="1"/>
-      <c r="AS38" s="1"/>
-      <c r="AT38" s="1"/>
-      <c r="AU38" s="1"/>
-      <c r="AV38" s="1"/>
-      <c r="AW38" s="1"/>
-      <c r="AX38" s="1"/>
-      <c r="AY38" s="1"/>
-      <c r="AZ38" s="1"/>
-      <c r="BA38" s="1"/>
-      <c r="BB38" s="1"/>
-      <c r="BC38" s="1"/>
-      <c r="BD38" s="1"/>
-      <c r="BE38" s="1"/>
-      <c r="BF38" s="1"/>
-      <c r="BG38" s="1"/>
-      <c r="BH38" s="1"/>
-      <c r="BI38" s="1"/>
-      <c r="BJ38" s="1"/>
-      <c r="BK38" s="1"/>
-      <c r="BL38" s="1"/>
-      <c r="BM38" s="1"/>
-      <c r="BN38" s="1"/>
-      <c r="BO38" s="1"/>
-      <c r="BP38" s="1"/>
-      <c r="BQ38" s="1"/>
-      <c r="BR38" s="1"/>
-      <c r="BS38" s="1"/>
-      <c r="BT38" s="1"/>
-      <c r="BU38" s="1"/>
-      <c r="BV38" s="1"/>
-      <c r="BW38" s="1"/>
-      <c r="BX38" s="1"/>
-      <c r="BY38" s="1"/>
-      <c r="BZ38" s="1"/>
-      <c r="CA38" s="1"/>
-      <c r="CB38" s="1"/>
-      <c r="CC38" s="1"/>
-      <c r="CD38" s="1"/>
-      <c r="CE38" s="1"/>
-      <c r="CF38" s="1"/>
-      <c r="CG38" s="1"/>
-      <c r="CH38" s="1"/>
-      <c r="CI38" s="1"/>
-      <c r="CJ38" s="1"/>
-      <c r="CK38" s="1"/>
-      <c r="CL38" s="1"/>
-      <c r="CM38" s="1"/>
-      <c r="CN38" s="1"/>
-      <c r="CO38" s="1"/>
-      <c r="CP38" s="1"/>
-      <c r="CQ38" s="1"/>
-      <c r="CR38" s="1"/>
-      <c r="CS38" s="1"/>
-      <c r="CT38" s="1"/>
-      <c r="CU38" s="1"/>
+      <c r="T38" s="1">
+        <v>5040</v>
+      </c>
+      <c r="U38" s="1">
+        <v>5040</v>
+      </c>
+      <c r="V38" s="1">
+        <v>5050</v>
+      </c>
+      <c r="W38" s="1">
+        <v>5070</v>
+      </c>
+      <c r="X38" s="1">
+        <v>5090</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>5120</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>5150</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>5210</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>5230</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>5240</v>
+      </c>
+      <c r="AH38" s="1">
+        <v>5220</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>5190</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>5140</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>5090</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>5020</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>4930</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>4840</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>4730</v>
+      </c>
+      <c r="AP38" s="1">
+        <v>4620</v>
+      </c>
+      <c r="AQ38" s="1">
+        <v>4510</v>
+      </c>
+      <c r="AR38" s="1">
+        <v>4410</v>
+      </c>
+      <c r="AS38" s="1">
+        <v>4310</v>
+      </c>
+      <c r="AT38" s="1">
+        <v>4220</v>
+      </c>
+      <c r="AU38" s="1">
+        <v>4140</v>
+      </c>
+      <c r="AV38" s="1">
+        <v>4080</v>
+      </c>
+      <c r="AW38" s="1">
+        <v>4040</v>
+      </c>
+      <c r="AX38" s="1">
+        <v>4010</v>
+      </c>
+      <c r="AY38" s="1">
+        <v>3990</v>
+      </c>
+      <c r="AZ38" s="1">
+        <v>3980</v>
+      </c>
+      <c r="BA38" s="1">
+        <v>3970</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>3970</v>
+      </c>
+      <c r="BC38" s="1">
+        <v>3970</v>
+      </c>
+      <c r="BD38" s="1">
+        <v>3960</v>
+      </c>
+      <c r="BE38" s="1">
+        <v>3960</v>
+      </c>
+      <c r="BF38" s="1">
+        <v>3960</v>
+      </c>
+      <c r="BG38" s="1">
+        <v>3960</v>
+      </c>
+      <c r="BH38" s="1">
+        <v>3970</v>
+      </c>
+      <c r="BI38" s="1">
+        <v>3990</v>
+      </c>
+      <c r="BJ38" s="1">
+        <v>4010</v>
+      </c>
+      <c r="BK38" s="1">
+        <v>4040</v>
+      </c>
+      <c r="BL38" s="1">
+        <v>4080</v>
+      </c>
+      <c r="BM38" s="1">
+        <v>4120</v>
+      </c>
+      <c r="BN38" s="1">
+        <v>4170</v>
+      </c>
+      <c r="BO38" s="1">
+        <v>4230</v>
+      </c>
+      <c r="BP38" s="1">
+        <v>4300</v>
+      </c>
+      <c r="BQ38" s="1">
+        <v>4380</v>
+      </c>
+      <c r="BR38" s="1">
+        <v>4490</v>
+      </c>
+      <c r="BS38" s="1">
+        <v>4600</v>
+      </c>
+      <c r="BT38" s="1">
+        <v>4730</v>
+      </c>
+      <c r="BU38" s="1">
+        <v>4860</v>
+      </c>
+      <c r="BV38" s="1">
+        <v>5000</v>
+      </c>
+      <c r="BW38" s="1">
+        <v>5130</v>
+      </c>
+      <c r="BX38" s="1">
+        <v>5270</v>
+      </c>
+      <c r="BY38" s="1">
+        <v>5420</v>
+      </c>
+      <c r="BZ38" s="1">
+        <v>5570</v>
+      </c>
+      <c r="CA38" s="1">
+        <v>5740</v>
+      </c>
+      <c r="CB38" s="1">
+        <v>5930</v>
+      </c>
+      <c r="CC38" s="1">
+        <v>6120</v>
+      </c>
+      <c r="CD38" s="1">
+        <v>6320</v>
+      </c>
+      <c r="CE38" s="1">
+        <v>6500</v>
+      </c>
+      <c r="CF38" s="1">
+        <v>6670</v>
+      </c>
+      <c r="CG38" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CH38" s="1">
+        <v>6850</v>
+      </c>
+      <c r="CI38" s="1">
+        <v>6860</v>
+      </c>
+      <c r="CJ38" s="1">
+        <v>6840</v>
+      </c>
+      <c r="CK38" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CL38" s="1">
+        <v>6740</v>
+      </c>
+      <c r="CM38" s="1">
+        <v>6660</v>
+      </c>
+      <c r="CN38" s="1">
+        <v>6540</v>
+      </c>
+      <c r="CO38" s="1">
+        <v>6420</v>
+      </c>
+      <c r="CP38" s="1">
+        <v>6270</v>
+      </c>
+      <c r="CQ38" s="1">
+        <v>6130</v>
+      </c>
+      <c r="CR38" s="1">
+        <v>5980</v>
+      </c>
+      <c r="CS38" s="1">
+        <v>5850</v>
+      </c>
+      <c r="CT38" s="1">
+        <v>5730</v>
+      </c>
+      <c r="CU38" s="1">
+        <v>5620</v>
+      </c>
     </row>
     <row r="39" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
@@ -28483,7 +29251,7 @@
   <dimension ref="B3:CY107"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:CU28"/>
+      <selection activeCell="D30" sqref="D30:CU31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34776,2195 +35544,2963 @@
     </row>
     <row r="28" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B28" s="8">
-        <v>45735</v>
+        <v>45736</v>
       </c>
       <c r="C28" s="9">
         <v>45737</v>
       </c>
       <c r="D28" s="1">
-        <v>5747.026514418425</v>
+        <v>5748.1056706018971</v>
       </c>
       <c r="E28" s="1">
-        <v>5700.2005031933422</v>
+        <v>5701.2796593768144</v>
       </c>
       <c r="F28" s="1">
-        <v>5644.0092897232435</v>
+        <v>5654.4536481517325</v>
       </c>
       <c r="G28" s="1">
-        <v>5587.8180762531447</v>
+        <v>5598.2624346816337</v>
       </c>
       <c r="H28" s="1">
-        <v>5545.3721695374488</v>
+        <v>5569.4710276756341</v>
       </c>
       <c r="I28" s="1">
-        <v>5507.9113605573839</v>
+        <v>5532.0102186955683</v>
       </c>
       <c r="J28" s="1">
-        <v>5489.180956067351</v>
+        <v>5513.2798142055353</v>
       </c>
       <c r="K28" s="1">
-        <v>5461.0853493323011</v>
+        <v>5485.1842074704855</v>
       </c>
       <c r="L28" s="1">
-        <v>5438.0046448616222</v>
+        <v>5450.308960712212</v>
       </c>
       <c r="M28" s="1">
-        <v>5419.2742403715893</v>
+        <v>5440.9437584671959</v>
       </c>
       <c r="N28" s="1">
-        <v>5409.9090381265723</v>
+        <v>5422.213353977163</v>
       </c>
       <c r="O28" s="1">
-        <v>5400.5438358815563</v>
+        <v>5422.213353977163</v>
       </c>
       <c r="P28" s="1">
-        <v>5411.4960325140319</v>
+        <v>5419.5452680472226</v>
       </c>
       <c r="Q28" s="1">
-        <v>5420.8612347590479</v>
+        <v>5419.5452680472226</v>
       </c>
       <c r="R28" s="1">
-        <v>5430.2264370040639</v>
+        <v>5419.5452680472226</v>
       </c>
       <c r="S28" s="1">
-        <v>5448.9568414940968</v>
+        <v>5428.9104702922396</v>
       </c>
       <c r="T28" s="1">
-        <v>5466.7985291271534</v>
+        <v>5462.8017805302889</v>
       </c>
       <c r="U28" s="1">
-        <v>5485.5289336171863</v>
+        <v>5472.1669827753049</v>
       </c>
       <c r="V28" s="1">
-        <v>5513.6245403522353</v>
+        <v>5481.5321850203218</v>
       </c>
       <c r="W28" s="1">
-        <v>5551.0853493323011</v>
+        <v>5518.9929940003867</v>
       </c>
       <c r="X28" s="1">
-        <v>5616.5148054964193</v>
+        <v>5593.1763112057288</v>
       </c>
       <c r="Y28" s="1">
-        <v>5691.436423456551</v>
+        <v>5658.7327269208436</v>
       </c>
       <c r="Z28" s="1">
-        <v>5775.7232436616996</v>
+        <v>5743.0195471259922</v>
       </c>
       <c r="AA28" s="1">
-        <v>5888.1056706018971</v>
+        <v>5846.0367718211728</v>
       </c>
       <c r="AB28" s="1">
-        <v>5999.8234952583707</v>
+        <v>5969.1834333268826</v>
       </c>
       <c r="AC28" s="1">
-        <v>6121.5711244435843</v>
+        <v>6081.5658602670792</v>
       </c>
       <c r="AD28" s="1">
-        <v>6243.3187536287978</v>
+        <v>6193.9482872072767</v>
       </c>
       <c r="AE28" s="1">
-        <v>6365.0663828140123</v>
+        <v>6296.9655119024583</v>
       </c>
       <c r="AF28" s="1">
-        <v>6472.2732726920849</v>
+        <v>6457.2486936326686</v>
       </c>
       <c r="AG28" s="1">
-        <v>6547.1948906522157</v>
+        <v>6513.4399071027674</v>
       </c>
       <c r="AH28" s="1">
-        <v>6612.7513063673314</v>
+        <v>6541.5355138378172</v>
       </c>
       <c r="AI28" s="1">
-        <v>6650.2121153473972</v>
+        <v>6541.5355138378172</v>
       </c>
       <c r="AJ28" s="1">
-        <v>6655.3876524095222</v>
+        <v>6440.0095219663244</v>
       </c>
       <c r="AK28" s="1">
-        <v>6655.3876524095222</v>
+        <v>6346.3574995161607</v>
       </c>
       <c r="AL28" s="1">
-        <v>6646.0224501645052</v>
+        <v>6262.0706793110121</v>
       </c>
       <c r="AM28" s="1">
-        <v>6627.2920456744723</v>
+        <v>6149.6882523708146</v>
       </c>
       <c r="AN28" s="1">
-        <v>6563.4495838978128</v>
+        <v>6001.560905748016</v>
       </c>
       <c r="AO28" s="1">
-        <v>6479.1627636926651</v>
+        <v>5870.4480743177864</v>
       </c>
       <c r="AP28" s="1">
-        <v>6376.1455389974844</v>
+        <v>5729.9700406425391</v>
       </c>
       <c r="AQ28" s="1">
-        <v>6273.1283143023029</v>
+        <v>5608.2224114573255</v>
       </c>
       <c r="AR28" s="1">
-        <v>6140.1447648538806</v>
+        <v>5465.8394426166051</v>
       </c>
       <c r="AS28" s="1">
-        <v>6018.397135668667</v>
+        <v>5353.4570156764084</v>
       </c>
       <c r="AT28" s="1">
-        <v>5896.6495064834526</v>
+        <v>5259.8049932262438</v>
       </c>
       <c r="AU28" s="1">
-        <v>5774.901877298239</v>
+        <v>5166.1529707760792</v>
       </c>
       <c r="AV28" s="1">
-        <v>5662.7098896845364</v>
+        <v>5056.1631894716475</v>
       </c>
       <c r="AW28" s="1">
-        <v>5559.6926649893558</v>
+        <v>4981.2415715115158</v>
       </c>
       <c r="AX28" s="1">
-        <v>5466.0406425391911</v>
+        <v>4915.6851557964001</v>
       </c>
       <c r="AY28" s="1">
-        <v>5381.7538223340434</v>
+        <v>4850.1287400812853</v>
       </c>
       <c r="AZ28" s="1">
-        <v>5305.8165279659379</v>
+        <v>4786.3116702148245</v>
       </c>
       <c r="BA28" s="1">
-        <v>5249.6253144958391</v>
+        <v>4739.4856589897427</v>
       </c>
       <c r="BB28" s="1">
-        <v>5212.1645055157733</v>
+        <v>4702.0248500096768</v>
       </c>
       <c r="BC28" s="1">
-        <v>5184.0688987807243</v>
+        <v>4673.9292432746279</v>
       </c>
       <c r="BD28" s="1">
-        <v>5165.3384942906914</v>
+        <v>4684.4815173214629</v>
       </c>
       <c r="BE28" s="1">
-        <v>5165.3384942906914</v>
+        <v>4693.8467195664798</v>
       </c>
       <c r="BF28" s="1">
-        <v>5174.7036965357074</v>
+        <v>4693.8467195664798</v>
       </c>
       <c r="BG28" s="1">
-        <v>5193.4341010257403</v>
+        <v>4703.2119218114958</v>
       </c>
       <c r="BH28" s="1">
-        <v>5219.0539965163534</v>
+        <v>4711.5087284691308</v>
       </c>
       <c r="BI28" s="1">
-        <v>5256.5148054964193</v>
+        <v>4730.2391329591637</v>
       </c>
       <c r="BJ28" s="1">
-        <v>5303.3408167215021</v>
+        <v>4767.6999419392296</v>
       </c>
       <c r="BK28" s="1">
-        <v>5359.5320301916008</v>
+        <v>4805.1607509192954</v>
       </c>
       <c r="BL28" s="1">
-        <v>5415.5328043352047</v>
+        <v>4896.6105670601901</v>
       </c>
       <c r="BM28" s="1">
-        <v>5490.4544222953355</v>
+        <v>4962.1669827753049</v>
       </c>
       <c r="BN28" s="1">
-        <v>5574.7412425004841</v>
+        <v>5046.4538029804526</v>
       </c>
       <c r="BO28" s="1">
-        <v>5668.3932649506487</v>
+        <v>5149.4710276756341</v>
       </c>
       <c r="BP28" s="1">
-        <v>5761.981807625315</v>
+        <v>5323.7139539384552</v>
       </c>
       <c r="BQ28" s="1">
-        <v>5874.3642345655117</v>
+        <v>5473.5571898587186</v>
       </c>
       <c r="BR28" s="1">
-        <v>5986.7466615057092</v>
+        <v>5642.130830269015</v>
       </c>
       <c r="BS28" s="1">
-        <v>6099.1290884459067</v>
+        <v>5810.7044706793113</v>
       </c>
       <c r="BT28" s="1">
-        <v>6224.39790981227</v>
+        <v>6025.0616605380301</v>
       </c>
       <c r="BU28" s="1">
-        <v>6336.7803367524675</v>
+        <v>6203.0005031933424</v>
       </c>
       <c r="BV28" s="1">
-        <v>6439.7975614476491</v>
+        <v>6362.2089413586218</v>
       </c>
       <c r="BW28" s="1">
-        <v>6580.2755951228955</v>
+        <v>6521.4173795239021</v>
       </c>
       <c r="BX28" s="1">
-        <v>6719.9918714921623</v>
+        <v>6728.2395200309657</v>
       </c>
       <c r="BY28" s="1">
-        <v>6841.7395006773759</v>
+        <v>6887.4479581962451</v>
       </c>
       <c r="BZ28" s="1">
-        <v>6991.5827365976393</v>
+        <v>7046.6563963615254</v>
       </c>
       <c r="CA28" s="1">
-        <v>7122.6955680278688</v>
+        <v>7187.1344300367718</v>
       </c>
       <c r="CB28" s="1">
-        <v>7284.9510354170698</v>
+        <v>7359.916779562609</v>
       </c>
       <c r="CC28" s="1">
-        <v>7406.6986646022842</v>
+        <v>7472.2992065028066</v>
       </c>
       <c r="CD28" s="1">
-        <v>7453.5246758273661</v>
+        <v>7537.8556222179213</v>
       </c>
       <c r="CE28" s="1">
-        <v>7453.5246758273661</v>
+        <v>7556.5860267079543</v>
       </c>
       <c r="CF28" s="1">
-        <v>7438.1586994387462</v>
+        <v>7527.0342558544608</v>
       </c>
       <c r="CG28" s="1">
-        <v>7372.6022837236305</v>
+        <v>7461.477840139346</v>
       </c>
       <c r="CH28" s="1">
-        <v>7307.0458680085158</v>
+        <v>7386.5562221792143</v>
       </c>
       <c r="CI28" s="1">
-        <v>7194.6634410683182</v>
+        <v>7320.9998064640995</v>
       </c>
       <c r="CJ28" s="1">
-        <v>7042.8523321076063</v>
+        <v>7199.2370040642536</v>
       </c>
       <c r="CK28" s="1">
-        <v>6911.7395006773759</v>
+        <v>7086.854577124057</v>
       </c>
       <c r="CL28" s="1">
-        <v>6799.3570737371783</v>
+        <v>6983.8373524288754</v>
       </c>
       <c r="CM28" s="1">
-        <v>6668.2442423069479</v>
+        <v>6843.3593187536289</v>
       </c>
       <c r="CN28" s="1">
-        <v>6520.8469131023803</v>
+        <v>6613.0794658409131</v>
       </c>
       <c r="CO28" s="1">
-        <v>6389.7340816721498</v>
+        <v>6491.3318366556996</v>
       </c>
       <c r="CP28" s="1">
-        <v>6249.2560479969034</v>
+        <v>6332.1233984904202</v>
       </c>
       <c r="CQ28" s="1">
-        <v>6108.7780143216569</v>
+        <v>6191.6453648151737</v>
       </c>
       <c r="CR28" s="1">
-        <v>5951.1565705438361</v>
+        <v>6066.1226243468163</v>
       </c>
       <c r="CS28" s="1">
-        <v>5820.0437391136056</v>
+        <v>5925.6445906715699</v>
       </c>
       <c r="CT28" s="1">
-        <v>5707.6613121734081</v>
+        <v>5822.6273659763883</v>
       </c>
       <c r="CU28" s="1">
-        <v>5604.6440874782274</v>
+        <v>5719.6101412812077</v>
       </c>
     </row>
     <row r="29" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B29" s="8">
-        <v>45730</v>
+        <v>45737</v>
       </c>
       <c r="C29" s="9">
         <v>45738</v>
       </c>
       <c r="D29" s="1">
-        <v>5624.6440874782274</v>
+        <v>5617.0392103735239</v>
       </c>
       <c r="E29" s="10">
-        <v>5559.0876717631118</v>
+        <v>5570.2131991484421</v>
       </c>
       <c r="F29" s="1">
-        <v>5521.6268627830459</v>
+        <v>5523.3871879233602</v>
       </c>
       <c r="G29" s="1">
-        <v>5484.166053802981</v>
+        <v>5485.9263789432944</v>
       </c>
       <c r="H29" s="1">
-        <v>5372.0530288368491</v>
+        <v>5564.1657441455391</v>
       </c>
       <c r="I29" s="1">
-        <v>5343.9574221018001</v>
+        <v>5526.7049351654732</v>
       </c>
       <c r="J29" s="1">
-        <v>5306.4966131217343</v>
+        <v>5489.2441261854074</v>
       </c>
       <c r="K29" s="1">
-        <v>5259.6706018966515</v>
+        <v>5451.7833172053415</v>
       </c>
       <c r="L29" s="1">
-        <v>5213.7035029998069</v>
+        <v>5434.8620863170117</v>
       </c>
       <c r="M29" s="1">
-        <v>5185.6078962647571</v>
+        <v>5416.1316818269788</v>
       </c>
       <c r="N29" s="1">
-        <v>5157.5122895297081</v>
+        <v>5388.036075091929</v>
       </c>
       <c r="O29" s="1">
-        <v>5148.1470872846912</v>
+        <v>5369.3056706018961</v>
       </c>
       <c r="P29" s="1">
-        <v>5147.0977356299591</v>
+        <v>5361.8385136442812</v>
       </c>
       <c r="Q29" s="1">
-        <v>5147.0977356299591</v>
+        <v>5352.4733113992652</v>
       </c>
       <c r="R29" s="1">
-        <v>5147.0977356299591</v>
+        <v>5352.4733113992652</v>
       </c>
       <c r="S29" s="1">
-        <v>5156.462937874976</v>
+        <v>5361.8385136442812</v>
       </c>
       <c r="T29" s="1">
-        <v>5184.6625895103543</v>
+        <v>5372.866886007354</v>
       </c>
       <c r="U29" s="1">
-        <v>5194.0277917553703</v>
+        <v>5382.2320882523709</v>
       </c>
       <c r="V29" s="1">
-        <v>5212.7581962454033</v>
+        <v>5391.5972904973878</v>
       </c>
       <c r="W29" s="1">
-        <v>5231.4886007354362</v>
+        <v>5410.3276949874198</v>
       </c>
       <c r="X29" s="1">
-        <v>5290.581381846333</v>
+        <v>5427.9091155409324</v>
       </c>
       <c r="Y29" s="1">
-        <v>5337.4073930714148</v>
+        <v>5456.0047222759822</v>
       </c>
       <c r="Z29" s="1">
-        <v>5374.8682020514807</v>
+        <v>5474.7351267660151</v>
       </c>
       <c r="AA29" s="1">
-        <v>5431.0594155215795</v>
+        <v>5502.8307335010641</v>
       </c>
       <c r="AB29" s="1">
-        <v>5520.0423456551189</v>
+        <v>5535.5515386104125</v>
       </c>
       <c r="AC29" s="1">
-        <v>5576.2335591252177</v>
+        <v>5573.0123475904775</v>
       </c>
       <c r="AD29" s="1">
-        <v>5613.6943681052835</v>
+        <v>5591.7427520805104</v>
       </c>
       <c r="AE29" s="1">
-        <v>5651.1551770853494</v>
+        <v>5610.4731565705442</v>
       </c>
       <c r="AF29" s="1">
-        <v>5703.8428488484615</v>
+        <v>5602.4277917553709</v>
       </c>
       <c r="AG29" s="1">
-        <v>5713.2080510934775</v>
+        <v>5602.4277917553709</v>
       </c>
       <c r="AH29" s="1">
-        <v>5703.8428488484615</v>
+        <v>5593.062589510354</v>
       </c>
       <c r="AI29" s="1">
-        <v>5685.1124443584285</v>
+        <v>5574.332185020321</v>
       </c>
       <c r="AJ29" s="1">
-        <v>5667.9016837623376</v>
+        <v>5470.765473195278</v>
       </c>
       <c r="AK29" s="1">
-        <v>5611.7104702922388</v>
+        <v>5433.3046642152121</v>
       </c>
       <c r="AL29" s="1">
-        <v>5546.154054577124</v>
+        <v>5386.4786529901294</v>
       </c>
       <c r="AM29" s="1">
-        <v>5461.8672343719763</v>
+        <v>5320.9222372750146</v>
       </c>
       <c r="AN29" s="1">
-        <v>5368.7503773950066</v>
+        <v>5176.4883297851757</v>
       </c>
       <c r="AO29" s="1">
-        <v>5275.098354944842</v>
+        <v>5101.566711825044</v>
       </c>
       <c r="AP29" s="1">
-        <v>5172.0811302496613</v>
+        <v>5026.6450938649123</v>
       </c>
       <c r="AQ29" s="1">
-        <v>5078.4291077994967</v>
+        <v>4942.3582736597637</v>
       </c>
       <c r="AR29" s="1">
-        <v>4944.6495838978135</v>
+        <v>4810.7917166634415</v>
       </c>
       <c r="AS29" s="1">
-        <v>4860.3627636926649</v>
+        <v>4735.8700987033098</v>
       </c>
       <c r="AT29" s="1">
-        <v>4776.0759434875172</v>
+        <v>4670.3136829881932</v>
       </c>
       <c r="AU29" s="1">
-        <v>4701.1543255273855</v>
+        <v>4614.1224695180954</v>
       </c>
       <c r="AV29" s="1">
-        <v>4604.9625701567638</v>
+        <v>4526.1742597251796</v>
       </c>
       <c r="AW29" s="1">
-        <v>4558.136558931682</v>
+        <v>4479.3482485000968</v>
       </c>
       <c r="AX29" s="1">
-        <v>4511.3105477065992</v>
+        <v>4441.887439520031</v>
       </c>
       <c r="AY29" s="1">
-        <v>4464.4845364815174</v>
+        <v>4395.0614282949491</v>
       </c>
       <c r="AZ29" s="1">
-        <v>4422.3598993613314</v>
+        <v>4341.5573446874387</v>
       </c>
       <c r="BA29" s="1">
-        <v>4384.8990903812655</v>
+        <v>4313.4617379523897</v>
       </c>
       <c r="BB29" s="1">
-        <v>4366.1686858912326</v>
+        <v>4304.0965357073728</v>
       </c>
       <c r="BC29" s="1">
-        <v>4347.4382814011997</v>
+        <v>4304.0965357073728</v>
       </c>
       <c r="BD29" s="1">
-        <v>4326.4543448809754</v>
+        <v>4304.6043739113611</v>
       </c>
       <c r="BE29" s="1">
-        <v>4317.0891426359594</v>
+        <v>4304.6043739113611</v>
       </c>
       <c r="BF29" s="1">
-        <v>4317.0891426359594</v>
+        <v>4304.6043739113611</v>
       </c>
       <c r="BG29" s="1">
-        <v>4326.4543448809754</v>
+        <v>4313.9695761563762</v>
       </c>
       <c r="BH29" s="1">
-        <v>4360.3075672537252</v>
+        <v>4337.7549061350883</v>
       </c>
       <c r="BI29" s="1">
-        <v>4397.7683762337911</v>
+        <v>4356.4853106251212</v>
       </c>
       <c r="BJ29" s="1">
-        <v>4435.2291852138569</v>
+        <v>4375.2157151151541</v>
       </c>
       <c r="BK29" s="1">
-        <v>4500.7856009289726</v>
+        <v>4422.041726340236</v>
       </c>
       <c r="BL29" s="1">
-        <v>4582.3262241145731</v>
+        <v>4565.8833365589326</v>
       </c>
       <c r="BM29" s="1">
-        <v>4657.2478420747047</v>
+        <v>4640.8049545190643</v>
       </c>
       <c r="BN29" s="1">
-        <v>4741.5346622798534</v>
+        <v>4715.726572479196</v>
       </c>
       <c r="BO29" s="1">
-        <v>4844.551886975034</v>
+        <v>4809.3785949293597</v>
       </c>
       <c r="BP29" s="1">
-        <v>4995.6061931488293</v>
+        <v>4979.1677182117282</v>
       </c>
       <c r="BQ29" s="1">
-        <v>5126.7190245790598</v>
+        <v>5110.2805496419587</v>
       </c>
       <c r="BR29" s="1">
-        <v>5267.1970582543063</v>
+        <v>5241.3933810721892</v>
       </c>
       <c r="BS29" s="1">
-        <v>5426.4054964195857</v>
+        <v>5372.5062125024197</v>
       </c>
       <c r="BT29" s="1">
-        <v>5632.0215211921823</v>
+        <v>5573.7363266886005</v>
       </c>
       <c r="BU29" s="1">
-        <v>5809.9603638474946</v>
+        <v>5723.5795626088639</v>
       </c>
       <c r="BV29" s="1">
-        <v>5987.8992065028069</v>
+        <v>5873.4227985291272</v>
       </c>
       <c r="BW29" s="1">
-        <v>6165.8380491581192</v>
+        <v>6041.9964389394236</v>
       </c>
       <c r="BX29" s="1">
-        <v>6349.7420553512675</v>
+        <v>6275.0293787497585</v>
       </c>
       <c r="BY29" s="1">
-        <v>6499.5852912715309</v>
+        <v>6424.872614670021</v>
       </c>
       <c r="BZ29" s="1">
-        <v>6621.3329204567453</v>
+        <v>6565.3506483452684</v>
       </c>
       <c r="CA29" s="1">
-        <v>6733.7153473969429</v>
+        <v>6715.1938842655318</v>
       </c>
       <c r="CB29" s="1">
-        <v>6823.9565705438363</v>
+        <v>6817.7871879233599</v>
       </c>
       <c r="CC29" s="1">
-        <v>6870.7825817689181</v>
+        <v>6892.7088058834916</v>
       </c>
       <c r="CD29" s="1">
-        <v>6889.5129862589511</v>
+        <v>6920.8044126185405</v>
       </c>
       <c r="CE29" s="1">
-        <v>6880.1477840139351</v>
+        <v>6930.1696148635574</v>
       </c>
       <c r="CF29" s="1">
-        <v>6838.3615250628991</v>
+        <v>6917.9624540352233</v>
       </c>
       <c r="CG29" s="1">
-        <v>6810.2659183278502</v>
+        <v>6889.8668473001744</v>
       </c>
       <c r="CH29" s="1">
-        <v>6754.0747048577514</v>
+        <v>6824.3104315850587</v>
       </c>
       <c r="CI29" s="1">
-        <v>6697.8834913876526</v>
+        <v>6740.023611379911</v>
       </c>
       <c r="CJ29" s="1">
-        <v>6562.0662666924718</v>
+        <v>6654.854964195858</v>
       </c>
       <c r="CK29" s="1">
-        <v>6430.9534352622413</v>
+        <v>6542.4725372556613</v>
       </c>
       <c r="CL29" s="1">
-        <v>6365.3970195471256</v>
+        <v>6448.8205148054967</v>
       </c>
       <c r="CM29" s="1">
-        <v>6299.8406038320109</v>
+        <v>6327.0728856202822</v>
       </c>
       <c r="CN29" s="1">
-        <v>6155.6928972324367</v>
+        <v>6193.7700019353588</v>
       </c>
       <c r="CO29" s="1">
-        <v>6071.406077027289</v>
+        <v>6062.6571705051292</v>
       </c>
       <c r="CP29" s="1">
-        <v>5921.5628411070256</v>
+        <v>5931.5443390748987</v>
       </c>
       <c r="CQ29" s="1">
-        <v>5799.8152119218112</v>
+        <v>5809.7967098896843</v>
       </c>
       <c r="CR29" s="1">
-        <v>5674.5336946003481</v>
+        <v>5685.2706018966519</v>
       </c>
       <c r="CS29" s="1">
-        <v>5534.0556609251016</v>
+        <v>5572.8881749564543</v>
       </c>
       <c r="CT29" s="1">
-        <v>5449.7688407199539</v>
+        <v>5479.2361525062897</v>
       </c>
       <c r="CU29" s="1">
-        <v>5346.7516160247724</v>
+        <v>5376.2189278111091</v>
       </c>
     </row>
     <row r="30" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B30" s="8">
-        <v>45730</v>
+        <v>45738</v>
       </c>
       <c r="C30" s="9">
         <v>45739</v>
       </c>
       <c r="D30" s="1">
-        <v>5296.8620089026517</v>
+        <v>5294.6026707954325</v>
       </c>
       <c r="E30" s="1">
-        <v>5231.305593187536</v>
+        <v>5247.7766595703506</v>
       </c>
       <c r="F30" s="1">
-        <v>5193.8447842074702</v>
+        <v>5210.3158505902848</v>
       </c>
       <c r="G30" s="1">
-        <v>5156.3839752274043</v>
+        <v>5163.489839365202</v>
       </c>
       <c r="H30" s="1">
-        <v>5044.2709502612734</v>
+        <v>5098.2248887168571</v>
       </c>
       <c r="I30" s="1">
-        <v>5016.1753435262244</v>
+        <v>5051.3988774917752</v>
       </c>
       <c r="J30" s="1">
-        <v>4978.7145345461586</v>
+        <v>5023.3032707567254</v>
       </c>
       <c r="K30" s="1">
-        <v>4950.6189278111087</v>
+        <v>4995.2076640216765</v>
       </c>
       <c r="L30" s="1">
-        <v>4914.0170311592801</v>
+        <v>4968.3816527965937</v>
       </c>
       <c r="M30" s="1">
-        <v>4895.2866266692472</v>
+        <v>4949.6512483065608</v>
       </c>
       <c r="N30" s="1">
-        <v>4885.9214244242312</v>
+        <v>4930.9208438165278</v>
       </c>
       <c r="O30" s="1">
-        <v>4867.1910199341983</v>
+        <v>4912.1904393264949</v>
       </c>
       <c r="P30" s="1">
-        <v>4866.1416682794661</v>
+        <v>4875.1739887749181</v>
       </c>
       <c r="Q30" s="1">
-        <v>4856.7764660344492</v>
+        <v>4856.4435842848852</v>
       </c>
       <c r="R30" s="1">
-        <v>4847.4112637894332</v>
+        <v>4847.0783820398683</v>
       </c>
       <c r="S30" s="1">
-        <v>4847.4112637894332</v>
+        <v>4837.7131797948523</v>
       </c>
       <c r="T30" s="1">
-        <v>4856.8805109347786</v>
+        <v>4828.474937100832</v>
       </c>
       <c r="U30" s="1">
-        <v>4856.8805109347786</v>
+        <v>4828.474937100832</v>
       </c>
       <c r="V30" s="1">
-        <v>4856.8805109347786</v>
+        <v>4828.474937100832</v>
       </c>
       <c r="W30" s="1">
-        <v>4866.2457131797946</v>
+        <v>4828.474937100832</v>
       </c>
       <c r="X30" s="1">
-        <v>4915.9732920456745</v>
+        <v>4835.8722663053995</v>
       </c>
       <c r="Y30" s="1">
-        <v>4934.7036965357074</v>
+        <v>4845.2374685504165</v>
       </c>
       <c r="Z30" s="1">
-        <v>4962.7993032707564</v>
+        <v>4854.6026707954325</v>
       </c>
       <c r="AA30" s="1">
-        <v>4981.5297077607893</v>
+        <v>4863.9678730404494</v>
       </c>
       <c r="AB30" s="1">
-        <v>5051.7822334042967</v>
+        <v>4882.5713179794857</v>
       </c>
       <c r="AC30" s="1">
-        <v>5061.1474356493127</v>
+        <v>4901.3017224695186</v>
       </c>
       <c r="AD30" s="1">
-        <v>5070.5126378943296</v>
+        <v>4920.0321269595506</v>
       </c>
       <c r="AE30" s="1">
-        <v>5070.5126378943296</v>
+        <v>4938.7625314495835</v>
       </c>
       <c r="AF30" s="1">
-        <v>5085.7395006773759</v>
+        <v>4969.905167408554</v>
       </c>
       <c r="AG30" s="1">
-        <v>5057.643893942326</v>
+        <v>4988.6355718985869</v>
       </c>
       <c r="AH30" s="1">
-        <v>5029.5482872072771</v>
+        <v>5007.3659763886199</v>
       </c>
       <c r="AI30" s="1">
-        <v>4982.7222759821943</v>
+        <v>5016.7311786336368</v>
       </c>
       <c r="AJ30" s="1">
-        <v>4946.7811108960714</v>
+        <v>5026.1935359009094</v>
       </c>
       <c r="AK30" s="1">
-        <v>4881.2246951809557</v>
+        <v>5026.1935359009094</v>
       </c>
       <c r="AL30" s="1">
-        <v>4806.303077220824</v>
+        <v>5016.8283336558934</v>
       </c>
       <c r="AM30" s="1">
-        <v>4722.0162570156763</v>
+        <v>4988.7327269208436</v>
       </c>
       <c r="AN30" s="1">
-        <v>4619.5341977936905</v>
+        <v>4938.7327269208436</v>
       </c>
       <c r="AO30" s="1">
-        <v>4525.8821753435259</v>
+        <v>4882.5415134507448</v>
       </c>
       <c r="AP30" s="1">
-        <v>4422.8649506483453</v>
+        <v>4826.3502999806469</v>
       </c>
       <c r="AQ30" s="1">
-        <v>4319.8477259531637</v>
+        <v>4742.0634797754983</v>
       </c>
       <c r="AR30" s="1">
-        <v>4186.0682020514805</v>
+        <v>4669.6810528353008</v>
       </c>
       <c r="AS30" s="1">
-        <v>4092.4161796013159</v>
+        <v>4594.7594348751691</v>
       </c>
       <c r="AT30" s="1">
-        <v>4008.1293593961682</v>
+        <v>4529.2030191600543</v>
       </c>
       <c r="AU30" s="1">
-        <v>3933.2077414360365</v>
+        <v>4473.0118056899555</v>
       </c>
       <c r="AV30" s="1">
-        <v>3837.0159860654153</v>
+        <v>4412.8848461389589</v>
       </c>
       <c r="AW30" s="1">
-        <v>3790.189974840333</v>
+        <v>4366.058834913877</v>
       </c>
       <c r="AX30" s="1">
-        <v>3743.3639636152507</v>
+        <v>4337.9632281788272</v>
       </c>
       <c r="AY30" s="1">
-        <v>3705.9031546351848</v>
+        <v>4309.8676214437783</v>
       </c>
       <c r="AZ30" s="1">
-        <v>3663.7785175149993</v>
+        <v>4279.9945809947749</v>
       </c>
       <c r="BA30" s="1">
-        <v>3645.0481130249664</v>
+        <v>4261.264176504742</v>
       </c>
       <c r="BB30" s="1">
-        <v>3635.6829107799499</v>
+        <v>4251.898974259725</v>
       </c>
       <c r="BC30" s="1">
-        <v>3626.3177085349334</v>
+        <v>4251.898974259725</v>
       </c>
       <c r="BD30" s="1">
-        <v>3624.0641765047417</v>
+        <v>4253.1685697696921</v>
       </c>
       <c r="BE30" s="1">
-        <v>3633.4293787497581</v>
+        <v>4253.1685697696921</v>
       </c>
       <c r="BF30" s="1">
-        <v>3652.1597832397911</v>
+        <v>4262.533772014709</v>
       </c>
       <c r="BG30" s="1">
-        <v>3680.2553899748405</v>
+        <v>4271.898974259725</v>
       </c>
       <c r="BH30" s="1">
-        <v>3723.4738145926076</v>
+        <v>4307.10431585059</v>
       </c>
       <c r="BI30" s="1">
-        <v>3760.9346235726734</v>
+        <v>4344.5651248306558</v>
       </c>
       <c r="BJ30" s="1">
-        <v>3817.1258370427718</v>
+        <v>4382.0259338107217</v>
       </c>
       <c r="BK30" s="1">
-        <v>3882.682252757887</v>
+        <v>4438.2171472808204</v>
       </c>
       <c r="BL30" s="1">
-        <v>3964.2228759434875</v>
+        <v>4501.9961292819817</v>
       </c>
       <c r="BM30" s="1">
-        <v>4048.5096961486356</v>
+        <v>4567.5525449970974</v>
       </c>
       <c r="BN30" s="1">
-        <v>4142.1617185987998</v>
+        <v>4642.4741629572291</v>
       </c>
       <c r="BO30" s="1">
-        <v>4245.1789432939813</v>
+        <v>4736.1261854073928</v>
       </c>
       <c r="BP30" s="1">
-        <v>4414.9636539578087</v>
+        <v>4844.6998258176891</v>
       </c>
       <c r="BQ30" s="1">
-        <v>4564.806889878073</v>
+        <v>4966.4474550029036</v>
       </c>
       <c r="BR30" s="1">
-        <v>4724.0153280433524</v>
+        <v>5088.1950841881171</v>
       </c>
       <c r="BS30" s="1">
-        <v>4892.5889684536478</v>
+        <v>5219.3079156183476</v>
       </c>
       <c r="BT30" s="1">
-        <v>5107.5701954712604</v>
+        <v>5358.9270369653568</v>
       </c>
       <c r="BU30" s="1">
-        <v>5276.1438358815558</v>
+        <v>5490.0398683955873</v>
       </c>
       <c r="BV30" s="1">
-        <v>5454.0826785368699</v>
+        <v>5611.7874975808018</v>
       </c>
       <c r="BW30" s="1">
-        <v>5603.9259144571315</v>
+        <v>5733.5351267660153</v>
       </c>
       <c r="BX30" s="1">
-        <v>5769.0995161602477</v>
+        <v>5864.3305593187533</v>
       </c>
       <c r="BY30" s="1">
-        <v>5909.5775498354942</v>
+        <v>5976.7129862589509</v>
       </c>
       <c r="BZ30" s="1">
-        <v>6040.6903812657256</v>
+        <v>6098.4606154441653</v>
       </c>
       <c r="CA30" s="1">
-        <v>6162.4380104509401</v>
+        <v>6229.5734468743949</v>
       </c>
       <c r="CB30" s="1">
-        <v>6290.1400425778984</v>
+        <v>6341.3845558351077</v>
       </c>
       <c r="CC30" s="1">
-        <v>6374.4268627830461</v>
+        <v>6416.3061737952394</v>
       </c>
       <c r="CD30" s="1">
-        <v>6430.6180762531449</v>
+        <v>6444.4017805302883</v>
       </c>
       <c r="CE30" s="1">
-        <v>6430.6180762531449</v>
+        <v>6444.4017805302883</v>
       </c>
       <c r="CF30" s="1">
-        <v>6388.8318173021098</v>
+        <v>6411.9260692858525</v>
       </c>
       <c r="CG30" s="1">
-        <v>6351.371008322044</v>
+        <v>6365.1000580607706</v>
       </c>
       <c r="CH30" s="1">
-        <v>6285.8145926069283</v>
+        <v>6318.2740468356878</v>
       </c>
       <c r="CI30" s="1">
-        <v>6229.6233791368304</v>
+        <v>6262.0828333655891</v>
       </c>
       <c r="CJ30" s="1">
-        <v>6112.5365589316816</v>
+        <v>6181.7317592413392</v>
       </c>
       <c r="CK30" s="1">
-        <v>6009.519334236501</v>
+        <v>6106.8101412812075</v>
       </c>
       <c r="CL30" s="1">
-        <v>5962.6933230114191</v>
+        <v>6050.6189278111087</v>
       </c>
       <c r="CM30" s="1">
-        <v>5897.1369072963034</v>
+        <v>5966.332107605961</v>
       </c>
       <c r="CN30" s="1">
-        <v>5762.3544029417453</v>
+        <v>5861.981807625315</v>
       </c>
       <c r="CO30" s="1">
-        <v>5678.0675827365976</v>
+        <v>5768.3297851751504</v>
       </c>
       <c r="CP30" s="1">
-        <v>5556.3199535513841</v>
+        <v>5674.6777627249858</v>
       </c>
       <c r="CQ30" s="1">
-        <v>5453.3027288562025</v>
+        <v>5581.0257402748211</v>
       </c>
       <c r="CR30" s="1">
-        <v>5328.0212115347395</v>
+        <v>5476.2310818656861</v>
       </c>
       <c r="CS30" s="1">
-        <v>5243.7343913295917</v>
+        <v>5373.2138571705054</v>
       </c>
       <c r="CT30" s="1">
-        <v>5131.3519643893942</v>
+        <v>5279.5618347203408</v>
       </c>
       <c r="CU30" s="1">
-        <v>5037.6999419392296</v>
+        <v>5176.5446100251602</v>
       </c>
     </row>
     <row r="31" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
-        <v>45732</v>
+        <v>45738</v>
       </c>
       <c r="C31" s="9">
         <v>45740</v>
       </c>
       <c r="D31" s="1">
-        <v>5053.3667505322237</v>
+        <v>5182.2202438552349</v>
       </c>
       <c r="E31" s="10">
-        <v>5015.9059415521579</v>
+        <v>5135.3942326301531</v>
       </c>
       <c r="F31" s="1">
-        <v>4950.3495258370431</v>
+        <v>5107.2986258951032</v>
       </c>
       <c r="G31" s="1">
-        <v>4903.5235146119603</v>
+        <v>5069.8378169150374</v>
       </c>
       <c r="H31" s="1">
-        <v>4810.1408941358623</v>
+        <v>5004.5728662666925</v>
       </c>
       <c r="I31" s="1">
-        <v>4791.4104896458293</v>
+        <v>4976.4772595316435</v>
       </c>
       <c r="J31" s="1">
-        <v>4763.3148829107804</v>
+        <v>4948.3816527965937</v>
       </c>
       <c r="K31" s="1">
-        <v>4725.8540739307145</v>
+        <v>4920.2860460615448</v>
       </c>
       <c r="L31" s="1">
-        <v>4679.886975033869</v>
+        <v>4893.460034836462</v>
       </c>
       <c r="M31" s="1">
-        <v>4651.7913682988192</v>
+        <v>4884.094832591446</v>
       </c>
       <c r="N31" s="1">
-        <v>4633.0609638087863</v>
+        <v>4865.3644281014131</v>
       </c>
       <c r="O31" s="1">
-        <v>4642.4261660538032</v>
+        <v>4846.6340236113801</v>
       </c>
       <c r="P31" s="1">
-        <v>4660.1072188891039</v>
+        <v>4837.7131797948523</v>
       </c>
       <c r="Q31" s="1">
-        <v>4678.8376233791369</v>
+        <v>4828.3479775498354</v>
       </c>
       <c r="R31" s="1">
-        <v>4706.9332301141867</v>
+        <v>4828.3479775498354</v>
       </c>
       <c r="S31" s="1">
-        <v>4725.6636346042187</v>
+        <v>4837.7131797948523</v>
       </c>
       <c r="T31" s="1">
-        <v>4753.8632862395971</v>
+        <v>4865.9357460808978</v>
       </c>
       <c r="U31" s="1">
-        <v>4772.59369072963</v>
+        <v>4903.3965550609637</v>
       </c>
       <c r="V31" s="1">
-        <v>4810.0544997096958</v>
+        <v>4940.8573640410295</v>
       </c>
       <c r="W31" s="1">
-        <v>4856.8805109347786</v>
+        <v>4987.6833752661123</v>
       </c>
       <c r="X31" s="1">
-        <v>4953.4341010257403</v>
+        <v>5051.2719179407777</v>
       </c>
       <c r="Y31" s="1">
-        <v>5056.451325720921</v>
+        <v>5126.1935359009094</v>
       </c>
       <c r="Z31" s="1">
-        <v>5178.1989549061354</v>
+        <v>5229.2107605960909</v>
       </c>
       <c r="AA31" s="1">
-        <v>5337.4073930714148</v>
+        <v>5350.9583897813045</v>
       </c>
       <c r="AB31" s="1">
-        <v>5548.1379523901687</v>
+        <v>5491.3094639055544</v>
       </c>
       <c r="AC31" s="1">
-        <v>5726.076795045481</v>
+        <v>5641.1526998258178</v>
       </c>
       <c r="AD31" s="1">
-        <v>5904.0156377007934</v>
+        <v>5772.2655312560482</v>
       </c>
       <c r="AE31" s="1">
-        <v>6072.5892781110897</v>
+        <v>5931.4739694213276</v>
       </c>
       <c r="AF31" s="1">
-        <v>6247.0245790594154</v>
+        <v>6074.9990323204956</v>
       </c>
       <c r="AG31" s="1">
-        <v>6368.7722082446298</v>
+        <v>6215.4770659957421</v>
       </c>
       <c r="AH31" s="1">
-        <v>6453.0590284497775</v>
+        <v>6346.5898974259726</v>
       </c>
       <c r="AI31" s="1">
-        <v>6499.8850396748594</v>
+        <v>6449.6071221211532</v>
       </c>
       <c r="AJ31" s="1">
-        <v>6538.8654925488681</v>
+        <v>6533.9910973485585</v>
       </c>
       <c r="AK31" s="1">
-        <v>6520.1350880588352</v>
+        <v>6571.4519063286243</v>
       </c>
       <c r="AL31" s="1">
-        <v>6473.3090768337524</v>
+        <v>6599.5475130636733</v>
       </c>
       <c r="AM31" s="1">
-        <v>6398.3874588736207</v>
+        <v>6599.5475130636733</v>
       </c>
       <c r="AN31" s="1">
-        <v>6295.905399651635</v>
+        <v>6577.6431197987231</v>
       </c>
       <c r="AO31" s="1">
-        <v>6192.8881749564543</v>
+        <v>6568.2779175537062</v>
       </c>
       <c r="AP31" s="1">
-        <v>6080.5057480162568</v>
+        <v>6530.8171085736403</v>
       </c>
       <c r="AQ31" s="1">
-        <v>5968.1233210760593</v>
+        <v>6493.3562995935745</v>
       </c>
       <c r="AR31" s="1">
-        <v>5815.6133926843431</v>
+        <v>6458.4346816334428</v>
       </c>
       <c r="AS31" s="1">
-        <v>5703.2309657441456</v>
+        <v>6392.878265918328</v>
       </c>
       <c r="AT31" s="1">
-        <v>5600.2137410489649</v>
+        <v>6327.3218502032132</v>
       </c>
       <c r="AU31" s="1">
-        <v>5497.1965163537834</v>
+        <v>6261.7654344880975</v>
       </c>
       <c r="AV31" s="1">
-        <v>5372.9091542481128</v>
+        <v>6201.6384749371009</v>
       </c>
       <c r="AW31" s="1">
-        <v>5297.9875362879811</v>
+        <v>6154.8124637120191</v>
       </c>
       <c r="AX31" s="1">
-        <v>5223.0659183278494</v>
+        <v>6117.3516547319532</v>
       </c>
       <c r="AY31" s="1">
-        <v>5166.8747048577516</v>
+        <v>6079.8908457518874</v>
       </c>
       <c r="AZ31" s="1">
-        <v>5106.0196632475327</v>
+        <v>6050.017805302884</v>
       </c>
       <c r="BA31" s="1">
-        <v>5068.5588542674668</v>
+        <v>6021.9221985678341</v>
       </c>
       <c r="BB31" s="1">
-        <v>5040.463247532417</v>
+        <v>6003.1917940778012</v>
       </c>
       <c r="BC31" s="1">
-        <v>5031.098045287401</v>
+        <v>5984.4613895877683</v>
       </c>
       <c r="BD31" s="1">
-        <v>5028.8445132572097</v>
+        <v>5976.3657828527193</v>
       </c>
       <c r="BE31" s="1">
-        <v>5038.2097155022257</v>
+        <v>5976.3657828527193</v>
       </c>
       <c r="BF31" s="1">
-        <v>5047.5749177472426</v>
+        <v>5976.3657828527193</v>
       </c>
       <c r="BG31" s="1">
-        <v>5075.6705244822915</v>
+        <v>5985.7309850977354</v>
       </c>
       <c r="BH31" s="1">
-        <v>5109.5237468550413</v>
+        <v>6011.5711244435843</v>
       </c>
       <c r="BI31" s="1">
-        <v>5146.9845558351071</v>
+        <v>6030.3015289336172</v>
       </c>
       <c r="BJ31" s="1">
-        <v>5184.445364815173</v>
+        <v>6049.0319334236501</v>
       </c>
       <c r="BK31" s="1">
-        <v>5240.6365782852718</v>
+        <v>6077.1275401587</v>
       </c>
       <c r="BL31" s="1">
-        <v>5303.4467969808402</v>
+        <v>6094.0805109347784</v>
       </c>
       <c r="BM31" s="1">
-        <v>5369.003212695955</v>
+        <v>6112.8109154248114</v>
       </c>
       <c r="BN31" s="1">
-        <v>5443.9248306560867</v>
+        <v>6131.5413199148443</v>
       </c>
       <c r="BO31" s="1">
-        <v>5537.5768531062513</v>
+        <v>6159.6369266498932</v>
       </c>
       <c r="BP31" s="1">
-        <v>5669.9007547900137</v>
+        <v>6202.6541513450748</v>
       </c>
       <c r="BQ31" s="1">
-        <v>5782.2831817302113</v>
+        <v>6258.8453648151735</v>
       </c>
       <c r="BR31" s="1">
-        <v>5904.0308109154248</v>
+        <v>6324.4017805302883</v>
       </c>
       <c r="BS31" s="1">
-        <v>6025.7784401006384</v>
+        <v>6418.0538029804529</v>
       </c>
       <c r="BT31" s="1">
-        <v>6184.5684536481531</v>
+        <v>6520.2121153473972</v>
       </c>
       <c r="BU31" s="1">
-        <v>6306.3160828333657</v>
+        <v>6632.5945422875948</v>
       </c>
       <c r="BV31" s="1">
-        <v>6428.0637120185802</v>
+        <v>6735.6117669827754</v>
       </c>
       <c r="BW31" s="1">
-        <v>6549.8113412037947</v>
+        <v>6838.628991677956</v>
       </c>
       <c r="BX31" s="1">
-        <v>6677.5241339268432</v>
+        <v>6941.3288174956451</v>
       </c>
       <c r="BY31" s="1">
-        <v>6799.2717631120577</v>
+        <v>7044.3460421908267</v>
       </c>
       <c r="BZ31" s="1">
-        <v>6911.6541900522552</v>
+        <v>7137.9980646409913</v>
       </c>
       <c r="CA31" s="1">
-        <v>7033.4018192374697</v>
+        <v>7222.284884846139</v>
       </c>
       <c r="CB31" s="1">
-        <v>7142.3734468743951</v>
+        <v>7296.6351848267859</v>
       </c>
       <c r="CC31" s="1">
-        <v>7226.6602670795437</v>
+        <v>7352.8263982968838</v>
       </c>
       <c r="CD31" s="1">
-        <v>7282.8514805496425</v>
+        <v>7352.8263982968838</v>
       </c>
       <c r="CE31" s="1">
-        <v>7301.5818850396745</v>
+        <v>7343.4611960518678</v>
       </c>
       <c r="CF31" s="1">
-        <v>7269.1608283336564</v>
+        <v>7320.3506870524479</v>
       </c>
       <c r="CG31" s="1">
-        <v>7241.0652215986065</v>
+        <v>7301.620282562415</v>
       </c>
       <c r="CH31" s="1">
-        <v>7175.5088058834917</v>
+        <v>7273.5246758273661</v>
       </c>
       <c r="CI31" s="1">
-        <v>7100.58718792336</v>
+        <v>7217.3334623572673</v>
       </c>
       <c r="CJ31" s="1">
-        <v>6946.0395587381463</v>
+        <v>7099.5215792529516</v>
       </c>
       <c r="CK31" s="1">
-        <v>6786.831120572866</v>
+        <v>6987.139152312754</v>
       </c>
       <c r="CL31" s="1">
-        <v>6683.8138958776854</v>
+        <v>6884.1219276175734</v>
       </c>
       <c r="CM31" s="1">
-        <v>6562.0662666924718</v>
+        <v>6762.374298432359</v>
       </c>
       <c r="CN31" s="1">
-        <v>6389.8229533578478</v>
+        <v>6592.4675827365982</v>
       </c>
       <c r="CO31" s="1">
-        <v>6277.4405264176503</v>
+        <v>6470.7199535513837</v>
       </c>
       <c r="CP31" s="1">
-        <v>6108.8668860073549</v>
+        <v>6311.5115153861043</v>
       </c>
       <c r="CQ31" s="1">
-        <v>5959.0236500870915</v>
+        <v>6152.3030772208249</v>
       </c>
       <c r="CR31" s="1">
-        <v>5768.1857170505127</v>
+        <v>5991.317205341591</v>
       </c>
       <c r="CS31" s="1">
-        <v>5590.2468743952004</v>
+        <v>5841.4739694213276</v>
       </c>
       <c r="CT31" s="1">
-        <v>5515.3252564350687</v>
+        <v>5710.3611379910972</v>
       </c>
       <c r="CU31" s="1">
-        <v>5412.3080317398881</v>
+        <v>5588.6135088058836</v>
       </c>
     </row>
     <row r="32" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B32" s="8">
-        <v>45733</v>
+        <v>45736</v>
       </c>
       <c r="C32" s="9">
         <v>45741</v>
       </c>
       <c r="D32" s="1">
-        <v>5521.6268627830459</v>
+        <v>5572.6762144377781</v>
       </c>
       <c r="E32" s="1">
-        <v>5493.531256047997</v>
+        <v>5525.8502032126962</v>
       </c>
       <c r="F32" s="1">
-        <v>5418.6096380878653</v>
+        <v>5488.3893942326304</v>
       </c>
       <c r="G32" s="1">
-        <v>5362.4184246177665</v>
+        <v>5441.5633830075476</v>
       </c>
       <c r="H32" s="1">
-        <v>5250.3053996516355</v>
+        <v>5396.92548867815</v>
       </c>
       <c r="I32" s="1">
-        <v>5212.8445906715697</v>
+        <v>5359.4646796980842</v>
       </c>
       <c r="J32" s="1">
-        <v>5175.3837816915038</v>
+        <v>5331.3690729630343</v>
       </c>
       <c r="K32" s="1">
-        <v>5137.922972711438</v>
+        <v>5293.9082639829685</v>
       </c>
       <c r="L32" s="1">
-        <v>5091.9558738145925</v>
+        <v>5263.4639055544803</v>
       </c>
       <c r="M32" s="1">
-        <v>5073.2254693245595</v>
+        <v>5254.0987033094643</v>
       </c>
       <c r="N32" s="1">
-        <v>5054.4950648345266</v>
+        <v>5244.7335010644474</v>
       </c>
       <c r="O32" s="1">
-        <v>5054.4950648345266</v>
+        <v>5235.3682988194314</v>
       </c>
       <c r="P32" s="1">
-        <v>5072.1761176698283</v>
+        <v>5229.050125798336</v>
       </c>
       <c r="Q32" s="1">
-        <v>5081.5413199148443</v>
+        <v>5210.3197213083031</v>
       </c>
       <c r="R32" s="1">
-        <v>5090.9065221598603</v>
+        <v>5210.3197213083031</v>
       </c>
       <c r="S32" s="1">
-        <v>5100.2717244048772</v>
+        <v>5219.6849235533191</v>
       </c>
       <c r="T32" s="1">
-        <v>5128.4713760402556</v>
+        <v>5241.2719179407777</v>
       </c>
       <c r="U32" s="1">
-        <v>5137.8365782852716</v>
+        <v>5260.0023224308106</v>
       </c>
       <c r="V32" s="1">
-        <v>5165.9321850203214</v>
+        <v>5288.0979291658605</v>
       </c>
       <c r="W32" s="1">
-        <v>5203.3929940003873</v>
+        <v>5334.9239403909423</v>
       </c>
       <c r="X32" s="1">
-        <v>5290.581381846333</v>
+        <v>5389.7185988000774</v>
       </c>
       <c r="Y32" s="1">
-        <v>5365.5029998064638</v>
+        <v>5464.6402167602091</v>
       </c>
       <c r="Z32" s="1">
-        <v>5459.1550222566284</v>
+        <v>5558.2922392103737</v>
       </c>
       <c r="AA32" s="1">
-        <v>5562.1722469518099</v>
+        <v>5661.3094639055544</v>
       </c>
       <c r="AB32" s="1">
-        <v>5726.076795045481</v>
+        <v>5766.7725953164309</v>
       </c>
       <c r="AC32" s="1">
-        <v>5847.8244242306946</v>
+        <v>5888.5202245016453</v>
       </c>
       <c r="AD32" s="1">
-        <v>5960.2068511708922</v>
+        <v>6000.9026514418429</v>
       </c>
       <c r="AE32" s="1">
-        <v>6063.2240758660737</v>
+        <v>6113.2850783820395</v>
       </c>
       <c r="AF32" s="1">
-        <v>6172.1029610992837</v>
+        <v>6240.6487323398487</v>
       </c>
       <c r="AG32" s="1">
-        <v>6247.0245790594154</v>
+        <v>6334.3007547900133</v>
       </c>
       <c r="AH32" s="1">
-        <v>6284.4853880394812</v>
+        <v>6409.222372750145</v>
       </c>
       <c r="AI32" s="1">
-        <v>6312.5809947745311</v>
+        <v>6484.1439907102767</v>
       </c>
       <c r="AJ32" s="1">
-        <v>6323.46584091349</v>
+        <v>6537.5718985871881</v>
       </c>
       <c r="AK32" s="1">
-        <v>6295.3702341784401</v>
+        <v>6575.032707567254</v>
       </c>
       <c r="AL32" s="1">
-        <v>6248.5442229533583</v>
+        <v>6584.39790981227</v>
       </c>
       <c r="AM32" s="1">
-        <v>6182.9878072382426</v>
+        <v>6584.39790981227</v>
       </c>
       <c r="AN32" s="1">
-        <v>6089.8709502612737</v>
+        <v>6543.2889491000578</v>
       </c>
       <c r="AO32" s="1">
-        <v>5996.2189278111091</v>
+        <v>6505.828140119992</v>
       </c>
       <c r="AP32" s="1">
-        <v>5883.8365008709116</v>
+        <v>6449.6369266498932</v>
       </c>
       <c r="AQ32" s="1">
-        <v>5762.088871685698</v>
+        <v>6384.0805109347784</v>
       </c>
       <c r="AR32" s="1">
-        <v>5618.9441455389979</v>
+        <v>6303.8265918327852</v>
       </c>
       <c r="AS32" s="1">
-        <v>5497.1965163537834</v>
+        <v>6228.9049738726535</v>
       </c>
       <c r="AT32" s="1">
-        <v>5394.1792916586028</v>
+        <v>6153.9833559125218</v>
       </c>
       <c r="AU32" s="1">
-        <v>5291.1620669634221</v>
+        <v>6088.426940197407</v>
       </c>
       <c r="AV32" s="1">
-        <v>5176.2399071027676</v>
+        <v>6028.1432165666729</v>
       </c>
       <c r="AW32" s="1">
-        <v>5101.3182891426359</v>
+        <v>5981.317205341591</v>
       </c>
       <c r="AX32" s="1">
-        <v>5035.7618734275211</v>
+        <v>5953.2215986065412</v>
       </c>
       <c r="AY32" s="1">
-        <v>4988.9358622024383</v>
+        <v>5934.4911941165083</v>
       </c>
       <c r="AZ32" s="1">
-        <v>4937.4460228372363</v>
+        <v>5922.3963615250632</v>
       </c>
       <c r="BA32" s="1">
-        <v>4909.3504161021874</v>
+        <v>5913.0311592800463</v>
       </c>
       <c r="BB32" s="1">
-        <v>4890.6200116121545</v>
+        <v>5903.6659570350303</v>
       </c>
       <c r="BC32" s="1">
-        <v>4881.2548093671376</v>
+        <v>5903.6659570350303</v>
       </c>
       <c r="BD32" s="1">
-        <v>4879.0012773369463</v>
+        <v>5893.3485581575387</v>
       </c>
       <c r="BE32" s="1">
-        <v>4888.3664795819623</v>
+        <v>5893.3485581575387</v>
       </c>
       <c r="BF32" s="1">
-        <v>4897.7316818269792</v>
+        <v>5893.3485581575387</v>
       </c>
       <c r="BG32" s="1">
-        <v>4925.8272885620281</v>
+        <v>5893.3485581575387</v>
       </c>
       <c r="BH32" s="1">
-        <v>4969.0457131797948</v>
+        <v>5902.5868008515581</v>
       </c>
       <c r="BI32" s="1">
-        <v>5015.8717244048776</v>
+        <v>5921.317205341591</v>
       </c>
       <c r="BJ32" s="1">
-        <v>5062.6977356299594</v>
+        <v>5940.047609831624</v>
       </c>
       <c r="BK32" s="1">
-        <v>5118.8889491000582</v>
+        <v>5968.1432165666729</v>
       </c>
       <c r="BL32" s="1">
-        <v>5200.4295722856587</v>
+        <v>6000.047609831624</v>
       </c>
       <c r="BM32" s="1">
-        <v>5265.9859880007743</v>
+        <v>6028.1432165666729</v>
       </c>
       <c r="BN32" s="1">
-        <v>5340.907605960906</v>
+        <v>6065.6040255467387</v>
       </c>
       <c r="BO32" s="1">
-        <v>5415.8292239210377</v>
+        <v>6112.4300367718215</v>
       </c>
       <c r="BP32" s="1">
-        <v>5538.7879233597832</v>
+        <v>6173.1581188310429</v>
       </c>
       <c r="BQ32" s="1">
-        <v>5632.4399458099479</v>
+        <v>6238.7145345461586</v>
       </c>
       <c r="BR32" s="1">
-        <v>5735.4571705051285</v>
+        <v>6313.6361525062903</v>
       </c>
       <c r="BS32" s="1">
-        <v>5847.839597445326</v>
+        <v>6416.6533772014709</v>
       </c>
       <c r="BT32" s="1">
-        <v>5987.8992065028069</v>
+        <v>6542.0154828720724</v>
       </c>
       <c r="BU32" s="1">
-        <v>6119.0120379330365</v>
+        <v>6654.39790981227</v>
       </c>
       <c r="BV32" s="1">
-        <v>6250.1248693632679</v>
+        <v>6776.1455389974844</v>
       </c>
       <c r="BW32" s="1">
-        <v>6371.8724985484805</v>
+        <v>6888.527965937682</v>
       </c>
       <c r="BX32" s="1">
-        <v>6518.3156957615647</v>
+        <v>6980.5929940003871</v>
       </c>
       <c r="BY32" s="1">
-        <v>6649.4285271917943</v>
+        <v>7074.2450164505517</v>
       </c>
       <c r="BZ32" s="1">
-        <v>6780.5413586220257</v>
+        <v>7149.1666344106834</v>
       </c>
       <c r="CA32" s="1">
-        <v>6902.2889878072383</v>
+        <v>7214.7230501257982</v>
       </c>
       <c r="CB32" s="1">
-        <v>7020.6258176891815</v>
+        <v>7266.2802399845168</v>
       </c>
       <c r="CC32" s="1">
-        <v>7095.5474356493132</v>
+        <v>7285.0106444745497</v>
       </c>
       <c r="CD32" s="1">
-        <v>7133.0082446293791</v>
+        <v>7285.0106444745497</v>
       </c>
       <c r="CE32" s="1">
-        <v>7133.0082446293791</v>
+        <v>7266.2802399845168</v>
       </c>
       <c r="CF32" s="1">
-        <v>7072.4915811883102</v>
+        <v>7241.8029804528742</v>
       </c>
       <c r="CG32" s="1">
-        <v>7035.0307722082443</v>
+        <v>7213.7073737178243</v>
       </c>
       <c r="CH32" s="1">
-        <v>6978.8395587381456</v>
+        <v>7185.6117669827754</v>
       </c>
       <c r="CI32" s="1">
-        <v>6941.3787497580806</v>
+        <v>7120.0553512676606</v>
       </c>
       <c r="CJ32" s="1">
-        <v>6833.6571317979488</v>
+        <v>7029.0694793884268</v>
       </c>
       <c r="CK32" s="1">
-        <v>6730.6399071027672</v>
+        <v>6916.6870524482292</v>
       </c>
       <c r="CL32" s="1">
-        <v>6655.7182891426364</v>
+        <v>6823.0350299980646</v>
       </c>
       <c r="CM32" s="1">
-        <v>6533.970659957422</v>
+        <v>6701.287400812851</v>
       </c>
       <c r="CN32" s="1">
-        <v>6333.6317398877491</v>
+        <v>6522.1126378943291</v>
       </c>
       <c r="CO32" s="1">
-        <v>6211.8841107025355</v>
+        <v>6390.9998064640995</v>
       </c>
       <c r="CP32" s="1">
-        <v>6062.0408747822721</v>
+        <v>6231.7913682988192</v>
       </c>
       <c r="CQ32" s="1">
-        <v>5930.9280433520416</v>
+        <v>6081.9481323785567</v>
       </c>
       <c r="CR32" s="1">
-        <v>5730.7249080704469</v>
+        <v>5896.3282368879427</v>
       </c>
       <c r="CS32" s="1">
-        <v>5580.8816721501835</v>
+        <v>5746.4850009676793</v>
       </c>
       <c r="CT32" s="1">
-        <v>5496.5948519450358</v>
+        <v>5624.7373717824657</v>
       </c>
       <c r="CU32" s="1">
-        <v>5393.5776272498551</v>
+        <v>5521.7201470872851</v>
       </c>
     </row>
     <row r="33" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B33" s="8">
-        <v>45734</v>
+        <v>45736</v>
       </c>
       <c r="C33" s="9">
         <v>45742</v>
       </c>
       <c r="D33" s="1">
-        <v>5427.6279465840917</v>
+        <v>5479.0241919876134</v>
       </c>
       <c r="E33" s="1">
-        <v>5399.5323398490418</v>
+        <v>5432.1981807625316</v>
       </c>
       <c r="F33" s="1">
-        <v>5343.341126378943</v>
+        <v>5385.3721695374488</v>
       </c>
       <c r="G33" s="1">
-        <v>5287.1499129088443</v>
+        <v>5347.9113605573839</v>
       </c>
       <c r="H33" s="1">
-        <v>5355.5289336171863</v>
+        <v>5331.3690729630343</v>
       </c>
       <c r="I33" s="1">
-        <v>5327.4333268821365</v>
+        <v>5293.9082639829685</v>
       </c>
       <c r="J33" s="1">
-        <v>5289.9725179020706</v>
+        <v>5275.1778594929356</v>
       </c>
       <c r="K33" s="1">
-        <v>5252.5117089220048</v>
+        <v>5247.0822527578866</v>
       </c>
       <c r="L33" s="1">
-        <v>5223.400425778982</v>
+        <v>5216.6378943293985</v>
       </c>
       <c r="M33" s="1">
-        <v>5195.3048190439331</v>
+        <v>5207.2726920843816</v>
       </c>
       <c r="N33" s="1">
-        <v>5185.9396167989162</v>
+        <v>5188.5422875943486</v>
       </c>
       <c r="O33" s="1">
-        <v>5185.9396167989162</v>
+        <v>5188.5422875943486</v>
       </c>
       <c r="P33" s="1">
-        <v>5197.8440100638672</v>
+        <v>5182.2241145732532</v>
       </c>
       <c r="Q33" s="1">
-        <v>5207.2092123088833</v>
+        <v>5172.8589123282372</v>
       </c>
       <c r="R33" s="1">
-        <v>5207.2092123088833</v>
+        <v>5163.4937100832203</v>
       </c>
       <c r="S33" s="1">
-        <v>5216.5744145539002</v>
+        <v>5163.4937100832203</v>
       </c>
       <c r="T33" s="1">
-        <v>5225.4317785949297</v>
+        <v>5175.7155022256629</v>
       </c>
       <c r="U33" s="1">
-        <v>5234.7969808399457</v>
+        <v>5194.4459067156959</v>
       </c>
       <c r="V33" s="1">
-        <v>5262.8925875749956</v>
+        <v>5231.9067156957617</v>
       </c>
       <c r="W33" s="1">
-        <v>5300.3533965550614</v>
+        <v>5278.7327269208436</v>
       </c>
       <c r="X33" s="1">
-        <v>5364.7671763112057</v>
+        <v>5342.8925875749956</v>
       </c>
       <c r="Y33" s="1">
-        <v>5439.6887942713374</v>
+        <v>5417.8142055351273</v>
       </c>
       <c r="Z33" s="1">
-        <v>5542.7060189665181</v>
+        <v>5511.466227985291</v>
       </c>
       <c r="AA33" s="1">
-        <v>5655.0884459067156</v>
+        <v>5614.4834526804725</v>
       </c>
       <c r="AB33" s="1">
-        <v>5773.1244435842846</v>
+        <v>5729.3117863363659</v>
       </c>
       <c r="AC33" s="1">
-        <v>5894.872072769499</v>
+        <v>5841.6942132765626</v>
       </c>
       <c r="AD33" s="1">
-        <v>6016.6197019547126</v>
+        <v>5954.0766402167601</v>
       </c>
       <c r="AE33" s="1">
-        <v>6129.0021288949101</v>
+        <v>6066.4590671569576</v>
       </c>
       <c r="AF33" s="1">
-        <v>6220.5593187536288</v>
+        <v>6193.8227211147669</v>
       </c>
       <c r="AG33" s="1">
-        <v>6295.4809367137605</v>
+        <v>6287.4747435649315</v>
       </c>
       <c r="AH33" s="1">
-        <v>6342.3069479388423</v>
+        <v>6362.3963615250632</v>
       </c>
       <c r="AI33" s="1">
-        <v>6370.4025546738922</v>
+        <v>6427.952777240178</v>
       </c>
       <c r="AJ33" s="1">
-        <v>6362.4339074898398</v>
+        <v>6490.7458873621053</v>
       </c>
       <c r="AK33" s="1">
-        <v>6334.33830075479</v>
+        <v>6528.2066963421712</v>
       </c>
       <c r="AL33" s="1">
-        <v>6287.5122895297081</v>
+        <v>6537.5718985871881</v>
       </c>
       <c r="AM33" s="1">
-        <v>6221.9558738145925</v>
+        <v>6537.5718985871881</v>
       </c>
       <c r="AN33" s="1">
-        <v>6148.2066963421712</v>
+        <v>6505.828140119992</v>
       </c>
       <c r="AO33" s="1">
-        <v>6045.1894716469906</v>
+        <v>6459.0021288949101</v>
       </c>
       <c r="AP33" s="1">
-        <v>5942.1722469518099</v>
+        <v>6402.8109154248114</v>
       </c>
       <c r="AQ33" s="1">
-        <v>5839.1550222566284</v>
+        <v>6337.2544997096966</v>
       </c>
       <c r="AR33" s="1">
-        <v>5723.1542481130255</v>
+        <v>6257.0005806077024</v>
       </c>
       <c r="AS33" s="1">
-        <v>5620.1370234178439</v>
+        <v>6182.0789626475716</v>
       </c>
       <c r="AT33" s="1">
-        <v>5526.4850009676793</v>
+        <v>6107.1573446874399</v>
       </c>
       <c r="AU33" s="1">
-        <v>5442.1981807625316</v>
+        <v>6041.6009289723243</v>
       </c>
       <c r="AV33" s="1">
-        <v>5354.6104122314691</v>
+        <v>5971.9520030965741</v>
       </c>
       <c r="AW33" s="1">
-        <v>5289.0539965163534</v>
+        <v>5934.4911941165083</v>
       </c>
       <c r="AX33" s="1">
-        <v>5232.8627830462556</v>
+        <v>5897.0303851364433</v>
       </c>
       <c r="AY33" s="1">
-        <v>5186.0367718211728</v>
+        <v>5878.2999806464104</v>
       </c>
       <c r="AZ33" s="1">
-        <v>5146.92548867815</v>
+        <v>5866.2051480549644</v>
       </c>
       <c r="BA33" s="1">
-        <v>5109.4646796980842</v>
+        <v>5856.8399458099475</v>
       </c>
       <c r="BB33" s="1">
-        <v>5090.7342752080513</v>
+        <v>5856.8399458099475</v>
       </c>
       <c r="BC33" s="1">
-        <v>5072.0038707180183</v>
+        <v>5856.8399458099475</v>
       </c>
       <c r="BD33" s="1">
-        <v>5062.6386684730014</v>
+        <v>5846.522546932456</v>
       </c>
       <c r="BE33" s="1">
-        <v>5062.6386684730014</v>
+        <v>5846.522546932456</v>
       </c>
       <c r="BF33" s="1">
-        <v>5062.6386684730014</v>
+        <v>5846.522546932456</v>
       </c>
       <c r="BG33" s="1">
-        <v>5081.3690729630343</v>
+        <v>5846.522546932456</v>
       </c>
       <c r="BH33" s="1">
-        <v>5095.3384942906914</v>
+        <v>5855.7607896264753</v>
       </c>
       <c r="BI33" s="1">
-        <v>5132.7993032707564</v>
+        <v>5874.4911941165083</v>
       </c>
       <c r="BJ33" s="1">
-        <v>5170.2601122508222</v>
+        <v>5893.2215986065412</v>
       </c>
       <c r="BK33" s="1">
-        <v>5207.7209212308881</v>
+        <v>5921.317205341591</v>
       </c>
       <c r="BL33" s="1">
-        <v>5263.2773369460037</v>
+        <v>5962.5868008515581</v>
       </c>
       <c r="BM33" s="1">
-        <v>5319.4685504161025</v>
+        <v>5990.682407586607</v>
       </c>
       <c r="BN33" s="1">
-        <v>5394.3901683762342</v>
+        <v>6028.1432165666729</v>
       </c>
       <c r="BO33" s="1">
-        <v>5478.6769885813819</v>
+        <v>6074.9692277917557</v>
       </c>
       <c r="BP33" s="1">
-        <v>5573.7255660925102</v>
+        <v>6135.697309850977</v>
       </c>
       <c r="BQ33" s="1">
-        <v>5676.7427907876909</v>
+        <v>6201.2537255660927</v>
       </c>
       <c r="BR33" s="1">
-        <v>5798.4904199729053</v>
+        <v>6276.1753435262244</v>
       </c>
       <c r="BS33" s="1">
-        <v>5929.6032514031358</v>
+        <v>6369.827365976389</v>
       </c>
       <c r="BT33" s="1">
-        <v>6066.7466615057092</v>
+        <v>6495.1894716469906</v>
       </c>
       <c r="BU33" s="1">
-        <v>6188.4942906909237</v>
+        <v>6607.5718985871881</v>
       </c>
       <c r="BV33" s="1">
-        <v>6310.2419198761372</v>
+        <v>6729.3195277724017</v>
       </c>
       <c r="BW33" s="1">
-        <v>6431.9895490613508</v>
+        <v>6832.3367524675832</v>
       </c>
       <c r="BX33" s="1">
-        <v>6545.768531062512</v>
+        <v>6933.7669827753052</v>
       </c>
       <c r="BY33" s="1">
-        <v>6658.1509580027096</v>
+        <v>7027.4190052254698</v>
       </c>
       <c r="BZ33" s="1">
-        <v>6779.8985871879231</v>
+        <v>7102.3406231856006</v>
       </c>
       <c r="CA33" s="1">
-        <v>6901.6462163731376</v>
+        <v>7177.2622411457323</v>
       </c>
       <c r="CB33" s="1">
-        <v>7009.8389781304431</v>
+        <v>7219.454228759435</v>
       </c>
       <c r="CC33" s="1">
-        <v>7094.1257983355918</v>
+        <v>7238.1846332494679</v>
       </c>
       <c r="CD33" s="1">
-        <v>7140.9518095606736</v>
+        <v>7238.1846332494679</v>
       </c>
       <c r="CE33" s="1">
-        <v>7140.9518095606736</v>
+        <v>7219.454228759435</v>
       </c>
       <c r="CF33" s="1">
-        <v>7123.2370814786145</v>
+        <v>7204.3421714728083</v>
       </c>
       <c r="CG33" s="1">
-        <v>7085.7762724985487</v>
+        <v>7176.2465647377594</v>
       </c>
       <c r="CH33" s="1">
-        <v>7029.5850590284499</v>
+        <v>7129.4205535126766</v>
       </c>
       <c r="CI33" s="1">
-        <v>6982.759047803368</v>
+        <v>7073.2293400425779</v>
       </c>
       <c r="CJ33" s="1">
-        <v>6910.5035804141671</v>
+        <v>6982.243468163344</v>
       </c>
       <c r="CK33" s="1">
-        <v>6798.1211534739696</v>
+        <v>6869.8610412231474</v>
       </c>
       <c r="CL33" s="1">
-        <v>6713.8343332688219</v>
+        <v>6748.1134120379329</v>
       </c>
       <c r="CM33" s="1">
-        <v>6582.7215018385914</v>
+        <v>6617.0005806077024</v>
       </c>
       <c r="CN33" s="1">
-        <v>6424.6556996322815</v>
+        <v>6465.9214244242312</v>
       </c>
       <c r="CO33" s="1">
-        <v>6312.2732726920849</v>
+        <v>6334.8085929940007</v>
       </c>
       <c r="CP33" s="1">
-        <v>6162.4300367718215</v>
+        <v>6175.6001548287204</v>
       </c>
       <c r="CQ33" s="1">
-        <v>6003.2215986065412</v>
+        <v>6016.391716663441</v>
       </c>
       <c r="CR33" s="1">
-        <v>5805.1856009289722</v>
+        <v>5821.406618927811</v>
       </c>
       <c r="CS33" s="1">
-        <v>5636.6119605186759</v>
+        <v>5680.9285852525645</v>
       </c>
       <c r="CT33" s="1">
-        <v>5561.6903425585451</v>
+        <v>5568.546158312367</v>
       </c>
       <c r="CU33" s="1">
-        <v>5458.6731178633636</v>
+        <v>5521.7201470872851</v>
       </c>
     </row>
     <row r="34" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
+      <c r="B34" s="8">
+        <v>45736</v>
+      </c>
       <c r="C34" s="9">
         <v>45743</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
-      <c r="AD34" s="1"/>
-      <c r="AE34" s="1"/>
-      <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="1"/>
-      <c r="AP34" s="1"/>
-      <c r="AQ34" s="1"/>
-      <c r="AR34" s="1"/>
-      <c r="AS34" s="1"/>
-      <c r="AT34" s="1"/>
-      <c r="AU34" s="1"/>
-      <c r="AV34" s="1"/>
-      <c r="AW34" s="1"/>
-      <c r="AX34" s="1"/>
-      <c r="AY34" s="1"/>
-      <c r="AZ34" s="1"/>
-      <c r="BA34" s="1"/>
-      <c r="BB34" s="1"/>
-      <c r="BC34" s="1"/>
-      <c r="BD34" s="1"/>
-      <c r="BE34" s="1"/>
-      <c r="BF34" s="1"/>
-      <c r="BG34" s="1"/>
-      <c r="BH34" s="1"/>
-      <c r="BI34" s="1"/>
-      <c r="BJ34" s="1"/>
-      <c r="BK34" s="1"/>
-      <c r="BL34" s="1"/>
-      <c r="BM34" s="1"/>
-      <c r="BN34" s="1"/>
-      <c r="BO34" s="1"/>
-      <c r="BP34" s="1"/>
-      <c r="BQ34" s="1"/>
-      <c r="BR34" s="1"/>
-      <c r="BS34" s="1"/>
-      <c r="BT34" s="1"/>
-      <c r="BU34" s="1"/>
-      <c r="BV34" s="1"/>
-      <c r="BW34" s="1"/>
-      <c r="BX34" s="1"/>
-      <c r="BY34" s="1"/>
-      <c r="BZ34" s="1"/>
-      <c r="CA34" s="1"/>
-      <c r="CB34" s="1"/>
-      <c r="CC34" s="1"/>
-      <c r="CD34" s="1"/>
-      <c r="CE34" s="1"/>
-      <c r="CF34" s="1"/>
-      <c r="CG34" s="1"/>
-      <c r="CH34" s="1"/>
-      <c r="CI34" s="1"/>
-      <c r="CJ34" s="1"/>
-      <c r="CK34" s="1"/>
-      <c r="CL34" s="1"/>
-      <c r="CM34" s="1"/>
-      <c r="CN34" s="1"/>
-      <c r="CO34" s="1"/>
-      <c r="CP34" s="1"/>
-      <c r="CQ34" s="1"/>
-      <c r="CR34" s="1"/>
-      <c r="CS34" s="1"/>
-      <c r="CT34" s="1"/>
-      <c r="CU34" s="1"/>
+      <c r="D34" s="1">
+        <v>5504.3564931294759</v>
+      </c>
+      <c r="E34" s="1">
+        <v>5476.2608863944261</v>
+      </c>
+      <c r="F34" s="1">
+        <v>5429.4348751693442</v>
+      </c>
+      <c r="G34" s="1">
+        <v>5391.9740661892783</v>
+      </c>
+      <c r="H34" s="1">
+        <v>5357.4968066576348</v>
+      </c>
+      <c r="I34" s="1">
+        <v>5329.4011999225859</v>
+      </c>
+      <c r="J34" s="1">
+        <v>5301.305593187536</v>
+      </c>
+      <c r="K34" s="1">
+        <v>5282.5751886975031</v>
+      </c>
+      <c r="L34" s="1">
+        <v>5265.1143797174373</v>
+      </c>
+      <c r="M34" s="1">
+        <v>5246.3839752274043</v>
+      </c>
+      <c r="N34" s="1">
+        <v>5227.6535707373714</v>
+      </c>
+      <c r="O34" s="1">
+        <v>5218.2883684923554</v>
+      </c>
+      <c r="P34" s="1">
+        <v>5207.7805302883689</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>5207.7805302883689</v>
+      </c>
+      <c r="R34" s="1">
+        <v>5217.1457325333849</v>
+      </c>
+      <c r="S34" s="1">
+        <v>5235.8761370234179</v>
+      </c>
+      <c r="T34" s="1">
+        <v>5272.8925875749956</v>
+      </c>
+      <c r="U34" s="1">
+        <v>5310.3533965550614</v>
+      </c>
+      <c r="V34" s="1">
+        <v>5338.4490032901103</v>
+      </c>
+      <c r="W34" s="1">
+        <v>5375.9098122701762</v>
+      </c>
+      <c r="X34" s="1">
+        <v>5431.275788658796</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>5506.1974066189277</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>5599.8494290690924</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>5702.866653764273</v>
+      </c>
+      <c r="AB34" s="1">
+        <v>5809.9802593381073</v>
+      </c>
+      <c r="AC34" s="1">
+        <v>5931.7278885233209</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>6044.1103154635184</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>6156.492742403716</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>6276.6831817302109</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>6370.3352041803755</v>
+      </c>
+      <c r="AH34" s="1">
+        <v>6454.6220243855232</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>6520.1784401006389</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>6567.0044513257208</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>6595.1000580607706</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>6613.8304625508035</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>6604.4652603057866</v>
+      </c>
+      <c r="AN34" s="1">
+        <v>6566.403328817496</v>
+      </c>
+      <c r="AO34" s="1">
+        <v>6519.5773175924132</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>6472.7513063673314</v>
+      </c>
+      <c r="AQ34" s="1">
+        <v>6407.1948906522157</v>
+      </c>
+      <c r="AR34" s="1">
+        <v>6352.4935165473198</v>
+      </c>
+      <c r="AS34" s="1">
+        <v>6277.5718985871881</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>6212.0154828720724</v>
+      </c>
+      <c r="AU34" s="1">
+        <v>6155.8242694019746</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>6106.0147087284695</v>
+      </c>
+      <c r="AW34" s="1">
+        <v>6068.5538997484036</v>
+      </c>
+      <c r="AX34" s="1">
+        <v>6040.4582930133538</v>
+      </c>
+      <c r="AY34" s="1">
+        <v>6012.3626862783049</v>
+      </c>
+      <c r="AZ34" s="1">
+        <v>6003.6322817882719</v>
+      </c>
+      <c r="BA34" s="1">
+        <v>5984.901877298239</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>5975.5366750532221</v>
+      </c>
+      <c r="BC34" s="1">
+        <v>5966.1714728082061</v>
+      </c>
+      <c r="BD34" s="1">
+        <v>5963.8227211147669</v>
+      </c>
+      <c r="BE34" s="1">
+        <v>5963.8227211147669</v>
+      </c>
+      <c r="BF34" s="1">
+        <v>5963.8227211147669</v>
+      </c>
+      <c r="BG34" s="1">
+        <v>5973.1879233597829</v>
+      </c>
+      <c r="BH34" s="1">
+        <v>5976.5860267079543</v>
+      </c>
+      <c r="BI34" s="1">
+        <v>5995.3164311979872</v>
+      </c>
+      <c r="BJ34" s="1">
+        <v>6014.0468356880201</v>
+      </c>
+      <c r="BK34" s="1">
+        <v>6042.14244242307</v>
+      </c>
+      <c r="BL34" s="1">
+        <v>6073.6659570350303</v>
+      </c>
+      <c r="BM34" s="1">
+        <v>6111.1267660150961</v>
+      </c>
+      <c r="BN34" s="1">
+        <v>6148.587574995162</v>
+      </c>
+      <c r="BO34" s="1">
+        <v>6186.0483839752278</v>
+      </c>
+      <c r="BP34" s="1">
+        <v>6232.908070447068</v>
+      </c>
+      <c r="BQ34" s="1">
+        <v>6298.4644861621828</v>
+      </c>
+      <c r="BR34" s="1">
+        <v>6373.3861041223145</v>
+      </c>
+      <c r="BS34" s="1">
+        <v>6457.6729243274631</v>
+      </c>
+      <c r="BT34" s="1">
+        <v>6569.958196245404</v>
+      </c>
+      <c r="BU34" s="1">
+        <v>6672.9754209405846</v>
+      </c>
+      <c r="BV34" s="1">
+        <v>6775.9926456357653</v>
+      </c>
+      <c r="BW34" s="1">
+        <v>6879.0098703309468</v>
+      </c>
+      <c r="BX34" s="1">
+        <v>6970.7574995161604</v>
+      </c>
+      <c r="BY34" s="1">
+        <v>7055.0443197213081</v>
+      </c>
+      <c r="BZ34" s="1">
+        <v>7139.3311399264567</v>
+      </c>
+      <c r="CA34" s="1">
+        <v>7204.8875556415715</v>
+      </c>
+      <c r="CB34" s="1">
+        <v>7274.6336365395782</v>
+      </c>
+      <c r="CC34" s="1">
+        <v>7312.0944455196441</v>
+      </c>
+      <c r="CD34" s="1">
+        <v>7330.824850009677</v>
+      </c>
+      <c r="CE34" s="1">
+        <v>7312.0944455196441</v>
+      </c>
+      <c r="CF34" s="1">
+        <v>7281.5231275401584</v>
+      </c>
+      <c r="CG34" s="1">
+        <v>7244.0623185600934</v>
+      </c>
+      <c r="CH34" s="1">
+        <v>7178.5059028449778</v>
+      </c>
+      <c r="CI34" s="1">
+        <v>7112.949487129863</v>
+      </c>
+      <c r="CJ34" s="1">
+        <v>7002.0270950261274</v>
+      </c>
+      <c r="CK34" s="1">
+        <v>6870.914263595897</v>
+      </c>
+      <c r="CL34" s="1">
+        <v>6767.8970389007163</v>
+      </c>
+      <c r="CM34" s="1">
+        <v>6655.5146119605188</v>
+      </c>
+      <c r="CN34" s="1">
+        <v>6500.7497580801237</v>
+      </c>
+      <c r="CO34" s="1">
+        <v>6379.0021288949101</v>
+      </c>
+      <c r="CP34" s="1">
+        <v>6219.7936907296307</v>
+      </c>
+      <c r="CQ34" s="1">
+        <v>6079.3156570543833</v>
+      </c>
+      <c r="CR34" s="1">
+        <v>5899.0617379523901</v>
+      </c>
+      <c r="CS34" s="1">
+        <v>5767.9489065221596</v>
+      </c>
+      <c r="CT34" s="1">
+        <v>5646.2012773369461</v>
+      </c>
+      <c r="CU34" s="1">
+        <v>5571.2796593768144</v>
+      </c>
       <c r="CV34" s="13"/>
       <c r="CW34" s="13"/>
       <c r="CX34" s="13"/>
       <c r="CY34" s="13"/>
     </row>
     <row r="35" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B35" s="8"/>
+      <c r="B35" s="8">
+        <v>45736</v>
+      </c>
       <c r="C35" s="9">
         <v>45744</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
-      <c r="AL35" s="1"/>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="1"/>
-      <c r="AP35" s="1"/>
-      <c r="AQ35" s="1"/>
-      <c r="AR35" s="1"/>
-      <c r="AS35" s="1"/>
-      <c r="AT35" s="1"/>
-      <c r="AU35" s="1"/>
-      <c r="AV35" s="1"/>
-      <c r="AW35" s="1"/>
-      <c r="AX35" s="1"/>
-      <c r="AY35" s="1"/>
-      <c r="AZ35" s="1"/>
-      <c r="BA35" s="1"/>
-      <c r="BB35" s="1"/>
-      <c r="BC35" s="1"/>
-      <c r="BD35" s="1"/>
-      <c r="BE35" s="1"/>
-      <c r="BF35" s="1"/>
-      <c r="BG35" s="1"/>
-      <c r="BH35" s="1"/>
-      <c r="BI35" s="1"/>
-      <c r="BJ35" s="1"/>
-      <c r="BK35" s="1"/>
-      <c r="BL35" s="1"/>
-      <c r="BM35" s="1"/>
-      <c r="BN35" s="1"/>
-      <c r="BO35" s="1"/>
-      <c r="BP35" s="1"/>
-      <c r="BQ35" s="1"/>
-      <c r="BR35" s="1"/>
-      <c r="BS35" s="1"/>
-      <c r="BT35" s="1"/>
-      <c r="BU35" s="1"/>
-      <c r="BV35" s="1"/>
-      <c r="BW35" s="1"/>
-      <c r="BX35" s="1"/>
-      <c r="BY35" s="1"/>
-      <c r="BZ35" s="1"/>
-      <c r="CA35" s="1"/>
-      <c r="CB35" s="1"/>
-      <c r="CC35" s="1"/>
-      <c r="CD35" s="1"/>
-      <c r="CE35" s="1"/>
-      <c r="CF35" s="1"/>
-      <c r="CG35" s="1"/>
-      <c r="CH35" s="1"/>
-      <c r="CI35" s="1"/>
-      <c r="CJ35" s="1"/>
-      <c r="CK35" s="1"/>
-      <c r="CL35" s="1"/>
-      <c r="CM35" s="1"/>
-      <c r="CN35" s="1"/>
-      <c r="CO35" s="1"/>
-      <c r="CP35" s="1"/>
-      <c r="CQ35" s="1"/>
-      <c r="CR35" s="1"/>
-      <c r="CS35" s="1"/>
-      <c r="CT35" s="1"/>
-      <c r="CU35" s="1"/>
+      <c r="D35" s="1">
+        <v>5568.4528740081287</v>
+      </c>
+      <c r="E35" s="1">
+        <v>5521.6268627830459</v>
+      </c>
+      <c r="F35" s="1">
+        <v>5484.166053802981</v>
+      </c>
+      <c r="G35" s="1">
+        <v>5437.3400425778982</v>
+      </c>
+      <c r="H35" s="1">
+        <v>5315.8618153667503</v>
+      </c>
+      <c r="I35" s="1">
+        <v>5287.7662086317014</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5269.0358041416685</v>
+      </c>
+      <c r="K35" s="1">
+        <v>5250.3053996516355</v>
+      </c>
+      <c r="L35" s="1">
+        <v>5223.0687052448229</v>
+      </c>
+      <c r="M35" s="1">
+        <v>5213.7035029998069</v>
+      </c>
+      <c r="N35" s="1">
+        <v>5204.33830075479</v>
+      </c>
+      <c r="O35" s="1">
+        <v>5194.973098509774</v>
+      </c>
+      <c r="P35" s="1">
+        <v>5193.9237468550418</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5184.5585446100249</v>
+      </c>
+      <c r="R35" s="1">
+        <v>5184.5585446100249</v>
+      </c>
+      <c r="S35" s="1">
+        <v>5193.9237468550418</v>
+      </c>
+      <c r="T35" s="1">
+        <v>5222.1233984904202</v>
+      </c>
+      <c r="U35" s="1">
+        <v>5240.8538029804531</v>
+      </c>
+      <c r="V35" s="1">
+        <v>5268.949409715502</v>
+      </c>
+      <c r="W35" s="1">
+        <v>5315.7754209405848</v>
+      </c>
+      <c r="X35" s="1">
+        <v>5393.5986065415136</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>5468.5202245016453</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>5552.807044706793</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>5646.4590671569576</v>
+      </c>
+      <c r="AB35" s="1">
+        <v>5791.6332107605958</v>
+      </c>
+      <c r="AC35" s="1">
+        <v>5904.0156377007934</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>6007.0328623959749</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>6110.0500870911555</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>6237.6593768143994</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>6321.9461970195471</v>
+      </c>
+      <c r="AH35" s="1">
+        <v>6396.8678149796788</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>6462.4242306947936</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>6529.5002903038512</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>6557.5958970389011</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>6566.9610992839171</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>6566.9610992839171</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>6530.035455777047</v>
+      </c>
+      <c r="AO35" s="1">
+        <v>6492.5746467969811</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>6436.3834333268824</v>
+      </c>
+      <c r="AQ35" s="1">
+        <v>6370.8270176117667</v>
+      </c>
+      <c r="AR35" s="1">
+        <v>6274.5083026901493</v>
+      </c>
+      <c r="AS35" s="1">
+        <v>6199.5866847300176</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>6134.0302690149019</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>6077.8390555448041</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>6000.3777046642153</v>
+      </c>
+      <c r="AW35" s="1">
+        <v>5962.9168956841495</v>
+      </c>
+      <c r="AX35" s="1">
+        <v>5934.8212889491006</v>
+      </c>
+      <c r="AY35" s="1">
+        <v>5906.7256822140507</v>
+      </c>
+      <c r="AZ35" s="1">
+        <v>5883.3314495838977</v>
+      </c>
+      <c r="BA35" s="1">
+        <v>5864.6010450938647</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>5855.2358428488487</v>
+      </c>
+      <c r="BC35" s="1">
+        <v>5845.8706406038318</v>
+      </c>
+      <c r="BD35" s="1">
+        <v>5843.6171085736405</v>
+      </c>
+      <c r="BE35" s="1">
+        <v>5843.6171085736405</v>
+      </c>
+      <c r="BF35" s="1">
+        <v>5843.6171085736405</v>
+      </c>
+      <c r="BG35" s="1">
+        <v>5852.9823108186565</v>
+      </c>
+      <c r="BH35" s="1">
+        <v>5868.1051287013743</v>
+      </c>
+      <c r="BI35" s="1">
+        <v>5886.8355331914072</v>
+      </c>
+      <c r="BJ35" s="1">
+        <v>5905.5659376814401</v>
+      </c>
+      <c r="BK35" s="1">
+        <v>5933.6615444164891</v>
+      </c>
+      <c r="BL35" s="1">
+        <v>5977.7413586220246</v>
+      </c>
+      <c r="BM35" s="1">
+        <v>6015.2021676020904</v>
+      </c>
+      <c r="BN35" s="1">
+        <v>6052.6629765821563</v>
+      </c>
+      <c r="BO35" s="1">
+        <v>6090.1237855622221</v>
+      </c>
+      <c r="BP35" s="1">
+        <v>6184.9868782659187</v>
+      </c>
+      <c r="BQ35" s="1">
+        <v>6250.5432939810335</v>
+      </c>
+      <c r="BR35" s="1">
+        <v>6325.4649119411652</v>
+      </c>
+      <c r="BS35" s="1">
+        <v>6409.7517321463129</v>
+      </c>
+      <c r="BT35" s="1">
+        <v>6540.4461389587777</v>
+      </c>
+      <c r="BU35" s="1">
+        <v>6643.4633636539584</v>
+      </c>
+      <c r="BV35" s="1">
+        <v>6746.480588349139</v>
+      </c>
+      <c r="BW35" s="1">
+        <v>6849.4978130443196</v>
+      </c>
+      <c r="BX35" s="1">
+        <v>6958.480201277338</v>
+      </c>
+      <c r="BY35" s="1">
+        <v>7042.7670214824848</v>
+      </c>
+      <c r="BZ35" s="1">
+        <v>7117.6886394426165</v>
+      </c>
+      <c r="CA35" s="1">
+        <v>7192.6102574027482</v>
+      </c>
+      <c r="CB35" s="1">
+        <v>7264.1210760596095</v>
+      </c>
+      <c r="CC35" s="1">
+        <v>7301.5818850396745</v>
+      </c>
+      <c r="CD35" s="1">
+        <v>7301.5818850396745</v>
+      </c>
+      <c r="CE35" s="1">
+        <v>7292.2166827946585</v>
+      </c>
+      <c r="CF35" s="1">
+        <v>7250.4304238436234</v>
+      </c>
+      <c r="CG35" s="1">
+        <v>7212.9696148635576</v>
+      </c>
+      <c r="CH35" s="1">
+        <v>7147.4131991484419</v>
+      </c>
+      <c r="CI35" s="1">
+        <v>7081.8567834333271</v>
+      </c>
+      <c r="CJ35" s="1">
+        <v>6936.6743564931294</v>
+      </c>
+      <c r="CK35" s="1">
+        <v>6814.9267273079158</v>
+      </c>
+      <c r="CL35" s="1">
+        <v>6711.9095026127352</v>
+      </c>
+      <c r="CM35" s="1">
+        <v>6571.4314689374878</v>
+      </c>
+      <c r="CN35" s="1">
+        <v>6389.8229533578478</v>
+      </c>
+      <c r="CO35" s="1">
+        <v>6277.4405264176503</v>
+      </c>
+      <c r="CP35" s="1">
+        <v>6118.2320882523709</v>
+      </c>
+      <c r="CQ35" s="1">
+        <v>5977.7540545771244</v>
+      </c>
+      <c r="CR35" s="1">
+        <v>5815.0117282755955</v>
+      </c>
+      <c r="CS35" s="1">
+        <v>5683.898896845365</v>
+      </c>
+      <c r="CT35" s="1">
+        <v>5562.1512676601515</v>
+      </c>
+      <c r="CU35" s="1">
+        <v>5440.403638474937</v>
+      </c>
     </row>
     <row r="36" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="8"/>
+      <c r="B36" s="8">
+        <v>45737</v>
+      </c>
       <c r="C36" s="9">
         <v>45745</v>
       </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
-      <c r="AL36" s="1"/>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="1"/>
-      <c r="AP36" s="1"/>
-      <c r="AQ36" s="1"/>
-      <c r="AR36" s="1"/>
-      <c r="AS36" s="1"/>
-      <c r="AT36" s="1"/>
-      <c r="AU36" s="1"/>
-      <c r="AV36" s="1"/>
-      <c r="AW36" s="1"/>
-      <c r="AX36" s="1"/>
-      <c r="AY36" s="1"/>
-      <c r="AZ36" s="1"/>
-      <c r="BA36" s="1"/>
-      <c r="BB36" s="1"/>
-      <c r="BC36" s="1"/>
-      <c r="BD36" s="1"/>
-      <c r="BE36" s="1"/>
-      <c r="BF36" s="1"/>
-      <c r="BG36" s="1"/>
-      <c r="BH36" s="1"/>
-      <c r="BI36" s="1"/>
-      <c r="BJ36" s="1"/>
-      <c r="BK36" s="1"/>
-      <c r="BL36" s="1"/>
-      <c r="BM36" s="1"/>
-      <c r="BN36" s="1"/>
-      <c r="BO36" s="1"/>
-      <c r="BP36" s="1"/>
-      <c r="BQ36" s="1"/>
-      <c r="BR36" s="1"/>
-      <c r="BS36" s="1"/>
-      <c r="BT36" s="1"/>
-      <c r="BU36" s="1"/>
-      <c r="BV36" s="1"/>
-      <c r="BW36" s="1"/>
-      <c r="BX36" s="1"/>
-      <c r="BY36" s="1"/>
-      <c r="BZ36" s="1"/>
-      <c r="CA36" s="1"/>
-      <c r="CB36" s="1"/>
-      <c r="CC36" s="1"/>
-      <c r="CD36" s="1"/>
-      <c r="CE36" s="1"/>
-      <c r="CF36" s="1"/>
-      <c r="CG36" s="1"/>
-      <c r="CH36" s="1"/>
-      <c r="CI36" s="1"/>
-      <c r="CJ36" s="1"/>
-      <c r="CK36" s="1"/>
-      <c r="CL36" s="1"/>
-      <c r="CM36" s="1"/>
-      <c r="CN36" s="1"/>
-      <c r="CO36" s="1"/>
-      <c r="CP36" s="1"/>
-      <c r="CQ36" s="1"/>
-      <c r="CR36" s="1"/>
-      <c r="CS36" s="1"/>
-      <c r="CT36" s="1"/>
-      <c r="CU36" s="1"/>
+      <c r="D36" s="1">
+        <v>5440.3235920263205</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5412.2279852912716</v>
+      </c>
+      <c r="F36" s="1">
+        <v>5393.4975808012387</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5374.7671763112057</v>
+      </c>
+      <c r="H36" s="1">
+        <v>5378.5193729436814</v>
+      </c>
+      <c r="I36" s="1">
+        <v>5359.7889684536485</v>
+      </c>
+      <c r="J36" s="1">
+        <v>5341.0585639636156</v>
+      </c>
+      <c r="K36" s="1">
+        <v>5312.9629572285658</v>
+      </c>
+      <c r="L36" s="1">
+        <v>5287.3894329398108</v>
+      </c>
+      <c r="M36" s="1">
+        <v>5268.6590284497779</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5259.293826204761</v>
+      </c>
+      <c r="O36" s="1">
+        <v>5249.928623959745</v>
+      </c>
+      <c r="P36" s="1">
+        <v>5238.3098896845368</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>5238.3098896845368</v>
+      </c>
+      <c r="R36" s="1">
+        <v>5238.3098896845368</v>
+      </c>
+      <c r="S36" s="1">
+        <v>5247.6750919295528</v>
+      </c>
+      <c r="T36" s="1">
+        <v>5257.0193148829112</v>
+      </c>
+      <c r="U36" s="1">
+        <v>5266.3845171279272</v>
+      </c>
+      <c r="V36" s="1">
+        <v>5275.7497193729441</v>
+      </c>
+      <c r="W36" s="1">
+        <v>5285.1149216179601</v>
+      </c>
+      <c r="X36" s="1">
+        <v>5322.2754402941746</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>5341.0058447842075</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>5378.4666537642734</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>5415.9274627443392</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>5485.0646796980836</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>5522.5254886781495</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>5550.6210954132002</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>5578.7167021482492</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>5620.7505322237275</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>5620.7505322237275</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>5620.7505322237275</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>5592.6549254886777</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>5554.8913489452298</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>5508.065337720147</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>5442.5089220050322</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>5367.5873040449005</v>
+      </c>
+      <c r="AN36" s="1">
+        <v>5261.0337139539388</v>
+      </c>
+      <c r="AO36" s="1">
+        <v>5176.7468937487902</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>5092.4600735436425</v>
+      </c>
+      <c r="AQ36" s="1">
+        <v>4998.8080510934778</v>
+      </c>
+      <c r="AR36" s="1">
+        <v>4858.2273659763887</v>
+      </c>
+      <c r="AS36" s="1">
+        <v>4773.940545771241</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>4699.0189278111093</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>4633.4625120959936</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>4534.2745113218507</v>
+      </c>
+      <c r="AW36" s="1">
+        <v>4478.0832978517519</v>
+      </c>
+      <c r="AX36" s="1">
+        <v>4421.8920843816531</v>
+      </c>
+      <c r="AY36" s="1">
+        <v>4375.0660731565704</v>
+      </c>
+      <c r="AZ36" s="1">
+        <v>4330.7113605573832</v>
+      </c>
+      <c r="BA36" s="1">
+        <v>4302.6157538223342</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>4283.8853493323013</v>
+      </c>
+      <c r="BC36" s="1">
+        <v>4265.1549448422684</v>
+      </c>
+      <c r="BD36" s="1">
+        <v>4291.3403522353401</v>
+      </c>
+      <c r="BE36" s="1">
+        <v>4300.7055544803561</v>
+      </c>
+      <c r="BF36" s="1">
+        <v>4319.435958970389</v>
+      </c>
+      <c r="BG36" s="1">
+        <v>4347.531565705438</v>
+      </c>
+      <c r="BH36" s="1">
+        <v>4404.7492161796017</v>
+      </c>
+      <c r="BI36" s="1">
+        <v>4451.5752274046836</v>
+      </c>
+      <c r="BJ36" s="1">
+        <v>4507.7664408747823</v>
+      </c>
+      <c r="BK36" s="1">
+        <v>4563.9576543448811</v>
+      </c>
+      <c r="BL36" s="1">
+        <v>4637.3049738726531</v>
+      </c>
+      <c r="BM36" s="1">
+        <v>4712.2265918327848</v>
+      </c>
+      <c r="BN36" s="1">
+        <v>4805.8786142829495</v>
+      </c>
+      <c r="BO36" s="1">
+        <v>4899.5306367331141</v>
+      </c>
+      <c r="BP36" s="1">
+        <v>5079.5907876911169</v>
+      </c>
+      <c r="BQ36" s="1">
+        <v>5210.7036191213474</v>
+      </c>
+      <c r="BR36" s="1">
+        <v>5351.1816527965939</v>
+      </c>
+      <c r="BS36" s="1">
+        <v>5501.0248887168573</v>
+      </c>
+      <c r="BT36" s="1">
+        <v>5714.5148829107802</v>
+      </c>
+      <c r="BU36" s="1">
+        <v>5864.3581188310427</v>
+      </c>
+      <c r="BV36" s="1">
+        <v>6023.566556996323</v>
+      </c>
+      <c r="BW36" s="1">
+        <v>6164.0445906715695</v>
+      </c>
+      <c r="BX36" s="1">
+        <v>6344.2057673698473</v>
+      </c>
+      <c r="BY36" s="1">
+        <v>6484.6838010450938</v>
+      </c>
+      <c r="BZ36" s="1">
+        <v>6634.5270369653572</v>
+      </c>
+      <c r="CA36" s="1">
+        <v>6765.6398683955886</v>
+      </c>
+      <c r="CB36" s="1">
+        <v>6900.6503580414164</v>
+      </c>
+      <c r="CC36" s="1">
+        <v>7003.667582736598</v>
+      </c>
+      <c r="CD36" s="1">
+        <v>7059.8587962066968</v>
+      </c>
+      <c r="CE36" s="1">
+        <v>7069.2239984517128</v>
+      </c>
+      <c r="CF36" s="1">
+        <v>7043.5444939036188</v>
+      </c>
+      <c r="CG36" s="1">
+        <v>7015.4488871685699</v>
+      </c>
+      <c r="CH36" s="1">
+        <v>6949.8924714534551</v>
+      </c>
+      <c r="CI36" s="1">
+        <v>6874.9708534933234</v>
+      </c>
+      <c r="CJ36" s="1">
+        <v>6746.7712018579441</v>
+      </c>
+      <c r="CK36" s="1">
+        <v>6634.3887749177466</v>
+      </c>
+      <c r="CL36" s="1">
+        <v>6531.3715502225659</v>
+      </c>
+      <c r="CM36" s="1">
+        <v>6409.6239210373515</v>
+      </c>
+      <c r="CN36" s="1">
+        <v>6252.7529320688991</v>
+      </c>
+      <c r="CO36" s="1">
+        <v>6121.6401006386686</v>
+      </c>
+      <c r="CP36" s="1">
+        <v>5999.8924714534551</v>
+      </c>
+      <c r="CQ36" s="1">
+        <v>5878.1448422682406</v>
+      </c>
+      <c r="CR36" s="1">
+        <v>5746.0075091929557</v>
+      </c>
+      <c r="CS36" s="1">
+        <v>5624.2598800077412</v>
+      </c>
+      <c r="CT36" s="1">
+        <v>5511.8774530675437</v>
+      </c>
+      <c r="CU36" s="1">
+        <v>5408.8602283723631</v>
+      </c>
       <c r="CV36" s="13"/>
       <c r="CW36" s="13"/>
       <c r="CX36" s="13"/>
       <c r="CY36" s="13"/>
     </row>
     <row r="37" spans="2:103" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
+      <c r="B37" s="8">
+        <v>45737</v>
+      </c>
       <c r="C37" s="9">
         <v>45746</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="D37" s="1">
+        <v>5262.8652603057872</v>
+      </c>
+      <c r="E37" s="1">
+        <v>5206.6740468356884</v>
+      </c>
+      <c r="F37" s="1">
+        <v>5159.8480356106056</v>
+      </c>
+      <c r="G37" s="1">
+        <v>5113.0220243855238</v>
+      </c>
+      <c r="H37" s="1">
+        <v>5057.0783820398683</v>
+      </c>
+      <c r="I37" s="1">
+        <v>5010.2523708147864</v>
+      </c>
+      <c r="J37" s="1">
+        <v>4972.7915618347206</v>
+      </c>
+      <c r="K37" s="1">
+        <v>4944.6959550996708</v>
+      </c>
+      <c r="L37" s="1">
+        <v>4907.9334236500872</v>
+      </c>
+      <c r="M37" s="1">
+        <v>4879.8378169150374</v>
+      </c>
+      <c r="N37" s="1">
+        <v>4851.7422101799884</v>
+      </c>
+      <c r="O37" s="1">
+        <v>4823.6466034449395</v>
+      </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
       <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
-      <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
-      <c r="AG37" s="1"/>
-      <c r="AH37" s="1"/>
-      <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
-      <c r="AK37" s="1"/>
-      <c r="AL37" s="1"/>
-      <c r="AM37" s="1"/>
-      <c r="AN37" s="1"/>
-      <c r="AO37" s="1"/>
-      <c r="AP37" s="1"/>
-      <c r="AQ37" s="1"/>
-      <c r="AR37" s="1"/>
-      <c r="AS37" s="1"/>
-      <c r="AT37" s="1"/>
-      <c r="AU37" s="1"/>
-      <c r="AV37" s="1"/>
-      <c r="AW37" s="1"/>
-      <c r="AX37" s="1"/>
-      <c r="AY37" s="1"/>
-      <c r="AZ37" s="1"/>
-      <c r="BA37" s="1"/>
-      <c r="BB37" s="1"/>
-      <c r="BC37" s="1"/>
-      <c r="BD37" s="1"/>
-      <c r="BE37" s="1"/>
-      <c r="BF37" s="1"/>
-      <c r="BG37" s="1"/>
-      <c r="BH37" s="1"/>
-      <c r="BI37" s="1"/>
-      <c r="BJ37" s="1"/>
-      <c r="BK37" s="1"/>
-      <c r="BL37" s="1"/>
-      <c r="BM37" s="1"/>
-      <c r="BN37" s="1"/>
-      <c r="BO37" s="1"/>
-      <c r="BP37" s="1"/>
-      <c r="BQ37" s="1"/>
-      <c r="BR37" s="1"/>
-      <c r="BS37" s="1"/>
-      <c r="BT37" s="1"/>
-      <c r="BU37" s="1"/>
-      <c r="BV37" s="1"/>
-      <c r="BW37" s="1"/>
-      <c r="BX37" s="1"/>
-      <c r="BY37" s="1"/>
-      <c r="BZ37" s="1"/>
-      <c r="CA37" s="1"/>
-      <c r="CB37" s="1"/>
-      <c r="CC37" s="1"/>
-      <c r="CD37" s="1"/>
-      <c r="CE37" s="1"/>
-      <c r="CF37" s="1"/>
-      <c r="CG37" s="1"/>
-      <c r="CH37" s="1"/>
-      <c r="CI37" s="1"/>
-      <c r="CJ37" s="1"/>
-      <c r="CK37" s="1"/>
-      <c r="CL37" s="1"/>
-      <c r="CM37" s="1"/>
-      <c r="CN37" s="1"/>
-      <c r="CO37" s="1"/>
-      <c r="CP37" s="1"/>
-      <c r="CQ37" s="1"/>
-      <c r="CR37" s="1"/>
-      <c r="CS37" s="1"/>
-      <c r="CT37" s="1"/>
-      <c r="CU37" s="1"/>
+      <c r="T37" s="1">
+        <v>4742.0259338107217</v>
+      </c>
+      <c r="U37" s="1">
+        <v>4742.0259338107217</v>
+      </c>
+      <c r="V37" s="1">
+        <v>4751.3911360557386</v>
+      </c>
+      <c r="W37" s="1">
+        <v>4770.1215405457715</v>
+      </c>
+      <c r="X37" s="1">
+        <v>4786.9475517708534</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>4815.0431585059032</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>4843.1387652409521</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>4871.234371976002</v>
+      </c>
+      <c r="AB37" s="1">
+        <v>4896.1559899361337</v>
+      </c>
+      <c r="AC37" s="1">
+        <v>4914.8863944261657</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>4933.6167989161986</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>4933.6167989161986</v>
+      </c>
+      <c r="AF37" s="1">
+        <v>4941.9961292819817</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>4932.6309270369657</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>4913.9005225469327</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>4885.8049158118829</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>4839.4232630152892</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>4792.5972517902073</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>4727.0408360750916</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>4642.7540158699439</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>4550.6591832784979</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>4447.6419585833173</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>4344.6247338881367</v>
+      </c>
+      <c r="AQ37" s="1">
+        <v>4241.6075091929551</v>
+      </c>
+      <c r="AR37" s="1">
+        <v>4137.9891619895498</v>
+      </c>
+      <c r="AS37" s="1">
+        <v>4044.3371395393847</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>3960.0503193342365</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>3885.1287013741048</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>3827.8583317205344</v>
+      </c>
+      <c r="AW37" s="1">
+        <v>3790.3975227404685</v>
+      </c>
+      <c r="AX37" s="1">
+        <v>3762.3019160054191</v>
+      </c>
+      <c r="AY37" s="1">
+        <v>3743.5715115153862</v>
+      </c>
+      <c r="AZ37" s="1">
+        <v>3734.460228372363</v>
+      </c>
+      <c r="BA37" s="1">
+        <v>3725.0950261273465</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>3725.0950261273465</v>
+      </c>
+      <c r="BC37" s="1">
+        <v>3725.0950261273465</v>
+      </c>
+      <c r="BD37" s="1">
+        <v>3713.6349912908845</v>
+      </c>
+      <c r="BE37" s="1">
+        <v>3713.6349912908845</v>
+      </c>
+      <c r="BF37" s="1">
+        <v>3713.6349912908845</v>
+      </c>
+      <c r="BG37" s="1">
+        <v>3713.6349912908845</v>
+      </c>
+      <c r="BH37" s="1">
+        <v>3725.4124250048385</v>
+      </c>
+      <c r="BI37" s="1">
+        <v>3744.1428294948714</v>
+      </c>
+      <c r="BJ37" s="1">
+        <v>3762.8732339849043</v>
+      </c>
+      <c r="BK37" s="1">
+        <v>3790.9688407199537</v>
+      </c>
+      <c r="BL37" s="1">
+        <v>3833.8254306173794</v>
+      </c>
+      <c r="BM37" s="1">
+        <v>3871.2862395974453</v>
+      </c>
+      <c r="BN37" s="1">
+        <v>3918.1122508225276</v>
+      </c>
+      <c r="BO37" s="1">
+        <v>3974.3034642926264</v>
+      </c>
+      <c r="BP37" s="1">
+        <v>4033.1945035804142</v>
+      </c>
+      <c r="BQ37" s="1">
+        <v>4108.1161215405464</v>
+      </c>
+      <c r="BR37" s="1">
+        <v>4211.133346235727</v>
+      </c>
+      <c r="BS37" s="1">
+        <v>4314.1505709309076</v>
+      </c>
+      <c r="BT37" s="1">
+        <v>4441.9922585639633</v>
+      </c>
+      <c r="BU37" s="1">
+        <v>4563.7398877491778</v>
+      </c>
+      <c r="BV37" s="1">
+        <v>4694.8527191794083</v>
+      </c>
+      <c r="BW37" s="1">
+        <v>4816.6003483646218</v>
+      </c>
+      <c r="BX37" s="1">
+        <v>4955.7116315076446</v>
+      </c>
+      <c r="BY37" s="1">
+        <v>5096.1896651828911</v>
+      </c>
+      <c r="BZ37" s="1">
+        <v>5236.6676988581385</v>
+      </c>
+      <c r="CA37" s="1">
+        <v>5395.8761370234179</v>
+      </c>
+      <c r="CB37" s="1">
+        <v>5574.1323785562226</v>
+      </c>
+      <c r="CC37" s="1">
+        <v>5752.071221211535</v>
+      </c>
+      <c r="CD37" s="1">
+        <v>5939.3752661118642</v>
+      </c>
+      <c r="CE37" s="1">
+        <v>6107.9489065221596</v>
+      </c>
+      <c r="CF37" s="1">
+        <v>6267.6017031159281</v>
+      </c>
+      <c r="CG37" s="1">
+        <v>6389.3493323011417</v>
+      </c>
+      <c r="CH37" s="1">
+        <v>6436.1753435262244</v>
+      </c>
+      <c r="CI37" s="1">
+        <v>6445.5405457712404</v>
+      </c>
+      <c r="CJ37" s="1">
+        <v>6426.302303077221</v>
+      </c>
+      <c r="CK37" s="1">
+        <v>6388.8414940971552</v>
+      </c>
+      <c r="CL37" s="1">
+        <v>6332.6502806270564</v>
+      </c>
+      <c r="CM37" s="1">
+        <v>6257.7286626669247</v>
+      </c>
+      <c r="CN37" s="1">
+        <v>6140.3948132378555</v>
+      </c>
+      <c r="CO37" s="1">
+        <v>6028.0123862976579</v>
+      </c>
+      <c r="CP37" s="1">
+        <v>5887.5343526224115</v>
+      </c>
+      <c r="CQ37" s="1">
+        <v>5756.421521192181</v>
+      </c>
+      <c r="CR37" s="1">
+        <v>5613.531256047997</v>
+      </c>
+      <c r="CS37" s="1">
+        <v>5491.7836268627834</v>
+      </c>
+      <c r="CT37" s="1">
+        <v>5379.4011999225859</v>
+      </c>
+      <c r="CU37" s="1">
+        <v>5276.3839752274043</v>
+      </c>
     </row>
     <row r="38" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>

--- a/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\15 minute\postare saptamanala si zilnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D93B293A-EF27-4572-8326-8067ED10991B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B2FA5-A099-4BF1-B510-DBC3BEEF7E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1572,7 +1572,7 @@
   <dimension ref="B1:CY140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65:CU66"/>
+      <selection activeCell="D69" sqref="D69:CU70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2022,412 +2022,1188 @@
       </c>
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>45743</v>
+      </c>
       <c r="C9" s="9">
         <v>45748</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
+      <c r="D9" s="1">
+        <v>5800</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5740</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5690</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5640</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5590</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5550</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5510</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5470</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5430</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5390</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5370</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5360</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5360</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5360</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5350</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5350</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5370</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5400</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5420</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5460</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5520</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>5580</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>5650</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5740</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5840</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5960</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>6080</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>6210</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>6480</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>6620</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>6860</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>7100</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>7140</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>7150</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>7140</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>7110</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>7070</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>7030</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>6990</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>6840</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>6830</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>6820</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>6790</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>6770</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>6760</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>6740</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>6720</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>6670</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>6750</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>6850</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>6900</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>6950</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>7010</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>7080</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>7170</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>7530</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>7790</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>7430</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>7240</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>6940</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>6770</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>6600</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>6460</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>6350</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>6220</v>
+      </c>
     </row>
     <row r="10" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>45743</v>
+      </c>
       <c r="C10" s="9">
         <v>45749</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
+      <c r="D10" s="1">
+        <v>5800</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5740</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5690</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5640</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5590</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5550</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5510</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5470</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5430</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5390</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5370</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5360</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5360</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5360</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5370</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5380</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5390</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5410</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5440</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5470</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5520</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5580</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5650</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5740</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>5840</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5960</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>6080</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>6210</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>6480</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>6620</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>6860</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>7100</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>7140</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>7160</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>7150</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>7120</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>7090</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>6840</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>6830</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>6820</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>6790</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>6770</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>6760</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>6740</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>6720</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>6670</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>6750</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>6850</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>6900</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>6950</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>7010</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>7080</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>7170</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>7530</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>7790</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>7810</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>7800</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>7730</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>7430</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>7240</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>7090</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>6930</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>6760</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>6600</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>6460</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>6350</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>6220</v>
+      </c>
     </row>
     <row r="11" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>45743</v>
+      </c>
       <c r="C11" s="9">
         <v>45750</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
+      <c r="D11" s="1">
+        <v>5850</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5790</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5740</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5690</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5640</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5600</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5560</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5520</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5480</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5440</v>
+      </c>
+      <c r="N11" s="1">
+        <v>5420</v>
+      </c>
+      <c r="O11" s="1">
+        <v>5410</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5410</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>5410</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5420</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5430</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5440</v>
+      </c>
+      <c r="U11" s="1">
+        <v>5460</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5490</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5520</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5570</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>5630</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>5700</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5890</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>6130</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>6260</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>6530</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>6670</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>6810</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>7120</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>7180</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>7210</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>7210</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>7180</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>7130</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>7070</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>6860</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>6710</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>6700</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>6680</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>6660</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>6390</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>6390</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>6540</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>6720</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>6820</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>6950</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>7110</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>7290</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>7460</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>7760</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>7820</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>7820</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>7650</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>7550</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>7440</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>7120</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>6960</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>6630</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>6500</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>6380</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>6270</v>
+      </c>
     </row>
     <row r="12" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>45743</v>
+      </c>
       <c r="C12" s="9">
         <v>45751</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-      <c r="CU12" s="1"/>
+      <c r="D12" s="1">
+        <v>5750</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5700</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5650</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5590</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5540</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5490</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5450</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5410</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5370</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5340</v>
+      </c>
+      <c r="N12" s="1">
+        <v>5320</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5310</v>
+      </c>
+      <c r="P12" s="1">
+        <v>5310</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>5320</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5320</v>
+      </c>
+      <c r="S12" s="1">
+        <v>5330</v>
+      </c>
+      <c r="T12" s="1">
+        <v>5340</v>
+      </c>
+      <c r="U12" s="1">
+        <v>5360</v>
+      </c>
+      <c r="V12" s="1">
+        <v>5390</v>
+      </c>
+      <c r="W12" s="1">
+        <v>5420</v>
+      </c>
+      <c r="X12" s="1">
+        <v>5470</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>5530</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>5610</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>5690</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>5900</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>6030</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>6160</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>6290</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>6430</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>6570</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>6710</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>6830</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>7110</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>7110</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>7030</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>6820</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>6700</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>6660</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>6630</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>6610</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>6600</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>6580</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>6450</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>6340</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>6290</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>6290</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>6340</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>6620</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>6720</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>6850</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>7010</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>7190</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>7360</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>7530</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>7730</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>7580</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>7480</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>7350</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>7180</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>7040</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>6860</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>6710</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>6550</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>6420</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>6300</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>6190</v>
+      </c>
     </row>
     <row r="13" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="8"/>
@@ -12527,414 +13303,414 @@
     </row>
     <row r="66" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="C66" s="9">
         <v>45741</v>
       </c>
       <c r="D66" s="1">
-        <v>5950</v>
+        <v>5850</v>
       </c>
       <c r="E66" s="1">
+        <v>5780</v>
+      </c>
+      <c r="F66" s="1">
+        <v>5720</v>
+      </c>
+      <c r="G66" s="1">
+        <v>5670</v>
+      </c>
+      <c r="H66" s="1">
+        <v>5620</v>
+      </c>
+      <c r="I66" s="1">
+        <v>5570</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5530</v>
+      </c>
+      <c r="K66" s="1">
+        <v>5490</v>
+      </c>
+      <c r="L66" s="1">
+        <v>5460</v>
+      </c>
+      <c r="M66" s="1">
+        <v>5440</v>
+      </c>
+      <c r="N66" s="1">
+        <v>5420</v>
+      </c>
+      <c r="O66" s="1">
+        <v>5410</v>
+      </c>
+      <c r="P66" s="1">
+        <v>5400</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>5400</v>
+      </c>
+      <c r="R66" s="1">
+        <v>5410</v>
+      </c>
+      <c r="S66" s="1">
+        <v>5420</v>
+      </c>
+      <c r="T66" s="1">
+        <v>5440</v>
+      </c>
+      <c r="U66" s="1">
+        <v>5470</v>
+      </c>
+      <c r="V66" s="1">
+        <v>5500</v>
+      </c>
+      <c r="W66" s="1">
+        <v>5540</v>
+      </c>
+      <c r="X66" s="1">
+        <v>5590</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>5650</v>
+      </c>
+      <c r="Z66" s="1">
+        <v>5730</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>5820</v>
+      </c>
+      <c r="AB66" s="1">
+        <v>5930</v>
+      </c>
+      <c r="AC66" s="1">
+        <v>6050</v>
+      </c>
+      <c r="AD66" s="1">
+        <v>6190</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>6330</v>
+      </c>
+      <c r="AF66" s="1">
+        <v>6470</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>6600</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>6710</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AJ66" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AL66" s="1">
+        <v>6860</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>6810</v>
+      </c>
+      <c r="AN66" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AO66" s="1">
+        <v>6620</v>
+      </c>
+      <c r="AP66" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AQ66" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AR66" s="1">
+        <v>6270</v>
+      </c>
+      <c r="AS66" s="1">
+        <v>6160</v>
+      </c>
+      <c r="AT66" s="1">
+        <v>6060</v>
+      </c>
+      <c r="AU66" s="1">
+        <v>5970</v>
+      </c>
+      <c r="AV66" s="1">
         <v>5900</v>
       </c>
-      <c r="F66" s="1">
-        <v>5860</v>
-      </c>
-      <c r="G66" s="1">
-        <v>5810</v>
-      </c>
-      <c r="H66" s="1">
+      <c r="AW66" s="1">
+        <v>5840</v>
+      </c>
+      <c r="AX66" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AY66" s="1">
         <v>5750</v>
       </c>
-      <c r="I66" s="1">
+      <c r="AZ66" s="1">
         <v>5710</v>
       </c>
-      <c r="J66" s="1">
-        <v>5680</v>
-      </c>
-      <c r="K66" s="1">
+      <c r="BA66" s="1">
+        <v>5670</v>
+      </c>
+      <c r="BB66" s="1">
         <v>5640</v>
       </c>
-      <c r="L66" s="1">
-        <v>5610</v>
-      </c>
-      <c r="M66" s="1">
+      <c r="BC66" s="1">
+        <v>5620</v>
+      </c>
+      <c r="BD66" s="1">
         <v>5600</v>
       </c>
-      <c r="N66" s="1">
-        <v>5590</v>
-      </c>
-      <c r="O66" s="1">
-        <v>5580</v>
-      </c>
-      <c r="P66" s="1">
-        <v>5570</v>
-      </c>
-      <c r="Q66" s="1">
-        <v>5550</v>
-      </c>
-      <c r="R66" s="1">
-        <v>5550</v>
-      </c>
-      <c r="S66" s="1">
-        <v>5560</v>
-      </c>
-      <c r="T66" s="1">
-        <v>5580</v>
-      </c>
-      <c r="U66" s="1">
+      <c r="BE66" s="1">
         <v>5600</v>
       </c>
-      <c r="V66" s="1">
-        <v>5630</v>
-      </c>
-      <c r="W66" s="1">
-        <v>5680</v>
-      </c>
-      <c r="X66" s="1">
-        <v>5740</v>
-      </c>
-      <c r="Y66" s="1">
-        <v>5820</v>
-      </c>
-      <c r="Z66" s="1">
-        <v>5920</v>
-      </c>
-      <c r="AA66" s="1">
-        <v>6030</v>
-      </c>
-      <c r="AB66" s="1">
+      <c r="BF66" s="1">
+        <v>5600</v>
+      </c>
+      <c r="BG66" s="1">
+        <v>5620</v>
+      </c>
+      <c r="BH66" s="1">
+        <v>5640</v>
+      </c>
+      <c r="BI66" s="1">
+        <v>5670</v>
+      </c>
+      <c r="BJ66" s="1">
+        <v>5710</v>
+      </c>
+      <c r="BK66" s="1">
+        <v>5750</v>
+      </c>
+      <c r="BL66" s="1">
+        <v>5800</v>
+      </c>
+      <c r="BM66" s="1">
+        <v>5850</v>
+      </c>
+      <c r="BN66" s="1">
+        <v>5900</v>
+      </c>
+      <c r="BO66" s="1">
+        <v>5970</v>
+      </c>
+      <c r="BP66" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BQ66" s="1">
         <v>6150</v>
       </c>
-      <c r="AC66" s="1">
-        <v>6280</v>
-      </c>
-      <c r="AD66" s="1">
-        <v>6400</v>
-      </c>
-      <c r="AE66" s="1">
-        <v>6520</v>
-      </c>
-      <c r="AF66" s="1">
-        <v>6640</v>
-      </c>
-      <c r="AG66" s="1">
-        <v>6740</v>
-      </c>
-      <c r="AH66" s="1">
-        <v>6820</v>
-      </c>
-      <c r="AI66" s="1">
-        <v>6900</v>
-      </c>
-      <c r="AJ66" s="1">
+      <c r="BR66" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BS66" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BT66" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BU66" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BV66" s="1">
+        <v>6680</v>
+      </c>
+      <c r="BW66" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BX66" s="1">
+        <v>6910</v>
+      </c>
+      <c r="BY66" s="1">
+        <v>7030</v>
+      </c>
+      <c r="BZ66" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CA66" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CB66" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CC66" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CD66" s="1">
+        <v>7570</v>
+      </c>
+      <c r="CE66" s="1">
+        <v>7580</v>
+      </c>
+      <c r="CF66" s="1">
+        <v>7570</v>
+      </c>
+      <c r="CG66" s="1">
+        <v>7540</v>
+      </c>
+      <c r="CH66" s="1">
+        <v>7500</v>
+      </c>
+      <c r="CI66" s="1">
+        <v>7430</v>
+      </c>
+      <c r="CJ66" s="1">
+        <v>7320</v>
+      </c>
+      <c r="CK66" s="1">
+        <v>7200</v>
+      </c>
+      <c r="CL66" s="1">
+        <v>7080</v>
+      </c>
+      <c r="CM66" s="1">
         <v>6950</v>
       </c>
-      <c r="AK66" s="1">
-        <v>6990</v>
-      </c>
-      <c r="AL66" s="1">
-        <v>7000</v>
-      </c>
-      <c r="AM66" s="1">
-        <v>7000</v>
-      </c>
-      <c r="AN66" s="1">
-        <v>6970</v>
-      </c>
-      <c r="AO66" s="1">
-        <v>6930</v>
-      </c>
-      <c r="AP66" s="1">
-        <v>6870</v>
-      </c>
-      <c r="AQ66" s="1">
-        <v>6800</v>
-      </c>
-      <c r="AR66" s="1">
-        <v>6720</v>
-      </c>
-      <c r="AS66" s="1">
-        <v>6640</v>
-      </c>
-      <c r="AT66" s="1">
-        <v>6560</v>
-      </c>
-      <c r="AU66" s="1">
-        <v>6490</v>
-      </c>
-      <c r="AV66" s="1">
-        <v>6440</v>
-      </c>
-      <c r="AW66" s="1">
-        <v>6390</v>
-      </c>
-      <c r="AX66" s="1">
-        <v>6360</v>
-      </c>
-      <c r="AY66" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AZ66" s="1">
-        <v>6330</v>
-      </c>
-      <c r="BA66" s="1">
-        <v>6320</v>
-      </c>
-      <c r="BB66" s="1">
-        <v>6310</v>
-      </c>
-      <c r="BC66" s="1">
-        <v>6310</v>
-      </c>
-      <c r="BD66" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BE66" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BF66" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BG66" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BH66" s="1">
-        <v>6310</v>
-      </c>
-      <c r="BI66" s="1">
-        <v>6330</v>
-      </c>
-      <c r="BJ66" s="1">
-        <v>6350</v>
-      </c>
-      <c r="BK66" s="1">
+      <c r="CN66" s="1">
+        <v>6810</v>
+      </c>
+      <c r="CO66" s="1">
+        <v>6660</v>
+      </c>
+      <c r="CP66" s="1">
+        <v>6530</v>
+      </c>
+      <c r="CQ66" s="1">
         <v>6380</v>
       </c>
-      <c r="BL66" s="1">
-        <v>6410</v>
-      </c>
-      <c r="BM66" s="1">
-        <v>6440</v>
-      </c>
-      <c r="BN66" s="1">
-        <v>6480</v>
-      </c>
-      <c r="BO66" s="1">
-        <v>6530</v>
-      </c>
-      <c r="BP66" s="1">
-        <v>6580</v>
-      </c>
-      <c r="BQ66" s="1">
-        <v>6650</v>
-      </c>
-      <c r="BR66" s="1">
-        <v>6730</v>
-      </c>
-      <c r="BS66" s="1">
-        <v>6840</v>
-      </c>
-      <c r="BT66" s="1">
-        <v>6950</v>
-      </c>
-      <c r="BU66" s="1">
-        <v>7070</v>
-      </c>
-      <c r="BV66" s="1">
-        <v>7200</v>
-      </c>
-      <c r="BW66" s="1">
-        <v>7320</v>
-      </c>
-      <c r="BX66" s="1">
-        <v>7420</v>
-      </c>
-      <c r="BY66" s="1">
-        <v>7520</v>
-      </c>
-      <c r="BZ66" s="1">
-        <v>7600</v>
-      </c>
-      <c r="CA66" s="1">
-        <v>7670</v>
-      </c>
-      <c r="CB66" s="1">
-        <v>7730</v>
-      </c>
-      <c r="CC66" s="1">
-        <v>7750</v>
-      </c>
-      <c r="CD66" s="1">
-        <v>7750</v>
-      </c>
-      <c r="CE66" s="1">
-        <v>7730</v>
-      </c>
-      <c r="CF66" s="1">
-        <v>7700</v>
-      </c>
-      <c r="CG66" s="1">
-        <v>7670</v>
-      </c>
-      <c r="CH66" s="1">
-        <v>7640</v>
-      </c>
-      <c r="CI66" s="1">
-        <v>7570</v>
-      </c>
-      <c r="CJ66" s="1">
-        <v>7470</v>
-      </c>
-      <c r="CK66" s="1">
-        <v>7350</v>
-      </c>
-      <c r="CL66" s="1">
-        <v>7250</v>
-      </c>
-      <c r="CM66" s="1">
-        <v>7120</v>
-      </c>
-      <c r="CN66" s="1">
-        <v>6940</v>
-      </c>
-      <c r="CO66" s="1">
-        <v>6800</v>
-      </c>
-      <c r="CP66" s="1">
-        <v>6630</v>
-      </c>
-      <c r="CQ66" s="1">
-        <v>6470</v>
-      </c>
       <c r="CR66" s="1">
-        <v>6280</v>
+        <v>6260</v>
       </c>
       <c r="CS66" s="1">
-        <v>6120</v>
+        <v>6150</v>
       </c>
       <c r="CT66" s="1">
-        <v>5990</v>
+        <v>6020</v>
       </c>
       <c r="CU66" s="1">
-        <v>5880</v>
+        <v>5900</v>
       </c>
     </row>
     <row r="67" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="C67" s="9">
         <v>45742</v>
       </c>
       <c r="D67" s="1">
-        <v>5850</v>
+        <v>5780</v>
       </c>
       <c r="E67" s="1">
-        <v>5800</v>
+        <v>5720</v>
       </c>
       <c r="F67" s="1">
-        <v>5750</v>
+        <v>5680</v>
       </c>
       <c r="G67" s="1">
-        <v>5710</v>
+        <v>5620</v>
       </c>
       <c r="H67" s="1">
-        <v>5680</v>
+        <v>5570</v>
       </c>
       <c r="I67" s="1">
-        <v>5640</v>
+        <v>5520</v>
       </c>
       <c r="J67" s="1">
-        <v>5620</v>
+        <v>5480</v>
       </c>
       <c r="K67" s="1">
-        <v>5590</v>
+        <v>5440</v>
       </c>
       <c r="L67" s="1">
-        <v>5560</v>
+        <v>5400</v>
       </c>
       <c r="M67" s="1">
-        <v>5550</v>
+        <v>5360</v>
       </c>
       <c r="N67" s="1">
-        <v>5530</v>
+        <v>5330</v>
       </c>
       <c r="O67" s="1">
-        <v>5530</v>
+        <v>5310</v>
       </c>
       <c r="P67" s="1">
-        <v>5520</v>
+        <v>5280</v>
       </c>
       <c r="Q67" s="1">
-        <v>5510</v>
+        <v>5280</v>
       </c>
       <c r="R67" s="1">
-        <v>5500</v>
+        <v>5280</v>
       </c>
       <c r="S67" s="1">
-        <v>5500</v>
+        <v>5290</v>
       </c>
       <c r="T67" s="1">
-        <v>5510</v>
+        <v>5300</v>
       </c>
       <c r="U67" s="1">
-        <v>5530</v>
+        <v>5330</v>
       </c>
       <c r="V67" s="1">
+        <v>5360</v>
+      </c>
+      <c r="W67" s="1">
+        <v>5410</v>
+      </c>
+      <c r="X67" s="1">
+        <v>5490</v>
+      </c>
+      <c r="Y67" s="1">
         <v>5570</v>
       </c>
-      <c r="W67" s="1">
-        <v>5620</v>
-      </c>
-      <c r="X67" s="1">
-        <v>5690</v>
-      </c>
-      <c r="Y67" s="1">
-        <v>5770</v>
-      </c>
       <c r="Z67" s="1">
-        <v>5870</v>
+        <v>5670</v>
       </c>
       <c r="AA67" s="1">
-        <v>5980</v>
+        <v>5780</v>
       </c>
       <c r="AB67" s="1">
-        <v>6110</v>
+        <v>5880</v>
       </c>
       <c r="AC67" s="1">
-        <v>6230</v>
+        <v>6010</v>
       </c>
       <c r="AD67" s="1">
-        <v>6350</v>
+        <v>6150</v>
       </c>
       <c r="AE67" s="1">
-        <v>6470</v>
+        <v>6290</v>
       </c>
       <c r="AF67" s="1">
-        <v>6590</v>
+        <v>6520</v>
       </c>
       <c r="AG67" s="1">
-        <v>6690</v>
+        <v>6650</v>
       </c>
       <c r="AH67" s="1">
         <v>6770</v>
       </c>
       <c r="AI67" s="1">
-        <v>6840</v>
+        <v>6860</v>
       </c>
       <c r="AJ67" s="1">
-        <v>6900</v>
+        <v>6930</v>
       </c>
       <c r="AK67" s="1">
-        <v>6940</v>
+        <v>6960</v>
       </c>
       <c r="AL67" s="1">
-        <v>6950</v>
+        <v>6960</v>
       </c>
       <c r="AM67" s="1">
-        <v>6950</v>
+        <v>6960</v>
       </c>
       <c r="AN67" s="1">
         <v>6930</v>
@@ -12949,468 +13725,468 @@
         <v>6750</v>
       </c>
       <c r="AR67" s="1">
-        <v>6670</v>
+        <v>6680</v>
       </c>
       <c r="AS67" s="1">
-        <v>6590</v>
+        <v>6600</v>
       </c>
       <c r="AT67" s="1">
-        <v>6510</v>
+        <v>6530</v>
       </c>
       <c r="AU67" s="1">
-        <v>6440</v>
+        <v>6470</v>
       </c>
       <c r="AV67" s="1">
-        <v>6380</v>
+        <v>6390</v>
       </c>
       <c r="AW67" s="1">
         <v>6340</v>
       </c>
       <c r="AX67" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AY67" s="1">
+        <v>6290</v>
+      </c>
+      <c r="AZ67" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BA67" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BB67" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BC67" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BD67" s="1">
         <v>6300</v>
       </c>
-      <c r="AY67" s="1">
-        <v>6280</v>
-      </c>
-      <c r="AZ67" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BA67" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BB67" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BC67" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BD67" s="1">
-        <v>6250</v>
-      </c>
       <c r="BE67" s="1">
-        <v>6250</v>
+        <v>6330</v>
       </c>
       <c r="BF67" s="1">
-        <v>6250</v>
+        <v>6360</v>
       </c>
       <c r="BG67" s="1">
-        <v>6250</v>
+        <v>6380</v>
       </c>
       <c r="BH67" s="1">
-        <v>6260</v>
+        <v>6400</v>
       </c>
       <c r="BI67" s="1">
-        <v>6280</v>
+        <v>6430</v>
       </c>
       <c r="BJ67" s="1">
-        <v>6300</v>
+        <v>6470</v>
       </c>
       <c r="BK67" s="1">
-        <v>6330</v>
+        <v>6500</v>
       </c>
       <c r="BL67" s="1">
-        <v>6370</v>
+        <v>6550</v>
       </c>
       <c r="BM67" s="1">
-        <v>6400</v>
+        <v>6580</v>
       </c>
       <c r="BN67" s="1">
-        <v>6440</v>
+        <v>6620</v>
       </c>
       <c r="BO67" s="1">
-        <v>6490</v>
+        <v>6660</v>
       </c>
       <c r="BP67" s="1">
-        <v>6540</v>
+        <v>6710</v>
       </c>
       <c r="BQ67" s="1">
-        <v>6610</v>
+        <v>6770</v>
       </c>
       <c r="BR67" s="1">
-        <v>6690</v>
+        <v>6830</v>
       </c>
       <c r="BS67" s="1">
-        <v>6790</v>
+        <v>6890</v>
       </c>
       <c r="BT67" s="1">
-        <v>6900</v>
+        <v>6970</v>
       </c>
       <c r="BU67" s="1">
-        <v>7020</v>
+        <v>7050</v>
       </c>
       <c r="BV67" s="1">
-        <v>7150</v>
+        <v>7120</v>
       </c>
       <c r="BW67" s="1">
-        <v>7260</v>
+        <v>7200</v>
       </c>
       <c r="BX67" s="1">
-        <v>7370</v>
+        <v>7310</v>
       </c>
       <c r="BY67" s="1">
-        <v>7470</v>
+        <v>7400</v>
       </c>
       <c r="BZ67" s="1">
-        <v>7550</v>
+        <v>7490</v>
       </c>
       <c r="CA67" s="1">
-        <v>7630</v>
+        <v>7590</v>
       </c>
       <c r="CB67" s="1">
         <v>7680</v>
       </c>
       <c r="CC67" s="1">
-        <v>7700</v>
+        <v>7750</v>
       </c>
       <c r="CD67" s="1">
-        <v>7700</v>
+        <v>7790</v>
       </c>
       <c r="CE67" s="1">
+        <v>7780</v>
+      </c>
+      <c r="CF67" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CG67" s="1">
         <v>7680</v>
       </c>
-      <c r="CF67" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CG67" s="1">
-        <v>7630</v>
-      </c>
       <c r="CH67" s="1">
-        <v>7580</v>
+        <v>7620</v>
       </c>
       <c r="CI67" s="1">
-        <v>7520</v>
+        <v>7560</v>
       </c>
       <c r="CJ67" s="1">
-        <v>7420</v>
+        <v>7450</v>
       </c>
       <c r="CK67" s="1">
-        <v>7300</v>
+        <v>7310</v>
       </c>
       <c r="CL67" s="1">
-        <v>7170</v>
+        <v>7210</v>
       </c>
       <c r="CM67" s="1">
-        <v>7030</v>
+        <v>7050</v>
       </c>
       <c r="CN67" s="1">
-        <v>6880</v>
+        <v>6830</v>
       </c>
       <c r="CO67" s="1">
-        <v>6740</v>
+        <v>6690</v>
       </c>
       <c r="CP67" s="1">
-        <v>6570</v>
+        <v>6510</v>
       </c>
       <c r="CQ67" s="1">
-        <v>6400</v>
+        <v>6370</v>
       </c>
       <c r="CR67" s="1">
-        <v>6200</v>
+        <v>6230</v>
       </c>
       <c r="CS67" s="1">
-        <v>6050</v>
+        <v>6080</v>
       </c>
       <c r="CT67" s="1">
-        <v>5930</v>
+        <v>5980</v>
       </c>
       <c r="CU67" s="1">
-        <v>5880</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="68" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
-        <v>45736</v>
+        <v>45742</v>
       </c>
       <c r="C68" s="9">
         <v>45743</v>
       </c>
       <c r="D68" s="1">
+        <v>5730</v>
+      </c>
+      <c r="E68" s="1">
+        <v>5680</v>
+      </c>
+      <c r="F68" s="1">
+        <v>5620</v>
+      </c>
+      <c r="G68" s="1">
+        <v>5580</v>
+      </c>
+      <c r="H68" s="1">
+        <v>5520</v>
+      </c>
+      <c r="I68" s="1">
+        <v>5490</v>
+      </c>
+      <c r="J68" s="1">
+        <v>5450</v>
+      </c>
+      <c r="K68" s="1">
+        <v>5400</v>
+      </c>
+      <c r="L68" s="1">
+        <v>5370</v>
+      </c>
+      <c r="M68" s="1">
+        <v>5340</v>
+      </c>
+      <c r="N68" s="1">
+        <v>5320</v>
+      </c>
+      <c r="O68" s="1">
+        <v>5310</v>
+      </c>
+      <c r="P68" s="1">
+        <v>5300</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>5300</v>
+      </c>
+      <c r="R68" s="1">
+        <v>5300</v>
+      </c>
+      <c r="S68" s="1">
+        <v>5310</v>
+      </c>
+      <c r="T68" s="1">
+        <v>5330</v>
+      </c>
+      <c r="U68" s="1">
+        <v>5340</v>
+      </c>
+      <c r="V68" s="1">
+        <v>5360</v>
+      </c>
+      <c r="W68" s="1">
+        <v>5400</v>
+      </c>
+      <c r="X68" s="1">
+        <v>5440</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>5520</v>
+      </c>
+      <c r="Z68" s="1">
+        <v>5620</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>5740</v>
+      </c>
+      <c r="AB68" s="1">
         <v>5870</v>
       </c>
-      <c r="E68" s="1">
-        <v>5840</v>
-      </c>
-      <c r="F68" s="1">
-        <v>5790</v>
-      </c>
-      <c r="G68" s="1">
-        <v>5750</v>
-      </c>
-      <c r="H68" s="1">
-        <v>5710</v>
-      </c>
-      <c r="I68" s="1">
-        <v>5680</v>
-      </c>
-      <c r="J68" s="1">
-        <v>5650</v>
-      </c>
-      <c r="K68" s="1">
-        <v>5630</v>
-      </c>
-      <c r="L68" s="1">
-        <v>5610</v>
-      </c>
-      <c r="M68" s="1">
-        <v>5590</v>
-      </c>
-      <c r="N68" s="1">
-        <v>5570</v>
-      </c>
-      <c r="O68" s="1">
-        <v>5560</v>
-      </c>
-      <c r="P68" s="1">
-        <v>5550</v>
-      </c>
-      <c r="Q68" s="1">
-        <v>5550</v>
-      </c>
-      <c r="R68" s="1">
-        <v>5560</v>
-      </c>
-      <c r="S68" s="1">
-        <v>5580</v>
-      </c>
-      <c r="T68" s="1">
-        <v>5620</v>
-      </c>
-      <c r="U68" s="1">
-        <v>5660</v>
-      </c>
-      <c r="V68" s="1">
-        <v>5690</v>
-      </c>
-      <c r="W68" s="1">
-        <v>5730</v>
-      </c>
-      <c r="X68" s="1">
-        <v>5790</v>
-      </c>
-      <c r="Y68" s="1">
-        <v>5870</v>
-      </c>
-      <c r="Z68" s="1">
-        <v>5970</v>
-      </c>
-      <c r="AA68" s="1">
-        <v>6080</v>
-      </c>
-      <c r="AB68" s="1">
-        <v>6200</v>
-      </c>
       <c r="AC68" s="1">
-        <v>6330</v>
+        <v>6010</v>
       </c>
       <c r="AD68" s="1">
+        <v>6160</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AF68" s="1">
+        <v>6530</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>6650</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AJ68" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AL68" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AN68" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AO68" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AP68" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AQ68" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AR68" s="1">
+        <v>6680</v>
+      </c>
+      <c r="AS68" s="1">
+        <v>6620</v>
+      </c>
+      <c r="AT68" s="1">
+        <v>6570</v>
+      </c>
+      <c r="AU68" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AV68" s="1">
         <v>6450</v>
       </c>
-      <c r="AE68" s="1">
-        <v>6570</v>
-      </c>
-      <c r="AF68" s="1">
-        <v>6690</v>
-      </c>
-      <c r="AG68" s="1">
-        <v>6790</v>
-      </c>
-      <c r="AH68" s="1">
-        <v>6880</v>
-      </c>
-      <c r="AI68" s="1">
-        <v>6950</v>
-      </c>
-      <c r="AJ68" s="1">
-        <v>7000</v>
-      </c>
-      <c r="AK68" s="1">
-        <v>7030</v>
-      </c>
-      <c r="AL68" s="1">
-        <v>7050</v>
-      </c>
-      <c r="AM68" s="1">
-        <v>7040</v>
-      </c>
-      <c r="AN68" s="1">
-        <v>7010</v>
-      </c>
-      <c r="AO68" s="1">
-        <v>6960</v>
-      </c>
-      <c r="AP68" s="1">
-        <v>6910</v>
-      </c>
-      <c r="AQ68" s="1">
-        <v>6840</v>
-      </c>
-      <c r="AR68" s="1">
-        <v>6770</v>
-      </c>
-      <c r="AS68" s="1">
-        <v>6690</v>
-      </c>
-      <c r="AT68" s="1">
-        <v>6620</v>
-      </c>
-      <c r="AU68" s="1">
-        <v>6560</v>
-      </c>
-      <c r="AV68" s="1">
-        <v>6510</v>
-      </c>
       <c r="AW68" s="1">
-        <v>6470</v>
+        <v>6420</v>
       </c>
       <c r="AX68" s="1">
-        <v>6440</v>
+        <v>6390</v>
       </c>
       <c r="AY68" s="1">
-        <v>6410</v>
+        <v>6370</v>
       </c>
       <c r="AZ68" s="1">
-        <v>6400</v>
+        <v>6360</v>
       </c>
       <c r="BA68" s="1">
-        <v>6380</v>
+        <v>6350</v>
       </c>
       <c r="BB68" s="1">
-        <v>6370</v>
+        <v>6350</v>
       </c>
       <c r="BC68" s="1">
-        <v>6360</v>
+        <v>6350</v>
       </c>
       <c r="BD68" s="1">
         <v>6360</v>
       </c>
       <c r="BE68" s="1">
-        <v>6360</v>
+        <v>6370</v>
       </c>
       <c r="BF68" s="1">
-        <v>6360</v>
+        <v>6380</v>
       </c>
       <c r="BG68" s="1">
+        <v>6400</v>
+      </c>
+      <c r="BH68" s="1">
+        <v>6410</v>
+      </c>
+      <c r="BI68" s="1">
+        <v>6430</v>
+      </c>
+      <c r="BJ68" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BK68" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BL68" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BM68" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BN68" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BO68" s="1">
+        <v>6660</v>
+      </c>
+      <c r="BP68" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BQ68" s="1">
+        <v>6770</v>
+      </c>
+      <c r="BR68" s="1">
+        <v>6830</v>
+      </c>
+      <c r="BS68" s="1">
+        <v>6910</v>
+      </c>
+      <c r="BT68" s="1">
+        <v>6970</v>
+      </c>
+      <c r="BU68" s="1">
+        <v>7040</v>
+      </c>
+      <c r="BV68" s="1">
+        <v>7110</v>
+      </c>
+      <c r="BW68" s="1">
+        <v>7180</v>
+      </c>
+      <c r="BX68" s="1">
+        <v>7260</v>
+      </c>
+      <c r="BY68" s="1">
+        <v>7330</v>
+      </c>
+      <c r="BZ68" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CA68" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CB68" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CC68" s="1">
+        <v>7690</v>
+      </c>
+      <c r="CD68" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CE68" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CF68" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CG68" s="1">
+        <v>7680</v>
+      </c>
+      <c r="CH68" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CI68" s="1">
+        <v>7550</v>
+      </c>
+      <c r="CJ68" s="1">
+        <v>7440</v>
+      </c>
+      <c r="CK68" s="1">
+        <v>7310</v>
+      </c>
+      <c r="CL68" s="1">
+        <v>7180</v>
+      </c>
+      <c r="CM68" s="1">
+        <v>7030</v>
+      </c>
+      <c r="CN68" s="1">
+        <v>6830</v>
+      </c>
+      <c r="CO68" s="1">
+        <v>6680</v>
+      </c>
+      <c r="CP68" s="1">
+        <v>6520</v>
+      </c>
+      <c r="CQ68" s="1">
         <v>6370</v>
       </c>
-      <c r="BH68" s="1">
-        <v>6380</v>
-      </c>
-      <c r="BI68" s="1">
-        <v>6400</v>
-      </c>
-      <c r="BJ68" s="1">
-        <v>6420</v>
-      </c>
-      <c r="BK68" s="1">
-        <v>6450</v>
-      </c>
-      <c r="BL68" s="1">
-        <v>6480</v>
-      </c>
-      <c r="BM68" s="1">
-        <v>6520</v>
-      </c>
-      <c r="BN68" s="1">
-        <v>6560</v>
-      </c>
-      <c r="BO68" s="1">
-        <v>6600</v>
-      </c>
-      <c r="BP68" s="1">
-        <v>6660</v>
-      </c>
-      <c r="BQ68" s="1">
-        <v>6730</v>
-      </c>
-      <c r="BR68" s="1">
-        <v>6810</v>
-      </c>
-      <c r="BS68" s="1">
-        <v>6900</v>
-      </c>
-      <c r="BT68" s="1">
-        <v>7010</v>
-      </c>
-      <c r="BU68" s="1">
-        <v>7120</v>
-      </c>
-      <c r="BV68" s="1">
-        <v>7230</v>
-      </c>
-      <c r="BW68" s="1">
-        <v>7340</v>
-      </c>
-      <c r="BX68" s="1">
-        <v>7440</v>
-      </c>
-      <c r="BY68" s="1">
-        <v>7530</v>
-      </c>
-      <c r="BZ68" s="1">
-        <v>7620</v>
-      </c>
-      <c r="CA68" s="1">
-        <v>7690</v>
-      </c>
-      <c r="CB68" s="1">
-        <v>7760</v>
-      </c>
-      <c r="CC68" s="1">
-        <v>7800</v>
-      </c>
-      <c r="CD68" s="1">
-        <v>7820</v>
-      </c>
-      <c r="CE68" s="1">
-        <v>7800</v>
-      </c>
-      <c r="CF68" s="1">
-        <v>7770</v>
-      </c>
-      <c r="CG68" s="1">
-        <v>7730</v>
-      </c>
-      <c r="CH68" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CI68" s="1">
-        <v>7590</v>
-      </c>
-      <c r="CJ68" s="1">
-        <v>7470</v>
-      </c>
-      <c r="CK68" s="1">
-        <v>7330</v>
-      </c>
-      <c r="CL68" s="1">
-        <v>7220</v>
-      </c>
-      <c r="CM68" s="1">
-        <v>7100</v>
-      </c>
-      <c r="CN68" s="1">
-        <v>6930</v>
-      </c>
-      <c r="CO68" s="1">
-        <v>6800</v>
-      </c>
-      <c r="CP68" s="1">
-        <v>6630</v>
-      </c>
-      <c r="CQ68" s="1">
-        <v>6480</v>
-      </c>
       <c r="CR68" s="1">
-        <v>6300</v>
+        <v>6230</v>
       </c>
       <c r="CS68" s="1">
-        <v>6160</v>
+        <v>6070</v>
       </c>
       <c r="CT68" s="1">
-        <v>6030</v>
+        <v>5970</v>
       </c>
       <c r="CU68" s="1">
-        <v>5950</v>
+        <v>5860</v>
       </c>
       <c r="CV68" s="13"/>
       <c r="CW68" s="13"/>
@@ -13419,303 +14195,303 @@
     </row>
     <row r="69" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
-        <v>45736</v>
+        <v>45743</v>
       </c>
       <c r="C69" s="9">
         <v>45744</v>
       </c>
       <c r="D69" s="1">
-        <v>5940</v>
+        <v>5840</v>
       </c>
       <c r="E69" s="1">
-        <v>5890</v>
+        <v>5780</v>
       </c>
       <c r="F69" s="1">
-        <v>5850</v>
+        <v>5730</v>
       </c>
       <c r="G69" s="1">
+        <v>5680</v>
+      </c>
+      <c r="H69" s="1">
+        <v>5630</v>
+      </c>
+      <c r="I69" s="1">
+        <v>5590</v>
+      </c>
+      <c r="J69" s="1">
+        <v>5550</v>
+      </c>
+      <c r="K69" s="1">
+        <v>5510</v>
+      </c>
+      <c r="L69" s="1">
+        <v>5490</v>
+      </c>
+      <c r="M69" s="1">
+        <v>5460</v>
+      </c>
+      <c r="N69" s="1">
+        <v>5440</v>
+      </c>
+      <c r="O69" s="1">
+        <v>5430</v>
+      </c>
+      <c r="P69" s="1">
+        <v>5430</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>5440</v>
+      </c>
+      <c r="R69" s="1">
+        <v>5440</v>
+      </c>
+      <c r="S69" s="1">
+        <v>5450</v>
+      </c>
+      <c r="T69" s="1">
+        <v>5460</v>
+      </c>
+      <c r="U69" s="1">
+        <v>5470</v>
+      </c>
+      <c r="V69" s="1">
+        <v>5490</v>
+      </c>
+      <c r="W69" s="1">
+        <v>5520</v>
+      </c>
+      <c r="X69" s="1">
+        <v>5560</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>5620</v>
+      </c>
+      <c r="Z69" s="1">
+        <v>5700</v>
+      </c>
+      <c r="AA69" s="1">
         <v>5800</v>
       </c>
-      <c r="H69" s="1">
-        <v>5750</v>
-      </c>
-      <c r="I69" s="1">
-        <v>5720</v>
-      </c>
-      <c r="J69" s="1">
-        <v>5700</v>
-      </c>
-      <c r="K69" s="1">
-        <v>5680</v>
-      </c>
-      <c r="L69" s="1">
-        <v>5660</v>
-      </c>
-      <c r="M69" s="1">
-        <v>5650</v>
-      </c>
-      <c r="N69" s="1">
-        <v>5640</v>
-      </c>
-      <c r="O69" s="1">
-        <v>5630</v>
-      </c>
-      <c r="P69" s="1">
-        <v>5620</v>
-      </c>
-      <c r="Q69" s="1">
-        <v>5610</v>
-      </c>
-      <c r="R69" s="1">
-        <v>5610</v>
-      </c>
-      <c r="S69" s="1">
-        <v>5620</v>
-      </c>
-      <c r="T69" s="1">
-        <v>5630</v>
-      </c>
-      <c r="U69" s="1">
-        <v>5650</v>
-      </c>
-      <c r="V69" s="1">
-        <v>5680</v>
-      </c>
-      <c r="W69" s="1">
-        <v>5730</v>
-      </c>
-      <c r="X69" s="1">
-        <v>5780</v>
-      </c>
-      <c r="Y69" s="1">
-        <v>5860</v>
-      </c>
-      <c r="Z69" s="1">
-        <v>5950</v>
-      </c>
-      <c r="AA69" s="1">
-        <v>6050</v>
-      </c>
       <c r="AB69" s="1">
-        <v>6160</v>
+        <v>5920</v>
       </c>
       <c r="AC69" s="1">
-        <v>6280</v>
+        <v>6060</v>
       </c>
       <c r="AD69" s="1">
-        <v>6390</v>
+        <v>6210</v>
       </c>
       <c r="AE69" s="1">
-        <v>6500</v>
+        <v>6370</v>
       </c>
       <c r="AF69" s="1">
-        <v>6610</v>
+        <v>6540</v>
       </c>
       <c r="AG69" s="1">
         <v>6700</v>
       </c>
       <c r="AH69" s="1">
-        <v>6780</v>
+        <v>6840</v>
       </c>
       <c r="AI69" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AJ69" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>7170</v>
+      </c>
+      <c r="AL69" s="1">
+        <v>7220</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>7250</v>
+      </c>
+      <c r="AN69" s="1">
+        <v>7260</v>
+      </c>
+      <c r="AO69" s="1">
+        <v>7250</v>
+      </c>
+      <c r="AP69" s="1">
+        <v>7220</v>
+      </c>
+      <c r="AQ69" s="1">
+        <v>7170</v>
+      </c>
+      <c r="AR69" s="1">
+        <v>7130</v>
+      </c>
+      <c r="AS69" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AT69" s="1">
+        <v>7030</v>
+      </c>
+      <c r="AU69" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AV69" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AW69" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AX69" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AY69" s="1">
+        <v>6860</v>
+      </c>
+      <c r="AZ69" s="1">
+        <v>6840</v>
+      </c>
+      <c r="BA69" s="1">
+        <v>6820</v>
+      </c>
+      <c r="BB69" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BC69" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BD69" s="1">
+        <v>6790</v>
+      </c>
+      <c r="BE69" s="1">
+        <v>6790</v>
+      </c>
+      <c r="BF69" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BG69" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BH69" s="1">
+        <v>6820</v>
+      </c>
+      <c r="BI69" s="1">
+        <v>6840</v>
+      </c>
+      <c r="BJ69" s="1">
         <v>6850</v>
       </c>
-      <c r="AJ69" s="1">
-        <v>6900</v>
-      </c>
-      <c r="AK69" s="1">
-        <v>6930</v>
-      </c>
-      <c r="AL69" s="1">
+      <c r="BK69" s="1">
+        <v>6860</v>
+      </c>
+      <c r="BL69" s="1">
+        <v>6880</v>
+      </c>
+      <c r="BM69" s="1">
+        <v>6890</v>
+      </c>
+      <c r="BN69" s="1">
+        <v>6920</v>
+      </c>
+      <c r="BO69" s="1">
         <v>6940</v>
       </c>
-      <c r="AM69" s="1">
-        <v>6940</v>
-      </c>
-      <c r="AN69" s="1">
-        <v>6910</v>
-      </c>
-      <c r="AO69" s="1">
-        <v>6870</v>
-      </c>
-      <c r="AP69" s="1">
-        <v>6810</v>
-      </c>
-      <c r="AQ69" s="1">
-        <v>6740</v>
-      </c>
-      <c r="AR69" s="1">
-        <v>6670</v>
-      </c>
-      <c r="AS69" s="1">
-        <v>6590</v>
-      </c>
-      <c r="AT69" s="1">
-        <v>6520</v>
-      </c>
-      <c r="AU69" s="1">
-        <v>6460</v>
-      </c>
-      <c r="AV69" s="1">
-        <v>6410</v>
-      </c>
-      <c r="AW69" s="1">
-        <v>6370</v>
-      </c>
-      <c r="AX69" s="1">
-        <v>6340</v>
-      </c>
-      <c r="AY69" s="1">
-        <v>6310</v>
-      </c>
-      <c r="AZ69" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BA69" s="1">
-        <v>6280</v>
-      </c>
-      <c r="BB69" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BC69" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BD69" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BE69" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BF69" s="1">
-        <v>6260</v>
-      </c>
-      <c r="BG69" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BH69" s="1">
-        <v>6280</v>
-      </c>
-      <c r="BI69" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BJ69" s="1">
-        <v>6320</v>
-      </c>
-      <c r="BK69" s="1">
-        <v>6350</v>
-      </c>
-      <c r="BL69" s="1">
-        <v>6380</v>
-      </c>
-      <c r="BM69" s="1">
-        <v>6420</v>
-      </c>
-      <c r="BN69" s="1">
-        <v>6460</v>
-      </c>
-      <c r="BO69" s="1">
-        <v>6500</v>
-      </c>
       <c r="BP69" s="1">
-        <v>6560</v>
+        <v>6980</v>
       </c>
       <c r="BQ69" s="1">
-        <v>6630</v>
+        <v>7020</v>
       </c>
       <c r="BR69" s="1">
-        <v>6710</v>
+        <v>7070</v>
       </c>
       <c r="BS69" s="1">
-        <v>6800</v>
+        <v>7120</v>
       </c>
       <c r="BT69" s="1">
-        <v>6910</v>
+        <v>7170</v>
       </c>
       <c r="BU69" s="1">
-        <v>7020</v>
+        <v>7230</v>
       </c>
       <c r="BV69" s="1">
-        <v>7130</v>
+        <v>7270</v>
       </c>
       <c r="BW69" s="1">
-        <v>7240</v>
+        <v>7320</v>
       </c>
       <c r="BX69" s="1">
-        <v>7340</v>
+        <v>7380</v>
       </c>
       <c r="BY69" s="1">
         <v>7430</v>
       </c>
       <c r="BZ69" s="1">
-        <v>7510</v>
+        <v>7500</v>
       </c>
       <c r="CA69" s="1">
-        <v>7590</v>
+        <v>7580</v>
       </c>
       <c r="CB69" s="1">
         <v>7660</v>
       </c>
       <c r="CC69" s="1">
-        <v>7700</v>
+        <v>7730</v>
       </c>
       <c r="CD69" s="1">
-        <v>7700</v>
+        <v>7770</v>
       </c>
       <c r="CE69" s="1">
-        <v>7690</v>
+        <v>7780</v>
       </c>
       <c r="CF69" s="1">
-        <v>7670</v>
+        <v>7760</v>
       </c>
       <c r="CG69" s="1">
-        <v>7630</v>
+        <v>7720</v>
       </c>
       <c r="CH69" s="1">
-        <v>7560</v>
+        <v>7640</v>
       </c>
       <c r="CI69" s="1">
-        <v>7490</v>
+        <v>7550</v>
       </c>
       <c r="CJ69" s="1">
-        <v>7370</v>
+        <v>7440</v>
       </c>
       <c r="CK69" s="1">
-        <v>7240</v>
+        <v>7330</v>
       </c>
       <c r="CL69" s="1">
-        <v>7130</v>
+        <v>7190</v>
       </c>
       <c r="CM69" s="1">
-        <v>6980</v>
+        <v>7060</v>
       </c>
       <c r="CN69" s="1">
-        <v>6820</v>
+        <v>6910</v>
       </c>
       <c r="CO69" s="1">
-        <v>6700</v>
+        <v>6760</v>
       </c>
       <c r="CP69" s="1">
-        <v>6530</v>
+        <v>6620</v>
       </c>
       <c r="CQ69" s="1">
-        <v>6380</v>
+        <v>6460</v>
       </c>
       <c r="CR69" s="1">
-        <v>6220</v>
+        <v>6310</v>
       </c>
       <c r="CS69" s="1">
-        <v>6080</v>
+        <v>6170</v>
       </c>
       <c r="CT69" s="1">
-        <v>5950</v>
+        <v>6030</v>
       </c>
       <c r="CU69" s="1">
-        <v>5820</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="70" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C70" s="9">
         <v>45745</v>
@@ -13724,289 +14500,289 @@
         <v>5800</v>
       </c>
       <c r="E70" s="1">
-        <v>5770</v>
+        <v>5740</v>
       </c>
       <c r="F70" s="1">
-        <v>5750</v>
+        <v>5690</v>
       </c>
       <c r="G70" s="1">
-        <v>5730</v>
+        <v>5630</v>
       </c>
       <c r="H70" s="1">
-        <v>5700</v>
+        <v>5580</v>
       </c>
       <c r="I70" s="1">
-        <v>5680</v>
+        <v>5530</v>
       </c>
       <c r="J70" s="1">
-        <v>5660</v>
+        <v>5490</v>
       </c>
       <c r="K70" s="1">
-        <v>5630</v>
+        <v>5450</v>
       </c>
       <c r="L70" s="1">
+        <v>5420</v>
+      </c>
+      <c r="M70" s="1">
+        <v>5390</v>
+      </c>
+      <c r="N70" s="1">
+        <v>5360</v>
+      </c>
+      <c r="O70" s="1">
+        <v>5340</v>
+      </c>
+      <c r="P70" s="1">
+        <v>5320</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>5310</v>
+      </c>
+      <c r="R70" s="1">
+        <v>5300</v>
+      </c>
+      <c r="S70" s="1">
+        <v>5300</v>
+      </c>
+      <c r="T70" s="1">
+        <v>5310</v>
+      </c>
+      <c r="U70" s="1">
+        <v>5320</v>
+      </c>
+      <c r="V70" s="1">
+        <v>5340</v>
+      </c>
+      <c r="W70" s="1">
+        <v>5370</v>
+      </c>
+      <c r="X70" s="1">
+        <v>5400</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>5430</v>
+      </c>
+      <c r="Z70" s="1">
+        <v>5470</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>5500</v>
+      </c>
+      <c r="AB70" s="1">
+        <v>5540</v>
+      </c>
+      <c r="AC70" s="1">
+        <v>5570</v>
+      </c>
+      <c r="AD70" s="1">
         <v>5610</v>
       </c>
-      <c r="M70" s="1">
-        <v>5590</v>
-      </c>
-      <c r="N70" s="1">
-        <v>5580</v>
-      </c>
-      <c r="O70" s="1">
-        <v>5570</v>
-      </c>
-      <c r="P70" s="1">
-        <v>5560</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>5560</v>
-      </c>
-      <c r="R70" s="1">
-        <v>5560</v>
-      </c>
-      <c r="S70" s="1">
-        <v>5570</v>
-      </c>
-      <c r="T70" s="1">
-        <v>5570</v>
-      </c>
-      <c r="U70" s="1">
-        <v>5580</v>
-      </c>
-      <c r="V70" s="1">
-        <v>5590</v>
-      </c>
-      <c r="W70" s="1">
-        <v>5600</v>
-      </c>
-      <c r="X70" s="1">
-        <v>5630</v>
-      </c>
-      <c r="Y70" s="1">
+      <c r="AE70" s="1">
         <v>5650</v>
       </c>
-      <c r="Z70" s="1">
+      <c r="AF70" s="1">
         <v>5690</v>
       </c>
-      <c r="AA70" s="1">
-        <v>5730</v>
-      </c>
-      <c r="AB70" s="1">
-        <v>5770</v>
-      </c>
-      <c r="AC70" s="1">
-        <v>5810</v>
-      </c>
-      <c r="AD70" s="1">
-        <v>5840</v>
-      </c>
-      <c r="AE70" s="1">
-        <v>5870</v>
-      </c>
-      <c r="AF70" s="1">
-        <v>5890</v>
-      </c>
       <c r="AG70" s="1">
-        <v>5890</v>
+        <v>5740</v>
       </c>
       <c r="AH70" s="1">
-        <v>5890</v>
+        <v>5790</v>
       </c>
       <c r="AI70" s="1">
         <v>5860</v>
       </c>
       <c r="AJ70" s="1">
-        <v>5830</v>
+        <v>5920</v>
       </c>
       <c r="AK70" s="1">
-        <v>5780</v>
+        <v>5990</v>
       </c>
       <c r="AL70" s="1">
-        <v>5710</v>
+        <v>6050</v>
       </c>
       <c r="AM70" s="1">
-        <v>5630</v>
+        <v>6100</v>
       </c>
       <c r="AN70" s="1">
-        <v>5550</v>
+        <v>6140</v>
       </c>
       <c r="AO70" s="1">
-        <v>5460</v>
+        <v>6180</v>
       </c>
       <c r="AP70" s="1">
-        <v>5370</v>
+        <v>6200</v>
       </c>
       <c r="AQ70" s="1">
-        <v>5270</v>
+        <v>6200</v>
       </c>
       <c r="AR70" s="1">
-        <v>5180</v>
+        <v>6180</v>
       </c>
       <c r="AS70" s="1">
-        <v>5090</v>
+        <v>6160</v>
       </c>
       <c r="AT70" s="1">
-        <v>5010</v>
+        <v>6130</v>
       </c>
       <c r="AU70" s="1">
-        <v>4940</v>
+        <v>6110</v>
       </c>
       <c r="AV70" s="1">
-        <v>4870</v>
+        <v>6090</v>
       </c>
       <c r="AW70" s="1">
-        <v>4810</v>
+        <v>6070</v>
       </c>
       <c r="AX70" s="1">
-        <v>4750</v>
+        <v>6060</v>
       </c>
       <c r="AY70" s="1">
-        <v>4700</v>
+        <v>6050</v>
       </c>
       <c r="AZ70" s="1">
-        <v>4660</v>
+        <v>6040</v>
       </c>
       <c r="BA70" s="1">
-        <v>4630</v>
+        <v>6020</v>
       </c>
       <c r="BB70" s="1">
-        <v>4610</v>
+        <v>6010</v>
       </c>
       <c r="BC70" s="1">
-        <v>4590</v>
+        <v>5990</v>
       </c>
       <c r="BD70" s="1">
-        <v>4590</v>
+        <v>5970</v>
       </c>
       <c r="BE70" s="1">
-        <v>4600</v>
+        <v>5950</v>
       </c>
       <c r="BF70" s="1">
-        <v>4620</v>
+        <v>5930</v>
       </c>
       <c r="BG70" s="1">
-        <v>4650</v>
+        <v>5920</v>
       </c>
       <c r="BH70" s="1">
-        <v>4700</v>
+        <v>5920</v>
       </c>
       <c r="BI70" s="1">
-        <v>4750</v>
+        <v>5920</v>
       </c>
       <c r="BJ70" s="1">
-        <v>4810</v>
+        <v>5940</v>
       </c>
       <c r="BK70" s="1">
-        <v>4870</v>
+        <v>5960</v>
       </c>
       <c r="BL70" s="1">
-        <v>4950</v>
+        <v>5990</v>
       </c>
       <c r="BM70" s="1">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="BN70" s="1">
-        <v>5130</v>
+        <v>6050</v>
       </c>
       <c r="BO70" s="1">
-        <v>5230</v>
+        <v>6090</v>
       </c>
       <c r="BP70" s="1">
-        <v>5360</v>
+        <v>6140</v>
       </c>
       <c r="BQ70" s="1">
-        <v>5500</v>
+        <v>6190</v>
       </c>
       <c r="BR70" s="1">
-        <v>5650</v>
+        <v>6250</v>
       </c>
       <c r="BS70" s="1">
-        <v>5810</v>
+        <v>6320</v>
       </c>
       <c r="BT70" s="1">
-        <v>5980</v>
+        <v>6400</v>
       </c>
       <c r="BU70" s="1">
-        <v>6140</v>
+        <v>6480</v>
       </c>
       <c r="BV70" s="1">
-        <v>6310</v>
+        <v>6560</v>
       </c>
       <c r="BW70" s="1">
-        <v>6460</v>
+        <v>6640</v>
       </c>
       <c r="BX70" s="1">
-        <v>6620</v>
+        <v>6710</v>
       </c>
       <c r="BY70" s="1">
-        <v>6770</v>
+        <v>6790</v>
       </c>
       <c r="BZ70" s="1">
-        <v>6930</v>
+        <v>6880</v>
       </c>
       <c r="CA70" s="1">
-        <v>7070</v>
+        <v>6960</v>
       </c>
       <c r="CB70" s="1">
-        <v>7210</v>
+        <v>7050</v>
       </c>
       <c r="CC70" s="1">
-        <v>7320</v>
+        <v>7130</v>
       </c>
       <c r="CD70" s="1">
-        <v>7380</v>
+        <v>7150</v>
       </c>
       <c r="CE70" s="1">
-        <v>7390</v>
+        <v>7150</v>
       </c>
       <c r="CF70" s="1">
-        <v>7380</v>
+        <v>7130</v>
       </c>
       <c r="CG70" s="1">
-        <v>7350</v>
+        <v>7100</v>
       </c>
       <c r="CH70" s="1">
-        <v>7280</v>
+        <v>7050</v>
       </c>
       <c r="CI70" s="1">
-        <v>7200</v>
+        <v>6980</v>
       </c>
       <c r="CJ70" s="1">
-        <v>7090</v>
+        <v>6860</v>
       </c>
       <c r="CK70" s="1">
-        <v>6970</v>
+        <v>6750</v>
       </c>
       <c r="CL70" s="1">
-        <v>6860</v>
+        <v>6650</v>
       </c>
       <c r="CM70" s="1">
-        <v>6730</v>
+        <v>6540</v>
       </c>
       <c r="CN70" s="1">
-        <v>6600</v>
+        <v>6390</v>
       </c>
       <c r="CO70" s="1">
-        <v>6460</v>
+        <v>6260</v>
       </c>
       <c r="CP70" s="1">
-        <v>6330</v>
+        <v>6130</v>
       </c>
       <c r="CQ70" s="1">
-        <v>6200</v>
+        <v>5990</v>
       </c>
       <c r="CR70" s="1">
-        <v>6080</v>
+        <v>5850</v>
       </c>
       <c r="CS70" s="1">
-        <v>5950</v>
+        <v>5720</v>
       </c>
       <c r="CT70" s="1">
-        <v>5830</v>
+        <v>5620</v>
       </c>
       <c r="CU70" s="1">
-        <v>5720</v>
+        <v>5510</v>
       </c>
       <c r="CV70" s="13"/>
       <c r="CW70" s="13"/>
@@ -14015,586 +14791,586 @@
     </row>
     <row r="71" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C71" s="9">
         <v>45746</v>
       </c>
       <c r="D71" s="1">
-        <v>5600</v>
+        <v>5440</v>
       </c>
       <c r="E71" s="1">
-        <v>5540</v>
+        <v>5390</v>
       </c>
       <c r="F71" s="1">
-        <v>5490</v>
+        <v>5340</v>
       </c>
       <c r="G71" s="1">
-        <v>5440</v>
+        <v>5280</v>
       </c>
       <c r="H71" s="1">
-        <v>5380</v>
+        <v>5240</v>
       </c>
       <c r="I71" s="1">
-        <v>5330</v>
+        <v>5200</v>
       </c>
       <c r="J71" s="1">
-        <v>5290</v>
+        <v>5170</v>
       </c>
       <c r="K71" s="1">
-        <v>5260</v>
+        <v>5130</v>
       </c>
       <c r="L71" s="1">
-        <v>5220</v>
+        <v>5090</v>
       </c>
       <c r="M71" s="1">
-        <v>5190</v>
+        <v>5060</v>
       </c>
       <c r="N71" s="1">
-        <v>5160</v>
+        <v>5030</v>
       </c>
       <c r="O71" s="1">
-        <v>5130</v>
+        <v>5010</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1">
+        <v>4950</v>
+      </c>
+      <c r="U71" s="1">
+        <v>4950</v>
+      </c>
+      <c r="V71" s="1">
+        <v>4950</v>
+      </c>
+      <c r="W71" s="1">
+        <v>4960</v>
+      </c>
+      <c r="X71" s="1">
+        <v>4970</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>4990</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>5020</v>
+      </c>
+      <c r="AA71" s="1">
         <v>5040</v>
       </c>
-      <c r="U71" s="1">
-        <v>5040</v>
-      </c>
-      <c r="V71" s="1">
+      <c r="AB71" s="1">
+        <v>5070</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>5090</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>5110</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>5130</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>5150</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>5170</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>5230</v>
+      </c>
+      <c r="AJ71" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>5270</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>5290</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>5300</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>5300</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>5290</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>5270</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>5250</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>5150</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>5100</v>
+      </c>
+      <c r="AU71" s="1">
         <v>5050</v>
       </c>
-      <c r="W71" s="1">
-        <v>5070</v>
-      </c>
-      <c r="X71" s="1">
-        <v>5090</v>
-      </c>
-      <c r="Y71" s="1">
+      <c r="AV71" s="1">
+        <v>5010</v>
+      </c>
+      <c r="AW71" s="1">
+        <v>4980</v>
+      </c>
+      <c r="AX71" s="1">
+        <v>4950</v>
+      </c>
+      <c r="AY71" s="1">
+        <v>4940</v>
+      </c>
+      <c r="AZ71" s="1">
+        <v>4920</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>4910</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>4910</v>
+      </c>
+      <c r="BC71" s="1">
+        <v>4900</v>
+      </c>
+      <c r="BD71" s="1">
+        <v>4890</v>
+      </c>
+      <c r="BE71" s="1">
+        <v>4880</v>
+      </c>
+      <c r="BF71" s="1">
+        <v>4880</v>
+      </c>
+      <c r="BG71" s="1">
+        <v>4870</v>
+      </c>
+      <c r="BH71" s="1">
+        <v>4880</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>4890</v>
+      </c>
+      <c r="BJ71" s="1">
+        <v>4900</v>
+      </c>
+      <c r="BK71" s="1">
+        <v>4910</v>
+      </c>
+      <c r="BL71" s="1">
+        <v>4930</v>
+      </c>
+      <c r="BM71" s="1">
+        <v>4950</v>
+      </c>
+      <c r="BN71" s="1">
+        <v>4980</v>
+      </c>
+      <c r="BO71" s="1">
+        <v>5010</v>
+      </c>
+      <c r="BP71" s="1">
+        <v>5060</v>
+      </c>
+      <c r="BQ71" s="1">
         <v>5120</v>
       </c>
-      <c r="Z71" s="1">
-        <v>5150</v>
-      </c>
-      <c r="AA71" s="1">
-        <v>5180</v>
-      </c>
-      <c r="AB71" s="1">
-        <v>5210</v>
-      </c>
-      <c r="AC71" s="1">
-        <v>5230</v>
-      </c>
-      <c r="AD71" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AE71" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AF71" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AG71" s="1">
-        <v>5240</v>
-      </c>
-      <c r="AH71" s="1">
-        <v>5220</v>
-      </c>
-      <c r="AI71" s="1">
+      <c r="BR71" s="1">
         <v>5190</v>
       </c>
-      <c r="AJ71" s="1">
-        <v>5140</v>
-      </c>
-      <c r="AK71" s="1">
-        <v>5090</v>
-      </c>
-      <c r="AL71" s="1">
-        <v>5020</v>
-      </c>
-      <c r="AM71" s="1">
-        <v>4930</v>
-      </c>
-      <c r="AN71" s="1">
-        <v>4840</v>
-      </c>
-      <c r="AO71" s="1">
-        <v>4730</v>
-      </c>
-      <c r="AP71" s="1">
-        <v>4620</v>
-      </c>
-      <c r="AQ71" s="1">
-        <v>4510</v>
-      </c>
-      <c r="AR71" s="1">
-        <v>4410</v>
-      </c>
-      <c r="AS71" s="1">
-        <v>4310</v>
-      </c>
-      <c r="AT71" s="1">
-        <v>4220</v>
-      </c>
-      <c r="AU71" s="1">
-        <v>4140</v>
-      </c>
-      <c r="AV71" s="1">
-        <v>4080</v>
-      </c>
-      <c r="AW71" s="1">
-        <v>4040</v>
-      </c>
-      <c r="AX71" s="1">
-        <v>4010</v>
-      </c>
-      <c r="AY71" s="1">
-        <v>3990</v>
-      </c>
-      <c r="AZ71" s="1">
-        <v>3980</v>
-      </c>
-      <c r="BA71" s="1">
-        <v>3970</v>
-      </c>
-      <c r="BB71" s="1">
-        <v>3970</v>
-      </c>
-      <c r="BC71" s="1">
-        <v>3970</v>
-      </c>
-      <c r="BD71" s="1">
-        <v>3960</v>
-      </c>
-      <c r="BE71" s="1">
-        <v>3960</v>
-      </c>
-      <c r="BF71" s="1">
-        <v>3960</v>
-      </c>
-      <c r="BG71" s="1">
-        <v>3960</v>
-      </c>
-      <c r="BH71" s="1">
-        <v>3970</v>
-      </c>
-      <c r="BI71" s="1">
-        <v>3990</v>
-      </c>
-      <c r="BJ71" s="1">
-        <v>4010</v>
-      </c>
-      <c r="BK71" s="1">
-        <v>4040</v>
-      </c>
-      <c r="BL71" s="1">
-        <v>4080</v>
-      </c>
-      <c r="BM71" s="1">
-        <v>4120</v>
-      </c>
-      <c r="BN71" s="1">
-        <v>4170</v>
-      </c>
-      <c r="BO71" s="1">
-        <v>4230</v>
-      </c>
-      <c r="BP71" s="1">
-        <v>4300</v>
-      </c>
-      <c r="BQ71" s="1">
-        <v>4380</v>
-      </c>
-      <c r="BR71" s="1">
-        <v>4490</v>
-      </c>
       <c r="BS71" s="1">
-        <v>4600</v>
+        <v>5280</v>
       </c>
       <c r="BT71" s="1">
-        <v>4730</v>
+        <v>5370</v>
       </c>
       <c r="BU71" s="1">
-        <v>4860</v>
+        <v>5470</v>
       </c>
       <c r="BV71" s="1">
-        <v>5000</v>
+        <v>5560</v>
       </c>
       <c r="BW71" s="1">
-        <v>5130</v>
+        <v>5650</v>
       </c>
       <c r="BX71" s="1">
-        <v>5270</v>
+        <v>5730</v>
       </c>
       <c r="BY71" s="1">
-        <v>5420</v>
+        <v>5800</v>
       </c>
       <c r="BZ71" s="1">
-        <v>5570</v>
+        <v>5880</v>
       </c>
       <c r="CA71" s="1">
-        <v>5740</v>
+        <v>5980</v>
       </c>
       <c r="CB71" s="1">
-        <v>5930</v>
+        <v>6090</v>
       </c>
       <c r="CC71" s="1">
-        <v>6120</v>
+        <v>6220</v>
       </c>
       <c r="CD71" s="1">
-        <v>6320</v>
+        <v>6350</v>
       </c>
       <c r="CE71" s="1">
+        <v>6470</v>
+      </c>
+      <c r="CF71" s="1">
+        <v>6580</v>
+      </c>
+      <c r="CG71" s="1">
+        <v>6680</v>
+      </c>
+      <c r="CH71" s="1">
+        <v>6700</v>
+      </c>
+      <c r="CI71" s="1">
+        <v>6700</v>
+      </c>
+      <c r="CJ71" s="1">
+        <v>6680</v>
+      </c>
+      <c r="CK71" s="1">
+        <v>6630</v>
+      </c>
+      <c r="CL71" s="1">
+        <v>6580</v>
+      </c>
+      <c r="CM71" s="1">
         <v>6500</v>
       </c>
-      <c r="CF71" s="1">
-        <v>6670</v>
-      </c>
-      <c r="CG71" s="1">
-        <v>6800</v>
-      </c>
-      <c r="CH71" s="1">
-        <v>6850</v>
-      </c>
-      <c r="CI71" s="1">
-        <v>6860</v>
-      </c>
-      <c r="CJ71" s="1">
-        <v>6840</v>
-      </c>
-      <c r="CK71" s="1">
-        <v>6800</v>
-      </c>
-      <c r="CL71" s="1">
-        <v>6740</v>
-      </c>
-      <c r="CM71" s="1">
-        <v>6660</v>
-      </c>
       <c r="CN71" s="1">
-        <v>6540</v>
+        <v>6380</v>
       </c>
       <c r="CO71" s="1">
-        <v>6420</v>
+        <v>6250</v>
       </c>
       <c r="CP71" s="1">
-        <v>6270</v>
+        <v>6130</v>
       </c>
       <c r="CQ71" s="1">
-        <v>6130</v>
+        <v>5980</v>
       </c>
       <c r="CR71" s="1">
-        <v>5980</v>
+        <v>5840</v>
       </c>
       <c r="CS71" s="1">
-        <v>5850</v>
+        <v>5710</v>
       </c>
       <c r="CT71" s="1">
-        <v>5730</v>
+        <v>5590</v>
       </c>
       <c r="CU71" s="1">
-        <v>5620</v>
+        <v>5480</v>
       </c>
     </row>
     <row r="72" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
-        <v>45739</v>
+        <v>45743</v>
       </c>
       <c r="C72" s="9">
         <v>45747</v>
       </c>
       <c r="D72" s="1">
-        <v>5470</v>
+        <v>5340</v>
       </c>
       <c r="E72" s="1">
+        <v>5290</v>
+      </c>
+      <c r="F72" s="1">
+        <v>5240</v>
+      </c>
+      <c r="G72" s="1">
+        <v>5180</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5130</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5090</v>
+      </c>
+      <c r="J72" s="1">
+        <v>5040</v>
+      </c>
+      <c r="K72" s="1">
+        <v>5000</v>
+      </c>
+      <c r="L72" s="1">
+        <v>4960</v>
+      </c>
+      <c r="M72" s="1">
+        <v>4930</v>
+      </c>
+      <c r="N72" s="1">
+        <v>4910</v>
+      </c>
+      <c r="O72" s="1">
+        <v>4900</v>
+      </c>
+      <c r="P72" s="1">
+        <v>4900</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>4900</v>
+      </c>
+      <c r="R72" s="1">
+        <v>4910</v>
+      </c>
+      <c r="S72" s="1">
+        <v>4930</v>
+      </c>
+      <c r="T72" s="1">
+        <v>4950</v>
+      </c>
+      <c r="U72" s="1">
+        <v>4970</v>
+      </c>
+      <c r="V72" s="1">
+        <v>4990</v>
+      </c>
+      <c r="W72" s="1">
+        <v>5040</v>
+      </c>
+      <c r="X72" s="1">
+        <v>5100</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>5180</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>5280</v>
+      </c>
+      <c r="AA72" s="1">
         <v>5410</v>
       </c>
-      <c r="F72" s="1">
-        <v>5350</v>
-      </c>
-      <c r="G72" s="1">
-        <v>5290</v>
-      </c>
-      <c r="H72" s="1">
-        <v>5250</v>
-      </c>
-      <c r="I72" s="1">
-        <v>5210</v>
-      </c>
-      <c r="J72" s="1">
-        <v>5180</v>
-      </c>
-      <c r="K72" s="1">
-        <v>5140</v>
-      </c>
-      <c r="L72" s="1">
-        <v>5110</v>
-      </c>
-      <c r="M72" s="1">
-        <v>5080</v>
-      </c>
-      <c r="N72" s="1">
-        <v>5070</v>
-      </c>
-      <c r="O72" s="1">
-        <v>5060</v>
-      </c>
-      <c r="P72" s="1">
-        <v>5060</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>5070</v>
-      </c>
-      <c r="R72" s="1">
-        <v>5080</v>
-      </c>
-      <c r="S72" s="1">
-        <v>5080</v>
-      </c>
-      <c r="T72" s="1">
-        <v>5090</v>
-      </c>
-      <c r="U72" s="1">
-        <v>5110</v>
-      </c>
-      <c r="V72" s="1">
-        <v>5140</v>
-      </c>
-      <c r="W72" s="1">
-        <v>5180</v>
-      </c>
-      <c r="X72" s="1">
-        <v>5240</v>
-      </c>
-      <c r="Y72" s="1">
-        <v>5320</v>
-      </c>
-      <c r="Z72" s="1">
-        <v>5430</v>
-      </c>
-      <c r="AA72" s="1">
+      <c r="AB72" s="1">
         <v>5560</v>
       </c>
-      <c r="AB72" s="1">
-        <v>5710</v>
-      </c>
       <c r="AC72" s="1">
-        <v>5880</v>
+        <v>5720</v>
       </c>
       <c r="AD72" s="1">
-        <v>6070</v>
+        <v>5890</v>
       </c>
       <c r="AE72" s="1">
+        <v>6080</v>
+      </c>
+      <c r="AF72" s="1">
         <v>6260</v>
       </c>
-      <c r="AF72" s="1">
-        <v>6450</v>
-      </c>
       <c r="AG72" s="1">
-        <v>6620</v>
+        <v>6440</v>
       </c>
       <c r="AH72" s="1">
-        <v>6780</v>
+        <v>6600</v>
       </c>
       <c r="AI72" s="1">
-        <v>6920</v>
+        <v>6750</v>
       </c>
       <c r="AJ72" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AL72" s="1">
         <v>7030</v>
       </c>
-      <c r="AK72" s="1">
-        <v>7110</v>
-      </c>
-      <c r="AL72" s="1">
-        <v>7150</v>
-      </c>
       <c r="AM72" s="1">
-        <v>7160</v>
+        <v>7080</v>
       </c>
       <c r="AN72" s="1">
-        <v>7140</v>
+        <v>7100</v>
       </c>
       <c r="AO72" s="1">
-        <v>7090</v>
+        <v>7100</v>
       </c>
       <c r="AP72" s="1">
-        <v>7020</v>
+        <v>7080</v>
       </c>
       <c r="AQ72" s="1">
-        <v>6940</v>
+        <v>7040</v>
       </c>
       <c r="AR72" s="1">
-        <v>6850</v>
+        <v>6980</v>
       </c>
       <c r="AS72" s="1">
-        <v>6760</v>
+        <v>6930</v>
       </c>
       <c r="AT72" s="1">
-        <v>6680</v>
+        <v>6870</v>
       </c>
       <c r="AU72" s="1">
-        <v>6600</v>
+        <v>6810</v>
       </c>
       <c r="AV72" s="1">
+        <v>6770</v>
+      </c>
+      <c r="AW72" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AX72" s="1">
+        <v>6700</v>
+      </c>
+      <c r="AY72" s="1">
+        <v>6670</v>
+      </c>
+      <c r="AZ72" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BA72" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BB72" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BC72" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BD72" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BE72" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BF72" s="1">
         <v>6540</v>
       </c>
-      <c r="AW72" s="1">
-        <v>6490</v>
-      </c>
-      <c r="AX72" s="1">
-        <v>6450</v>
-      </c>
-      <c r="AY72" s="1">
-        <v>6420</v>
-      </c>
-      <c r="AZ72" s="1">
-        <v>6390</v>
-      </c>
-      <c r="BA72" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BB72" s="1">
-        <v>6340</v>
-      </c>
-      <c r="BC72" s="1">
-        <v>6320</v>
-      </c>
-      <c r="BD72" s="1">
-        <v>6300</v>
-      </c>
-      <c r="BE72" s="1">
-        <v>6290</v>
-      </c>
-      <c r="BF72" s="1">
-        <v>6280</v>
-      </c>
       <c r="BG72" s="1">
-        <v>6290</v>
+        <v>6520</v>
       </c>
       <c r="BH72" s="1">
-        <v>6300</v>
+        <v>6520</v>
       </c>
       <c r="BI72" s="1">
-        <v>6310</v>
+        <v>6510</v>
       </c>
       <c r="BJ72" s="1">
-        <v>6330</v>
+        <v>6510</v>
       </c>
       <c r="BK72" s="1">
-        <v>6350</v>
+        <v>6510</v>
       </c>
       <c r="BL72" s="1">
-        <v>6380</v>
+        <v>6510</v>
       </c>
       <c r="BM72" s="1">
-        <v>6400</v>
+        <v>6510</v>
       </c>
       <c r="BN72" s="1">
-        <v>6420</v>
+        <v>6520</v>
       </c>
       <c r="BO72" s="1">
-        <v>6450</v>
+        <v>6520</v>
       </c>
       <c r="BP72" s="1">
-        <v>6490</v>
+        <v>6530</v>
       </c>
       <c r="BQ72" s="1">
         <v>6550</v>
       </c>
       <c r="BR72" s="1">
-        <v>6610</v>
+        <v>6570</v>
       </c>
       <c r="BS72" s="1">
+        <v>6600</v>
+      </c>
+      <c r="BT72" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BU72" s="1">
+        <v>6690</v>
+      </c>
+      <c r="BV72" s="1">
+        <v>6740</v>
+      </c>
+      <c r="BW72" s="1">
+        <v>6800</v>
+      </c>
+      <c r="BX72" s="1">
+        <v>6860</v>
+      </c>
+      <c r="BY72" s="1">
+        <v>6940</v>
+      </c>
+      <c r="BZ72" s="1">
+        <v>7040</v>
+      </c>
+      <c r="CA72" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CB72" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CC72" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CD72" s="1">
+        <v>7520</v>
+      </c>
+      <c r="CE72" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CF72" s="1">
+        <v>7680</v>
+      </c>
+      <c r="CG72" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CH72" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CI72" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CJ72" s="1">
+        <v>7680</v>
+      </c>
+      <c r="CK72" s="1">
+        <v>7580</v>
+      </c>
+      <c r="CL72" s="1">
+        <v>7470</v>
+      </c>
+      <c r="CM72" s="1">
+        <v>7350</v>
+      </c>
+      <c r="CN72" s="1">
+        <v>7180</v>
+      </c>
+      <c r="CO72" s="1">
+        <v>7020</v>
+      </c>
+      <c r="CP72" s="1">
+        <v>6860</v>
+      </c>
+      <c r="CQ72" s="1">
         <v>6700</v>
       </c>
-      <c r="BT72" s="1">
-        <v>6790</v>
-      </c>
-      <c r="BU72" s="1">
-        <v>6880</v>
-      </c>
-      <c r="BV72" s="1">
-        <v>6970</v>
-      </c>
-      <c r="BW72" s="1">
-        <v>7060</v>
-      </c>
-      <c r="BX72" s="1">
-        <v>7130</v>
-      </c>
-      <c r="BY72" s="1">
-        <v>7210</v>
-      </c>
-      <c r="BZ72" s="1">
-        <v>7290</v>
-      </c>
-      <c r="CA72" s="1">
-        <v>7380</v>
-      </c>
-      <c r="CB72" s="1">
-        <v>7480</v>
-      </c>
-      <c r="CC72" s="1">
-        <v>7550</v>
-      </c>
-      <c r="CD72" s="1">
-        <v>7640</v>
-      </c>
-      <c r="CE72" s="1">
-        <v>7720</v>
-      </c>
-      <c r="CF72" s="1">
-        <v>7790</v>
-      </c>
-      <c r="CG72" s="1">
-        <v>7850</v>
-      </c>
-      <c r="CH72" s="1">
-        <v>7870</v>
-      </c>
-      <c r="CI72" s="1">
-        <v>7880</v>
-      </c>
-      <c r="CJ72" s="1">
-        <v>7850</v>
-      </c>
-      <c r="CK72" s="1">
-        <v>7760</v>
-      </c>
-      <c r="CL72" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CM72" s="1">
-        <v>7520</v>
-      </c>
-      <c r="CN72" s="1">
-        <v>7360</v>
-      </c>
-      <c r="CO72" s="1">
-        <v>7220</v>
-      </c>
-      <c r="CP72" s="1">
-        <v>7060</v>
-      </c>
-      <c r="CQ72" s="1">
-        <v>6910</v>
-      </c>
       <c r="CR72" s="1">
-        <v>6700</v>
+        <v>6530</v>
       </c>
       <c r="CS72" s="1">
-        <v>6550</v>
+        <v>6400</v>
       </c>
       <c r="CT72" s="1">
-        <v>6430</v>
+        <v>6290</v>
       </c>
       <c r="CU72" s="1">
-        <v>6320</v>
+        <v>6180</v>
       </c>
     </row>
     <row r="73" spans="2:103" ht="15.75" x14ac:dyDescent="0.25">
@@ -32845,7 +33621,7 @@
   <dimension ref="B3:CY140"/>
   <sheetViews>
     <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D64" sqref="D64:CU65"/>
+      <selection activeCell="D68" sqref="D68:CU69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33217,412 +33993,1188 @@
       </c>
     </row>
     <row r="8" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B8" s="8"/>
+      <c r="B8" s="8">
+        <v>45743</v>
+      </c>
       <c r="C8" s="9">
         <v>45748</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
-      <c r="AT8" s="1"/>
-      <c r="AU8" s="1"/>
-      <c r="AV8" s="1"/>
-      <c r="AW8" s="1"/>
-      <c r="AX8" s="1"/>
-      <c r="AY8" s="1"/>
-      <c r="AZ8" s="1"/>
-      <c r="BA8" s="1"/>
-      <c r="BB8" s="1"/>
-      <c r="BC8" s="1"/>
-      <c r="BD8" s="1"/>
-      <c r="BE8" s="1"/>
-      <c r="BF8" s="1"/>
-      <c r="BG8" s="1"/>
-      <c r="BH8" s="1"/>
-      <c r="BI8" s="1"/>
-      <c r="BJ8" s="1"/>
-      <c r="BK8" s="1"/>
-      <c r="BL8" s="1"/>
-      <c r="BM8" s="1"/>
-      <c r="BN8" s="1"/>
-      <c r="BO8" s="1"/>
-      <c r="BP8" s="1"/>
-      <c r="BQ8" s="1"/>
-      <c r="BR8" s="1"/>
-      <c r="BS8" s="1"/>
-      <c r="BT8" s="1"/>
-      <c r="BU8" s="1"/>
-      <c r="BV8" s="1"/>
-      <c r="BW8" s="1"/>
-      <c r="BX8" s="1"/>
-      <c r="BY8" s="1"/>
-      <c r="BZ8" s="1"/>
-      <c r="CA8" s="1"/>
-      <c r="CB8" s="1"/>
-      <c r="CC8" s="1"/>
-      <c r="CD8" s="1"/>
-      <c r="CE8" s="1"/>
-      <c r="CF8" s="1"/>
-      <c r="CG8" s="1"/>
-      <c r="CH8" s="1"/>
-      <c r="CI8" s="1"/>
-      <c r="CJ8" s="1"/>
-      <c r="CK8" s="1"/>
-      <c r="CL8" s="1"/>
-      <c r="CM8" s="1"/>
-      <c r="CN8" s="1"/>
-      <c r="CO8" s="1"/>
-      <c r="CP8" s="1"/>
-      <c r="CQ8" s="1"/>
-      <c r="CR8" s="1"/>
-      <c r="CS8" s="1"/>
-      <c r="CT8" s="1"/>
-      <c r="CU8" s="1"/>
+      <c r="D8" s="1">
+        <v>5447.1794077801433</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5390.9881943100445</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5344.1621830849626</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5297.3361718598799</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5244.6700212889491</v>
+      </c>
+      <c r="I8" s="1">
+        <v>5207.2092123088833</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5169.7484033288174</v>
+      </c>
+      <c r="K8" s="1">
+        <v>5132.2875943487516</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5094.0015482872077</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5056.5407393071418</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5037.8103348171089</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5028.445132572092</v>
+      </c>
+      <c r="P8" s="1">
+        <v>5031.2382426940194</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>5031.2382426940194</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5021.8730404490034</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5021.8730404490034</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5042.8252370814789</v>
+      </c>
+      <c r="U8" s="1">
+        <v>5070.9208438165278</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5089.6512483065608</v>
+      </c>
+      <c r="W8" s="1">
+        <v>5127.1120572866266</v>
+      </c>
+      <c r="X8" s="1">
+        <v>5181.97019547126</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>5238.1614089413588</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>5303.7178246564736</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5388.0046448616222</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>5478.9270369653568</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>5591.3094639055544</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>5703.6918908457519</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>5825.4395200309655</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>5946.9332301141867</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>6078.0460615444163</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>6209.1588929746467</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>6321.5413199148443</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>6442.8743952003097</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>6536.5264176504743</v>
+      </c>
+      <c r="AL8" s="1">
+        <v>6611.448035610606</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>6667.6392490807048</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>6692.7215018385914</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>6702.0867040836074</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>6692.7215018385914</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>6664.6258951035416</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>6623.9276175730602</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>6586.4668085929943</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>6549.0059996129285</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>6520.9103928778786</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>6484.2748209792917</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>6456.1792142442428</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>6437.4488097542098</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>6418.7184052641769</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>6405.4809367137605</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>6396.1157344687444</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>6386.7505322237275</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>6377.3853299787115</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>6368.0836075091929</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>6358.7184052641769</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>6339.988000774144</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>6330.6227985291271</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>6314.1141861815368</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>6295.3837816915038</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>6286.0185794464878</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>6267.2881749564549</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>6250.6526030578671</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>6222.5569963228181</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>6203.8265918327852</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>6194.4613895877683</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>6200.1745693826206</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>6209.5397716276366</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>6237.6353783626864</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>6275.0961873427523</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>6344.7451132185024</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>6391.5711244435843</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>6438.397135668667</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>6485.2231468937489</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>6536.3657828527193</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>6592.5569963228181</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>6658.1134120379329</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>6742.4002322430815</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>6842.8147861428297</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>6964.5624153280432</v>
+      </c>
+      <c r="CD8" s="1">
+        <v>7076.9448422682408</v>
+      </c>
+      <c r="CE8" s="1">
+        <v>7170.5968647184054</v>
+      </c>
+      <c r="CF8" s="1">
+        <v>7257.1054770659957</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>7322.6618927811114</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>7332.0270950261274</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>7332.0270950261274</v>
+      </c>
+      <c r="CJ8" s="1">
+        <v>7272.6618927811114</v>
+      </c>
+      <c r="CK8" s="1">
+        <v>7179.0098703309468</v>
+      </c>
+      <c r="CL8" s="1">
+        <v>7104.0882523708151</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>6982.3406231856006</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>6792.4675827365982</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>6661.3547513063677</v>
+      </c>
+      <c r="CP8" s="1">
+        <v>6511.5115153861043</v>
+      </c>
+      <c r="CQ8" s="1">
+        <v>6352.3030772208249</v>
+      </c>
+      <c r="CR8" s="1">
+        <v>6190.1110896071223</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>6058.9982581768918</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>5955.9810334817112</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>5834.2334042964967</v>
+      </c>
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="8"/>
+      <c r="B9" s="8">
+        <v>45743</v>
+      </c>
       <c r="C9" s="9">
         <v>45749</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
-      <c r="AT9" s="1"/>
-      <c r="AU9" s="1"/>
-      <c r="AV9" s="1"/>
-      <c r="AW9" s="1"/>
-      <c r="AX9" s="1"/>
-      <c r="AY9" s="1"/>
-      <c r="AZ9" s="1"/>
-      <c r="BA9" s="1"/>
-      <c r="BB9" s="1"/>
-      <c r="BC9" s="1"/>
-      <c r="BD9" s="1"/>
-      <c r="BE9" s="1"/>
-      <c r="BF9" s="1"/>
-      <c r="BG9" s="1"/>
-      <c r="BH9" s="1"/>
-      <c r="BI9" s="1"/>
-      <c r="BJ9" s="1"/>
-      <c r="BK9" s="1"/>
-      <c r="BL9" s="1"/>
-      <c r="BM9" s="1"/>
-      <c r="BN9" s="1"/>
-      <c r="BO9" s="1"/>
-      <c r="BP9" s="1"/>
-      <c r="BQ9" s="1"/>
-      <c r="BR9" s="1"/>
-      <c r="BS9" s="1"/>
-      <c r="BT9" s="1"/>
-      <c r="BU9" s="1"/>
-      <c r="BV9" s="1"/>
-      <c r="BW9" s="1"/>
-      <c r="BX9" s="1"/>
-      <c r="BY9" s="1"/>
-      <c r="BZ9" s="1"/>
-      <c r="CA9" s="1"/>
-      <c r="CB9" s="1"/>
-      <c r="CC9" s="1"/>
-      <c r="CD9" s="1"/>
-      <c r="CE9" s="1"/>
-      <c r="CF9" s="1"/>
-      <c r="CG9" s="1"/>
-      <c r="CH9" s="1"/>
-      <c r="CI9" s="1"/>
-      <c r="CJ9" s="1"/>
-      <c r="CK9" s="1"/>
-      <c r="CL9" s="1"/>
-      <c r="CM9" s="1"/>
-      <c r="CN9" s="1"/>
-      <c r="CO9" s="1"/>
-      <c r="CP9" s="1"/>
-      <c r="CQ9" s="1"/>
-      <c r="CR9" s="1"/>
-      <c r="CS9" s="1"/>
-      <c r="CT9" s="1"/>
-      <c r="CU9" s="1"/>
+      <c r="D9" s="1">
+        <v>5438.8000774143602</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5382.6088639442614</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5335.7828527191796</v>
+      </c>
+      <c r="G9" s="1">
+        <v>5288.9568414940968</v>
+      </c>
+      <c r="H9" s="1">
+        <v>5245.1143797174373</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5207.6535707373714</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5170.1927617573065</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5132.7319527772406</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5096.5407393071418</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5059.079930327076</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5040.3495258370431</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5030.9843235920262</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5029.8416876330557</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5029.8416876330557</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5039.2068898780726</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5048.5720921230886</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5057.4929359396165</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5076.2233404296494</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5104.3189471646992</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5132.4145538997482</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5178.415328043352</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>5234.6065415134508</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>5300.1629572285656</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>5384.4497774337142</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>5472.8329785175147</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>5585.2154054577122</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>5697.5978323979098</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>5819.3454615831233</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>5948.9011031546352</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>6080.0139345848656</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>6211.1267660150961</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>6323.5091929552937</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>6435.8916198954903</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>6529.5436423456549</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>6604.4652603057866</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>6660.6564737758854</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>6688.1509580027096</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>6706.8813624927425</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>6697.5161602477265</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>6669.4205535126766</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>6652.1799883878457</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>6605.3539771627638</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>6567.893168182698</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>6530.4323592026321</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>6489.988000774144</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>6461.8923940390941</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>6443.1619895490612</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>6424.4315850590283</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>6415.7011805689954</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>6406.3359783239794</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>6396.9707760789624</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>6387.6055738339464</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>6375.8916198954903</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>6366.5264176504743</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>6347.7960131604414</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>6338.4308109154244</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>6313.7333075285469</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>6295.002903038514</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>6285.6377007934971</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>6266.9072963034641</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>6251.6047996903426</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>6223.5091929552937</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>6204.7787884652607</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>6195.4135862202438</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>6186.0820592219861</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>6195.4472614670021</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>6223.542868202052</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>6261.0036771821178</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>6326.462937874976</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>6373.2889491000578</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>6420.1149603251406</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>6466.9409715502225</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>6511.8625895103542</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>6568.0538029804529</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>6633.6102186955677</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>6717.8970389007163</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>6825.1039287787889</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>6946.8515579640025</v>
+      </c>
+      <c r="CD9" s="1">
+        <v>7059.2339849042</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>7152.8860073543647</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>7234.6971163150765</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>7300.2535320301913</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>7318.9839365202242</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>7309.6187342752082</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>7245.5223533965554</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>7161.2355331914068</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>7086.3139152312751</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>6964.5662860460616</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>6791.0710276756336</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>6650.5929940003871</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>6500.7497580801237</v>
+      </c>
+      <c r="CQ9" s="1">
+        <v>6341.5413199148443</v>
+      </c>
+      <c r="CR9" s="1">
+        <v>6180.017805302884</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>6048.9049738726535</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>5945.8877491774729</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>5824.1401199922584</v>
+      </c>
     </row>
     <row r="10" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="8"/>
+      <c r="B10" s="8">
+        <v>45743</v>
+      </c>
       <c r="C10" s="9">
         <v>45750</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
+      <c r="D10" s="1">
+        <v>5485.626088639443</v>
+      </c>
+      <c r="E10" s="1">
+        <v>5429.4348751693442</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5382.6088639442614</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5335.7828527191796</v>
+      </c>
+      <c r="H10" s="1">
+        <v>5291.94039094252</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5254.4795819624542</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5217.0187729823883</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5179.5579640023225</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5143.3667505322237</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5105.9059415521579</v>
+      </c>
+      <c r="N10" s="1">
+        <v>5087.1755370621249</v>
+      </c>
+      <c r="O10" s="1">
+        <v>5077.8103348171089</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5076.6676988581385</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>5076.6676988581385</v>
+      </c>
+      <c r="R10" s="1">
+        <v>5086.0329011031545</v>
+      </c>
+      <c r="S10" s="1">
+        <v>5095.3981033481714</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5104.3189471646992</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5123.0493516547322</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5151.1449583897811</v>
+      </c>
+      <c r="W10" s="1">
+        <v>5179.2405651248309</v>
+      </c>
+      <c r="X10" s="1">
+        <v>5225.2413392684348</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>5281.4325527385326</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5346.9889684536483</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>5431.275788658796</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>5519.6589897425974</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>5622.6762144377781</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>5744.4238436229925</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>5866.1714728082061</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>5995.7271143797179</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>6126.8399458099475</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>6257.952777240178</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>6389.0656086704084</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>6501.448035610606</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>6604.4652603057866</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>6679.3868782659183</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>6735.5780917360171</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>6753.7073737178243</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>6753.7073737178243</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>6725.6117669827754</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>6678.7857557576936</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>6633.4495838978128</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>6567.893168182698</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>6492.9715502225663</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>6436.7803367524675</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>6377.6055738339464</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>6340.1447648538806</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>6312.0491581188307</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>6293.3187536287978</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>6284.5883491387649</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>6275.2231468937489</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>6265.857944648732</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>6247.1275401587</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>6216.6831817302109</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>6179.222372750145</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>6141.7615637700792</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>6104.3007547900133</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>6060.8728469131029</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>6032.777240178053</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>6004.6816334430041</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>5985.9512289529712</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>5980.0139345848656</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>5970.6487323398487</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>5970.6487323398487</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>5970.6487323398487</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>5961.317205341591</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>5980.047609831624</v>
+      </c>
+      <c r="BR10" s="1">
+        <v>5998.7780143216569</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>6026.8736210567058</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>6064.237275014515</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>6101.6980839945809</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>6129.7936907296307</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>6157.8892974646797</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>6193.4457131797953</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>6230.9065221598603</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>6296.462937874976</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>6390.1149603251406</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>6516.0522546932461</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>6665.8954906135086</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>6834.4691310238049</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>6993.6775691890844</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>7150.4102961099288</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>7272.1579252951424</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>7328.3491387652412</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>7328.3491387652412</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>7264.2527578865884</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>7170.6007354364237</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>7076.9487129862591</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>6973.9314882910785</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>6828.5318366556994</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>6678.6886007354369</v>
+      </c>
+      <c r="CP10" s="1">
+        <v>6528.8453648151735</v>
+      </c>
+      <c r="CQ10" s="1">
+        <v>6379.0021288949101</v>
+      </c>
+      <c r="CR10" s="1">
+        <v>6208.1134120379329</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>6086.3657828527193</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>5973.9833559125218</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>5870.9661312173412</v>
+      </c>
     </row>
     <row r="11" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="8"/>
+      <c r="B11" s="8">
+        <v>45743</v>
+      </c>
       <c r="C11" s="9">
         <v>45751</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-      <c r="AG11" s="1"/>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
-      <c r="AT11" s="1"/>
-      <c r="AU11" s="1"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="1"/>
-      <c r="BE11" s="1"/>
-      <c r="BF11" s="1"/>
-      <c r="BG11" s="1"/>
-      <c r="BH11" s="1"/>
-      <c r="BI11" s="1"/>
-      <c r="BJ11" s="1"/>
-      <c r="BK11" s="1"/>
-      <c r="BL11" s="1"/>
-      <c r="BM11" s="1"/>
-      <c r="BN11" s="1"/>
-      <c r="BO11" s="1"/>
-      <c r="BP11" s="1"/>
-      <c r="BQ11" s="1"/>
-      <c r="BR11" s="1"/>
-      <c r="BS11" s="1"/>
-      <c r="BT11" s="1"/>
-      <c r="BU11" s="1"/>
-      <c r="BV11" s="1"/>
-      <c r="BW11" s="1"/>
-      <c r="BX11" s="1"/>
-      <c r="BY11" s="1"/>
-      <c r="BZ11" s="1"/>
-      <c r="CA11" s="1"/>
-      <c r="CB11" s="1"/>
-      <c r="CC11" s="1"/>
-      <c r="CD11" s="1"/>
-      <c r="CE11" s="1"/>
-      <c r="CF11" s="1"/>
-      <c r="CG11" s="1"/>
-      <c r="CH11" s="1"/>
-      <c r="CI11" s="1"/>
-      <c r="CJ11" s="1"/>
-      <c r="CK11" s="1"/>
-      <c r="CL11" s="1"/>
-      <c r="CM11" s="1"/>
-      <c r="CN11" s="1"/>
-      <c r="CO11" s="1"/>
-      <c r="CP11" s="1"/>
-      <c r="CQ11" s="1"/>
-      <c r="CR11" s="1"/>
-      <c r="CS11" s="1"/>
-      <c r="CT11" s="1"/>
-      <c r="CU11" s="1"/>
+      <c r="D11" s="1">
+        <v>5391.9740661892783</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5345.1480549641956</v>
+      </c>
+      <c r="F11" s="1">
+        <v>5298.3220437391137</v>
+      </c>
+      <c r="G11" s="1">
+        <v>5242.130830269015</v>
+      </c>
+      <c r="H11" s="1">
+        <v>5198.2883684923554</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5151.4623572672735</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5114.0015482872077</v>
+      </c>
+      <c r="K11" s="1">
+        <v>5076.5407393071418</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5040.3495258370431</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5012.2539191019932</v>
+      </c>
+      <c r="N11" s="1">
+        <v>4993.5235146119603</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4984.1583123669443</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4983.0156764079738</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>4992.3808786529898</v>
+      </c>
+      <c r="R11" s="1">
+        <v>4992.3808786529898</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5001.7460808980068</v>
+      </c>
+      <c r="T11" s="1">
+        <v>5010.6669247145346</v>
+      </c>
+      <c r="U11" s="1">
+        <v>5029.3973292045675</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5057.4929359396165</v>
+      </c>
+      <c r="W11" s="1">
+        <v>5085.5885426746663</v>
+      </c>
+      <c r="X11" s="1">
+        <v>5131.5893168182702</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>5187.7805302883689</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>5262.7021482484997</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>5337.6237662086314</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>5426.0069672924328</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>5529.0241919876134</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>5650.7718211728279</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>5772.5194503580415</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>5902.0750919295533</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>6033.1879233597829</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>6164.3007547900133</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>6295.4135862202438</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>6407.7960131604414</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>6510.813237855622</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>6585.7348558157537</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>6641.9260692858525</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>6660.0553512676606</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>6660.0553512676606</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>6631.9597445326108</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>6585.1337333075289</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>6539.7975614476491</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>6464.8759434875174</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>6399.3195277724017</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>6343.1283143023029</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>6283.9535513837818</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>6246.492742403716</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>6218.397135668667</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>6199.6667311786341</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>6190.9363266886012</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>6181.5711244435843</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>6172.2059221985683</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>6144.1103154635184</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>6123.0311592800463</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>6085.5703502999804</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>6048.1095413199146</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>6010.6487323398487</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>5967.2208244629383</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>5939.1252177278884</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>5911.0296109928395</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>5892.2992065028066</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>5886.361912134701</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>5876.996709889685</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>5876.996709889685</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>5876.996709889685</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>5867.6651828914264</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>5886.3955873814593</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>5905.1259918714923</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>5933.2215986065412</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>5970.5852525643504</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>6008.0460615444163</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>6036.1416682794661</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>6064.237275014515</v>
+      </c>
+      <c r="BX11" s="1">
+        <v>6099.7936907296307</v>
+      </c>
+      <c r="BY11" s="1">
+        <v>6137.2544997096966</v>
+      </c>
+      <c r="BZ11" s="1">
+        <v>6202.8109154248114</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>6296.462937874976</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>6422.4002322430815</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>6572.243468163344</v>
+      </c>
+      <c r="CD11" s="1">
+        <v>6740.8171085736403</v>
+      </c>
+      <c r="CE11" s="1">
+        <v>6900.0255467389197</v>
+      </c>
+      <c r="CF11" s="1">
+        <v>7056.7582736597642</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>7178.5059028449778</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>7234.6971163150765</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>7244.0623185600934</v>
+      </c>
+      <c r="CJ11" s="1">
+        <v>7179.9659376814398</v>
+      </c>
+      <c r="CK11" s="1">
+        <v>7105.0443197213081</v>
+      </c>
+      <c r="CL11" s="1">
+        <v>7011.3922972711443</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>6889.6446680859299</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>6734.8798142055348</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>6603.7669827753052</v>
+      </c>
+      <c r="CP11" s="1">
+        <v>6435.1933423650089</v>
+      </c>
+      <c r="CQ11" s="1">
+        <v>6294.7153086897624</v>
+      </c>
+      <c r="CR11" s="1">
+        <v>6133.1917940778012</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>6011.4441648925877</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>5899.0617379523901</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>5796.0445132572095</v>
+      </c>
     </row>
     <row r="12" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8"/>
@@ -43716,890 +45268,890 @@
     </row>
     <row r="65" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B65" s="8">
-        <v>45739</v>
+        <v>45740</v>
       </c>
       <c r="C65" s="9">
         <v>45741</v>
       </c>
       <c r="D65" s="1">
-        <v>5572.8031739887747</v>
+        <v>5494.9322237275019</v>
       </c>
       <c r="E65" s="1">
-        <v>5525.9771627636928</v>
+        <v>5429.3758080123862</v>
       </c>
       <c r="F65" s="1">
-        <v>5488.516353783627</v>
+        <v>5373.1845945422874</v>
       </c>
       <c r="G65" s="1">
-        <v>5441.6903425585451</v>
+        <v>5326.3585833172056</v>
       </c>
       <c r="H65" s="1">
-        <v>5312.9480936713753</v>
+        <v>5285.7155022256629</v>
       </c>
       <c r="I65" s="1">
-        <v>5275.4872846913095</v>
+        <v>5238.8894910005811</v>
       </c>
       <c r="J65" s="1">
-        <v>5247.3916779562605</v>
+        <v>5201.4286820205152</v>
       </c>
       <c r="K65" s="1">
-        <v>5209.9308689761947</v>
+        <v>5163.9678730404494</v>
       </c>
       <c r="L65" s="1">
-        <v>5193.4457131797953</v>
+        <v>5136.9514224888717</v>
       </c>
       <c r="M65" s="1">
-        <v>5184.0805109347784</v>
+        <v>5118.2210179988388</v>
       </c>
       <c r="N65" s="1">
-        <v>5174.7153086897624</v>
+        <v>5099.4906135088058</v>
       </c>
       <c r="O65" s="1">
-        <v>5165.3501064447455</v>
+        <v>5090.1254112637898</v>
       </c>
       <c r="P65" s="1">
-        <v>5167.9635378362691</v>
+        <v>5080.2523708147864</v>
       </c>
       <c r="Q65" s="1">
-        <v>5149.2331333462362</v>
+        <v>5080.2523708147864</v>
       </c>
       <c r="R65" s="1">
-        <v>5149.2331333462362</v>
+        <v>5089.6175730598025</v>
       </c>
       <c r="S65" s="1">
-        <v>5158.5983355912522</v>
+        <v>5098.9827753048194</v>
       </c>
       <c r="T65" s="1">
-        <v>5194.4555835107412</v>
+        <v>5117.7131797948523</v>
       </c>
       <c r="U65" s="1">
-        <v>5213.1859880007742</v>
+        <v>5145.8087865299012</v>
       </c>
       <c r="V65" s="1">
-        <v>5241.281594735824</v>
+        <v>5173.9043932649511</v>
       </c>
       <c r="W65" s="1">
-        <v>5288.1076059609059</v>
+        <v>5211.3652022450169</v>
       </c>
       <c r="X65" s="1">
-        <v>5371.1507644668091</v>
+        <v>5255.7789820011612</v>
       </c>
       <c r="Y65" s="1">
-        <v>5446.0723824269398</v>
+        <v>5311.97019547126</v>
       </c>
       <c r="Z65" s="1">
-        <v>5539.7244048771045</v>
+        <v>5386.8918134313917</v>
       </c>
       <c r="AA65" s="1">
-        <v>5642.741629572286</v>
+        <v>5471.1786336365394</v>
       </c>
       <c r="AB65" s="1">
-        <v>5791.098045287401</v>
+        <v>5575.1480549641956</v>
       </c>
       <c r="AC65" s="1">
-        <v>5912.8456744726145</v>
+        <v>5687.5304819043931</v>
       </c>
       <c r="AD65" s="1">
-        <v>6025.2281014128121</v>
+        <v>5818.6433133346236</v>
       </c>
       <c r="AE65" s="1">
-        <v>6137.6105283530096</v>
+        <v>5949.7561447648541</v>
       </c>
       <c r="AF65" s="1">
-        <v>6277.7653570737375</v>
+        <v>6081.376814399071</v>
       </c>
       <c r="AG65" s="1">
-        <v>6371.4173795239021</v>
+        <v>6203.1244435842846</v>
       </c>
       <c r="AH65" s="1">
-        <v>6446.3389974840329</v>
+        <v>6306.1416682794661</v>
       </c>
       <c r="AI65" s="1">
-        <v>6521.2606154441646</v>
+        <v>6390.4284884846138</v>
       </c>
       <c r="AJ65" s="1">
-        <v>6582.4457518869749</v>
+        <v>6425.1933423650089</v>
       </c>
       <c r="AK65" s="1">
-        <v>6619.9065608670408</v>
+        <v>6443.9237468550418</v>
       </c>
       <c r="AL65" s="1">
-        <v>6629.2717631120577</v>
+        <v>6434.5585446100249</v>
       </c>
       <c r="AM65" s="1">
-        <v>6629.2717631120577</v>
+        <v>6387.7325333849431</v>
       </c>
       <c r="AN65" s="1">
-        <v>6591.3304431972128</v>
+        <v>6313.1917940778012</v>
       </c>
       <c r="AO65" s="1">
-        <v>6553.869634217147</v>
+        <v>6210.1745693826206</v>
       </c>
       <c r="AP65" s="1">
-        <v>6497.6784207470482</v>
+        <v>6107.1573446874399</v>
       </c>
       <c r="AQ65" s="1">
-        <v>6432.1220050319334</v>
+        <v>5994.7749177472424</v>
       </c>
       <c r="AR65" s="1">
-        <v>6337.026514418425</v>
+        <v>5886.9630346429267</v>
       </c>
       <c r="AS65" s="1">
-        <v>6262.1048964582933</v>
+        <v>5783.9458099477451</v>
       </c>
       <c r="AT65" s="1">
-        <v>6187.1832784981616</v>
+        <v>5690.2937874975805</v>
       </c>
       <c r="AU65" s="1">
-        <v>6121.6268627830459</v>
+        <v>5606.0069672924328</v>
       </c>
       <c r="AV65" s="1">
-        <v>6064.5679117476293</v>
+        <v>5545.2115347396939</v>
       </c>
       <c r="AW65" s="1">
-        <v>6017.7419005225474</v>
+        <v>5489.020321269596</v>
       </c>
       <c r="AX65" s="1">
-        <v>5989.6462937874976</v>
+        <v>5442.1943100445133</v>
       </c>
       <c r="AY65" s="1">
-        <v>5970.9158892974647</v>
+        <v>5404.7335010644474</v>
       </c>
       <c r="AZ65" s="1">
-        <v>5958.4719179407784</v>
+        <v>5363.1465066769888</v>
       </c>
       <c r="BA65" s="1">
-        <v>5949.1067156957615</v>
+        <v>5325.6856976969229</v>
       </c>
       <c r="BB65" s="1">
-        <v>5939.7415134507455</v>
+        <v>5297.5900909618731</v>
       </c>
       <c r="BC65" s="1">
-        <v>5939.7415134507455</v>
+        <v>5278.8596864718402</v>
       </c>
       <c r="BD65" s="1">
-        <v>5944.0308109154248</v>
+        <v>5260.1292819818073</v>
       </c>
       <c r="BE65" s="1">
-        <v>5944.0308109154248</v>
+        <v>5260.1292819818073</v>
       </c>
       <c r="BF65" s="1">
-        <v>5944.0308109154248</v>
+        <v>5260.1292819818073</v>
       </c>
       <c r="BG65" s="1">
-        <v>5944.0308109154248</v>
+        <v>5278.8596864718402</v>
       </c>
       <c r="BH65" s="1">
-        <v>5958.1823882330173</v>
+        <v>5294.6065415134508</v>
       </c>
       <c r="BI65" s="1">
-        <v>5976.9127927230502</v>
+        <v>5322.7021482484997</v>
       </c>
       <c r="BJ65" s="1">
-        <v>5995.6431972130831</v>
+        <v>5360.1629572285656</v>
       </c>
       <c r="BK65" s="1">
-        <v>6023.738803948132</v>
+        <v>5397.6237662086314</v>
       </c>
       <c r="BL65" s="1">
-        <v>6058.9124056512483</v>
+        <v>5441.275788658796</v>
       </c>
       <c r="BM65" s="1">
-        <v>6087.0080123862981</v>
+        <v>5488.1017998838788</v>
       </c>
       <c r="BN65" s="1">
-        <v>6124.468821366364</v>
+        <v>5534.9278111089607</v>
       </c>
       <c r="BO65" s="1">
-        <v>6171.2948325914458</v>
+        <v>5600.4842268240764</v>
       </c>
       <c r="BP65" s="1">
-        <v>6234.1685310625126</v>
+        <v>5680.7718211728279</v>
       </c>
       <c r="BQ65" s="1">
-        <v>6299.7249467776273</v>
+        <v>5765.0586413779756</v>
       </c>
       <c r="BR65" s="1">
-        <v>6374.646564737759</v>
+        <v>5858.7106638281402</v>
       </c>
       <c r="BS65" s="1">
-        <v>6477.6637894329397</v>
+        <v>5952.3626862783049</v>
       </c>
       <c r="BT65" s="1">
-        <v>6600.7596671182509</v>
+        <v>6070.5852525643504</v>
       </c>
       <c r="BU65" s="1">
-        <v>6713.1420940584485</v>
+        <v>6164.237275014515</v>
       </c>
       <c r="BV65" s="1">
-        <v>6834.889723243663</v>
+        <v>6267.2544997096966</v>
       </c>
       <c r="BW65" s="1">
-        <v>6947.2721501838605</v>
+        <v>6389.0021288949101</v>
       </c>
       <c r="BX65" s="1">
-        <v>7050.9095413199148</v>
+        <v>6490.4621637313721</v>
       </c>
       <c r="BY65" s="1">
-        <v>7144.5615637700794</v>
+        <v>6602.8445906715697</v>
       </c>
       <c r="BZ65" s="1">
-        <v>7219.4831817302111</v>
+        <v>6715.2270176117672</v>
       </c>
       <c r="CA65" s="1">
-        <v>7285.0395974453259</v>
+        <v>6836.9746467969808</v>
       </c>
       <c r="CB65" s="1">
-        <v>7326.605070640604</v>
+        <v>6963.7371782465652</v>
       </c>
       <c r="CC65" s="1">
-        <v>7345.335475130637</v>
+        <v>7057.3892006967289</v>
       </c>
       <c r="CD65" s="1">
-        <v>7345.335475130637</v>
+        <v>7113.5804141668277</v>
       </c>
       <c r="CE65" s="1">
-        <v>7326.605070640604</v>
+        <v>7122.9456164118446</v>
       </c>
       <c r="CF65" s="1">
-        <v>7289.4508999419395</v>
+        <v>7110.8507838203986</v>
       </c>
       <c r="CG65" s="1">
-        <v>7261.3552932068887</v>
+        <v>7082.7551770853497</v>
       </c>
       <c r="CH65" s="1">
-        <v>7233.2596864718398</v>
+        <v>7045.2943681052839</v>
       </c>
       <c r="CI65" s="1">
-        <v>7167.703270756725</v>
+        <v>6979.7379523901682</v>
       </c>
       <c r="CJ65" s="1">
-        <v>7069.1760015482869</v>
+        <v>6868.1509580027096</v>
       </c>
       <c r="CK65" s="1">
-        <v>6956.7935746080902</v>
+        <v>6755.768531062512</v>
       </c>
       <c r="CL65" s="1">
-        <v>6863.1415521579256</v>
+        <v>6643.3861041223145</v>
       </c>
       <c r="CM65" s="1">
-        <v>6741.3939229727112</v>
+        <v>6521.6384749371009</v>
       </c>
       <c r="CN65" s="1">
-        <v>6540.7249080704469</v>
+        <v>6385.7011805689954</v>
       </c>
       <c r="CO65" s="1">
-        <v>6409.6120766402164</v>
+        <v>6245.2231468937489</v>
       </c>
       <c r="CP65" s="1">
-        <v>6250.403638474937</v>
+        <v>6123.4755177085353</v>
       </c>
       <c r="CQ65" s="1">
-        <v>6100.5604025546736</v>
+        <v>5982.9974840332879</v>
       </c>
       <c r="CR65" s="1">
-        <v>5907.5197213083029</v>
+        <v>5865.9810334817112</v>
       </c>
       <c r="CS65" s="1">
-        <v>5757.6764853880395</v>
+        <v>5762.9638087865296</v>
       </c>
       <c r="CT65" s="1">
-        <v>5635.928856202826</v>
+        <v>5641.2161796013161</v>
       </c>
       <c r="CU65" s="1">
-        <v>5532.9116315076444</v>
+        <v>5528.8337526611185</v>
       </c>
     </row>
     <row r="66" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B66" s="8">
-        <v>45736</v>
+        <v>45741</v>
       </c>
       <c r="C66" s="9">
         <v>45742</v>
       </c>
       <c r="D66" s="1">
-        <v>5479.0241919876134</v>
+        <v>5422.9262628217539</v>
       </c>
       <c r="E66" s="1">
-        <v>5432.1981807625316</v>
+        <v>5366.7350493516551</v>
       </c>
       <c r="F66" s="1">
-        <v>5385.3721695374488</v>
+        <v>5329.2742403715893</v>
       </c>
       <c r="G66" s="1">
-        <v>5347.9113605573839</v>
+        <v>5273.0830269014905</v>
       </c>
       <c r="H66" s="1">
-        <v>5331.3690729630343</v>
+        <v>5264.4654925488676</v>
       </c>
       <c r="I66" s="1">
-        <v>5293.9082639829685</v>
+        <v>5217.6394813237857</v>
       </c>
       <c r="J66" s="1">
-        <v>5275.1778594929356</v>
+        <v>5180.1786723437199</v>
       </c>
       <c r="K66" s="1">
-        <v>5247.0822527578866</v>
+        <v>5142.717863363654</v>
       </c>
       <c r="L66" s="1">
-        <v>5216.6378943293985</v>
+        <v>5098.5916779562613</v>
       </c>
       <c r="M66" s="1">
-        <v>5207.2726920843816</v>
+        <v>5061.1308689761954</v>
       </c>
       <c r="N66" s="1">
-        <v>5188.5422875943486</v>
+        <v>5033.0352622411456</v>
       </c>
       <c r="O66" s="1">
-        <v>5188.5422875943486</v>
+        <v>5014.3048577511126</v>
       </c>
       <c r="P66" s="1">
-        <v>5182.2241145732532</v>
+        <v>4984.0509386491194</v>
       </c>
       <c r="Q66" s="1">
-        <v>5172.8589123282372</v>
+        <v>4984.0509386491194</v>
       </c>
       <c r="R66" s="1">
-        <v>5163.4937100832203</v>
+        <v>4984.0509386491194</v>
       </c>
       <c r="S66" s="1">
-        <v>5163.4937100832203</v>
+        <v>4993.4161408941363</v>
       </c>
       <c r="T66" s="1">
-        <v>5175.7155022256629</v>
+        <v>5006.1394232630155</v>
       </c>
       <c r="U66" s="1">
-        <v>5194.4459067156959</v>
+        <v>5034.2350299980644</v>
       </c>
       <c r="V66" s="1">
-        <v>5231.9067156957617</v>
+        <v>5062.3306367331143</v>
       </c>
       <c r="W66" s="1">
-        <v>5278.7327269208436</v>
+        <v>5109.1566479581961</v>
       </c>
       <c r="X66" s="1">
-        <v>5342.8925875749956</v>
+        <v>5194.8190439326499</v>
       </c>
       <c r="Y66" s="1">
-        <v>5417.8142055351273</v>
+        <v>5269.7406618927807</v>
       </c>
       <c r="Z66" s="1">
-        <v>5511.466227985291</v>
+        <v>5363.3926843429454</v>
       </c>
       <c r="AA66" s="1">
-        <v>5614.4834526804725</v>
+        <v>5466.4099090381269</v>
       </c>
       <c r="AB66" s="1">
-        <v>5729.3117863363659</v>
+        <v>5580.4960712212123</v>
       </c>
       <c r="AC66" s="1">
-        <v>5841.6942132765626</v>
+        <v>5702.2437004064268</v>
       </c>
       <c r="AD66" s="1">
-        <v>5954.0766402167601</v>
+        <v>5833.3565318366564</v>
       </c>
       <c r="AE66" s="1">
-        <v>6066.4590671569576</v>
+        <v>5964.4693632668859</v>
       </c>
       <c r="AF66" s="1">
-        <v>6193.8227211147669</v>
+        <v>6199.5033094639057</v>
       </c>
       <c r="AG66" s="1">
-        <v>6287.4747435649315</v>
+        <v>6321.2509386491192</v>
       </c>
       <c r="AH66" s="1">
-        <v>6362.3963615250632</v>
+        <v>6433.6333655893168</v>
       </c>
       <c r="AI66" s="1">
-        <v>6427.952777240178</v>
+        <v>6517.9201857944645</v>
       </c>
       <c r="AJ66" s="1">
-        <v>6490.7458873621053</v>
+        <v>6593.7730210954142</v>
       </c>
       <c r="AK66" s="1">
-        <v>6528.2066963421712</v>
+        <v>6621.8686278304631</v>
       </c>
       <c r="AL66" s="1">
-        <v>6537.5718985871881</v>
+        <v>6621.8686278304631</v>
       </c>
       <c r="AM66" s="1">
-        <v>6537.5718985871881</v>
+        <v>6621.8686278304631</v>
       </c>
       <c r="AN66" s="1">
-        <v>6505.828140119992</v>
+        <v>6585.4381265724787</v>
       </c>
       <c r="AO66" s="1">
-        <v>6459.0021288949101</v>
+        <v>6538.612115347396</v>
       </c>
       <c r="AP66" s="1">
-        <v>6402.8109154248114</v>
+        <v>6482.4209018772981</v>
       </c>
       <c r="AQ66" s="1">
-        <v>6337.2544997096966</v>
+        <v>6416.8644861621833</v>
       </c>
       <c r="AR66" s="1">
-        <v>6257.0005806077024</v>
+        <v>6330.5057480162577</v>
       </c>
       <c r="AS66" s="1">
-        <v>6182.0789626475716</v>
+        <v>6255.584130056126</v>
       </c>
       <c r="AT66" s="1">
-        <v>6107.1573446874399</v>
+        <v>6190.0277143410112</v>
       </c>
       <c r="AU66" s="1">
-        <v>6041.6009289723243</v>
+        <v>6133.8365008709116</v>
       </c>
       <c r="AV66" s="1">
-        <v>5971.9520030965741</v>
+        <v>6043.0639829688407</v>
       </c>
       <c r="AW66" s="1">
-        <v>5934.4911941165083</v>
+        <v>5996.2379717437589</v>
       </c>
       <c r="AX66" s="1">
-        <v>5897.0303851364433</v>
+        <v>5968.142365008709</v>
       </c>
       <c r="AY66" s="1">
-        <v>5878.2999806464104</v>
+        <v>5949.4119605186761</v>
       </c>
       <c r="AZ66" s="1">
-        <v>5866.2051480549644</v>
+        <v>5918.4978517515001</v>
       </c>
       <c r="BA66" s="1">
-        <v>5856.8399458099475</v>
+        <v>5909.1326495064832</v>
       </c>
       <c r="BB66" s="1">
-        <v>5856.8399458099475</v>
+        <v>5909.1326495064832</v>
       </c>
       <c r="BC66" s="1">
-        <v>5856.8399458099475</v>
+        <v>5909.1326495064832</v>
       </c>
       <c r="BD66" s="1">
-        <v>5846.522546932456</v>
+        <v>5959.7166634410687</v>
       </c>
       <c r="BE66" s="1">
-        <v>5846.522546932456</v>
+        <v>5987.8122701761176</v>
       </c>
       <c r="BF66" s="1">
-        <v>5846.522546932456</v>
+        <v>6015.9078769111675</v>
       </c>
       <c r="BG66" s="1">
-        <v>5846.522546932456</v>
+        <v>6034.6382814012004</v>
       </c>
       <c r="BH66" s="1">
-        <v>5855.7607896264753</v>
+        <v>6054.2700987033095</v>
       </c>
       <c r="BI66" s="1">
-        <v>5874.4911941165083</v>
+        <v>6082.3657054383593</v>
       </c>
       <c r="BJ66" s="1">
-        <v>5893.2215986065412</v>
+        <v>6119.8265144184243</v>
       </c>
       <c r="BK66" s="1">
-        <v>5921.317205341591</v>
+        <v>6147.9221211534741</v>
       </c>
       <c r="BL66" s="1">
-        <v>5962.5868008515581</v>
+        <v>6201.0707180181926</v>
       </c>
       <c r="BM66" s="1">
-        <v>5990.682407586607</v>
+        <v>6229.1663247532415</v>
       </c>
       <c r="BN66" s="1">
-        <v>6028.1432165666729</v>
+        <v>6266.6271337333073</v>
       </c>
       <c r="BO66" s="1">
-        <v>6074.9692277917557</v>
+        <v>6304.0879427133732</v>
       </c>
       <c r="BP66" s="1">
-        <v>6135.697309850977</v>
+        <v>6366.0983162376624</v>
       </c>
       <c r="BQ66" s="1">
-        <v>6201.2537255660927</v>
+        <v>6422.2895297077612</v>
       </c>
       <c r="BR66" s="1">
-        <v>6276.1753435262244</v>
+        <v>6478.4807431778599</v>
       </c>
       <c r="BS66" s="1">
-        <v>6369.827365976389</v>
+        <v>6534.6719566479587</v>
       </c>
       <c r="BT66" s="1">
-        <v>6495.1894716469906</v>
+        <v>6626.2760596090575</v>
       </c>
       <c r="BU66" s="1">
-        <v>6607.5718985871881</v>
+        <v>6701.1976775691892</v>
       </c>
       <c r="BV66" s="1">
-        <v>6729.3195277724017</v>
+        <v>6766.754093284304</v>
       </c>
       <c r="BW66" s="1">
-        <v>6832.3367524675832</v>
+        <v>6841.6757112444357</v>
       </c>
       <c r="BX66" s="1">
-        <v>6933.7669827753052</v>
+        <v>6945.5562608863947</v>
       </c>
       <c r="BY66" s="1">
-        <v>7027.4190052254698</v>
+        <v>7029.8430810915434</v>
       </c>
       <c r="BZ66" s="1">
-        <v>7102.3406231856006</v>
+        <v>7114.1299012966902</v>
       </c>
       <c r="CA66" s="1">
-        <v>7177.2622411457323</v>
+        <v>7207.7819237468557</v>
       </c>
       <c r="CB66" s="1">
-        <v>7219.454228759435</v>
+        <v>7298.7341203793312</v>
       </c>
       <c r="CC66" s="1">
-        <v>7238.1846332494679</v>
+        <v>7364.290536094446</v>
       </c>
       <c r="CD66" s="1">
-        <v>7238.1846332494679</v>
+        <v>7401.7513450745118</v>
       </c>
       <c r="CE66" s="1">
-        <v>7219.454228759435</v>
+        <v>7392.3861428294949</v>
       </c>
       <c r="CF66" s="1">
-        <v>7204.3421714728083</v>
+        <v>7349.7771240565125</v>
       </c>
       <c r="CG66" s="1">
-        <v>7176.2465647377594</v>
+        <v>7293.5859105864138</v>
       </c>
       <c r="CH66" s="1">
-        <v>7129.4205535126766</v>
+        <v>7237.394697116315</v>
       </c>
       <c r="CI66" s="1">
-        <v>7073.2293400425779</v>
+        <v>7181.2034836462162</v>
       </c>
       <c r="CJ66" s="1">
-        <v>6982.243468163344</v>
+        <v>7051.0486549254883</v>
       </c>
       <c r="CK66" s="1">
-        <v>6869.8610412231474</v>
+        <v>6919.9358234952588</v>
       </c>
       <c r="CL66" s="1">
-        <v>6748.1134120379329</v>
+        <v>6826.2838010450942</v>
       </c>
       <c r="CM66" s="1">
-        <v>6617.0005806077024</v>
+        <v>6676.4405651248308</v>
       </c>
       <c r="CN66" s="1">
-        <v>6465.9214244242312</v>
+        <v>6450.5623379136832</v>
       </c>
       <c r="CO66" s="1">
-        <v>6334.8085929940007</v>
+        <v>6319.4495064834528</v>
       </c>
       <c r="CP66" s="1">
-        <v>6175.6001548287204</v>
+        <v>6150.8758660731564</v>
       </c>
       <c r="CQ66" s="1">
-        <v>6016.391716663441</v>
+        <v>6019.763034642926</v>
       </c>
       <c r="CR66" s="1">
-        <v>5821.406618927811</v>
+        <v>5879.6360750919293</v>
       </c>
       <c r="CS66" s="1">
-        <v>5680.9285852525645</v>
+        <v>5739.1580414166829</v>
       </c>
       <c r="CT66" s="1">
-        <v>5568.546158312367</v>
+        <v>5645.5060189665182</v>
       </c>
       <c r="CU66" s="1">
-        <v>5521.7201470872851</v>
+        <v>5542.4887942713376</v>
       </c>
     </row>
     <row r="67" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B67" s="8">
-        <v>45736</v>
+        <v>45742</v>
       </c>
       <c r="C67" s="9">
         <v>45743</v>
       </c>
       <c r="D67" s="1">
-        <v>5504.3564931294759</v>
+        <v>5399.632204373911</v>
       </c>
       <c r="E67" s="1">
-        <v>5476.2608863944261</v>
+        <v>5352.8061931488292</v>
       </c>
       <c r="F67" s="1">
-        <v>5429.4348751693442</v>
+        <v>5296.6149796787304</v>
       </c>
       <c r="G67" s="1">
-        <v>5391.9740661892783</v>
+        <v>5259.1541706986645</v>
       </c>
       <c r="H67" s="1">
-        <v>5357.4968066576348</v>
+        <v>5193.9678730404494</v>
       </c>
       <c r="I67" s="1">
-        <v>5329.4011999225859</v>
+        <v>5165.8722663053995</v>
       </c>
       <c r="J67" s="1">
-        <v>5301.305593187536</v>
+        <v>5128.4114573253337</v>
       </c>
       <c r="K67" s="1">
-        <v>5282.5751886975031</v>
+        <v>5081.5854461002518</v>
       </c>
       <c r="L67" s="1">
-        <v>5265.1143797174373</v>
+        <v>5053.489839365202</v>
       </c>
       <c r="M67" s="1">
-        <v>5246.3839752274043</v>
+        <v>5025.3942326301531</v>
       </c>
       <c r="N67" s="1">
-        <v>5227.6535707373714</v>
+        <v>5006.6638281401201</v>
       </c>
       <c r="O67" s="1">
-        <v>5218.2883684923554</v>
+        <v>4997.2986258951032</v>
       </c>
       <c r="P67" s="1">
-        <v>5207.7805302883689</v>
+        <v>4987.9334236500872</v>
       </c>
       <c r="Q67" s="1">
-        <v>5207.7805302883689</v>
+        <v>4987.9334236500872</v>
       </c>
       <c r="R67" s="1">
-        <v>5217.1457325333849</v>
+        <v>4987.9334236500872</v>
       </c>
       <c r="S67" s="1">
-        <v>5235.8761370234179</v>
+        <v>4997.2986258951032</v>
       </c>
       <c r="T67" s="1">
-        <v>5272.8925875749956</v>
+        <v>5017.4255854461007</v>
       </c>
       <c r="U67" s="1">
-        <v>5310.3533965550614</v>
+        <v>5026.7907876911167</v>
       </c>
       <c r="V67" s="1">
-        <v>5338.4490032901103</v>
+        <v>5045.5211921811497</v>
       </c>
       <c r="W67" s="1">
-        <v>5375.9098122701762</v>
+        <v>5082.9820011612155</v>
       </c>
       <c r="X67" s="1">
-        <v>5431.275788658796</v>
+        <v>5120.4428101412814</v>
       </c>
       <c r="Y67" s="1">
-        <v>5506.1974066189277</v>
+        <v>5195.3644281014131</v>
       </c>
       <c r="Z67" s="1">
-        <v>5599.8494290690924</v>
+        <v>5289.0164505515777</v>
       </c>
       <c r="AA67" s="1">
-        <v>5702.866653764273</v>
+        <v>5401.3988774917752</v>
       </c>
       <c r="AB67" s="1">
-        <v>5809.9802593381073</v>
+        <v>5523.1465066769888</v>
       </c>
       <c r="AC67" s="1">
-        <v>5931.7278885233209</v>
+        <v>5654.2593381072193</v>
       </c>
       <c r="AD67" s="1">
-        <v>6044.1103154635184</v>
+        <v>5794.7373717824657</v>
       </c>
       <c r="AE67" s="1">
-        <v>6156.492742403716</v>
+        <v>5935.2154054577122</v>
       </c>
       <c r="AF67" s="1">
-        <v>6276.6831817302109</v>
+        <v>6141.2498548480744</v>
       </c>
       <c r="AG67" s="1">
-        <v>6370.3352041803755</v>
+        <v>6253.6322817882719</v>
       </c>
       <c r="AH67" s="1">
-        <v>6454.6220243855232</v>
+        <v>6356.6495064834526</v>
       </c>
       <c r="AI67" s="1">
-        <v>6520.1784401006389</v>
+        <v>6431.5711244435843</v>
       </c>
       <c r="AJ67" s="1">
-        <v>6567.0044513257208</v>
+        <v>6478.397135668667</v>
       </c>
       <c r="AK67" s="1">
-        <v>6595.1000580607706</v>
+        <v>6487.762337913683</v>
       </c>
       <c r="AL67" s="1">
-        <v>6613.8304625508035</v>
+        <v>6497.1275401587</v>
       </c>
       <c r="AM67" s="1">
-        <v>6604.4652603057866</v>
+        <v>6497.1275401587</v>
       </c>
       <c r="AN67" s="1">
-        <v>6566.403328817496</v>
+        <v>6477.0005806077024</v>
       </c>
       <c r="AO67" s="1">
-        <v>6519.5773175924132</v>
+        <v>6439.5397716276366</v>
       </c>
       <c r="AP67" s="1">
-        <v>6472.7513063673314</v>
+        <v>6392.7137604025547</v>
       </c>
       <c r="AQ67" s="1">
-        <v>6407.1948906522157</v>
+        <v>6336.522546932456</v>
       </c>
       <c r="AR67" s="1">
-        <v>6352.4935165473198</v>
+        <v>6280.0139345848656</v>
       </c>
       <c r="AS67" s="1">
-        <v>6277.5718985871881</v>
+        <v>6223.8227211147669</v>
       </c>
       <c r="AT67" s="1">
-        <v>6212.0154828720724</v>
+        <v>6176.996709889685</v>
       </c>
       <c r="AU67" s="1">
-        <v>6155.8242694019746</v>
+        <v>6120.8054964195862</v>
       </c>
       <c r="AV67" s="1">
-        <v>6106.0147087284695</v>
+        <v>6064.6142829494875</v>
       </c>
       <c r="AW67" s="1">
-        <v>6068.5538997484036</v>
+        <v>6036.5186762144376</v>
       </c>
       <c r="AX67" s="1">
-        <v>6040.4582930133538</v>
+        <v>6008.4230694793887</v>
       </c>
       <c r="AY67" s="1">
-        <v>6012.3626862783049</v>
+        <v>5989.6926649893558</v>
       </c>
       <c r="AZ67" s="1">
-        <v>6003.6322817882719</v>
+        <v>5980.3274627443388</v>
       </c>
       <c r="BA67" s="1">
-        <v>5984.901877298239</v>
+        <v>5970.9622604993228</v>
       </c>
       <c r="BB67" s="1">
-        <v>5975.5366750532221</v>
+        <v>5970.9622604993228</v>
       </c>
       <c r="BC67" s="1">
-        <v>5966.1714728082061</v>
+        <v>5970.9622604993228</v>
       </c>
       <c r="BD67" s="1">
-        <v>5963.8227211147669</v>
+        <v>5980.3274627443388</v>
       </c>
       <c r="BE67" s="1">
-        <v>5963.8227211147669</v>
+        <v>5989.6926649893558</v>
       </c>
       <c r="BF67" s="1">
-        <v>5963.8227211147669</v>
+        <v>5999.0578672343718</v>
       </c>
       <c r="BG67" s="1">
-        <v>5973.1879233597829</v>
+        <v>6017.7882717244047</v>
       </c>
       <c r="BH67" s="1">
-        <v>5976.5860267079543</v>
+        <v>6027.1534739694216</v>
       </c>
       <c r="BI67" s="1">
-        <v>5995.3164311979872</v>
+        <v>6045.8838784594545</v>
       </c>
       <c r="BJ67" s="1">
-        <v>6014.0468356880201</v>
+        <v>6083.3446874395204</v>
       </c>
       <c r="BK67" s="1">
-        <v>6042.14244242307</v>
+        <v>6111.4402941745693</v>
       </c>
       <c r="BL67" s="1">
-        <v>6073.6659570350303</v>
+        <v>6158.2663053996521</v>
       </c>
       <c r="BM67" s="1">
-        <v>6111.1267660150961</v>
+        <v>6195.7271143797179</v>
       </c>
       <c r="BN67" s="1">
-        <v>6148.587574995162</v>
+        <v>6223.8227211147669</v>
       </c>
       <c r="BO67" s="1">
-        <v>6186.0483839752278</v>
+        <v>6261.2835300948327</v>
       </c>
       <c r="BP67" s="1">
-        <v>6232.908070447068</v>
+        <v>6308.1095413199146</v>
       </c>
       <c r="BQ67" s="1">
-        <v>6298.4644861621828</v>
+        <v>6364.3007547900133</v>
       </c>
       <c r="BR67" s="1">
-        <v>6373.3861041223145</v>
+        <v>6420.4919682601121</v>
       </c>
       <c r="BS67" s="1">
-        <v>6457.6729243274631</v>
+        <v>6495.4135862202438</v>
       </c>
       <c r="BT67" s="1">
-        <v>6569.958196245404</v>
+        <v>6551.6047996903426</v>
       </c>
       <c r="BU67" s="1">
-        <v>6672.9754209405846</v>
+        <v>6617.1612154054574</v>
       </c>
       <c r="BV67" s="1">
-        <v>6775.9926456357653</v>
+        <v>6682.7176311205731</v>
       </c>
       <c r="BW67" s="1">
-        <v>6879.0098703309468</v>
+        <v>6748.2740468356878</v>
       </c>
       <c r="BX67" s="1">
-        <v>6970.7574995161604</v>
+        <v>6823.5130636733111</v>
       </c>
       <c r="BY67" s="1">
-        <v>7055.0443197213081</v>
+        <v>6889.0694793884268</v>
       </c>
       <c r="BZ67" s="1">
-        <v>7139.3311399264567</v>
+        <v>6963.9910973485585</v>
       </c>
       <c r="CA67" s="1">
-        <v>7204.8875556415715</v>
+        <v>7057.6431197987231</v>
       </c>
       <c r="CB67" s="1">
-        <v>7274.6336365395782</v>
+        <v>7151.2951422488877</v>
       </c>
       <c r="CC67" s="1">
-        <v>7312.0944455196441</v>
+        <v>7226.2167602090185</v>
       </c>
       <c r="CD67" s="1">
-        <v>7330.824850009677</v>
+        <v>7273.0427714341013</v>
       </c>
       <c r="CE67" s="1">
-        <v>7312.0944455196441</v>
+        <v>7282.4079736791173</v>
       </c>
       <c r="CF67" s="1">
-        <v>7281.5231275401584</v>
+        <v>7255.708922005032</v>
       </c>
       <c r="CG67" s="1">
-        <v>7244.0623185600934</v>
+        <v>7218.2481130249662</v>
       </c>
       <c r="CH67" s="1">
-        <v>7178.5059028449778</v>
+        <v>7162.0568995548674</v>
       </c>
       <c r="CI67" s="1">
-        <v>7112.949487129863</v>
+        <v>7096.5004838397526</v>
       </c>
       <c r="CJ67" s="1">
-        <v>7002.0270950261274</v>
+        <v>6993.4832591445711</v>
       </c>
       <c r="CK67" s="1">
-        <v>6870.914263595897</v>
+        <v>6871.7356299593575</v>
       </c>
       <c r="CL67" s="1">
-        <v>6767.8970389007163</v>
+        <v>6749.988000774144</v>
       </c>
       <c r="CM67" s="1">
-        <v>6655.5146119605188</v>
+        <v>6609.5099670988966</v>
       </c>
       <c r="CN67" s="1">
-        <v>6500.7497580801237</v>
+        <v>6422.2059221985683</v>
       </c>
       <c r="CO67" s="1">
-        <v>6379.0021288949101</v>
+        <v>6281.7278885233209</v>
       </c>
       <c r="CP67" s="1">
-        <v>6219.7936907296307</v>
+        <v>6131.8846526030584</v>
       </c>
       <c r="CQ67" s="1">
-        <v>6079.3156570543833</v>
+        <v>5991.406618927811</v>
       </c>
       <c r="CR67" s="1">
-        <v>5899.0617379523901</v>
+        <v>5858.8972324366168</v>
       </c>
       <c r="CS67" s="1">
-        <v>5767.9489065221596</v>
+        <v>5709.0539965163534</v>
       </c>
       <c r="CT67" s="1">
-        <v>5646.2012773369461</v>
+        <v>5615.4019740661897</v>
       </c>
       <c r="CU67" s="1">
-        <v>5571.2796593768144</v>
+        <v>5512.3847493710082</v>
       </c>
       <c r="CV67" s="13"/>
       <c r="CW67" s="13"/>
@@ -44608,594 +46160,594 @@
     </row>
     <row r="68" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B68" s="8">
-        <v>45736</v>
+        <v>45743</v>
       </c>
       <c r="C68" s="9">
         <v>45744</v>
       </c>
       <c r="D68" s="1">
-        <v>5568.4528740081287</v>
+        <v>5493.6543448809753</v>
       </c>
       <c r="E68" s="1">
-        <v>5521.6268627830459</v>
+        <v>5437.4631314108765</v>
       </c>
       <c r="F68" s="1">
-        <v>5484.166053802981</v>
+        <v>5390.6371201857946</v>
       </c>
       <c r="G68" s="1">
-        <v>5437.3400425778982</v>
+        <v>5343.8111089607119</v>
       </c>
       <c r="H68" s="1">
-        <v>5315.8618153667503</v>
+        <v>5231.8992839171669</v>
       </c>
       <c r="I68" s="1">
-        <v>5287.7662086317014</v>
+        <v>5194.4384749371011</v>
       </c>
       <c r="J68" s="1">
-        <v>5269.0358041416685</v>
+        <v>5156.9776659570352</v>
       </c>
       <c r="K68" s="1">
-        <v>5250.3053996516355</v>
+        <v>5119.5168569769694</v>
       </c>
       <c r="L68" s="1">
-        <v>5223.0687052448229</v>
+        <v>5086.9986452486937</v>
       </c>
       <c r="M68" s="1">
-        <v>5213.7035029998069</v>
+        <v>5058.9030385136448</v>
       </c>
       <c r="N68" s="1">
-        <v>5204.33830075479</v>
+        <v>5040.1726340236119</v>
       </c>
       <c r="O68" s="1">
-        <v>5194.973098509774</v>
+        <v>5030.8074317785949</v>
       </c>
       <c r="P68" s="1">
-        <v>5193.9237468550418</v>
+        <v>5023.6469131023805</v>
       </c>
       <c r="Q68" s="1">
-        <v>5184.5585446100249</v>
+        <v>5033.0121153473974</v>
       </c>
       <c r="R68" s="1">
-        <v>5184.5585446100249</v>
+        <v>5033.0121153473974</v>
       </c>
       <c r="S68" s="1">
-        <v>5193.9237468550418</v>
+        <v>5042.3773175924134</v>
       </c>
       <c r="T68" s="1">
-        <v>5222.1233984904202</v>
+        <v>5051.4441648925877</v>
       </c>
       <c r="U68" s="1">
-        <v>5240.8538029804531</v>
+        <v>5060.8093671376037</v>
       </c>
       <c r="V68" s="1">
-        <v>5268.949409715502</v>
+        <v>5079.5397716276366</v>
       </c>
       <c r="W68" s="1">
-        <v>5315.7754209405848</v>
+        <v>5107.6353783626864</v>
       </c>
       <c r="X68" s="1">
-        <v>5393.5986065415136</v>
+        <v>5150.2380491581189</v>
       </c>
       <c r="Y68" s="1">
-        <v>5468.5202245016453</v>
+        <v>5206.4292626282177</v>
       </c>
       <c r="Z68" s="1">
-        <v>5552.807044706793</v>
+        <v>5281.3508805883494</v>
       </c>
       <c r="AA68" s="1">
-        <v>5646.4590671569576</v>
+        <v>5375.002903038514</v>
       </c>
       <c r="AB68" s="1">
-        <v>5791.6332107605958</v>
+        <v>5499.1862202438551</v>
       </c>
       <c r="AC68" s="1">
-        <v>5904.0156377007934</v>
+        <v>5630.2990516740856</v>
       </c>
       <c r="AD68" s="1">
-        <v>6007.0328623959749</v>
+        <v>5770.7770853493321</v>
       </c>
       <c r="AE68" s="1">
-        <v>6110.0500870911555</v>
+        <v>5920.6203212695955</v>
       </c>
       <c r="AF68" s="1">
-        <v>6237.6593768143994</v>
+        <v>6078.6734275208055</v>
       </c>
       <c r="AG68" s="1">
-        <v>6321.9461970195471</v>
+        <v>6228.516663441068</v>
       </c>
       <c r="AH68" s="1">
-        <v>6396.8678149796788</v>
+        <v>6359.6294948712984</v>
       </c>
       <c r="AI68" s="1">
-        <v>6462.4242306947936</v>
+        <v>6481.3771240565129</v>
       </c>
       <c r="AJ68" s="1">
-        <v>6529.5002903038512</v>
+        <v>6580.8013934584869</v>
       </c>
       <c r="AK68" s="1">
-        <v>6557.5958970389011</v>
+        <v>6665.0882136636346</v>
       </c>
       <c r="AL68" s="1">
-        <v>6566.9610992839171</v>
+        <v>6711.9142248887174</v>
       </c>
       <c r="AM68" s="1">
-        <v>6566.9610992839171</v>
+        <v>6740.0098316237663</v>
       </c>
       <c r="AN68" s="1">
-        <v>6530.035455777047</v>
+        <v>6761.3473195277729</v>
       </c>
       <c r="AO68" s="1">
-        <v>6492.5746467969811</v>
+        <v>6751.982117282756</v>
       </c>
       <c r="AP68" s="1">
-        <v>6436.3834333268824</v>
+        <v>6723.8865105477071</v>
       </c>
       <c r="AQ68" s="1">
-        <v>6370.8270176117667</v>
+        <v>6677.0604993226243</v>
       </c>
       <c r="AR68" s="1">
-        <v>6274.5083026901493</v>
+        <v>6640.0694406812463</v>
       </c>
       <c r="AS68" s="1">
-        <v>6199.5866847300176</v>
+        <v>6593.2434294561644</v>
       </c>
       <c r="AT68" s="1">
-        <v>6134.0302690149019</v>
+        <v>6546.4174182310817</v>
       </c>
       <c r="AU68" s="1">
-        <v>6077.8390555448041</v>
+        <v>6499.5914070059998</v>
       </c>
       <c r="AV68" s="1">
-        <v>6000.3777046642153</v>
+        <v>6442.5343913295919</v>
       </c>
       <c r="AW68" s="1">
-        <v>5962.9168956841495</v>
+        <v>6414.4387845945421</v>
       </c>
       <c r="AX68" s="1">
-        <v>5934.8212889491006</v>
+        <v>6386.3431778594932</v>
       </c>
       <c r="AY68" s="1">
-        <v>5906.7256822140507</v>
+        <v>6367.6127733694602</v>
       </c>
       <c r="AZ68" s="1">
-        <v>5883.3314495838977</v>
+        <v>6340.5538223340427</v>
       </c>
       <c r="BA68" s="1">
-        <v>5864.6010450938647</v>
+        <v>6321.8234178440098</v>
       </c>
       <c r="BB68" s="1">
-        <v>5855.2358428488487</v>
+        <v>6312.4582155989938</v>
       </c>
       <c r="BC68" s="1">
-        <v>5845.8706406038318</v>
+        <v>6303.0930133539769</v>
       </c>
       <c r="BD68" s="1">
-        <v>5843.6171085736405</v>
+        <v>6296.0765628024001</v>
       </c>
       <c r="BE68" s="1">
-        <v>5843.6171085736405</v>
+        <v>6296.0765628024001</v>
       </c>
       <c r="BF68" s="1">
-        <v>5843.6171085736405</v>
+        <v>6305.4417650474161</v>
       </c>
       <c r="BG68" s="1">
-        <v>5852.9823108186565</v>
+        <v>6314.806967292433</v>
       </c>
       <c r="BH68" s="1">
-        <v>5868.1051287013743</v>
+        <v>6321.3663634604218</v>
       </c>
       <c r="BI68" s="1">
-        <v>5886.8355331914072</v>
+        <v>6340.0967679504547</v>
       </c>
       <c r="BJ68" s="1">
-        <v>5905.5659376814401</v>
+        <v>6349.4619701954716</v>
       </c>
       <c r="BK68" s="1">
-        <v>5933.6615444164891</v>
+        <v>6358.8271724404876</v>
       </c>
       <c r="BL68" s="1">
-        <v>5977.7413586220246</v>
+        <v>6382.5915231275403</v>
       </c>
       <c r="BM68" s="1">
-        <v>6015.2021676020904</v>
+        <v>6391.9567253725563</v>
       </c>
       <c r="BN68" s="1">
-        <v>6052.6629765821563</v>
+        <v>6420.0523321076062</v>
       </c>
       <c r="BO68" s="1">
-        <v>6090.1237855622221</v>
+        <v>6438.7827365976391</v>
       </c>
       <c r="BP68" s="1">
-        <v>6184.9868782659187</v>
+        <v>6489.1616798916202</v>
       </c>
       <c r="BQ68" s="1">
-        <v>6250.5432939810335</v>
+        <v>6526.6224888716861</v>
       </c>
       <c r="BR68" s="1">
-        <v>6325.4649119411652</v>
+        <v>6573.4485000967679</v>
       </c>
       <c r="BS68" s="1">
-        <v>6409.7517321463129</v>
+        <v>6620.2745113218507</v>
       </c>
       <c r="BT68" s="1">
-        <v>6540.4461389587777</v>
+        <v>6683.3196051867626</v>
       </c>
       <c r="BU68" s="1">
-        <v>6643.4633636539584</v>
+        <v>6739.5108186568614</v>
       </c>
       <c r="BV68" s="1">
-        <v>6746.480588349139</v>
+        <v>6776.9716276369263</v>
       </c>
       <c r="BW68" s="1">
-        <v>6849.4978130443196</v>
+        <v>6823.7976388620091</v>
       </c>
       <c r="BX68" s="1">
-        <v>6958.480201277338</v>
+        <v>6903.8889878072387</v>
       </c>
       <c r="BY68" s="1">
-        <v>7042.7670214824848</v>
+        <v>6950.7149990323205</v>
       </c>
       <c r="BZ68" s="1">
-        <v>7117.6886394426165</v>
+        <v>7016.2714147474362</v>
       </c>
       <c r="CA68" s="1">
-        <v>7192.6102574027482</v>
+        <v>7091.193032707567</v>
       </c>
       <c r="CB68" s="1">
-        <v>7264.1210760596095</v>
+        <v>7176.9125604799692</v>
       </c>
       <c r="CC68" s="1">
-        <v>7301.5818850396745</v>
+        <v>7242.468976195084</v>
       </c>
       <c r="CD68" s="1">
-        <v>7301.5818850396745</v>
+        <v>7279.9297851751498</v>
       </c>
       <c r="CE68" s="1">
-        <v>7292.2166827946585</v>
+        <v>7289.2949874201668</v>
       </c>
       <c r="CF68" s="1">
-        <v>7250.4304238436234</v>
+        <v>7256.8719953551381</v>
       </c>
       <c r="CG68" s="1">
-        <v>7212.9696148635576</v>
+        <v>7219.4111863750722</v>
       </c>
       <c r="CH68" s="1">
-        <v>7147.4131991484419</v>
+        <v>7144.4895684149415</v>
       </c>
       <c r="CI68" s="1">
-        <v>7081.8567834333271</v>
+        <v>7060.2027482097928</v>
       </c>
       <c r="CJ68" s="1">
-        <v>6936.6743564931294</v>
+        <v>6951.4025159667117</v>
       </c>
       <c r="CK68" s="1">
-        <v>6814.9267273079158</v>
+        <v>6848.3852912715311</v>
       </c>
       <c r="CL68" s="1">
-        <v>6711.9095026127352</v>
+        <v>6717.2724598413006</v>
       </c>
       <c r="CM68" s="1">
-        <v>6571.4314689374878</v>
+        <v>6595.524830656087</v>
       </c>
       <c r="CN68" s="1">
-        <v>6389.8229533578478</v>
+        <v>6420.5201470872844</v>
       </c>
       <c r="CO68" s="1">
-        <v>6277.4405264176503</v>
+        <v>6280.0421134120379</v>
       </c>
       <c r="CP68" s="1">
-        <v>6118.2320882523709</v>
+        <v>6148.9292819818074</v>
       </c>
       <c r="CQ68" s="1">
-        <v>5977.7540545771244</v>
+        <v>5999.0860460615449</v>
       </c>
       <c r="CR68" s="1">
-        <v>5815.0117282755955</v>
+        <v>5849.6891039287784</v>
       </c>
       <c r="CS68" s="1">
-        <v>5683.898896845365</v>
+        <v>5718.5762724985489</v>
       </c>
       <c r="CT68" s="1">
-        <v>5562.1512676601515</v>
+        <v>5587.4634410683184</v>
       </c>
       <c r="CU68" s="1">
-        <v>5440.403638474937</v>
+        <v>5484.4462163731368</v>
       </c>
     </row>
     <row r="69" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C69" s="9">
         <v>45745</v>
       </c>
       <c r="D69" s="1">
-        <v>5440.3235920263205</v>
+        <v>5456.1935359009094</v>
       </c>
       <c r="E69" s="1">
-        <v>5412.2279852912716</v>
+        <v>5400.0023224308106</v>
       </c>
       <c r="F69" s="1">
-        <v>5393.4975808012387</v>
+        <v>5353.1763112057288</v>
       </c>
       <c r="G69" s="1">
-        <v>5374.7671763112057</v>
+        <v>5296.98509773563</v>
       </c>
       <c r="H69" s="1">
-        <v>5378.5193729436814</v>
+        <v>5185.0732726920842</v>
       </c>
       <c r="I69" s="1">
-        <v>5359.7889684536485</v>
+        <v>5138.2472614670023</v>
       </c>
       <c r="J69" s="1">
-        <v>5341.0585639636156</v>
+        <v>5100.7864524869365</v>
       </c>
       <c r="K69" s="1">
-        <v>5312.9629572285658</v>
+        <v>5063.3256435068706</v>
       </c>
       <c r="L69" s="1">
-        <v>5287.3894329398108</v>
+        <v>5021.4422295335789</v>
       </c>
       <c r="M69" s="1">
-        <v>5268.6590284497779</v>
+        <v>4993.3466227985291</v>
       </c>
       <c r="N69" s="1">
-        <v>5259.293826204761</v>
+        <v>4965.2510160634802</v>
       </c>
       <c r="O69" s="1">
-        <v>5249.928623959745</v>
+        <v>4946.5206115734472</v>
       </c>
       <c r="P69" s="1">
-        <v>5238.3098896845368</v>
+        <v>4920.6296884071999</v>
       </c>
       <c r="Q69" s="1">
-        <v>5238.3098896845368</v>
+        <v>4911.2644861621829</v>
       </c>
       <c r="R69" s="1">
-        <v>5238.3098896845368</v>
+        <v>4901.8992839171669</v>
       </c>
       <c r="S69" s="1">
-        <v>5247.6750919295528</v>
+        <v>4901.8992839171669</v>
       </c>
       <c r="T69" s="1">
-        <v>5257.0193148829112</v>
+        <v>4910.9661312173412</v>
       </c>
       <c r="U69" s="1">
-        <v>5266.3845171279272</v>
+        <v>4920.3313334623572</v>
       </c>
       <c r="V69" s="1">
-        <v>5275.7497193729441</v>
+        <v>4939.0617379523901</v>
       </c>
       <c r="W69" s="1">
-        <v>5285.1149216179601</v>
+        <v>4967.1573446874399</v>
       </c>
       <c r="X69" s="1">
-        <v>5322.2754402941746</v>
+        <v>5000.3948132378555</v>
       </c>
       <c r="Y69" s="1">
-        <v>5341.0058447842075</v>
+        <v>5028.4904199729053</v>
       </c>
       <c r="Z69" s="1">
-        <v>5378.4666537642734</v>
+        <v>5065.9512289529712</v>
       </c>
       <c r="AA69" s="1">
-        <v>5415.9274627443392</v>
+        <v>5094.0468356880201</v>
       </c>
       <c r="AB69" s="1">
-        <v>5485.0646796980836</v>
+        <v>5143.3085349332305</v>
       </c>
       <c r="AC69" s="1">
-        <v>5522.5254886781495</v>
+        <v>5171.4041416682794</v>
       </c>
       <c r="AD69" s="1">
-        <v>5550.6210954132002</v>
+        <v>5208.8649506483453</v>
       </c>
       <c r="AE69" s="1">
-        <v>5578.7167021482492</v>
+        <v>5246.3257596284111</v>
       </c>
       <c r="AF69" s="1">
-        <v>5620.7505322237275</v>
+        <v>5282.6312366944067</v>
       </c>
       <c r="AG69" s="1">
-        <v>5620.7505322237275</v>
+        <v>5329.4572479194894</v>
       </c>
       <c r="AH69" s="1">
-        <v>5620.7505322237275</v>
+        <v>5376.2832591445713</v>
       </c>
       <c r="AI69" s="1">
-        <v>5592.6549254886777</v>
+        <v>5441.839674859687</v>
       </c>
       <c r="AJ69" s="1">
-        <v>5554.8913489452298</v>
+        <v>5494.4379330365782</v>
       </c>
       <c r="AK69" s="1">
-        <v>5508.065337720147</v>
+        <v>5559.9943487516939</v>
       </c>
       <c r="AL69" s="1">
-        <v>5442.5089220050322</v>
+        <v>5616.1855622217927</v>
       </c>
       <c r="AM69" s="1">
-        <v>5367.5873040449005</v>
+        <v>5663.0115734468745</v>
       </c>
       <c r="AN69" s="1">
-        <v>5261.0337139539388</v>
+        <v>5712.4446680859301</v>
       </c>
       <c r="AO69" s="1">
-        <v>5176.7468937487902</v>
+        <v>5749.9054770659959</v>
       </c>
       <c r="AP69" s="1">
-        <v>5092.4600735436425</v>
+        <v>5768.6358815560288</v>
       </c>
       <c r="AQ69" s="1">
-        <v>4998.8080510934778</v>
+        <v>5768.6358815560288</v>
       </c>
       <c r="AR69" s="1">
-        <v>4858.2273659763887</v>
+        <v>5750.3752274046838</v>
       </c>
       <c r="AS69" s="1">
-        <v>4773.940545771241</v>
+        <v>5731.6448229146508</v>
       </c>
       <c r="AT69" s="1">
-        <v>4699.0189278111093</v>
+        <v>5703.549216179601</v>
       </c>
       <c r="AU69" s="1">
-        <v>4633.4625120959936</v>
+        <v>5684.818811689569</v>
       </c>
       <c r="AV69" s="1">
-        <v>4534.2745113218507</v>
+        <v>5646.4922005031931</v>
       </c>
       <c r="AW69" s="1">
-        <v>4478.0832978517519</v>
+        <v>5627.7617960131602</v>
       </c>
       <c r="AX69" s="1">
-        <v>4421.8920843816531</v>
+        <v>5618.3965937681442</v>
       </c>
       <c r="AY69" s="1">
-        <v>4375.0660731565704</v>
+        <v>5609.0313915231272</v>
       </c>
       <c r="AZ69" s="1">
-        <v>4330.7113605573832</v>
+        <v>5591.3376427327266</v>
       </c>
       <c r="BA69" s="1">
-        <v>4302.6157538223342</v>
+        <v>5572.6072382426937</v>
       </c>
       <c r="BB69" s="1">
-        <v>4283.8853493323013</v>
+        <v>5563.2420359976777</v>
       </c>
       <c r="BC69" s="1">
-        <v>4265.1549448422684</v>
+        <v>5544.5116315076448</v>
       </c>
       <c r="BD69" s="1">
-        <v>4291.3403522353401</v>
+        <v>5528.1299787110511</v>
       </c>
       <c r="BE69" s="1">
-        <v>4300.7055544803561</v>
+        <v>5509.3995742210182</v>
       </c>
       <c r="BF69" s="1">
-        <v>4319.435958970389</v>
+        <v>5490.6691697309852</v>
       </c>
       <c r="BG69" s="1">
-        <v>4347.531565705438</v>
+        <v>5481.3039674859683</v>
       </c>
       <c r="BH69" s="1">
-        <v>4404.7492161796017</v>
+        <v>5478.4981614089411</v>
       </c>
       <c r="BI69" s="1">
-        <v>4451.5752274046836</v>
+        <v>5478.4981614089411</v>
       </c>
       <c r="BJ69" s="1">
-        <v>4507.7664408747823</v>
+        <v>5497.228565898974</v>
       </c>
       <c r="BK69" s="1">
-        <v>4563.9576543448811</v>
+        <v>5515.9589703890069</v>
       </c>
       <c r="BL69" s="1">
-        <v>4637.3049738726531</v>
+        <v>5549.0885233210765</v>
       </c>
       <c r="BM69" s="1">
-        <v>4712.2265918327848</v>
+        <v>5577.1841300561255</v>
       </c>
       <c r="BN69" s="1">
-        <v>4805.8786142829495</v>
+        <v>5605.2797367911753</v>
       </c>
       <c r="BO69" s="1">
-        <v>4899.5306367331141</v>
+        <v>5642.7405457712402</v>
       </c>
       <c r="BP69" s="1">
-        <v>5079.5907876911169</v>
+        <v>5702.4846913102383</v>
       </c>
       <c r="BQ69" s="1">
-        <v>5210.7036191213474</v>
+        <v>5749.3107025353202</v>
       </c>
       <c r="BR69" s="1">
-        <v>5351.1816527965939</v>
+        <v>5805.5019160054189</v>
       </c>
       <c r="BS69" s="1">
-        <v>5501.0248887168573</v>
+        <v>5871.0583317205346</v>
       </c>
       <c r="BT69" s="1">
-        <v>5714.5148829107802</v>
+        <v>5962.1990323204955</v>
       </c>
       <c r="BU69" s="1">
-        <v>5864.3581188310427</v>
+        <v>6037.1206502806272</v>
       </c>
       <c r="BV69" s="1">
-        <v>6023.566556996323</v>
+        <v>6112.0422682407589</v>
       </c>
       <c r="BW69" s="1">
-        <v>6164.0445906715695</v>
+        <v>6186.9638862008906</v>
       </c>
       <c r="BX69" s="1">
-        <v>6344.2057673698473</v>
+        <v>6276.4204373911361</v>
       </c>
       <c r="BY69" s="1">
-        <v>6484.6838010450938</v>
+        <v>6351.3420553512678</v>
       </c>
       <c r="BZ69" s="1">
-        <v>6634.5270369653572</v>
+        <v>6435.6288755564156</v>
       </c>
       <c r="CA69" s="1">
-        <v>6765.6398683955886</v>
+        <v>6510.5504935165472</v>
       </c>
       <c r="CB69" s="1">
-        <v>6900.6503580414164</v>
+        <v>6605.6352235339655</v>
       </c>
       <c r="CC69" s="1">
-        <v>7003.667582736598</v>
+        <v>6680.5568414940972</v>
       </c>
       <c r="CD69" s="1">
-        <v>7059.8587962066968</v>
+        <v>6699.2872459841301</v>
       </c>
       <c r="CE69" s="1">
-        <v>7069.2239984517128</v>
+        <v>6699.2872459841301</v>
       </c>
       <c r="CF69" s="1">
-        <v>7043.5444939036188</v>
+        <v>6666.8642539191023</v>
       </c>
       <c r="CG69" s="1">
-        <v>7015.4488871685699</v>
+        <v>6638.7686471840525</v>
       </c>
       <c r="CH69" s="1">
-        <v>6949.8924714534551</v>
+        <v>6591.9426359589706</v>
       </c>
       <c r="CI69" s="1">
-        <v>6874.9708534933234</v>
+        <v>6526.386220243855</v>
       </c>
       <c r="CJ69" s="1">
-        <v>6746.7712018579441</v>
+        <v>6408.2207857557578</v>
       </c>
       <c r="CK69" s="1">
-        <v>6634.3887749177466</v>
+        <v>6305.2035610605772</v>
       </c>
       <c r="CL69" s="1">
-        <v>6531.3715502225659</v>
+        <v>6211.5515386104125</v>
       </c>
       <c r="CM69" s="1">
-        <v>6409.6239210373515</v>
+        <v>6108.534313915231</v>
       </c>
       <c r="CN69" s="1">
-        <v>6252.7529320688991</v>
+        <v>5933.5296303464293</v>
       </c>
       <c r="CO69" s="1">
-        <v>6121.6401006386686</v>
+        <v>5811.7820011612157</v>
       </c>
       <c r="CP69" s="1">
-        <v>5999.8924714534551</v>
+        <v>5690.0343719760012</v>
       </c>
       <c r="CQ69" s="1">
-        <v>5878.1448422682406</v>
+        <v>5558.9215405457717</v>
       </c>
       <c r="CR69" s="1">
-        <v>5746.0075091929557</v>
+        <v>5418.8898006580221</v>
       </c>
       <c r="CS69" s="1">
-        <v>5624.2598800077412</v>
+        <v>5297.1421714728085</v>
       </c>
       <c r="CT69" s="1">
-        <v>5511.8774530675437</v>
+        <v>5203.4901490226439</v>
       </c>
       <c r="CU69" s="1">
-        <v>5408.8602283723631</v>
+        <v>5100.4729243274633</v>
       </c>
       <c r="CV69" s="13"/>
       <c r="CW69" s="13"/>
@@ -45204,586 +46756,586 @@
     </row>
     <row r="70" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
-        <v>45737</v>
+        <v>45743</v>
       </c>
       <c r="C70" s="9">
         <v>45746</v>
       </c>
       <c r="D70" s="1">
-        <v>5262.8652603057872</v>
+        <v>5108.1912134700988</v>
       </c>
       <c r="E70" s="1">
-        <v>5206.6740468356884</v>
+        <v>5061.3652022450169</v>
       </c>
       <c r="F70" s="1">
-        <v>5159.8480356106056</v>
+        <v>5014.5391910199342</v>
       </c>
       <c r="G70" s="1">
-        <v>5113.0220243855238</v>
+        <v>4958.3479775498354</v>
       </c>
       <c r="H70" s="1">
-        <v>5057.0783820398683</v>
+        <v>4917.9670988968455</v>
       </c>
       <c r="I70" s="1">
-        <v>5010.2523708147864</v>
+        <v>4880.5062899167797</v>
       </c>
       <c r="J70" s="1">
-        <v>4972.7915618347206</v>
+        <v>4852.4106831817298</v>
       </c>
       <c r="K70" s="1">
-        <v>4944.6959550996708</v>
+        <v>4814.9498742016649</v>
       </c>
       <c r="L70" s="1">
-        <v>4907.9334236500872</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="M70" s="1">
-        <v>4879.8378169150374</v>
+        <v>4750.8534933230112</v>
       </c>
       <c r="N70" s="1">
-        <v>4851.7422101799884</v>
+        <v>4722.7578865879623</v>
       </c>
       <c r="O70" s="1">
-        <v>4823.6466034449395</v>
+        <v>4704.0274820979294</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1">
-        <v>4742.0259338107217</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="U70" s="1">
-        <v>4742.0259338107217</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="V70" s="1">
-        <v>4751.3911360557386</v>
+        <v>4647.07451132185</v>
       </c>
       <c r="W70" s="1">
-        <v>4770.1215405457715</v>
+        <v>4656.4397135668669</v>
       </c>
       <c r="X70" s="1">
-        <v>4786.9475517708534</v>
+        <v>4664.4083607509192</v>
       </c>
       <c r="Y70" s="1">
-        <v>4815.0431585059032</v>
+        <v>4683.1387652409521</v>
       </c>
       <c r="Z70" s="1">
-        <v>4843.1387652409521</v>
+        <v>4711.234371976002</v>
       </c>
       <c r="AA70" s="1">
-        <v>4871.234371976002</v>
+        <v>4729.9647764660349</v>
       </c>
       <c r="AB70" s="1">
-        <v>4896.1559899361337</v>
+        <v>4760.2186955680281</v>
       </c>
       <c r="AC70" s="1">
-        <v>4914.8863944261657</v>
+        <v>4778.949100058061</v>
       </c>
       <c r="AD70" s="1">
-        <v>4933.6167989161986</v>
+        <v>4797.679504548094</v>
       </c>
       <c r="AE70" s="1">
-        <v>4933.6167989161986</v>
+        <v>4816.4099090381269</v>
       </c>
       <c r="AF70" s="1">
-        <v>4941.9961292819817</v>
+        <v>4827.3323011418615</v>
       </c>
       <c r="AG70" s="1">
-        <v>4932.6309270369657</v>
+        <v>4846.0627056318945</v>
       </c>
       <c r="AH70" s="1">
-        <v>4913.9005225469327</v>
+        <v>4874.1583123669443</v>
       </c>
       <c r="AI70" s="1">
-        <v>4885.8049158118829</v>
+        <v>4902.2539191019932</v>
       </c>
       <c r="AJ70" s="1">
-        <v>4839.4232630152892</v>
+        <v>4917.7468550416106</v>
       </c>
       <c r="AK70" s="1">
-        <v>4792.5972517902073</v>
+        <v>4936.4772595316435</v>
       </c>
       <c r="AL70" s="1">
-        <v>4727.0408360750916</v>
+        <v>4955.2076640216765</v>
       </c>
       <c r="AM70" s="1">
-        <v>4642.7540158699439</v>
+        <v>4964.5728662666925</v>
       </c>
       <c r="AN70" s="1">
-        <v>4550.6591832784979</v>
+        <v>4960.9545190632862</v>
       </c>
       <c r="AO70" s="1">
-        <v>4447.6419585833173</v>
+        <v>4951.5893168182702</v>
       </c>
       <c r="AP70" s="1">
-        <v>4344.6247338881367</v>
+        <v>4932.8589123282372</v>
       </c>
       <c r="AQ70" s="1">
-        <v>4241.6075091929551</v>
+        <v>4914.1285078382043</v>
       </c>
       <c r="AR70" s="1">
-        <v>4137.9891619895498</v>
+        <v>4877.8401393458489</v>
       </c>
       <c r="AS70" s="1">
-        <v>4044.3371395393847</v>
+        <v>4831.0141281207661</v>
       </c>
       <c r="AT70" s="1">
-        <v>3960.0503193342365</v>
+        <v>4784.1881168956843</v>
       </c>
       <c r="AU70" s="1">
-        <v>3885.1287013741048</v>
+        <v>4737.3621056706015</v>
       </c>
       <c r="AV70" s="1">
-        <v>3827.8583317205344</v>
+        <v>4698.504741629572</v>
       </c>
       <c r="AW70" s="1">
-        <v>3790.3975227404685</v>
+        <v>4670.409134894523</v>
       </c>
       <c r="AX70" s="1">
-        <v>3762.3019160054191</v>
+        <v>4642.3135281594732</v>
       </c>
       <c r="AY70" s="1">
-        <v>3743.5715115153862</v>
+        <v>4632.9483259144572</v>
       </c>
       <c r="AZ70" s="1">
-        <v>3734.460228372363</v>
+        <v>4613.0118056899555</v>
       </c>
       <c r="BA70" s="1">
-        <v>3725.0950261273465</v>
+        <v>4603.6466034449395</v>
       </c>
       <c r="BB70" s="1">
-        <v>3725.0950261273465</v>
+        <v>4603.6466034449395</v>
       </c>
       <c r="BC70" s="1">
-        <v>3725.0950261273465</v>
+        <v>4594.2814011999226</v>
       </c>
       <c r="BD70" s="1">
-        <v>3713.6349912908845</v>
+        <v>4583.1387652409521</v>
       </c>
       <c r="BE70" s="1">
-        <v>3713.6349912908845</v>
+        <v>4573.7735629959361</v>
       </c>
       <c r="BF70" s="1">
-        <v>3713.6349912908845</v>
+        <v>4573.7735629959361</v>
       </c>
       <c r="BG70" s="1">
-        <v>3713.6349912908845</v>
+        <v>4564.4083607509192</v>
       </c>
       <c r="BH70" s="1">
-        <v>3725.4124250048385</v>
+        <v>4569.9012966905366</v>
       </c>
       <c r="BI70" s="1">
-        <v>3744.1428294948714</v>
+        <v>4579.2664989355526</v>
       </c>
       <c r="BJ70" s="1">
-        <v>3762.8732339849043</v>
+        <v>4588.6317011805695</v>
       </c>
       <c r="BK70" s="1">
-        <v>3790.9688407199537</v>
+        <v>4597.9969034255855</v>
       </c>
       <c r="BL70" s="1">
-        <v>3833.8254306173794</v>
+        <v>4616.219469711632</v>
       </c>
       <c r="BM70" s="1">
-        <v>3871.2862395974453</v>
+        <v>4634.9498742016649</v>
       </c>
       <c r="BN70" s="1">
-        <v>3918.1122508225276</v>
+        <v>4663.0454809367138</v>
       </c>
       <c r="BO70" s="1">
-        <v>3974.3034642926264</v>
+        <v>4691.1410876717628</v>
       </c>
       <c r="BP70" s="1">
-        <v>4033.1945035804142</v>
+        <v>4730.6034449390363</v>
       </c>
       <c r="BQ70" s="1">
-        <v>4108.1161215405464</v>
+        <v>4786.7946584091351</v>
       </c>
       <c r="BR70" s="1">
-        <v>4211.133346235727</v>
+        <v>4852.3510741242499</v>
       </c>
       <c r="BS70" s="1">
-        <v>4314.1505709309076</v>
+        <v>4936.6378943293985</v>
       </c>
       <c r="BT70" s="1">
-        <v>4441.9922585639633</v>
+        <v>5026.7013741048968</v>
       </c>
       <c r="BU70" s="1">
-        <v>4563.7398877491778</v>
+        <v>5120.3533965550614</v>
       </c>
       <c r="BV70" s="1">
-        <v>4694.8527191794083</v>
+        <v>5204.6402167602091</v>
       </c>
       <c r="BW70" s="1">
-        <v>4816.6003483646218</v>
+        <v>5288.9270369653568</v>
       </c>
       <c r="BX70" s="1">
-        <v>4955.7116315076446</v>
+        <v>5362.7694987420164</v>
       </c>
       <c r="BY70" s="1">
-        <v>5096.1896651828911</v>
+        <v>5428.3259144571321</v>
       </c>
       <c r="BZ70" s="1">
-        <v>5236.6676988581385</v>
+        <v>5503.2475324172638</v>
       </c>
       <c r="CA70" s="1">
-        <v>5395.8761370234179</v>
+        <v>5596.8995548674284</v>
       </c>
       <c r="CB70" s="1">
-        <v>5574.1323785562226</v>
+        <v>5700.2976582155989</v>
       </c>
       <c r="CC70" s="1">
-        <v>5752.071221211535</v>
+        <v>5822.0452874008133</v>
       </c>
       <c r="CD70" s="1">
-        <v>5939.3752661118642</v>
+        <v>5943.7929165860269</v>
       </c>
       <c r="CE70" s="1">
-        <v>6107.9489065221596</v>
+        <v>6056.1753435262244</v>
       </c>
       <c r="CF70" s="1">
-        <v>6267.6017031159281</v>
+        <v>6161.1604412618544</v>
       </c>
       <c r="CG70" s="1">
-        <v>6389.3493323011417</v>
+        <v>6254.8124637120191</v>
       </c>
       <c r="CH70" s="1">
-        <v>6436.1753435262244</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="CI70" s="1">
-        <v>6445.5405457712404</v>
+        <v>6273.542868202052</v>
       </c>
       <c r="CJ70" s="1">
-        <v>6426.302303077221</v>
+        <v>6255.828140119992</v>
       </c>
       <c r="CK70" s="1">
-        <v>6388.8414940971552</v>
+        <v>6209.0021288949101</v>
       </c>
       <c r="CL70" s="1">
-        <v>6332.6502806270564</v>
+        <v>6162.1761176698283</v>
       </c>
       <c r="CM70" s="1">
-        <v>6257.7286626669247</v>
+        <v>6087.2544997096966</v>
       </c>
       <c r="CN70" s="1">
-        <v>6140.3948132378555</v>
+        <v>5975.8877491774729</v>
       </c>
       <c r="CO70" s="1">
-        <v>6028.0123862976579</v>
+        <v>5854.1401199922584</v>
       </c>
       <c r="CP70" s="1">
-        <v>5887.5343526224115</v>
+        <v>5741.7576930520609</v>
       </c>
       <c r="CQ70" s="1">
-        <v>5756.421521192181</v>
+        <v>5601.2796593768144</v>
       </c>
       <c r="CR70" s="1">
-        <v>5613.531256047997</v>
+        <v>5473.9121347009868</v>
       </c>
       <c r="CS70" s="1">
-        <v>5491.7836268627834</v>
+        <v>5352.1645055157733</v>
       </c>
       <c r="CT70" s="1">
-        <v>5379.4011999225859</v>
+        <v>5239.7820785755757</v>
       </c>
       <c r="CU70" s="1">
-        <v>5276.3839752274043</v>
+        <v>5136.7648538803951</v>
       </c>
     </row>
     <row r="71" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
-        <v>45739</v>
+        <v>45743</v>
       </c>
       <c r="C71" s="9">
         <v>45747</v>
       </c>
       <c r="D71" s="1">
-        <v>5077.9679504548094</v>
+        <v>4974.4771047029226</v>
       </c>
       <c r="E71" s="1">
-        <v>5021.7767369847106</v>
+        <v>4927.6510934778398</v>
       </c>
       <c r="F71" s="1">
-        <v>4965.5855235146119</v>
+        <v>4880.825082252758</v>
       </c>
       <c r="G71" s="1">
-        <v>4909.3943100445131</v>
+        <v>4824.6338687826592</v>
       </c>
       <c r="H71" s="1">
-        <v>4873.1142248887172</v>
+        <v>4776.0685117089224</v>
       </c>
       <c r="I71" s="1">
-        <v>4835.6534159086514</v>
+        <v>4738.6077027288566</v>
       </c>
       <c r="J71" s="1">
-        <v>4807.5578091736015</v>
+        <v>4691.7816915037738</v>
       </c>
       <c r="K71" s="1">
-        <v>4770.0970001935357</v>
+        <v>4654.320882523708</v>
       </c>
       <c r="L71" s="1">
-        <v>4750.1966324753239</v>
+        <v>4607.7380298045291</v>
       </c>
       <c r="M71" s="1">
-        <v>4722.101025740275</v>
+        <v>4579.6424230694793</v>
       </c>
       <c r="N71" s="1">
-        <v>4712.735823495258</v>
+        <v>4560.9120185794463</v>
       </c>
       <c r="O71" s="1">
-        <v>4703.370621250242</v>
+        <v>4551.5468163344303</v>
       </c>
       <c r="P71" s="1">
-        <v>4699.6443584284889</v>
+        <v>4536.5211534739692</v>
       </c>
       <c r="Q71" s="1">
-        <v>4709.0095606735049</v>
+        <v>4536.5211534739692</v>
       </c>
       <c r="R71" s="1">
-        <v>4718.3747629185218</v>
+        <v>4545.8863557189861</v>
       </c>
       <c r="S71" s="1">
-        <v>4718.3747629185218</v>
+        <v>4564.616760209019</v>
       </c>
       <c r="T71" s="1">
-        <v>4738.7410102574031</v>
+        <v>4575.2281014128121</v>
       </c>
       <c r="U71" s="1">
-        <v>4757.471414747436</v>
+        <v>4593.958505902845</v>
       </c>
       <c r="V71" s="1">
-        <v>4785.567021482485</v>
+        <v>4612.6889103928779</v>
       </c>
       <c r="W71" s="1">
-        <v>4823.0278304625508</v>
+        <v>4659.5149216179598</v>
       </c>
       <c r="X71" s="1">
-        <v>4894.1558351074127</v>
+        <v>4726.9928391716667</v>
       </c>
       <c r="Y71" s="1">
-        <v>4969.0774530675444</v>
+        <v>4801.9144571317984</v>
       </c>
       <c r="Z71" s="1">
-        <v>5072.094677762725</v>
+        <v>4895.5664795819621</v>
       </c>
       <c r="AA71" s="1">
-        <v>5193.8423069479386</v>
+        <v>5017.3141087671765</v>
       </c>
       <c r="AB71" s="1">
-        <v>5342.5790594155214</v>
+        <v>5166.3936520224506</v>
       </c>
       <c r="AC71" s="1">
-        <v>5501.7874975808018</v>
+        <v>5316.2368879427131</v>
       </c>
       <c r="AD71" s="1">
-        <v>5679.7263402361141</v>
+        <v>5475.4453261079934</v>
       </c>
       <c r="AE71" s="1">
-        <v>5857.6651828914264</v>
+        <v>5653.3841687633058</v>
       </c>
       <c r="AF71" s="1">
-        <v>6033.667892394039</v>
+        <v>5827.1885426746658</v>
       </c>
       <c r="AG71" s="1">
-        <v>6192.8763305593193</v>
+        <v>5995.7621830849621</v>
       </c>
       <c r="AH71" s="1">
-        <v>6342.7195664795818</v>
+        <v>6145.6054190052255</v>
       </c>
       <c r="AI71" s="1">
-        <v>6473.8323979098122</v>
+        <v>6286.083452680472</v>
       </c>
       <c r="AJ71" s="1">
-        <v>6567.3213083026903</v>
+        <v>6409.0689374879039</v>
       </c>
       <c r="AK71" s="1">
-        <v>6642.242926262822</v>
+        <v>6502.7209599380685</v>
       </c>
       <c r="AL71" s="1">
-        <v>6679.7037352428879</v>
+        <v>6549.5469711631513</v>
       </c>
       <c r="AM71" s="1">
-        <v>6689.0689374879039</v>
+        <v>6596.3729823882331</v>
       </c>
       <c r="AN71" s="1">
-        <v>6668.4087478227211</v>
+        <v>6622.2385136442808</v>
       </c>
       <c r="AO71" s="1">
-        <v>6621.5827365976393</v>
+        <v>6622.2385136442808</v>
       </c>
       <c r="AP71" s="1">
-        <v>6556.0263208825236</v>
+        <v>6603.5081091542479</v>
       </c>
       <c r="AQ71" s="1">
-        <v>6481.1047029223919</v>
+        <v>6566.0473001741821</v>
       </c>
       <c r="AR71" s="1">
-        <v>6382.9919876137028</v>
+        <v>6478.8271724404876</v>
       </c>
       <c r="AS71" s="1">
-        <v>6298.7051674085542</v>
+        <v>6432.0011612154058</v>
       </c>
       <c r="AT71" s="1">
-        <v>6223.7835494484225</v>
+        <v>6375.809947745307</v>
       </c>
       <c r="AU71" s="1">
-        <v>6148.8619314882908</v>
+        <v>6319.6187342752082</v>
       </c>
       <c r="AV71" s="1">
-        <v>6061.8830269014907</v>
+        <v>6252.6144377782075</v>
       </c>
       <c r="AW71" s="1">
-        <v>6015.0570156764079</v>
+        <v>6215.1536287981417</v>
       </c>
       <c r="AX71" s="1">
-        <v>5977.5962066963421</v>
+        <v>6187.0580220630927</v>
       </c>
       <c r="AY71" s="1">
-        <v>5949.5005999612931</v>
+        <v>6158.9624153280438</v>
       </c>
       <c r="AZ71" s="1">
-        <v>5933.3963228178827</v>
+        <v>6127.7709309076845</v>
       </c>
       <c r="BA71" s="1">
-        <v>5914.6659183278498</v>
+        <v>6109.0405264176516</v>
       </c>
       <c r="BB71" s="1">
-        <v>5886.5703115928009</v>
+        <v>6090.3101219276177</v>
       </c>
       <c r="BC71" s="1">
-        <v>5867.8399071027679</v>
+        <v>6071.5797174375848</v>
       </c>
       <c r="BD71" s="1">
-        <v>5832.0270950261274</v>
+        <v>6048.0756338300744</v>
       </c>
       <c r="BE71" s="1">
-        <v>5822.6618927811114</v>
+        <v>6029.3452293400424</v>
       </c>
       <c r="BF71" s="1">
-        <v>5813.2966905360945</v>
+        <v>6019.9800270950254</v>
       </c>
       <c r="BG71" s="1">
-        <v>5822.6618927811114</v>
+        <v>6001.2496226049934</v>
       </c>
       <c r="BH71" s="1">
-        <v>5849.3189858718797</v>
+        <v>6004.0554286820206</v>
       </c>
       <c r="BI71" s="1">
-        <v>5858.6841881168957</v>
+        <v>5994.6902264370037</v>
       </c>
       <c r="BJ71" s="1">
-        <v>5877.4145926069286</v>
+        <v>5994.6902264370037</v>
       </c>
       <c r="BK71" s="1">
-        <v>5896.1449970969616</v>
+        <v>5994.6902264370037</v>
       </c>
       <c r="BL71" s="1">
-        <v>5950.1149603251406</v>
+        <v>6005.6150958002709</v>
       </c>
       <c r="BM71" s="1">
-        <v>5968.8453648151735</v>
+        <v>6005.6150958002709</v>
       </c>
       <c r="BN71" s="1">
-        <v>5987.5757693052064</v>
+        <v>6014.9802980452878</v>
       </c>
       <c r="BO71" s="1">
-        <v>6015.6713760402554</v>
+        <v>6014.9802980452878</v>
       </c>
       <c r="BP71" s="1">
-        <v>6108.4738532997872</v>
+        <v>6040.8565898974257</v>
       </c>
       <c r="BQ71" s="1">
-        <v>6164.6650667698859</v>
+        <v>6059.5869943874586</v>
       </c>
       <c r="BR71" s="1">
-        <v>6220.8562802399847</v>
+        <v>6078.3173988774915</v>
       </c>
       <c r="BS71" s="1">
-        <v>6305.1431004451324</v>
+        <v>6106.4130056125414</v>
       </c>
       <c r="BT71" s="1">
-        <v>6415.1011418618154</v>
+        <v>6183.6629378749758</v>
       </c>
       <c r="BU71" s="1">
-        <v>6499.3879620669632</v>
+        <v>6230.4889491000586</v>
       </c>
       <c r="BV71" s="1">
-        <v>6583.6747822721118</v>
+        <v>6277.3149603251404</v>
       </c>
       <c r="BW71" s="1">
-        <v>6667.9616024772595</v>
+        <v>6333.5061737952392</v>
       </c>
       <c r="BX71" s="1">
-        <v>6728.8014708728469</v>
+        <v>6413.7879620669637</v>
       </c>
       <c r="BY71" s="1">
-        <v>6803.7230888329786</v>
+        <v>6488.7095800270954</v>
       </c>
       <c r="BZ71" s="1">
-        <v>6878.6447067931103</v>
+        <v>6582.36160247726</v>
       </c>
       <c r="CA71" s="1">
-        <v>6962.9315269982581</v>
+        <v>6685.3788271724407</v>
       </c>
       <c r="CB71" s="1">
-        <v>7056.647029223921</v>
+        <v>6831.8010450938646</v>
       </c>
       <c r="CC71" s="1">
-        <v>7122.2034449390367</v>
+        <v>6953.548674279079</v>
       </c>
       <c r="CD71" s="1">
-        <v>7206.4902651441844</v>
+        <v>7056.5658989742597</v>
       </c>
       <c r="CE71" s="1">
-        <v>7281.4118831043161</v>
+        <v>7140.8527191794083</v>
       </c>
       <c r="CF71" s="1">
-        <v>7337.0654538416875</v>
+        <v>7203.3367137604027</v>
       </c>
       <c r="CG71" s="1">
-        <v>7393.2566673117863</v>
+        <v>7259.5279272305015</v>
       </c>
       <c r="CH71" s="1">
-        <v>7411.9870718018192</v>
+        <v>7268.8931294755175</v>
       </c>
       <c r="CI71" s="1">
-        <v>7421.3522740468361</v>
+        <v>7268.8931294755175</v>
       </c>
       <c r="CJ71" s="1">
-        <v>7379.2022450164504</v>
+        <v>7189.4282949487133</v>
       </c>
       <c r="CK71" s="1">
-        <v>7294.9154248113027</v>
+        <v>7095.7762724985487</v>
       </c>
       <c r="CL71" s="1">
-        <v>7201.2634023611381</v>
+        <v>6992.759047803368</v>
       </c>
       <c r="CM71" s="1">
-        <v>7070.1505709309076</v>
+        <v>6880.3766208631705</v>
       </c>
       <c r="CN71" s="1">
-        <v>6891.4367331139929</v>
+        <v>6690.278923940391</v>
       </c>
       <c r="CO71" s="1">
-        <v>6760.3239016837624</v>
+        <v>6540.4356880201276</v>
       </c>
       <c r="CP71" s="1">
-        <v>6610.480665763499</v>
+        <v>6390.5924520998642</v>
       </c>
       <c r="CQ71" s="1">
-        <v>6470.0026320882525</v>
+        <v>6240.7492161796017</v>
       </c>
       <c r="CR71" s="1">
-        <v>6252.2644474550034</v>
+        <v>6071.6950648345273</v>
       </c>
       <c r="CS71" s="1">
-        <v>6111.786413779756</v>
+        <v>5949.9474356493129</v>
       </c>
       <c r="CT71" s="1">
-        <v>5999.4039868395585</v>
+        <v>5846.9302109541322</v>
       </c>
       <c r="CU71" s="1">
-        <v>5896.3867621443778</v>
+        <v>5743.9129862589507</v>
       </c>
     </row>
     <row r="72" spans="2:103" ht="15.75" x14ac:dyDescent="0.25">

--- a/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
@@ -8,15 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\15 minute\postare saptamanala si zilnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020B2FA5-A099-4BF1-B510-DBC3BEEF7E41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF34CC06-7CFA-4093-9F10-F17D91D562FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valori brute (gross values)" sheetId="1" r:id="rId1"/>
     <sheet name="valori nete (net values)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1571,8 +1584,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:CY140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69:CU70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2023,298 +2036,298 @@
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C9" s="9">
         <v>45748</v>
       </c>
       <c r="D9" s="1">
+        <v>5900</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5850</v>
+      </c>
+      <c r="F9" s="1">
         <v>5800</v>
       </c>
-      <c r="E9" s="10">
+      <c r="G9" s="1">
         <v>5740</v>
       </c>
-      <c r="F9" s="1">
+      <c r="H9" s="1">
         <v>5690</v>
       </c>
-      <c r="G9" s="1">
-        <v>5640</v>
-      </c>
-      <c r="H9" s="1">
-        <v>5590</v>
-      </c>
       <c r="I9" s="1">
-        <v>5550</v>
+        <v>5650</v>
       </c>
       <c r="J9" s="1">
-        <v>5510</v>
+        <v>5610</v>
       </c>
       <c r="K9" s="1">
+        <v>5570</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5530</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5490</v>
+      </c>
+      <c r="N9" s="1">
         <v>5470</v>
       </c>
-      <c r="L9" s="1">
-        <v>5430</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5390</v>
-      </c>
-      <c r="N9" s="1">
-        <v>5370</v>
-      </c>
       <c r="O9" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="P9" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="Q9" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="R9" s="1">
-        <v>5350</v>
+        <v>5470</v>
       </c>
       <c r="S9" s="1">
-        <v>5350</v>
+        <v>5490</v>
       </c>
       <c r="T9" s="1">
-        <v>5370</v>
+        <v>5500</v>
       </c>
       <c r="U9" s="1">
-        <v>5400</v>
+        <v>5520</v>
       </c>
       <c r="V9" s="1">
-        <v>5420</v>
+        <v>5540</v>
       </c>
       <c r="W9" s="1">
-        <v>5460</v>
+        <v>5580</v>
       </c>
       <c r="X9" s="1">
-        <v>5520</v>
+        <v>5620</v>
       </c>
       <c r="Y9" s="1">
-        <v>5580</v>
+        <v>5680</v>
       </c>
       <c r="Z9" s="1">
-        <v>5650</v>
+        <v>5760</v>
       </c>
       <c r="AA9" s="1">
-        <v>5740</v>
+        <v>5870</v>
       </c>
       <c r="AB9" s="1">
-        <v>5840</v>
+        <v>5990</v>
       </c>
       <c r="AC9" s="1">
-        <v>5960</v>
+        <v>6130</v>
       </c>
       <c r="AD9" s="1">
-        <v>6080</v>
+        <v>6280</v>
       </c>
       <c r="AE9" s="1">
-        <v>6210</v>
+        <v>6440</v>
       </c>
       <c r="AF9" s="1">
-        <v>6340</v>
+        <v>6600</v>
       </c>
       <c r="AG9" s="1">
-        <v>6480</v>
+        <v>6760</v>
       </c>
       <c r="AH9" s="1">
-        <v>6620</v>
+        <v>6910</v>
       </c>
       <c r="AI9" s="1">
-        <v>6740</v>
+        <v>7040</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6860</v>
+        <v>7140</v>
       </c>
       <c r="AK9" s="1">
-        <v>6960</v>
+        <v>7230</v>
       </c>
       <c r="AL9" s="1">
-        <v>7040</v>
+        <v>7280</v>
       </c>
       <c r="AM9" s="1">
-        <v>7100</v>
+        <v>7310</v>
       </c>
       <c r="AN9" s="1">
+        <v>7310</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>7290</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>7250</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>7200</v>
+      </c>
+      <c r="AR9" s="1">
         <v>7140</v>
       </c>
-      <c r="AO9" s="1">
-        <v>7150</v>
-      </c>
-      <c r="AP9" s="1">
-        <v>7140</v>
-      </c>
-      <c r="AQ9" s="1">
-        <v>7110</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>7070</v>
-      </c>
       <c r="AS9" s="1">
-        <v>7030</v>
+        <v>7080</v>
       </c>
       <c r="AT9" s="1">
-        <v>6990</v>
+        <v>7020</v>
       </c>
       <c r="AU9" s="1">
         <v>6960</v>
       </c>
       <c r="AV9" s="1">
-        <v>6920</v>
+        <v>6910</v>
       </c>
       <c r="AW9" s="1">
-        <v>6890</v>
+        <v>6860</v>
       </c>
       <c r="AX9" s="1">
-        <v>6870</v>
+        <v>6810</v>
       </c>
       <c r="AY9" s="1">
-        <v>6850</v>
+        <v>6770</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6840</v>
+        <v>6720</v>
       </c>
       <c r="BA9" s="1">
+        <v>6670</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>6580</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>6540</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>6480</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>6460</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>6480</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>6560</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>6700</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>6770</v>
+      </c>
+      <c r="BU9" s="1">
         <v>6830</v>
       </c>
-      <c r="BB9" s="1">
-        <v>6820</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>6810</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>6800</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>6790</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>6770</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>6760</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>6740</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>6720</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>6710</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>6670</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>6640</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>6620</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>6610</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>6610</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>6620</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>6650</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>6750</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>6800</v>
-      </c>
       <c r="BV9" s="1">
-        <v>6850</v>
+        <v>6900</v>
       </c>
       <c r="BW9" s="1">
-        <v>6900</v>
+        <v>6960</v>
       </c>
       <c r="BX9" s="1">
-        <v>6950</v>
+        <v>7020</v>
       </c>
       <c r="BY9" s="1">
-        <v>7010</v>
+        <v>7070</v>
       </c>
       <c r="BZ9" s="1">
-        <v>7080</v>
+        <v>7130</v>
       </c>
       <c r="CA9" s="1">
-        <v>7170</v>
+        <v>7210</v>
       </c>
       <c r="CB9" s="1">
-        <v>7280</v>
+        <v>7290</v>
       </c>
       <c r="CC9" s="1">
-        <v>7410</v>
+        <v>7390</v>
       </c>
       <c r="CD9" s="1">
-        <v>7530</v>
+        <v>7480</v>
       </c>
       <c r="CE9" s="1">
+        <v>7550</v>
+      </c>
+      <c r="CF9" s="1">
         <v>7630</v>
       </c>
-      <c r="CF9" s="1">
-        <v>7720</v>
-      </c>
       <c r="CG9" s="1">
-        <v>7790</v>
+        <v>7690</v>
       </c>
       <c r="CH9" s="1">
-        <v>7800</v>
+        <v>7710</v>
       </c>
       <c r="CI9" s="1">
-        <v>7800</v>
+        <v>7710</v>
       </c>
       <c r="CJ9" s="1">
-        <v>7740</v>
+        <v>7650</v>
       </c>
       <c r="CK9" s="1">
-        <v>7640</v>
+        <v>7550</v>
       </c>
       <c r="CL9" s="1">
-        <v>7560</v>
+        <v>7450</v>
       </c>
       <c r="CM9" s="1">
-        <v>7430</v>
+        <v>7320</v>
       </c>
       <c r="CN9" s="1">
-        <v>7240</v>
+        <v>7160</v>
       </c>
       <c r="CO9" s="1">
-        <v>7100</v>
+        <v>7020</v>
       </c>
       <c r="CP9" s="1">
-        <v>6940</v>
+        <v>6860</v>
       </c>
       <c r="CQ9" s="1">
-        <v>6770</v>
+        <v>6700</v>
       </c>
       <c r="CR9" s="1">
-        <v>6600</v>
+        <v>6510</v>
       </c>
       <c r="CS9" s="1">
-        <v>6460</v>
+        <v>6370</v>
       </c>
       <c r="CT9" s="1">
-        <v>6350</v>
+        <v>6240</v>
       </c>
       <c r="CU9" s="1">
-        <v>6220</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="10" spans="2:99" ht="15" x14ac:dyDescent="0.2">
@@ -3206,310 +3219,892 @@
       </c>
     </row>
     <row r="13" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>45744</v>
+      </c>
       <c r="C13" s="9">
         <v>45752</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
+      <c r="D13" s="1">
+        <v>5600</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5540</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5490</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5430</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5380</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5330</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5290</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5240</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5200</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5170</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5140</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5130</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5120</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5110</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5110</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5120</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5120</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5120</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5120</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5130</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5140</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5150</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5160</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5220</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>5260</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>5290</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>5330</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>5420</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>5460</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>5500</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>5530</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>5560</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>5530</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>5490</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>5390</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>5330</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>5260</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>5210</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>5150</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>5110</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>5060</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>5020</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>4980</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>4940</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>4900</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>4860</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>4820</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>4780</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>4740</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>4720</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>4710</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>4720</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>4730</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>4760</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>4800</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>4850</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>4900</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>4960</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>5030</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>5100</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>5190</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>5280</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>5380</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>5470</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>5560</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>5650</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>5730</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>5800</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>5880</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>5970</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>6070</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>6190</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>6300</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>6400</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>6500</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>6590</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>6620</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>6620</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>6570</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>6500</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>6420</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>6320</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>6190</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>6060</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>5920</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>5780</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>5620</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>5500</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>5390</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>5280</v>
+      </c>
     </row>
     <row r="14" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>45744</v>
+      </c>
       <c r="C14" s="9">
         <v>45753</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
+      <c r="D14" s="1">
+        <v>5150</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5080</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5040</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4990</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4940</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4900</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4860</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4830</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4800</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4770</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4710</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4690</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4670</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4660</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4650</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4650</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4650</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4660</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4670</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4680</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>4690</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4700</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4710</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>4720</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>4730</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>4730</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>4740</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>4730</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>4710</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>4690</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>4660</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>4630</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>4580</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>4540</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>4500</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>4450</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>4410</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>4380</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>4350</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>4330</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>4320</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>4310</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>4290</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>4280</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>4270</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>4250</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>4230</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>4220</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>4210</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>4200</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>4210</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>4220</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>4240</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>4260</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>4290</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>4320</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>4350</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>4390</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>4430</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>4480</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>4540</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>4610</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>4690</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>4770</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>4860</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>4950</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>5030</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>5110</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>5200</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>5290</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>5380</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>5490</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>5620</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>5750</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>5870</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>5990</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>6090</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>6130</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>6130</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>6070</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>6000</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>5930</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>5830</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>5710</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>5610</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>5490</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>5380</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>5260</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>5130</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>5030</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>4920</v>
+      </c>
     </row>
     <row r="15" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>45746</v>
+      </c>
       <c r="C15" s="9">
         <v>45754</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-      <c r="CU15" s="1"/>
+      <c r="D15" s="1">
+        <v>4920</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4900</v>
+      </c>
+      <c r="F15" s="1">
+        <v>4880</v>
+      </c>
+      <c r="G15" s="1">
+        <v>4860</v>
+      </c>
+      <c r="H15" s="1">
+        <v>4830</v>
+      </c>
+      <c r="I15" s="1">
+        <v>4800</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4780</v>
+      </c>
+      <c r="K15" s="1">
+        <v>4750</v>
+      </c>
+      <c r="L15" s="1">
+        <v>4710</v>
+      </c>
+      <c r="M15" s="1">
+        <v>4690</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4670</v>
+      </c>
+      <c r="O15" s="1">
+        <v>4660</v>
+      </c>
+      <c r="P15" s="1">
+        <v>4660</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>4660</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4670</v>
+      </c>
+      <c r="S15" s="1">
+        <v>4680</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4700</v>
+      </c>
+      <c r="U15" s="1">
+        <v>4720</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4760</v>
+      </c>
+      <c r="W15" s="1">
+        <v>4800</v>
+      </c>
+      <c r="X15" s="1">
+        <v>4860</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>4940</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>5030</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5150</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>5290</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>5620</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>5800</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>6190</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>6570</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>6740</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>7100</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>7160</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>7190</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>7200</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>7190</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>7160</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>7120</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>7070</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>6960</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>6910</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>6750</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>6660</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>6560</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>6540</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>6480</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>6460</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>6460</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>6540</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>6600</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>6670</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>6720</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>6900</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>7020</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>7170</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>7310</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>7430</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>7750</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>7440</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>7270</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>7120</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>6960</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>6780</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>6610</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>6470</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>6340</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>6200</v>
+      </c>
     </row>
     <row r="16" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B16" s="8"/>
@@ -14491,298 +15086,298 @@
     </row>
     <row r="70" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="C70" s="9">
         <v>45745</v>
       </c>
       <c r="D70" s="1">
-        <v>5800</v>
+        <v>5830</v>
       </c>
       <c r="E70" s="1">
-        <v>5740</v>
+        <v>5770</v>
       </c>
       <c r="F70" s="1">
-        <v>5690</v>
+        <v>5720</v>
       </c>
       <c r="G70" s="1">
-        <v>5630</v>
+        <v>5660</v>
       </c>
       <c r="H70" s="1">
-        <v>5580</v>
+        <v>5610</v>
       </c>
       <c r="I70" s="1">
-        <v>5530</v>
+        <v>5550</v>
       </c>
       <c r="J70" s="1">
-        <v>5490</v>
+        <v>5510</v>
       </c>
       <c r="K70" s="1">
-        <v>5450</v>
+        <v>5470</v>
       </c>
       <c r="L70" s="1">
+        <v>5440</v>
+      </c>
+      <c r="M70" s="1">
         <v>5420</v>
       </c>
-      <c r="M70" s="1">
+      <c r="N70" s="1">
+        <v>5400</v>
+      </c>
+      <c r="O70" s="1">
+        <v>5380</v>
+      </c>
+      <c r="P70" s="1">
+        <v>5370</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>5360</v>
+      </c>
+      <c r="R70" s="1">
+        <v>5360</v>
+      </c>
+      <c r="S70" s="1">
+        <v>5360</v>
+      </c>
+      <c r="T70" s="1">
+        <v>5360</v>
+      </c>
+      <c r="U70" s="1">
+        <v>5370</v>
+      </c>
+      <c r="V70" s="1">
+        <v>5380</v>
+      </c>
+      <c r="W70" s="1">
         <v>5390</v>
       </c>
-      <c r="N70" s="1">
-        <v>5360</v>
-      </c>
-      <c r="O70" s="1">
-        <v>5340</v>
-      </c>
-      <c r="P70" s="1">
-        <v>5320</v>
-      </c>
-      <c r="Q70" s="1">
-        <v>5310</v>
-      </c>
-      <c r="R70" s="1">
-        <v>5300</v>
-      </c>
-      <c r="S70" s="1">
-        <v>5300</v>
-      </c>
-      <c r="T70" s="1">
-        <v>5310</v>
-      </c>
-      <c r="U70" s="1">
-        <v>5320</v>
-      </c>
-      <c r="V70" s="1">
-        <v>5340</v>
-      </c>
-      <c r="W70" s="1">
-        <v>5370</v>
-      </c>
       <c r="X70" s="1">
-        <v>5400</v>
+        <v>5410</v>
       </c>
       <c r="Y70" s="1">
         <v>5430</v>
       </c>
       <c r="Z70" s="1">
-        <v>5470</v>
+        <v>5460</v>
       </c>
       <c r="AA70" s="1">
-        <v>5500</v>
+        <v>5490</v>
       </c>
       <c r="AB70" s="1">
-        <v>5540</v>
+        <v>5530</v>
       </c>
       <c r="AC70" s="1">
         <v>5570</v>
       </c>
       <c r="AD70" s="1">
-        <v>5610</v>
+        <v>5620</v>
       </c>
       <c r="AE70" s="1">
-        <v>5650</v>
+        <v>5670</v>
       </c>
       <c r="AF70" s="1">
-        <v>5690</v>
+        <v>5730</v>
       </c>
       <c r="AG70" s="1">
-        <v>5740</v>
+        <v>5800</v>
       </c>
       <c r="AH70" s="1">
-        <v>5790</v>
+        <v>5860</v>
       </c>
       <c r="AI70" s="1">
-        <v>5860</v>
+        <v>5930</v>
       </c>
       <c r="AJ70" s="1">
-        <v>5920</v>
+        <v>5990</v>
       </c>
       <c r="AK70" s="1">
-        <v>5990</v>
+        <v>6050</v>
       </c>
       <c r="AL70" s="1">
-        <v>6050</v>
+        <v>6100</v>
       </c>
       <c r="AM70" s="1">
-        <v>6100</v>
+        <v>6140</v>
       </c>
       <c r="AN70" s="1">
-        <v>6140</v>
+        <v>6170</v>
       </c>
       <c r="AO70" s="1">
         <v>6180</v>
       </c>
       <c r="AP70" s="1">
-        <v>6200</v>
+        <v>6180</v>
       </c>
       <c r="AQ70" s="1">
-        <v>6200</v>
+        <v>6170</v>
       </c>
       <c r="AR70" s="1">
-        <v>6180</v>
+        <v>6150</v>
       </c>
       <c r="AS70" s="1">
-        <v>6160</v>
+        <v>6130</v>
       </c>
       <c r="AT70" s="1">
-        <v>6130</v>
+        <v>6110</v>
       </c>
       <c r="AU70" s="1">
-        <v>6110</v>
+        <v>6090</v>
       </c>
       <c r="AV70" s="1">
+        <v>6060</v>
+      </c>
+      <c r="AW70" s="1">
+        <v>6040</v>
+      </c>
+      <c r="AX70" s="1">
+        <v>6020</v>
+      </c>
+      <c r="AY70" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AZ70" s="1">
+        <v>5980</v>
+      </c>
+      <c r="BA70" s="1">
+        <v>5970</v>
+      </c>
+      <c r="BB70" s="1">
+        <v>5950</v>
+      </c>
+      <c r="BC70" s="1">
+        <v>5930</v>
+      </c>
+      <c r="BD70" s="1">
+        <v>5920</v>
+      </c>
+      <c r="BE70" s="1">
+        <v>5900</v>
+      </c>
+      <c r="BF70" s="1">
+        <v>5890</v>
+      </c>
+      <c r="BG70" s="1">
+        <v>5880</v>
+      </c>
+      <c r="BH70" s="1">
+        <v>5880</v>
+      </c>
+      <c r="BI70" s="1">
+        <v>5880</v>
+      </c>
+      <c r="BJ70" s="1">
+        <v>5890</v>
+      </c>
+      <c r="BK70" s="1">
+        <v>5900</v>
+      </c>
+      <c r="BL70" s="1">
+        <v>5920</v>
+      </c>
+      <c r="BM70" s="1">
+        <v>5940</v>
+      </c>
+      <c r="BN70" s="1">
+        <v>5970</v>
+      </c>
+      <c r="BO70" s="1">
+        <v>6000</v>
+      </c>
+      <c r="BP70" s="1">
+        <v>6040</v>
+      </c>
+      <c r="BQ70" s="1">
         <v>6090</v>
       </c>
-      <c r="AW70" s="1">
-        <v>6070</v>
-      </c>
-      <c r="AX70" s="1">
-        <v>6060</v>
-      </c>
-      <c r="AY70" s="1">
-        <v>6050</v>
-      </c>
-      <c r="AZ70" s="1">
-        <v>6040</v>
-      </c>
-      <c r="BA70" s="1">
-        <v>6020</v>
-      </c>
-      <c r="BB70" s="1">
-        <v>6010</v>
-      </c>
-      <c r="BC70" s="1">
-        <v>5990</v>
-      </c>
-      <c r="BD70" s="1">
-        <v>5970</v>
-      </c>
-      <c r="BE70" s="1">
-        <v>5950</v>
-      </c>
-      <c r="BF70" s="1">
-        <v>5930</v>
-      </c>
-      <c r="BG70" s="1">
-        <v>5920</v>
-      </c>
-      <c r="BH70" s="1">
-        <v>5920</v>
-      </c>
-      <c r="BI70" s="1">
-        <v>5920</v>
-      </c>
-      <c r="BJ70" s="1">
-        <v>5940</v>
-      </c>
-      <c r="BK70" s="1">
-        <v>5960</v>
-      </c>
-      <c r="BL70" s="1">
-        <v>5990</v>
-      </c>
-      <c r="BM70" s="1">
-        <v>6020</v>
-      </c>
-      <c r="BN70" s="1">
-        <v>6050</v>
-      </c>
-      <c r="BO70" s="1">
-        <v>6090</v>
-      </c>
-      <c r="BP70" s="1">
-        <v>6140</v>
-      </c>
-      <c r="BQ70" s="1">
-        <v>6190</v>
-      </c>
       <c r="BR70" s="1">
-        <v>6250</v>
+        <v>6150</v>
       </c>
       <c r="BS70" s="1">
-        <v>6320</v>
+        <v>6220</v>
       </c>
       <c r="BT70" s="1">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="BU70" s="1">
-        <v>6480</v>
+        <v>6380</v>
       </c>
       <c r="BV70" s="1">
-        <v>6560</v>
+        <v>6460</v>
       </c>
       <c r="BW70" s="1">
+        <v>6550</v>
+      </c>
+      <c r="BX70" s="1">
         <v>6640</v>
       </c>
-      <c r="BX70" s="1">
-        <v>6710</v>
-      </c>
       <c r="BY70" s="1">
-        <v>6790</v>
+        <v>6740</v>
       </c>
       <c r="BZ70" s="1">
-        <v>6880</v>
+        <v>6850</v>
       </c>
       <c r="CA70" s="1">
         <v>6960</v>
       </c>
       <c r="CB70" s="1">
-        <v>7050</v>
+        <v>7060</v>
       </c>
       <c r="CC70" s="1">
-        <v>7130</v>
+        <v>7150</v>
       </c>
       <c r="CD70" s="1">
-        <v>7150</v>
+        <v>7210</v>
       </c>
       <c r="CE70" s="1">
-        <v>7150</v>
+        <v>7240</v>
       </c>
       <c r="CF70" s="1">
-        <v>7130</v>
+        <v>7220</v>
       </c>
       <c r="CG70" s="1">
-        <v>7100</v>
+        <v>7190</v>
       </c>
       <c r="CH70" s="1">
-        <v>7050</v>
+        <v>7120</v>
       </c>
       <c r="CI70" s="1">
-        <v>6980</v>
+        <v>7040</v>
       </c>
       <c r="CJ70" s="1">
-        <v>6860</v>
+        <v>6940</v>
       </c>
       <c r="CK70" s="1">
-        <v>6750</v>
+        <v>6840</v>
       </c>
       <c r="CL70" s="1">
-        <v>6650</v>
+        <v>6740</v>
       </c>
       <c r="CM70" s="1">
-        <v>6540</v>
+        <v>6620</v>
       </c>
       <c r="CN70" s="1">
-        <v>6390</v>
+        <v>6500</v>
       </c>
       <c r="CO70" s="1">
-        <v>6260</v>
+        <v>6360</v>
       </c>
       <c r="CP70" s="1">
-        <v>6130</v>
+        <v>6220</v>
       </c>
       <c r="CQ70" s="1">
-        <v>5990</v>
+        <v>6080</v>
       </c>
       <c r="CR70" s="1">
-        <v>5850</v>
+        <v>5920</v>
       </c>
       <c r="CS70" s="1">
-        <v>5720</v>
+        <v>5800</v>
       </c>
       <c r="CT70" s="1">
-        <v>5620</v>
+        <v>5660</v>
       </c>
       <c r="CU70" s="1">
-        <v>5510</v>
+        <v>5550</v>
       </c>
       <c r="CV70" s="13"/>
       <c r="CW70" s="13"/>
@@ -14791,586 +15386,586 @@
     </row>
     <row r="71" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
-        <v>45743</v>
+        <v>45745</v>
       </c>
       <c r="C71" s="9">
         <v>45746</v>
       </c>
       <c r="D71" s="1">
-        <v>5440</v>
+        <v>5430</v>
       </c>
       <c r="E71" s="1">
-        <v>5390</v>
+        <v>5380</v>
       </c>
       <c r="F71" s="1">
-        <v>5340</v>
+        <v>5330</v>
       </c>
       <c r="G71" s="1">
         <v>5280</v>
       </c>
       <c r="H71" s="1">
-        <v>5240</v>
+        <v>5230</v>
       </c>
       <c r="I71" s="1">
-        <v>5200</v>
+        <v>5190</v>
       </c>
       <c r="J71" s="1">
-        <v>5170</v>
+        <v>5150</v>
       </c>
       <c r="K71" s="1">
-        <v>5130</v>
+        <v>5110</v>
       </c>
       <c r="L71" s="1">
-        <v>5090</v>
+        <v>5080</v>
       </c>
       <c r="M71" s="1">
-        <v>5060</v>
+        <v>5050</v>
       </c>
       <c r="N71" s="1">
         <v>5030</v>
       </c>
       <c r="O71" s="1">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
       <c r="S71" s="1"/>
       <c r="T71" s="1">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="U71" s="1">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="V71" s="1">
-        <v>4950</v>
+        <v>5000</v>
       </c>
       <c r="W71" s="1">
-        <v>4960</v>
+        <v>5010</v>
       </c>
       <c r="X71" s="1">
-        <v>4970</v>
+        <v>5030</v>
       </c>
       <c r="Y71" s="1">
-        <v>4990</v>
+        <v>5050</v>
       </c>
       <c r="Z71" s="1">
-        <v>5020</v>
+        <v>5060</v>
       </c>
       <c r="AA71" s="1">
-        <v>5040</v>
+        <v>5080</v>
       </c>
       <c r="AB71" s="1">
-        <v>5070</v>
+        <v>5110</v>
       </c>
       <c r="AC71" s="1">
-        <v>5090</v>
+        <v>5120</v>
       </c>
       <c r="AD71" s="1">
-        <v>5110</v>
+        <v>5130</v>
       </c>
       <c r="AE71" s="1">
-        <v>5130</v>
+        <v>5150</v>
       </c>
       <c r="AF71" s="1">
-        <v>5150</v>
+        <v>5190</v>
       </c>
       <c r="AG71" s="1">
-        <v>5170</v>
+        <v>5220</v>
       </c>
       <c r="AH71" s="1">
-        <v>5200</v>
+        <v>5260</v>
       </c>
       <c r="AI71" s="1">
-        <v>5230</v>
+        <v>5300</v>
       </c>
       <c r="AJ71" s="1">
+        <v>5330</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>5380</v>
+      </c>
+      <c r="AL71" s="1">
+        <v>5430</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>5480</v>
+      </c>
+      <c r="AN71" s="1">
+        <v>5520</v>
+      </c>
+      <c r="AO71" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AP71" s="1">
+        <v>5560</v>
+      </c>
+      <c r="AQ71" s="1">
+        <v>5560</v>
+      </c>
+      <c r="AR71" s="1">
+        <v>5550</v>
+      </c>
+      <c r="AS71" s="1">
+        <v>5520</v>
+      </c>
+      <c r="AT71" s="1">
+        <v>5490</v>
+      </c>
+      <c r="AU71" s="1">
+        <v>5460</v>
+      </c>
+      <c r="AV71" s="1">
+        <v>5430</v>
+      </c>
+      <c r="AW71" s="1">
+        <v>5410</v>
+      </c>
+      <c r="AX71" s="1">
+        <v>5400</v>
+      </c>
+      <c r="AY71" s="1">
+        <v>5380</v>
+      </c>
+      <c r="AZ71" s="1">
+        <v>5370</v>
+      </c>
+      <c r="BA71" s="1">
+        <v>5360</v>
+      </c>
+      <c r="BB71" s="1">
+        <v>5350</v>
+      </c>
+      <c r="BC71" s="1">
+        <v>5340</v>
+      </c>
+      <c r="BD71" s="1">
+        <v>5330</v>
+      </c>
+      <c r="BE71" s="1">
+        <v>5320</v>
+      </c>
+      <c r="BF71" s="1">
+        <v>5310</v>
+      </c>
+      <c r="BG71" s="1">
+        <v>5300</v>
+      </c>
+      <c r="BH71" s="1">
+        <v>5290</v>
+      </c>
+      <c r="BI71" s="1">
+        <v>5280</v>
+      </c>
+      <c r="BJ71" s="1">
+        <v>5270</v>
+      </c>
+      <c r="BK71" s="1">
+        <v>5260</v>
+      </c>
+      <c r="BL71" s="1">
         <v>5250</v>
       </c>
-      <c r="AK71" s="1">
-        <v>5270</v>
-      </c>
-      <c r="AL71" s="1">
-        <v>5290</v>
-      </c>
-      <c r="AM71" s="1">
+      <c r="BM71" s="1">
+        <v>5250</v>
+      </c>
+      <c r="BN71" s="1">
+        <v>5250</v>
+      </c>
+      <c r="BO71" s="1">
+        <v>5260</v>
+      </c>
+      <c r="BP71" s="1">
         <v>5300</v>
       </c>
-      <c r="AN71" s="1">
-        <v>5300</v>
-      </c>
-      <c r="AO71" s="1">
-        <v>5290</v>
-      </c>
-      <c r="AP71" s="1">
-        <v>5270</v>
-      </c>
-      <c r="AQ71" s="1">
-        <v>5250</v>
-      </c>
-      <c r="AR71" s="1">
-        <v>5200</v>
-      </c>
-      <c r="AS71" s="1">
-        <v>5150</v>
-      </c>
-      <c r="AT71" s="1">
-        <v>5100</v>
-      </c>
-      <c r="AU71" s="1">
-        <v>5050</v>
-      </c>
-      <c r="AV71" s="1">
-        <v>5010</v>
-      </c>
-      <c r="AW71" s="1">
-        <v>4980</v>
-      </c>
-      <c r="AX71" s="1">
-        <v>4950</v>
-      </c>
-      <c r="AY71" s="1">
-        <v>4940</v>
-      </c>
-      <c r="AZ71" s="1">
-        <v>4920</v>
-      </c>
-      <c r="BA71" s="1">
-        <v>4910</v>
-      </c>
-      <c r="BB71" s="1">
-        <v>4910</v>
-      </c>
-      <c r="BC71" s="1">
-        <v>4900</v>
-      </c>
-      <c r="BD71" s="1">
-        <v>4890</v>
-      </c>
-      <c r="BE71" s="1">
-        <v>4880</v>
-      </c>
-      <c r="BF71" s="1">
-        <v>4880</v>
-      </c>
-      <c r="BG71" s="1">
-        <v>4870</v>
-      </c>
-      <c r="BH71" s="1">
-        <v>4880</v>
-      </c>
-      <c r="BI71" s="1">
-        <v>4890</v>
-      </c>
-      <c r="BJ71" s="1">
-        <v>4900</v>
-      </c>
-      <c r="BK71" s="1">
-        <v>4910</v>
-      </c>
-      <c r="BL71" s="1">
-        <v>4930</v>
-      </c>
-      <c r="BM71" s="1">
-        <v>4950</v>
-      </c>
-      <c r="BN71" s="1">
-        <v>4980</v>
-      </c>
-      <c r="BO71" s="1">
-        <v>5010</v>
-      </c>
-      <c r="BP71" s="1">
-        <v>5060</v>
-      </c>
       <c r="BQ71" s="1">
-        <v>5120</v>
+        <v>5350</v>
       </c>
       <c r="BR71" s="1">
-        <v>5190</v>
+        <v>5400</v>
       </c>
       <c r="BS71" s="1">
-        <v>5280</v>
+        <v>5450</v>
       </c>
       <c r="BT71" s="1">
-        <v>5370</v>
+        <v>5510</v>
       </c>
       <c r="BU71" s="1">
-        <v>5470</v>
+        <v>5570</v>
       </c>
       <c r="BV71" s="1">
-        <v>5560</v>
+        <v>5640</v>
       </c>
       <c r="BW71" s="1">
-        <v>5650</v>
+        <v>5720</v>
       </c>
       <c r="BX71" s="1">
-        <v>5730</v>
+        <v>5800</v>
       </c>
       <c r="BY71" s="1">
-        <v>5800</v>
+        <v>5880</v>
       </c>
       <c r="BZ71" s="1">
-        <v>5880</v>
+        <v>5970</v>
       </c>
       <c r="CA71" s="1">
-        <v>5980</v>
+        <v>6060</v>
       </c>
       <c r="CB71" s="1">
-        <v>6090</v>
+        <v>6170</v>
       </c>
       <c r="CC71" s="1">
-        <v>6220</v>
+        <v>6280</v>
       </c>
       <c r="CD71" s="1">
-        <v>6350</v>
+        <v>6390</v>
       </c>
       <c r="CE71" s="1">
-        <v>6470</v>
+        <v>6520</v>
       </c>
       <c r="CF71" s="1">
-        <v>6580</v>
+        <v>6650</v>
       </c>
       <c r="CG71" s="1">
-        <v>6680</v>
+        <v>6750</v>
       </c>
       <c r="CH71" s="1">
-        <v>6700</v>
+        <v>6790</v>
       </c>
       <c r="CI71" s="1">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="CJ71" s="1">
-        <v>6680</v>
+        <v>6780</v>
       </c>
       <c r="CK71" s="1">
-        <v>6630</v>
+        <v>6720</v>
       </c>
       <c r="CL71" s="1">
-        <v>6580</v>
+        <v>6650</v>
       </c>
       <c r="CM71" s="1">
-        <v>6500</v>
+        <v>6550</v>
       </c>
       <c r="CN71" s="1">
-        <v>6380</v>
+        <v>6430</v>
       </c>
       <c r="CO71" s="1">
-        <v>6250</v>
+        <v>6310</v>
       </c>
       <c r="CP71" s="1">
-        <v>6130</v>
+        <v>6160</v>
       </c>
       <c r="CQ71" s="1">
-        <v>5980</v>
+        <v>6000</v>
       </c>
       <c r="CR71" s="1">
-        <v>5840</v>
+        <v>5860</v>
       </c>
       <c r="CS71" s="1">
-        <v>5710</v>
+        <v>5740</v>
       </c>
       <c r="CT71" s="1">
-        <v>5590</v>
+        <v>5640</v>
       </c>
       <c r="CU71" s="1">
-        <v>5480</v>
+        <v>5530</v>
       </c>
     </row>
     <row r="72" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B72" s="8">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C72" s="9">
         <v>45747</v>
       </c>
       <c r="D72" s="1">
-        <v>5340</v>
+        <v>5480</v>
       </c>
       <c r="E72" s="1">
-        <v>5290</v>
+        <v>5430</v>
       </c>
       <c r="F72" s="1">
-        <v>5240</v>
+        <v>5380</v>
       </c>
       <c r="G72" s="1">
+        <v>5320</v>
+      </c>
+      <c r="H72" s="1">
+        <v>5270</v>
+      </c>
+      <c r="I72" s="1">
+        <v>5220</v>
+      </c>
+      <c r="J72" s="1">
         <v>5180</v>
       </c>
-      <c r="H72" s="1">
+      <c r="K72" s="1">
+        <v>5140</v>
+      </c>
+      <c r="L72" s="1">
+        <v>5100</v>
+      </c>
+      <c r="M72" s="1">
+        <v>5080</v>
+      </c>
+      <c r="N72" s="1">
+        <v>5070</v>
+      </c>
+      <c r="O72" s="1">
+        <v>5060</v>
+      </c>
+      <c r="P72" s="1">
+        <v>5050</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>5050</v>
+      </c>
+      <c r="R72" s="1">
+        <v>5050</v>
+      </c>
+      <c r="S72" s="1">
+        <v>5060</v>
+      </c>
+      <c r="T72" s="1">
+        <v>5080</v>
+      </c>
+      <c r="U72" s="1">
+        <v>5110</v>
+      </c>
+      <c r="V72" s="1">
         <v>5130</v>
       </c>
-      <c r="I72" s="1">
-        <v>5090</v>
-      </c>
-      <c r="J72" s="1">
-        <v>5040</v>
-      </c>
-      <c r="K72" s="1">
-        <v>5000</v>
-      </c>
-      <c r="L72" s="1">
-        <v>4960</v>
-      </c>
-      <c r="M72" s="1">
-        <v>4930</v>
-      </c>
-      <c r="N72" s="1">
-        <v>4910</v>
-      </c>
-      <c r="O72" s="1">
-        <v>4900</v>
-      </c>
-      <c r="P72" s="1">
-        <v>4900</v>
-      </c>
-      <c r="Q72" s="1">
-        <v>4900</v>
-      </c>
-      <c r="R72" s="1">
-        <v>4910</v>
-      </c>
-      <c r="S72" s="1">
-        <v>4930</v>
-      </c>
-      <c r="T72" s="1">
-        <v>4950</v>
-      </c>
-      <c r="U72" s="1">
-        <v>4970</v>
-      </c>
-      <c r="V72" s="1">
-        <v>4990</v>
-      </c>
       <c r="W72" s="1">
-        <v>5040</v>
+        <v>5160</v>
       </c>
       <c r="X72" s="1">
-        <v>5100</v>
+        <v>5220</v>
       </c>
       <c r="Y72" s="1">
-        <v>5180</v>
+        <v>5280</v>
       </c>
       <c r="Z72" s="1">
-        <v>5280</v>
+        <v>5360</v>
       </c>
       <c r="AA72" s="1">
-        <v>5410</v>
+        <v>5470</v>
       </c>
       <c r="AB72" s="1">
-        <v>5560</v>
+        <v>5620</v>
       </c>
       <c r="AC72" s="1">
-        <v>5720</v>
+        <v>5760</v>
       </c>
       <c r="AD72" s="1">
-        <v>5890</v>
+        <v>5920</v>
       </c>
       <c r="AE72" s="1">
-        <v>6080</v>
+        <v>6100</v>
       </c>
       <c r="AF72" s="1">
-        <v>6260</v>
+        <v>6340</v>
       </c>
       <c r="AG72" s="1">
-        <v>6440</v>
+        <v>6540</v>
       </c>
       <c r="AH72" s="1">
-        <v>6600</v>
+        <v>6720</v>
       </c>
       <c r="AI72" s="1">
-        <v>6750</v>
+        <v>6880</v>
       </c>
       <c r="AJ72" s="1">
-        <v>6880</v>
+        <v>7040</v>
       </c>
       <c r="AK72" s="1">
-        <v>6980</v>
+        <v>7180</v>
       </c>
       <c r="AL72" s="1">
-        <v>7030</v>
+        <v>7260</v>
       </c>
       <c r="AM72" s="1">
-        <v>7080</v>
+        <v>7320</v>
       </c>
       <c r="AN72" s="1">
+        <v>7350</v>
+      </c>
+      <c r="AO72" s="1">
+        <v>7360</v>
+      </c>
+      <c r="AP72" s="1">
+        <v>7350</v>
+      </c>
+      <c r="AQ72" s="1">
+        <v>7340</v>
+      </c>
+      <c r="AR72" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AS72" s="1">
+        <v>7260</v>
+      </c>
+      <c r="AT72" s="1">
+        <v>7230</v>
+      </c>
+      <c r="AU72" s="1">
+        <v>7170</v>
+      </c>
+      <c r="AV72" s="1">
         <v>7100</v>
       </c>
-      <c r="AO72" s="1">
-        <v>7100</v>
-      </c>
-      <c r="AP72" s="1">
-        <v>7080</v>
-      </c>
-      <c r="AQ72" s="1">
-        <v>7040</v>
-      </c>
-      <c r="AR72" s="1">
-        <v>6980</v>
-      </c>
-      <c r="AS72" s="1">
+      <c r="AW72" s="1">
+        <v>7050</v>
+      </c>
+      <c r="AX72" s="1">
+        <v>6990</v>
+      </c>
+      <c r="AY72" s="1">
         <v>6930</v>
       </c>
-      <c r="AT72" s="1">
-        <v>6870</v>
-      </c>
-      <c r="AU72" s="1">
-        <v>6810</v>
-      </c>
-      <c r="AV72" s="1">
-        <v>6770</v>
-      </c>
-      <c r="AW72" s="1">
-        <v>6730</v>
-      </c>
-      <c r="AX72" s="1">
-        <v>6700</v>
-      </c>
-      <c r="AY72" s="1">
-        <v>6670</v>
-      </c>
       <c r="AZ72" s="1">
-        <v>6650</v>
+        <v>6860</v>
       </c>
       <c r="BA72" s="1">
-        <v>6630</v>
+        <v>6790</v>
       </c>
       <c r="BB72" s="1">
-        <v>6610</v>
+        <v>6710</v>
       </c>
       <c r="BC72" s="1">
-        <v>6590</v>
+        <v>6640</v>
       </c>
       <c r="BD72" s="1">
-        <v>6570</v>
+        <v>6580</v>
       </c>
       <c r="BE72" s="1">
         <v>6550</v>
       </c>
       <c r="BF72" s="1">
-        <v>6540</v>
+        <v>6510</v>
       </c>
       <c r="BG72" s="1">
-        <v>6520</v>
+        <v>6500</v>
       </c>
       <c r="BH72" s="1">
-        <v>6520</v>
+        <v>6490</v>
       </c>
       <c r="BI72" s="1">
-        <v>6510</v>
+        <v>6480</v>
       </c>
       <c r="BJ72" s="1">
-        <v>6510</v>
+        <v>6480</v>
       </c>
       <c r="BK72" s="1">
-        <v>6510</v>
+        <v>6490</v>
       </c>
       <c r="BL72" s="1">
         <v>6510</v>
       </c>
       <c r="BM72" s="1">
-        <v>6510</v>
+        <v>6520</v>
       </c>
       <c r="BN72" s="1">
-        <v>6520</v>
+        <v>6540</v>
       </c>
       <c r="BO72" s="1">
-        <v>6520</v>
+        <v>6560</v>
       </c>
       <c r="BP72" s="1">
-        <v>6530</v>
+        <v>6580</v>
       </c>
       <c r="BQ72" s="1">
-        <v>6550</v>
+        <v>6610</v>
       </c>
       <c r="BR72" s="1">
-        <v>6570</v>
+        <v>6660</v>
       </c>
       <c r="BS72" s="1">
-        <v>6600</v>
+        <v>6710</v>
       </c>
       <c r="BT72" s="1">
-        <v>6640</v>
+        <v>6770</v>
       </c>
       <c r="BU72" s="1">
-        <v>6690</v>
+        <v>6830</v>
       </c>
       <c r="BV72" s="1">
-        <v>6740</v>
+        <v>6900</v>
       </c>
       <c r="BW72" s="1">
-        <v>6800</v>
+        <v>6960</v>
       </c>
       <c r="BX72" s="1">
-        <v>6860</v>
+        <v>7030</v>
       </c>
       <c r="BY72" s="1">
-        <v>6940</v>
+        <v>7090</v>
       </c>
       <c r="BZ72" s="1">
-        <v>7040</v>
+        <v>7160</v>
       </c>
       <c r="CA72" s="1">
-        <v>7150</v>
+        <v>7240</v>
       </c>
       <c r="CB72" s="1">
-        <v>7280</v>
+        <v>7310</v>
       </c>
       <c r="CC72" s="1">
-        <v>7410</v>
+        <v>7380</v>
       </c>
       <c r="CD72" s="1">
-        <v>7520</v>
+        <v>7460</v>
       </c>
       <c r="CE72" s="1">
-        <v>7610</v>
+        <v>7540</v>
       </c>
       <c r="CF72" s="1">
-        <v>7680</v>
+        <v>7640</v>
       </c>
       <c r="CG72" s="1">
-        <v>7740</v>
+        <v>7700</v>
       </c>
       <c r="CH72" s="1">
-        <v>7750</v>
+        <v>7710</v>
       </c>
       <c r="CI72" s="1">
-        <v>7750</v>
+        <v>7710</v>
       </c>
       <c r="CJ72" s="1">
-        <v>7680</v>
+        <v>7660</v>
       </c>
       <c r="CK72" s="1">
-        <v>7580</v>
+        <v>7570</v>
       </c>
       <c r="CL72" s="1">
-        <v>7470</v>
+        <v>7450</v>
       </c>
       <c r="CM72" s="1">
-        <v>7350</v>
+        <v>7300</v>
       </c>
       <c r="CN72" s="1">
-        <v>7180</v>
+        <v>7140</v>
       </c>
       <c r="CO72" s="1">
-        <v>7020</v>
+        <v>7000</v>
       </c>
       <c r="CP72" s="1">
-        <v>6860</v>
+        <v>6830</v>
       </c>
       <c r="CQ72" s="1">
-        <v>6700</v>
+        <v>6660</v>
       </c>
       <c r="CR72" s="1">
-        <v>6530</v>
+        <v>6500</v>
       </c>
       <c r="CS72" s="1">
-        <v>6400</v>
+        <v>6360</v>
       </c>
       <c r="CT72" s="1">
-        <v>6290</v>
+        <v>6240</v>
       </c>
       <c r="CU72" s="1">
-        <v>6180</v>
+        <v>6120</v>
       </c>
     </row>
     <row r="73" spans="2:103" ht="15.75" x14ac:dyDescent="0.25">
@@ -33620,8 +34215,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:CY140"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68:CU69"/>
+    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -33994,298 +34589,298 @@
     </row>
     <row r="8" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C8" s="9">
         <v>45748</v>
       </c>
       <c r="D8" s="1">
-        <v>5447.1794077801433</v>
+        <v>5555.9713566866658</v>
       </c>
       <c r="E8" s="10">
-        <v>5390.9881943100445</v>
+        <v>5509.145345461583</v>
       </c>
       <c r="F8" s="1">
-        <v>5344.1621830849626</v>
+        <v>5462.3193342365012</v>
       </c>
       <c r="G8" s="1">
-        <v>5297.3361718598799</v>
+        <v>5406.1281207664024</v>
       </c>
       <c r="H8" s="1">
-        <v>5244.6700212889491</v>
+        <v>5389.6708341397325</v>
       </c>
       <c r="I8" s="1">
-        <v>5207.2092123088833</v>
+        <v>5352.2100251596676</v>
       </c>
       <c r="J8" s="1">
-        <v>5169.7484033288174</v>
+        <v>5314.7492161796017</v>
       </c>
       <c r="K8" s="1">
-        <v>5132.2875943487516</v>
+        <v>5277.2884071995359</v>
       </c>
       <c r="L8" s="1">
-        <v>5094.0015482872077</v>
+        <v>5241.1225856396359</v>
       </c>
       <c r="M8" s="1">
-        <v>5056.5407393071418</v>
+        <v>5203.66177665957</v>
       </c>
       <c r="N8" s="1">
-        <v>5037.8103348171089</v>
+        <v>5184.9313721695371</v>
       </c>
       <c r="O8" s="1">
-        <v>5028.445132572092</v>
+        <v>5175.5661699245211</v>
       </c>
       <c r="P8" s="1">
-        <v>5031.2382426940194</v>
+        <v>5175.1472034062317</v>
       </c>
       <c r="Q8" s="1">
-        <v>5031.2382426940194</v>
+        <v>5175.1472034062317</v>
       </c>
       <c r="R8" s="1">
-        <v>5021.8730404490034</v>
+        <v>5184.5124056512486</v>
       </c>
       <c r="S8" s="1">
-        <v>5021.8730404490034</v>
+        <v>5203.2428101412816</v>
       </c>
       <c r="T8" s="1">
-        <v>5042.8252370814789</v>
+        <v>5215.2043352041801</v>
       </c>
       <c r="U8" s="1">
-        <v>5070.9208438165278</v>
+        <v>5233.934739694213</v>
       </c>
       <c r="V8" s="1">
-        <v>5089.6512483065608</v>
+        <v>5252.6651441842459</v>
       </c>
       <c r="W8" s="1">
-        <v>5127.1120572866266</v>
+        <v>5290.1259531643118</v>
       </c>
       <c r="X8" s="1">
-        <v>5181.97019547126</v>
+        <v>5329.738726533772</v>
       </c>
       <c r="Y8" s="1">
-        <v>5238.1614089413588</v>
+        <v>5385.9299400038708</v>
       </c>
       <c r="Z8" s="1">
-        <v>5303.7178246564736</v>
+        <v>5460.8515579640025</v>
       </c>
       <c r="AA8" s="1">
-        <v>5388.0046448616222</v>
+        <v>5563.8687826591831</v>
       </c>
       <c r="AB8" s="1">
-        <v>5478.9270369653568</v>
+        <v>5708.7909425198377</v>
       </c>
       <c r="AC8" s="1">
-        <v>5591.3094639055544</v>
+        <v>5839.9037739500673</v>
       </c>
       <c r="AD8" s="1">
-        <v>5703.6918908457519</v>
+        <v>5980.3818076253137</v>
       </c>
       <c r="AE8" s="1">
-        <v>5825.4395200309655</v>
+        <v>6130.2250435455771</v>
       </c>
       <c r="AF8" s="1">
-        <v>5946.9332301141867</v>
+        <v>6284.8229146506674</v>
       </c>
       <c r="AG8" s="1">
-        <v>6078.0460615444163</v>
+        <v>6434.6661505709308</v>
       </c>
       <c r="AH8" s="1">
-        <v>6209.1588929746467</v>
+        <v>6575.1441842461782</v>
       </c>
       <c r="AI8" s="1">
-        <v>6321.5413199148443</v>
+        <v>6696.8918134313917</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6442.8743952003097</v>
+        <v>6804.1158118831045</v>
       </c>
       <c r="AK8" s="1">
-        <v>6536.5264176504743</v>
+        <v>6888.4026320882522</v>
       </c>
       <c r="AL8" s="1">
-        <v>6611.448035610606</v>
+        <v>6935.2286433133349</v>
       </c>
       <c r="AM8" s="1">
-        <v>6667.6392490807048</v>
+        <v>6963.3242500483839</v>
       </c>
       <c r="AN8" s="1">
-        <v>6692.7215018385914</v>
+        <v>6954.1895103541719</v>
       </c>
       <c r="AO8" s="1">
-        <v>6702.0867040836074</v>
+        <v>6935.4591058641381</v>
       </c>
       <c r="AP8" s="1">
-        <v>6692.7215018385914</v>
+        <v>6897.9982968840723</v>
       </c>
       <c r="AQ8" s="1">
-        <v>6664.6258951035416</v>
+        <v>6851.1722856589895</v>
       </c>
       <c r="AR8" s="1">
-        <v>6623.9276175730602</v>
+        <v>6769.6589897425974</v>
       </c>
       <c r="AS8" s="1">
-        <v>6586.4668085929943</v>
+        <v>6713.4677762724987</v>
       </c>
       <c r="AT8" s="1">
-        <v>6549.0059996129285</v>
+        <v>6657.2765628023999</v>
       </c>
       <c r="AU8" s="1">
-        <v>6520.9103928778786</v>
+        <v>6601.0853493323011</v>
       </c>
       <c r="AV8" s="1">
-        <v>6484.2748209792917</v>
+        <v>6525.3823882330171</v>
       </c>
       <c r="AW8" s="1">
-        <v>6456.1792142442428</v>
+        <v>6478.5563770079352</v>
       </c>
       <c r="AX8" s="1">
-        <v>6437.4488097542098</v>
+        <v>6431.7303657828525</v>
       </c>
       <c r="AY8" s="1">
-        <v>6418.7184052641769</v>
+        <v>6394.2695568027866</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6405.4809367137605</v>
+        <v>6340.4353783626866</v>
       </c>
       <c r="BA8" s="1">
-        <v>6396.1157344687444</v>
+        <v>6293.6093671376038</v>
       </c>
       <c r="BB8" s="1">
-        <v>6386.7505322237275</v>
+        <v>6246.783355912522</v>
       </c>
       <c r="BC8" s="1">
-        <v>6377.3853299787115</v>
+        <v>6209.3225469324561</v>
       </c>
       <c r="BD8" s="1">
-        <v>6368.0836075091929</v>
+        <v>6167.786336365396</v>
       </c>
       <c r="BE8" s="1">
-        <v>6358.7184052641769</v>
+        <v>6130.3255273853301</v>
       </c>
       <c r="BF8" s="1">
-        <v>6339.988000774144</v>
+        <v>6111.5951228952972</v>
       </c>
       <c r="BG8" s="1">
-        <v>6330.6227985291271</v>
+        <v>6102.2299206502803</v>
       </c>
       <c r="BH8" s="1">
-        <v>6314.1141861815368</v>
+        <v>6092.6107993032711</v>
       </c>
       <c r="BI8" s="1">
-        <v>6295.3837816915038</v>
+        <v>6101.9760015482871</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6286.0185794464878</v>
+        <v>6101.9760015482871</v>
       </c>
       <c r="BK8" s="1">
-        <v>6267.2881749564549</v>
+        <v>6111.341203793304</v>
       </c>
       <c r="BL8" s="1">
-        <v>6250.6526030578671</v>
+        <v>6127.3717824656478</v>
       </c>
       <c r="BM8" s="1">
-        <v>6222.5569963228181</v>
+        <v>6146.1021869556807</v>
       </c>
       <c r="BN8" s="1">
-        <v>6203.8265918327852</v>
+        <v>6155.4673892006967</v>
       </c>
       <c r="BO8" s="1">
-        <v>6194.4613895877683</v>
+        <v>6164.8325914457137</v>
       </c>
       <c r="BP8" s="1">
-        <v>6200.1745693826206</v>
+        <v>6211.1659376814396</v>
       </c>
       <c r="BQ8" s="1">
-        <v>6209.5397716276366</v>
+        <v>6239.2615444164894</v>
       </c>
       <c r="BR8" s="1">
-        <v>6237.6353783626864</v>
+        <v>6286.0875556415713</v>
       </c>
       <c r="BS8" s="1">
-        <v>6275.0961873427523</v>
+        <v>6342.27876911167</v>
       </c>
       <c r="BT8" s="1">
-        <v>6344.7451132185024</v>
+        <v>6434.3252951422492</v>
       </c>
       <c r="BU8" s="1">
-        <v>6391.5711244435843</v>
+        <v>6490.516508612347</v>
       </c>
       <c r="BV8" s="1">
-        <v>6438.397135668667</v>
+        <v>6556.0729243274618</v>
       </c>
       <c r="BW8" s="1">
-        <v>6485.2231468937489</v>
+        <v>6612.2641377975615</v>
       </c>
       <c r="BX8" s="1">
-        <v>6536.3657828527193</v>
+        <v>6683.1064834526805</v>
       </c>
       <c r="BY8" s="1">
-        <v>6592.5569963228181</v>
+        <v>6729.9324946777633</v>
       </c>
       <c r="BZ8" s="1">
-        <v>6658.1134120379329</v>
+        <v>6786.1237081478612</v>
       </c>
       <c r="CA8" s="1">
-        <v>6742.4002322430815</v>
+        <v>6861.0453261079929</v>
       </c>
       <c r="CB8" s="1">
-        <v>6842.8147861428297</v>
+        <v>6958.1658215598982</v>
       </c>
       <c r="CC8" s="1">
-        <v>6964.5624153280432</v>
+        <v>7051.8178440100637</v>
       </c>
       <c r="CD8" s="1">
-        <v>7076.9448422682408</v>
+        <v>7136.1046642152123</v>
       </c>
       <c r="CE8" s="1">
-        <v>7170.5968647184054</v>
+        <v>7201.6610799303271</v>
       </c>
       <c r="CF8" s="1">
-        <v>7257.1054770659957</v>
+        <v>7286.0983162376624</v>
       </c>
       <c r="CG8" s="1">
-        <v>7322.6618927811114</v>
+        <v>7342.2895297077612</v>
       </c>
       <c r="CH8" s="1">
-        <v>7332.0270950261274</v>
+        <v>7361.0199341977941</v>
       </c>
       <c r="CI8" s="1">
-        <v>7332.0270950261274</v>
+        <v>7361.0199341977941</v>
       </c>
       <c r="CJ8" s="1">
-        <v>7272.6618927811114</v>
+        <v>7284.5913682988194</v>
       </c>
       <c r="CK8" s="1">
-        <v>7179.0098703309468</v>
+        <v>7190.9393458486547</v>
       </c>
       <c r="CL8" s="1">
-        <v>7104.0882523708151</v>
+        <v>7097.2873233984901</v>
       </c>
       <c r="CM8" s="1">
-        <v>6982.3406231856006</v>
+        <v>6975.5396942132766</v>
       </c>
       <c r="CN8" s="1">
-        <v>6792.4675827365982</v>
+        <v>6799.0666924714533</v>
       </c>
       <c r="CO8" s="1">
-        <v>6661.3547513063677</v>
+        <v>6667.9538610412228</v>
       </c>
       <c r="CP8" s="1">
-        <v>6511.5115153861043</v>
+        <v>6518.1106251209603</v>
       </c>
       <c r="CQ8" s="1">
-        <v>6352.3030772208249</v>
+        <v>6368.2673892006969</v>
       </c>
       <c r="CR8" s="1">
-        <v>6190.1110896071223</v>
+        <v>6165.9650087091159</v>
       </c>
       <c r="CS8" s="1">
-        <v>6058.9982581768918</v>
+        <v>6034.8521772788863</v>
       </c>
       <c r="CT8" s="1">
-        <v>5955.9810334817112</v>
+        <v>5913.1045480936718</v>
       </c>
       <c r="CU8" s="1">
-        <v>5834.2334042964967</v>
+        <v>5800.7221211534743</v>
       </c>
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
@@ -35177,310 +35772,892 @@
       </c>
     </row>
     <row r="12" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="8"/>
+      <c r="B12" s="8">
+        <v>45744</v>
+      </c>
       <c r="C12" s="9">
         <v>45752</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="1"/>
-      <c r="AO12" s="1"/>
-      <c r="AP12" s="1"/>
-      <c r="AQ12" s="1"/>
-      <c r="AR12" s="1"/>
-      <c r="AS12" s="1"/>
-      <c r="AT12" s="1"/>
-      <c r="AU12" s="1"/>
-      <c r="AV12" s="1"/>
-      <c r="AW12" s="1"/>
-      <c r="AX12" s="1"/>
-      <c r="AY12" s="1"/>
-      <c r="AZ12" s="1"/>
-      <c r="BA12" s="1"/>
-      <c r="BB12" s="1"/>
-      <c r="BC12" s="1"/>
-      <c r="BD12" s="1"/>
-      <c r="BE12" s="1"/>
-      <c r="BF12" s="1"/>
-      <c r="BG12" s="1"/>
-      <c r="BH12" s="1"/>
-      <c r="BI12" s="1"/>
-      <c r="BJ12" s="1"/>
-      <c r="BK12" s="1"/>
-      <c r="BL12" s="1"/>
-      <c r="BM12" s="1"/>
-      <c r="BN12" s="1"/>
-      <c r="BO12" s="1"/>
-      <c r="BP12" s="1"/>
-      <c r="BQ12" s="1"/>
-      <c r="BR12" s="1"/>
-      <c r="BS12" s="1"/>
-      <c r="BT12" s="1"/>
-      <c r="BU12" s="1"/>
-      <c r="BV12" s="1"/>
-      <c r="BW12" s="1"/>
-      <c r="BX12" s="1"/>
-      <c r="BY12" s="1"/>
-      <c r="BZ12" s="1"/>
-      <c r="CA12" s="1"/>
-      <c r="CB12" s="1"/>
-      <c r="CC12" s="1"/>
-      <c r="CD12" s="1"/>
-      <c r="CE12" s="1"/>
-      <c r="CF12" s="1"/>
-      <c r="CG12" s="1"/>
-      <c r="CH12" s="1"/>
-      <c r="CI12" s="1"/>
-      <c r="CJ12" s="1"/>
-      <c r="CK12" s="1"/>
-      <c r="CL12" s="1"/>
-      <c r="CM12" s="1"/>
-      <c r="CN12" s="1"/>
-      <c r="CO12" s="1"/>
-      <c r="CP12" s="1"/>
-      <c r="CQ12" s="1"/>
-      <c r="CR12" s="1"/>
-      <c r="CS12" s="1"/>
-      <c r="CT12" s="1"/>
-      <c r="CU12" s="1"/>
+      <c r="D12" s="1">
+        <v>5251.4960325140319</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5195.3048190439331</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5148.4788078188503</v>
+      </c>
+      <c r="G12" s="1">
+        <v>5092.2875943487516</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5048.445132572092</v>
+      </c>
+      <c r="I12" s="1">
+        <v>5001.6191213470102</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4964.1583123669443</v>
+      </c>
+      <c r="K12" s="1">
+        <v>4917.3323011418615</v>
+      </c>
+      <c r="L12" s="1">
+        <v>4881.1410876717628</v>
+      </c>
+      <c r="M12" s="1">
+        <v>4853.0454809367138</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4824.9498742016649</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4815.584671956648</v>
+      </c>
+      <c r="P12" s="1">
+        <v>4805.0768337526615</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>4795.7116315076446</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4795.7116315076446</v>
+      </c>
+      <c r="S12" s="1">
+        <v>4805.0768337526615</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4804.6324753241724</v>
+      </c>
+      <c r="U12" s="1">
+        <v>4804.6324753241724</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4804.6324753241724</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4813.9976775691894</v>
+      </c>
+      <c r="X12" s="1">
+        <v>4822.5376427327274</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>4831.9028449777434</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>4841.2680472227603</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>4859.9984517127932</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>4873.460034836462</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>4892.1904393264949</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>4929.6512483065608</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>4957.7468550416106</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>5003.0156764079738</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>5040.4764853880397</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>5087.3024966131215</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>5124.7633055931874</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>5162.2241145732532</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>5190.3197213083031</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>5209.050125798336</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>5218.415328043352</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>5199.0838010450943</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>5180.3533965550614</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>5142.8925875749956</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>5096.0665763499128</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>5060.0956067350498</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>5003.9043932649511</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>4938.3479775498354</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>4891.5219663247535</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>4832.3472034062315</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>4794.8863944261657</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>4748.0603832010838</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>4710.599574221018</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>4673.7735629959361</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>4636.3127540158703</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>4598.8519450358044</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>4561.3911360557386</v>
+      </c>
+      <c r="BD12" s="1">
+        <v>4521.5815753822335</v>
+      </c>
+      <c r="BE12" s="1">
+        <v>4484.1207664021676</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>4446.6599574221018</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>4427.9295529320689</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>4412.5972517902073</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>4421.9624540352233</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>4431.3276562802403</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>4459.4232630152892</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>4500.3119798722664</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>4547.1379910973483</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>4593.964002322431</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>4650.1552157925298</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>4706.3801045093869</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>4771.9365202245017</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>4856.2233404296494</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>4940.510160634798</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>5043.430230307722</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>5127.7170505128706</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>5212.0038707180183</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>5296.290690923166</v>
+      </c>
+      <c r="BX12" s="1">
+        <v>5369.3079156183476</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>5434.8643313334624</v>
+      </c>
+      <c r="BZ12" s="1">
+        <v>5509.7859492935941</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>5594.0727694987418</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>5691.9144571317984</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>5804.296884071995</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>5907.3141087671765</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>6000.9661312173412</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>6092.14244242307</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>6176.4292626282177</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>6204.5248693632666</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>6204.5248693632666</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>6159.1588929746467</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>6093.602477259532</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>6018.6808592994003</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>5925.0288368492356</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>5807.7247919489064</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>5685.9771627636928</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>5554.8643313334624</v>
+      </c>
+      <c r="CQ12" s="1">
+        <v>5423.7514999032319</v>
+      </c>
+      <c r="CR12" s="1">
+        <v>5262.2279852912716</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>5149.845558351074</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>5046.8283336558934</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>4943.8111089607119</v>
+      </c>
     </row>
     <row r="13" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="8"/>
+      <c r="B13" s="8">
+        <v>45744</v>
+      </c>
       <c r="C13" s="9">
         <v>45753</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1"/>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="1"/>
-      <c r="AO13" s="1"/>
-      <c r="AP13" s="1"/>
-      <c r="AQ13" s="1"/>
-      <c r="AR13" s="1"/>
-      <c r="AS13" s="1"/>
-      <c r="AT13" s="1"/>
-      <c r="AU13" s="1"/>
-      <c r="AV13" s="1"/>
-      <c r="AW13" s="1"/>
-      <c r="AX13" s="1"/>
-      <c r="AY13" s="1"/>
-      <c r="AZ13" s="1"/>
-      <c r="BA13" s="1"/>
-      <c r="BB13" s="1"/>
-      <c r="BC13" s="1"/>
-      <c r="BD13" s="1"/>
-      <c r="BE13" s="1"/>
-      <c r="BF13" s="1"/>
-      <c r="BG13" s="1"/>
-      <c r="BH13" s="1"/>
-      <c r="BI13" s="1"/>
-      <c r="BJ13" s="1"/>
-      <c r="BK13" s="1"/>
-      <c r="BL13" s="1"/>
-      <c r="BM13" s="1"/>
-      <c r="BN13" s="1"/>
-      <c r="BO13" s="1"/>
-      <c r="BP13" s="1"/>
-      <c r="BQ13" s="1"/>
-      <c r="BR13" s="1"/>
-      <c r="BS13" s="1"/>
-      <c r="BT13" s="1"/>
-      <c r="BU13" s="1"/>
-      <c r="BV13" s="1"/>
-      <c r="BW13" s="1"/>
-      <c r="BX13" s="1"/>
-      <c r="BY13" s="1"/>
-      <c r="BZ13" s="1"/>
-      <c r="CA13" s="1"/>
-      <c r="CB13" s="1"/>
-      <c r="CC13" s="1"/>
-      <c r="CD13" s="1"/>
-      <c r="CE13" s="1"/>
-      <c r="CF13" s="1"/>
-      <c r="CG13" s="1"/>
-      <c r="CH13" s="1"/>
-      <c r="CI13" s="1"/>
-      <c r="CJ13" s="1"/>
-      <c r="CK13" s="1"/>
-      <c r="CL13" s="1"/>
-      <c r="CM13" s="1"/>
-      <c r="CN13" s="1"/>
-      <c r="CO13" s="1"/>
-      <c r="CP13" s="1"/>
-      <c r="CQ13" s="1"/>
-      <c r="CR13" s="1"/>
-      <c r="CS13" s="1"/>
-      <c r="CT13" s="1"/>
-      <c r="CU13" s="1"/>
+      <c r="D13" s="1">
+        <v>4778.2814786142826</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4712.7250628991678</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4675.264253919102</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4628.4382426940201</v>
+      </c>
+      <c r="H13" s="1">
+        <v>4582.7929552932073</v>
+      </c>
+      <c r="I13" s="1">
+        <v>4545.3321463131415</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4507.8713373330756</v>
+      </c>
+      <c r="K13" s="1">
+        <v>4479.7757305980258</v>
+      </c>
+      <c r="L13" s="1">
+        <v>4459.875362879814</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4431.7797561447651</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4403.6841494097152</v>
+      </c>
+      <c r="O13" s="1">
+        <v>4375.5885426746663</v>
+      </c>
+      <c r="P13" s="1">
+        <v>4353.1318753628802</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>4334.4014708728473</v>
+      </c>
+      <c r="R13" s="1">
+        <v>4325.0362686278304</v>
+      </c>
+      <c r="S13" s="1">
+        <v>4315.6710663828144</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4326.6721114766788</v>
+      </c>
+      <c r="U13" s="1">
+        <v>4326.6721114766788</v>
+      </c>
+      <c r="V13" s="1">
+        <v>4336.0373137216957</v>
+      </c>
+      <c r="W13" s="1">
+        <v>4345.4025159667117</v>
+      </c>
+      <c r="X13" s="1">
+        <v>4369.7045093864908</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>4379.0697116315077</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>4388.4349138765238</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>4397.8001161215407</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>4415.424037158893</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>4424.7892394039091</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>4424.7892394039091</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>4434.154441648926</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>4432.2183084962262</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>4432.2183084962262</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>4432.2183084962262</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>4432.2183084962262</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>4413.3247919489067</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>4394.5943874588738</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>4375.8639829688409</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>4347.7683762337911</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>4317.7429843235923</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>4270.9169730985095</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>4233.4561641184437</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>4195.9953551383778</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>4135.3434488097546</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>4097.8826398296887</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>4069.7870330946389</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>4041.69142635959</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>3992.1733307528548</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>3982.8081285078379</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>3973.4429262628219</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>3954.7125217727889</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>3957.338649119411</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>3947.973446874395</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>3929.2430423843621</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>3910.5126378943291</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>3884.065028062706</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>3874.6998258176891</v>
+      </c>
+      <c r="BF13" s="1">
+        <v>3865.3346235726731</v>
+      </c>
+      <c r="BG13" s="1">
+        <v>3874.6998258176891</v>
+      </c>
+      <c r="BH13" s="1">
+        <v>3901.3569189084578</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>3920.0873233984908</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>3938.8177278885237</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>3966.9133346235735</v>
+      </c>
+      <c r="BL13" s="1">
+        <v>4020.8832978517512</v>
+      </c>
+      <c r="BM13" s="1">
+        <v>4048.978904586801</v>
+      </c>
+      <c r="BN13" s="1">
+        <v>4086.4397135668669</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>4123.9005225469327</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>4226.0682020514805</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>4282.2594155215793</v>
+      </c>
+      <c r="BR13" s="1">
+        <v>4347.8158312366941</v>
+      </c>
+      <c r="BS13" s="1">
+        <v>4422.7374491968258</v>
+      </c>
+      <c r="BT13" s="1">
+        <v>4523.3302883684928</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>4607.6171085736405</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>4691.9039287787891</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>4766.8255467389199</v>
+      </c>
+      <c r="BX13" s="1">
+        <v>4837.0306173795243</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>4921.317437584672</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>5005.6042577898197</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>5089.8910779949683</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>5192.9717824656473</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>5314.7194116508617</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>5436.4670408360753</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>5548.8494677762728</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>5651.329049738727</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>5744.9810721888907</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>5782.4418811689566</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>5782.4418811689566</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>5712.1962454035229</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>5646.6398296884072</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>5581.0834139732924</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>5487.4313915231278</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>5346.178362686278</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>5252.5263402361143</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>5140.1439132959167</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>5037.1266886007352</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>4903.6753241726337</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>4781.9276949874202</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>4688.2756725372556</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>4585.2584478420749</v>
+      </c>
     </row>
     <row r="14" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="8"/>
+      <c r="B14" s="8">
+        <v>45746</v>
+      </c>
       <c r="C14" s="9">
         <v>45754</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="1"/>
-      <c r="AO14" s="1"/>
-      <c r="AP14" s="1"/>
-      <c r="AQ14" s="1"/>
-      <c r="AR14" s="1"/>
-      <c r="AS14" s="1"/>
-      <c r="AT14" s="1"/>
-      <c r="AU14" s="1"/>
-      <c r="AV14" s="1"/>
-      <c r="AW14" s="1"/>
-      <c r="AX14" s="1"/>
-      <c r="AY14" s="1"/>
-      <c r="AZ14" s="1"/>
-      <c r="BA14" s="1"/>
-      <c r="BB14" s="1"/>
-      <c r="BC14" s="1"/>
-      <c r="BD14" s="1"/>
-      <c r="BE14" s="1"/>
-      <c r="BF14" s="1"/>
-      <c r="BG14" s="1"/>
-      <c r="BH14" s="1"/>
-      <c r="BI14" s="1"/>
-      <c r="BJ14" s="1"/>
-      <c r="BK14" s="1"/>
-      <c r="BL14" s="1"/>
-      <c r="BM14" s="1"/>
-      <c r="BN14" s="1"/>
-      <c r="BO14" s="1"/>
-      <c r="BP14" s="1"/>
-      <c r="BQ14" s="1"/>
-      <c r="BR14" s="1"/>
-      <c r="BS14" s="1"/>
-      <c r="BT14" s="1"/>
-      <c r="BU14" s="1"/>
-      <c r="BV14" s="1"/>
-      <c r="BW14" s="1"/>
-      <c r="BX14" s="1"/>
-      <c r="BY14" s="1"/>
-      <c r="BZ14" s="1"/>
-      <c r="CA14" s="1"/>
-      <c r="CB14" s="1"/>
-      <c r="CC14" s="1"/>
-      <c r="CD14" s="1"/>
-      <c r="CE14" s="1"/>
-      <c r="CF14" s="1"/>
-      <c r="CG14" s="1"/>
-      <c r="CH14" s="1"/>
-      <c r="CI14" s="1"/>
-      <c r="CJ14" s="1"/>
-      <c r="CK14" s="1"/>
-      <c r="CL14" s="1"/>
-      <c r="CM14" s="1"/>
-      <c r="CN14" s="1"/>
-      <c r="CO14" s="1"/>
-      <c r="CP14" s="1"/>
-      <c r="CQ14" s="1"/>
-      <c r="CR14" s="1"/>
-      <c r="CS14" s="1"/>
-      <c r="CT14" s="1"/>
-      <c r="CU14" s="1"/>
+      <c r="D14" s="1">
+        <v>4641.0508225275789</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4622.320418037546</v>
+      </c>
+      <c r="F14" s="1">
+        <v>4603.5900135475131</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4584.8596090574802</v>
+      </c>
+      <c r="H14" s="1">
+        <v>4547.7689181343139</v>
+      </c>
+      <c r="I14" s="1">
+        <v>4519.673311399265</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4500.9429069092321</v>
+      </c>
+      <c r="K14" s="1">
+        <v>4472.8473001741822</v>
+      </c>
+      <c r="L14" s="1">
+        <v>4435.3864911941164</v>
+      </c>
+      <c r="M14" s="1">
+        <v>4416.6560867040835</v>
+      </c>
+      <c r="N14" s="1">
+        <v>4397.9256822140505</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4388.5604799690345</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4388.5604799690345</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4388.5604799690345</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4397.9256822140505</v>
+      </c>
+      <c r="S14" s="1">
+        <v>4407.2908844590675</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4427.4178440100641</v>
+      </c>
+      <c r="U14" s="1">
+        <v>4446.148248500097</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4483.6090574801628</v>
+      </c>
+      <c r="W14" s="1">
+        <v>4521.0698664602287</v>
+      </c>
+      <c r="X14" s="1">
+        <v>4577.2610799303275</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>4652.1826978904592</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>4736.4695180956069</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>4848.8519450358044</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>4979.9647764660349</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>5120.4428101412814</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>5289.0164505515777</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>5457.5900909618731</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>5644.8941358622023</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>5822.8329785175147</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>6010.1370234178439</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>6178.7106638281402</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>6337.9191019934196</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>6469.0319334236501</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>6581.4143603638477</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>6675.0663828140123</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>6729.8610412231474</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>6757.9566479581963</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>6767.3218502032132</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>6757.9566479581963</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>6729.5436423456549</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>6692.0828333655891</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>6645.2568221405072</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>6598.4308109154244</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>6542.2395974453266</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>6495.4135862202438</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>6439.222372750145</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>6392.3963615250632</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>6345.5703502999804</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>6308.1095413199146</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>6261.2835300948327</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>6223.8227211147669</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>6195.7271143797179</v>
+      </c>
+      <c r="BE14" s="1">
+        <v>6167.6315076446681</v>
+      </c>
+      <c r="BF14" s="1">
+        <v>6148.9011031546352</v>
+      </c>
+      <c r="BG14" s="1">
+        <v>6130.1706986646022</v>
+      </c>
+      <c r="BH14" s="1">
+        <v>6120.8054964195862</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>6120.8054964195862</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>6111.4402941745693</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>6111.4402941745693</v>
+      </c>
+      <c r="BL14" s="1">
+        <v>6102.0750919295533</v>
+      </c>
+      <c r="BM14" s="1">
+        <v>6092.7098896845364</v>
+      </c>
+      <c r="BN14" s="1">
+        <v>6083.3446874395204</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>6073.9794851945035</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>6073.9794851945035</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>6083.3446874395204</v>
+      </c>
+      <c r="BR14" s="1">
+        <v>6102.0750919295533</v>
+      </c>
+      <c r="BS14" s="1">
+        <v>6120.8054964195862</v>
+      </c>
+      <c r="BT14" s="1">
+        <v>6148.9011031546352</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>6176.996709889685</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>6205.0923166247339</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>6233.1879233597829</v>
+      </c>
+      <c r="BX14" s="1">
+        <v>6270.9661312173412</v>
+      </c>
+      <c r="BY14" s="1">
+        <v>6317.792142442423</v>
+      </c>
+      <c r="BZ14" s="1">
+        <v>6392.7137604025547</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>6486.3657828527193</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>6598.7482097929169</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>6739.2262434681634</v>
+      </c>
+      <c r="CD14" s="1">
+        <v>6870.3390748983938</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>6982.7215018385914</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>7105.8656860847686</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>7199.5177085349333</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>7255.708922005032</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>7283.804528740081</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>7255.708922005032</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>7199.5177085349333</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>7105.8656860847686</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>6993.4832591445711</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>6834.2748209792917</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>6693.7967873040452</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>6543.9535513837818</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>6375.3799109734855</v>
+      </c>
+      <c r="CR14" s="1">
+        <v>6214.7749177472424</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>6083.6620863170119</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>5961.9144571317984</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>5830.8016257015679</v>
+      </c>
     </row>
     <row r="15" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="8"/>
@@ -46456,298 +47633,298 @@
     </row>
     <row r="69" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B69" s="8">
-        <v>45743</v>
+        <v>45744</v>
       </c>
       <c r="C69" s="9">
         <v>45745</v>
       </c>
       <c r="D69" s="1">
-        <v>5456.1935359009094</v>
+        <v>5389.6471453454615</v>
       </c>
       <c r="E69" s="1">
-        <v>5400.0023224308106</v>
+        <v>5333.4559318753618</v>
       </c>
       <c r="F69" s="1">
-        <v>5353.1763112057288</v>
+        <v>5286.6299206502808</v>
       </c>
       <c r="G69" s="1">
-        <v>5296.98509773563</v>
+        <v>5230.4387071801812</v>
       </c>
       <c r="H69" s="1">
-        <v>5185.0732726920842</v>
+        <v>5192.937874975808</v>
       </c>
       <c r="I69" s="1">
-        <v>5138.2472614670023</v>
+        <v>5136.7466615057092</v>
       </c>
       <c r="J69" s="1">
-        <v>5100.7864524869365</v>
+        <v>5099.2858525256433</v>
       </c>
       <c r="K69" s="1">
-        <v>5063.3256435068706</v>
+        <v>5061.8250435455775</v>
       </c>
       <c r="L69" s="1">
-        <v>5021.4422295335789</v>
+        <v>5034.3769305206115</v>
       </c>
       <c r="M69" s="1">
-        <v>4993.3466227985291</v>
+        <v>5015.6465260305786</v>
       </c>
       <c r="N69" s="1">
-        <v>4965.2510160634802</v>
+        <v>4996.9161215405456</v>
       </c>
       <c r="O69" s="1">
-        <v>4946.5206115734472</v>
+        <v>4978.1857170505127</v>
       </c>
       <c r="P69" s="1">
-        <v>4920.6296884071999</v>
+        <v>4968.7697309850982</v>
       </c>
       <c r="Q69" s="1">
-        <v>4911.2644861621829</v>
+        <v>4959.4045287400813</v>
       </c>
       <c r="R69" s="1">
-        <v>4901.8992839171669</v>
+        <v>4959.4045287400813</v>
       </c>
       <c r="S69" s="1">
-        <v>4901.8992839171669</v>
+        <v>4959.4045287400813</v>
       </c>
       <c r="T69" s="1">
-        <v>4910.9661312173412</v>
+        <v>4966.0572092123093</v>
       </c>
       <c r="U69" s="1">
-        <v>4920.3313334623572</v>
+        <v>4975.4224114573253</v>
       </c>
       <c r="V69" s="1">
-        <v>4939.0617379523901</v>
+        <v>4984.7876137023422</v>
       </c>
       <c r="W69" s="1">
-        <v>4967.1573446874399</v>
+        <v>4994.1528159473582</v>
       </c>
       <c r="X69" s="1">
-        <v>5000.3948132378555</v>
+        <v>5020.5261854073933</v>
       </c>
       <c r="Y69" s="1">
-        <v>5028.4904199729053</v>
+        <v>5039.2565898974262</v>
       </c>
       <c r="Z69" s="1">
-        <v>5065.9512289529712</v>
+        <v>5067.3521966324752</v>
       </c>
       <c r="AA69" s="1">
-        <v>5094.0468356880201</v>
+        <v>5095.447803367525</v>
       </c>
       <c r="AB69" s="1">
-        <v>5143.3085349332305</v>
+        <v>5124.6562415328044</v>
       </c>
       <c r="AC69" s="1">
-        <v>5171.4041416682794</v>
+        <v>5162.1170505128703</v>
       </c>
       <c r="AD69" s="1">
-        <v>5208.8649506483453</v>
+        <v>5208.9430617379521</v>
       </c>
       <c r="AE69" s="1">
-        <v>5246.3257596284111</v>
+        <v>5255.7690729630349</v>
       </c>
       <c r="AF69" s="1">
-        <v>5282.6312366944067</v>
+        <v>5333.9306367331137</v>
       </c>
       <c r="AG69" s="1">
-        <v>5329.4572479194894</v>
+        <v>5399.4870524482294</v>
       </c>
       <c r="AH69" s="1">
-        <v>5376.2832591445713</v>
+        <v>5455.6782659183282</v>
       </c>
       <c r="AI69" s="1">
-        <v>5441.839674859687</v>
+        <v>5521.234681633443</v>
       </c>
       <c r="AJ69" s="1">
-        <v>5494.4379330365782</v>
+        <v>5544.30849622605</v>
       </c>
       <c r="AK69" s="1">
-        <v>5559.9943487516939</v>
+        <v>5600.4997096961488</v>
       </c>
       <c r="AL69" s="1">
-        <v>5616.1855622217927</v>
+        <v>5647.3257209212306</v>
       </c>
       <c r="AM69" s="1">
-        <v>5663.0115734468745</v>
+        <v>5684.7865299012965</v>
       </c>
       <c r="AN69" s="1">
-        <v>5712.4446680859301</v>
+        <v>5747.7325333849431</v>
       </c>
       <c r="AO69" s="1">
-        <v>5749.9054770659959</v>
+        <v>5757.0977356299591</v>
       </c>
       <c r="AP69" s="1">
-        <v>5768.6358815560288</v>
+        <v>5757.0977356299591</v>
       </c>
       <c r="AQ69" s="1">
-        <v>5768.6358815560288</v>
+        <v>5747.7325333849431</v>
       </c>
       <c r="AR69" s="1">
-        <v>5750.3752274046838</v>
+        <v>5730.5954712599187</v>
       </c>
       <c r="AS69" s="1">
-        <v>5731.6448229146508</v>
+        <v>5711.8650667698857</v>
       </c>
       <c r="AT69" s="1">
-        <v>5703.549216179601</v>
+        <v>5693.1346622798528</v>
       </c>
       <c r="AU69" s="1">
-        <v>5684.818811689569</v>
+        <v>5674.4042577898199</v>
       </c>
       <c r="AV69" s="1">
-        <v>5646.4922005031931</v>
+        <v>5624.249429069092</v>
       </c>
       <c r="AW69" s="1">
-        <v>5627.7617960131602</v>
+        <v>5605.5190245790591</v>
       </c>
       <c r="AX69" s="1">
-        <v>5618.3965937681442</v>
+        <v>5586.7886200890271</v>
       </c>
       <c r="AY69" s="1">
-        <v>5609.0313915231272</v>
+        <v>5568.0582155989941</v>
       </c>
       <c r="AZ69" s="1">
-        <v>5591.3376427327266</v>
+        <v>5535.5082639829689</v>
       </c>
       <c r="BA69" s="1">
-        <v>5572.6072382426937</v>
+        <v>5526.1430617379528</v>
       </c>
       <c r="BB69" s="1">
-        <v>5563.2420359976777</v>
+        <v>5507.4126572479199</v>
       </c>
       <c r="BC69" s="1">
-        <v>5544.5116315076448</v>
+        <v>5488.682252757887</v>
       </c>
       <c r="BD69" s="1">
-        <v>5528.1299787110511</v>
+        <v>5482.9607896264761</v>
       </c>
       <c r="BE69" s="1">
-        <v>5509.3995742210182</v>
+        <v>5464.2303851364431</v>
       </c>
       <c r="BF69" s="1">
-        <v>5490.6691697309852</v>
+        <v>5454.8651828914262</v>
       </c>
       <c r="BG69" s="1">
-        <v>5481.3039674859683</v>
+        <v>5445.4999806464102</v>
       </c>
       <c r="BH69" s="1">
-        <v>5478.4981614089411</v>
+        <v>5464.2392103735247</v>
       </c>
       <c r="BI69" s="1">
-        <v>5478.4981614089411</v>
+        <v>5464.2392103735247</v>
       </c>
       <c r="BJ69" s="1">
-        <v>5497.228565898974</v>
+        <v>5473.6044126185407</v>
       </c>
       <c r="BK69" s="1">
-        <v>5515.9589703890069</v>
+        <v>5482.9696148635576</v>
       </c>
       <c r="BL69" s="1">
-        <v>5549.0885233210765</v>
+        <v>5546.6119605186759</v>
       </c>
       <c r="BM69" s="1">
-        <v>5577.1841300561255</v>
+        <v>5565.3423650087088</v>
       </c>
       <c r="BN69" s="1">
-        <v>5605.2797367911753</v>
+        <v>5593.4379717437587</v>
       </c>
       <c r="BO69" s="1">
-        <v>5642.7405457712402</v>
+        <v>5621.5335784788076</v>
       </c>
       <c r="BP69" s="1">
-        <v>5702.4846913102383</v>
+        <v>5678.3049351654736</v>
       </c>
       <c r="BQ69" s="1">
-        <v>5749.3107025353202</v>
+        <v>5725.1309463905554</v>
       </c>
       <c r="BR69" s="1">
-        <v>5805.5019160054189</v>
+        <v>5781.3221598606542</v>
       </c>
       <c r="BS69" s="1">
-        <v>5871.0583317205346</v>
+        <v>5846.878575575769</v>
       </c>
       <c r="BT69" s="1">
-        <v>5962.1990323204955</v>
+        <v>5965.4806270563195</v>
       </c>
       <c r="BU69" s="1">
-        <v>6037.1206502806272</v>
+        <v>6040.4022450164503</v>
       </c>
       <c r="BV69" s="1">
-        <v>6112.0422682407589</v>
+        <v>6115.3238629765819</v>
       </c>
       <c r="BW69" s="1">
-        <v>6186.9638862008906</v>
+        <v>6199.6106831817306</v>
       </c>
       <c r="BX69" s="1">
-        <v>6276.4204373911361</v>
+        <v>6284.0435068705247</v>
       </c>
       <c r="BY69" s="1">
-        <v>6351.3420553512678</v>
+        <v>6377.6955293206884</v>
       </c>
       <c r="BZ69" s="1">
-        <v>6435.6288755564156</v>
+        <v>6480.712754015869</v>
       </c>
       <c r="CA69" s="1">
-        <v>6510.5504935165472</v>
+        <v>6583.7299787110514</v>
       </c>
       <c r="CB69" s="1">
-        <v>6605.6352235339655</v>
+        <v>6687.3102380491582</v>
       </c>
       <c r="CC69" s="1">
-        <v>6680.5568414940972</v>
+        <v>6771.5970582543059</v>
       </c>
       <c r="CD69" s="1">
-        <v>6699.2872459841301</v>
+        <v>6827.7882717244047</v>
       </c>
       <c r="CE69" s="1">
-        <v>6699.2872459841301</v>
+        <v>6855.8838784594545</v>
       </c>
       <c r="CF69" s="1">
-        <v>6666.8642539191023</v>
+        <v>6846.4278691697309</v>
       </c>
       <c r="CG69" s="1">
-        <v>6638.7686471840525</v>
+        <v>6818.332262434682</v>
       </c>
       <c r="CH69" s="1">
-        <v>6591.9426359589706</v>
+        <v>6752.7758467195654</v>
       </c>
       <c r="CI69" s="1">
-        <v>6526.386220243855</v>
+        <v>6677.8542287594337</v>
       </c>
       <c r="CJ69" s="1">
-        <v>6408.2207857557578</v>
+        <v>6575.9879233597831</v>
       </c>
       <c r="CK69" s="1">
-        <v>6305.2035610605772</v>
+        <v>6482.3359009096184</v>
       </c>
       <c r="CL69" s="1">
-        <v>6211.5515386104125</v>
+        <v>6388.6838784594547</v>
       </c>
       <c r="CM69" s="1">
-        <v>6108.534313915231</v>
+        <v>6276.3014515192572</v>
       </c>
       <c r="CN69" s="1">
-        <v>5933.5296303464293</v>
+        <v>6223.6661892781121</v>
       </c>
       <c r="CO69" s="1">
-        <v>5811.7820011612157</v>
+        <v>6092.5533578478808</v>
       </c>
       <c r="CP69" s="1">
-        <v>5690.0343719760012</v>
+        <v>5961.4405264176512</v>
       </c>
       <c r="CQ69" s="1">
-        <v>5558.9215405457717</v>
+        <v>5830.3276949874198</v>
       </c>
       <c r="CR69" s="1">
-        <v>5418.8898006580221</v>
+        <v>5663.0529127153086</v>
       </c>
       <c r="CS69" s="1">
-        <v>5297.1421714728085</v>
+        <v>5550.670485775111</v>
       </c>
       <c r="CT69" s="1">
-        <v>5203.4901490226439</v>
+        <v>5419.5576543448806</v>
       </c>
       <c r="CU69" s="1">
-        <v>5100.4729243274633</v>
+        <v>5316.5404296496999</v>
       </c>
       <c r="CV69" s="13"/>
       <c r="CW69" s="13"/>
@@ -46756,586 +47933,586 @@
     </row>
     <row r="70" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B70" s="8">
-        <v>45743</v>
+        <v>45745</v>
       </c>
       <c r="C70" s="9">
         <v>45746</v>
       </c>
       <c r="D70" s="1">
-        <v>5108.1912134700988</v>
+        <v>5221.5324172634027</v>
       </c>
       <c r="E70" s="1">
-        <v>5061.3652022450169</v>
+        <v>5174.70640603832</v>
       </c>
       <c r="F70" s="1">
-        <v>5014.5391910199342</v>
+        <v>5127.8803948132372</v>
       </c>
       <c r="G70" s="1">
-        <v>4958.3479775498354</v>
+        <v>5081.0543835881563</v>
       </c>
       <c r="H70" s="1">
-        <v>4917.9670988968455</v>
+        <v>4938.6849622604996</v>
       </c>
       <c r="I70" s="1">
-        <v>4880.5062899167797</v>
+        <v>4901.2241532804337</v>
       </c>
       <c r="J70" s="1">
-        <v>4852.4106831817298</v>
+        <v>4863.7633443003679</v>
       </c>
       <c r="K70" s="1">
-        <v>4814.9498742016649</v>
+        <v>4826.302535320302</v>
       </c>
       <c r="L70" s="1">
-        <v>4778.949100058061</v>
+        <v>4799.9018385910585</v>
       </c>
       <c r="M70" s="1">
-        <v>4750.8534933230112</v>
+        <v>4771.8062318560096</v>
       </c>
       <c r="N70" s="1">
-        <v>4722.7578865879623</v>
+        <v>4753.0758273659767</v>
       </c>
       <c r="O70" s="1">
-        <v>4704.0274820979294</v>
+        <v>4743.7106251209598</v>
       </c>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1">
-        <v>4647.07451132185</v>
+        <v>4734.8322817882718</v>
       </c>
       <c r="U70" s="1">
-        <v>4647.07451132185</v>
+        <v>4734.8322817882718</v>
       </c>
       <c r="V70" s="1">
-        <v>4647.07451132185</v>
+        <v>4734.8322817882718</v>
       </c>
       <c r="W70" s="1">
-        <v>4656.4397135668669</v>
+        <v>4744.1974840332878</v>
       </c>
       <c r="X70" s="1">
-        <v>4664.4083607509192</v>
+        <v>4765.8606541513454</v>
       </c>
       <c r="Y70" s="1">
-        <v>4683.1387652409521</v>
+        <v>4784.5910586413775</v>
       </c>
       <c r="Z70" s="1">
-        <v>4711.234371976002</v>
+        <v>4793.9562608863944</v>
       </c>
       <c r="AA70" s="1">
-        <v>4729.9647764660349</v>
+        <v>4812.6866653764273</v>
       </c>
       <c r="AB70" s="1">
-        <v>4760.2186955680281</v>
+        <v>4846.5144958389783</v>
       </c>
       <c r="AC70" s="1">
-        <v>4778.949100058061</v>
+        <v>4855.8796980839943</v>
       </c>
       <c r="AD70" s="1">
-        <v>4797.679504548094</v>
+        <v>4865.2449003290112</v>
       </c>
       <c r="AE70" s="1">
-        <v>4816.4099090381269</v>
+        <v>4883.9753048190441</v>
       </c>
       <c r="AF70" s="1">
-        <v>4827.3323011418615</v>
+        <v>4915.1198761370233</v>
       </c>
       <c r="AG70" s="1">
-        <v>4846.0627056318945</v>
+        <v>4943.2154828720722</v>
       </c>
       <c r="AH70" s="1">
-        <v>4874.1583123669443</v>
+        <v>4980.676291852139</v>
       </c>
       <c r="AI70" s="1">
-        <v>4902.2539191019932</v>
+        <v>5018.1371008322049</v>
       </c>
       <c r="AJ70" s="1">
-        <v>4917.7468550416106</v>
+        <v>5057.7352428875556</v>
       </c>
       <c r="AK70" s="1">
-        <v>4936.4772595316435</v>
+        <v>5104.5612541126375</v>
       </c>
       <c r="AL70" s="1">
-        <v>4955.2076640216765</v>
+        <v>5151.3872653377202</v>
       </c>
       <c r="AM70" s="1">
-        <v>4964.5728662666925</v>
+        <v>5198.2132765628021</v>
       </c>
       <c r="AN70" s="1">
-        <v>4960.9545190632862</v>
+        <v>5228.3421714728083</v>
       </c>
       <c r="AO70" s="1">
-        <v>4951.5893168182702</v>
+        <v>5256.4377782078573</v>
       </c>
       <c r="AP70" s="1">
-        <v>4932.8589123282372</v>
+        <v>5265.8029804528742</v>
       </c>
       <c r="AQ70" s="1">
-        <v>4914.1285078382043</v>
+        <v>5265.8029804528742</v>
       </c>
       <c r="AR70" s="1">
-        <v>4877.8401393458489</v>
+        <v>5242.7007547900139</v>
       </c>
       <c r="AS70" s="1">
-        <v>4831.0141281207661</v>
+        <v>5214.605148054964</v>
       </c>
       <c r="AT70" s="1">
-        <v>4784.1881168956843</v>
+        <v>5186.5095413199151</v>
       </c>
       <c r="AU70" s="1">
-        <v>4737.3621056706015</v>
+        <v>5158.4139345848653</v>
       </c>
       <c r="AV70" s="1">
-        <v>4698.504741629572</v>
+        <v>5121.9516934391331</v>
       </c>
       <c r="AW70" s="1">
-        <v>4670.409134894523</v>
+        <v>5103.2212889491002</v>
       </c>
       <c r="AX70" s="1">
-        <v>4642.3135281594732</v>
+        <v>5093.8560867040833</v>
       </c>
       <c r="AY70" s="1">
-        <v>4632.9483259144572</v>
+        <v>5075.1256822140504</v>
       </c>
       <c r="AZ70" s="1">
-        <v>4613.0118056899555</v>
+        <v>5080.5830075478998</v>
       </c>
       <c r="BA70" s="1">
-        <v>4603.6466034449395</v>
+        <v>5071.2178053028838</v>
       </c>
       <c r="BB70" s="1">
-        <v>4603.6466034449395</v>
+        <v>5061.8526030578669</v>
       </c>
       <c r="BC70" s="1">
-        <v>4594.2814011999226</v>
+        <v>5052.4874008128509</v>
       </c>
       <c r="BD70" s="1">
-        <v>4583.1387652409521</v>
+        <v>5063.2198954906144</v>
       </c>
       <c r="BE70" s="1">
-        <v>4573.7735629959361</v>
+        <v>5053.8546932455974</v>
       </c>
       <c r="BF70" s="1">
-        <v>4573.7735629959361</v>
+        <v>5044.4894910005805</v>
       </c>
       <c r="BG70" s="1">
-        <v>4564.4083607509192</v>
+        <v>5035.1242887555645</v>
       </c>
       <c r="BH70" s="1">
-        <v>4569.9012966905366</v>
+        <v>5032.4562028256241</v>
       </c>
       <c r="BI70" s="1">
-        <v>4579.2664989355526</v>
+        <v>5023.0910005806072</v>
       </c>
       <c r="BJ70" s="1">
-        <v>4588.6317011805695</v>
+        <v>5013.7257983355912</v>
       </c>
       <c r="BK70" s="1">
-        <v>4597.9969034255855</v>
+        <v>5004.3605960905752</v>
       </c>
       <c r="BL70" s="1">
-        <v>4616.219469711632</v>
+        <v>4982.2676988581388</v>
       </c>
       <c r="BM70" s="1">
-        <v>4634.9498742016649</v>
+        <v>4982.2676988581388</v>
       </c>
       <c r="BN70" s="1">
-        <v>4663.0454809367138</v>
+        <v>4982.2676988581388</v>
       </c>
       <c r="BO70" s="1">
-        <v>4691.1410876717628</v>
+        <v>4991.6329011031557</v>
       </c>
       <c r="BP70" s="1">
-        <v>4730.6034449390363</v>
+        <v>5036.539887749178</v>
       </c>
       <c r="BQ70" s="1">
-        <v>4786.7946584091351</v>
+        <v>5083.3658989742598</v>
       </c>
       <c r="BR70" s="1">
-        <v>4852.3510741242499</v>
+        <v>5130.1919101993426</v>
       </c>
       <c r="BS70" s="1">
-        <v>4936.6378943293985</v>
+        <v>5177.0179214244245</v>
       </c>
       <c r="BT70" s="1">
-        <v>5026.7013741048968</v>
+        <v>5244.7180181923741</v>
       </c>
       <c r="BU70" s="1">
-        <v>5120.3533965550614</v>
+        <v>5300.9092316624738</v>
       </c>
       <c r="BV70" s="1">
-        <v>5204.6402167602091</v>
+        <v>5366.4656473775885</v>
       </c>
       <c r="BW70" s="1">
-        <v>5288.9270369653568</v>
+        <v>5441.3872653377202</v>
       </c>
       <c r="BX70" s="1">
-        <v>5362.7694987420164</v>
+        <v>5505.5427133733319</v>
       </c>
       <c r="BY70" s="1">
-        <v>5428.3259144571321</v>
+        <v>5580.4643313334636</v>
       </c>
       <c r="BZ70" s="1">
-        <v>5503.2475324172638</v>
+        <v>5664.7511515386104</v>
       </c>
       <c r="CA70" s="1">
-        <v>5596.8995548674284</v>
+        <v>5749.037971743759</v>
       </c>
       <c r="CB70" s="1">
-        <v>5700.2976582155989</v>
+        <v>5860.0980839945805</v>
       </c>
       <c r="CC70" s="1">
-        <v>5822.0452874008133</v>
+        <v>5963.1153086897612</v>
       </c>
       <c r="CD70" s="1">
-        <v>5943.7929165860269</v>
+        <v>6066.1325333849418</v>
       </c>
       <c r="CE70" s="1">
-        <v>6056.1753435262244</v>
+        <v>6187.8801625701562</v>
       </c>
       <c r="CF70" s="1">
-        <v>6161.1604412618544</v>
+        <v>6324.8438939423268</v>
       </c>
       <c r="CG70" s="1">
-        <v>6254.8124637120191</v>
+        <v>6418.4959163924905</v>
       </c>
       <c r="CH70" s="1">
-        <v>6273.542868202052</v>
+        <v>6455.9567253725563</v>
       </c>
       <c r="CI70" s="1">
-        <v>6273.542868202052</v>
+        <v>6465.3219276175732</v>
       </c>
       <c r="CJ70" s="1">
-        <v>6255.828140119992</v>
+        <v>6441.8051480549639</v>
       </c>
       <c r="CK70" s="1">
-        <v>6209.0021288949101</v>
+        <v>6385.613934584866</v>
       </c>
       <c r="CL70" s="1">
-        <v>6162.1761176698283</v>
+        <v>6320.0575188697512</v>
       </c>
       <c r="CM70" s="1">
-        <v>6087.2544997096966</v>
+        <v>6226.4054964195857</v>
       </c>
       <c r="CN70" s="1">
-        <v>5975.8877491774729</v>
+        <v>6086.8346816334433</v>
       </c>
       <c r="CO70" s="1">
-        <v>5854.1401199922584</v>
+        <v>5974.4522546932458</v>
       </c>
       <c r="CP70" s="1">
-        <v>5741.7576930520609</v>
+        <v>5833.9742210179993</v>
       </c>
       <c r="CQ70" s="1">
-        <v>5601.2796593768144</v>
+        <v>5684.1309850977359</v>
       </c>
       <c r="CR70" s="1">
-        <v>5473.9121347009868</v>
+        <v>5540.3920263208829</v>
       </c>
       <c r="CS70" s="1">
-        <v>5352.1645055157733</v>
+        <v>5428.0095993806854</v>
       </c>
       <c r="CT70" s="1">
-        <v>5239.7820785755757</v>
+        <v>5334.3575769305207</v>
       </c>
       <c r="CU70" s="1">
-        <v>5136.7648538803951</v>
+        <v>5231.3403522353401</v>
       </c>
     </row>
     <row r="71" spans="2:103" ht="15" x14ac:dyDescent="0.2">
       <c r="B71" s="8">
-        <v>45743</v>
+        <v>45746</v>
       </c>
       <c r="C71" s="9">
         <v>45747</v>
       </c>
       <c r="D71" s="1">
-        <v>4974.4771047029226</v>
+        <v>5162.6328623959744</v>
       </c>
       <c r="E71" s="1">
-        <v>4927.6510934778398</v>
+        <v>5115.8068511708925</v>
       </c>
       <c r="F71" s="1">
-        <v>4880.825082252758</v>
+        <v>5068.9808399458097</v>
       </c>
       <c r="G71" s="1">
-        <v>4824.6338687826592</v>
+        <v>5012.789626475711</v>
       </c>
       <c r="H71" s="1">
-        <v>4776.0685117089224</v>
+        <v>4996.332339849042</v>
       </c>
       <c r="I71" s="1">
-        <v>4738.6077027288566</v>
+        <v>4949.5063286239601</v>
       </c>
       <c r="J71" s="1">
-        <v>4691.7816915037738</v>
+        <v>4912.0455196438943</v>
       </c>
       <c r="K71" s="1">
-        <v>4654.320882523708</v>
+        <v>4874.5847106638284</v>
       </c>
       <c r="L71" s="1">
-        <v>4607.7380298045291</v>
+        <v>4838.4188891039284</v>
       </c>
       <c r="M71" s="1">
-        <v>4579.6424230694793</v>
+        <v>4819.6884846138955</v>
       </c>
       <c r="N71" s="1">
-        <v>4560.9120185794463</v>
+        <v>4810.3232823688795</v>
       </c>
       <c r="O71" s="1">
-        <v>4551.5468163344303</v>
+        <v>4800.9580801238626</v>
       </c>
       <c r="P71" s="1">
-        <v>4536.5211534739692</v>
+        <v>4791.1739113605572</v>
       </c>
       <c r="Q71" s="1">
-        <v>4536.5211534739692</v>
+        <v>4791.1739113605572</v>
       </c>
       <c r="R71" s="1">
-        <v>4545.8863557189861</v>
+        <v>4791.1739113605572</v>
       </c>
       <c r="S71" s="1">
-        <v>4564.616760209019</v>
+        <v>4800.5391136055741</v>
       </c>
       <c r="T71" s="1">
-        <v>4575.2281014128121</v>
+        <v>4821.8658409134896</v>
       </c>
       <c r="U71" s="1">
-        <v>4593.958505902845</v>
+        <v>4849.9614476485385</v>
       </c>
       <c r="V71" s="1">
-        <v>4612.6889103928779</v>
+        <v>4868.6918521385714</v>
       </c>
       <c r="W71" s="1">
-        <v>4659.5149216179598</v>
+        <v>4896.7874588736213</v>
       </c>
       <c r="X71" s="1">
-        <v>4726.9928391716667</v>
+        <v>4955.1306367331144</v>
       </c>
       <c r="Y71" s="1">
-        <v>4801.9144571317984</v>
+        <v>5011.3218502032123</v>
       </c>
       <c r="Z71" s="1">
-        <v>4895.5664795819621</v>
+        <v>5086.243468163344</v>
       </c>
       <c r="AA71" s="1">
-        <v>5017.3141087671765</v>
+        <v>5189.2606928585255</v>
       </c>
       <c r="AB71" s="1">
-        <v>5166.3936520224506</v>
+        <v>5362.2784594542281</v>
       </c>
       <c r="AC71" s="1">
-        <v>5316.2368879427131</v>
+        <v>5493.3912908844586</v>
       </c>
       <c r="AD71" s="1">
-        <v>5475.4453261079934</v>
+        <v>5643.234526804722</v>
       </c>
       <c r="AE71" s="1">
-        <v>5653.3841687633058</v>
+        <v>5811.8081672150183</v>
       </c>
       <c r="AF71" s="1">
-        <v>5827.1885426746658</v>
+        <v>6041.3276562802403</v>
       </c>
       <c r="AG71" s="1">
-        <v>5995.7621830849621</v>
+        <v>6228.6317011805695</v>
       </c>
       <c r="AH71" s="1">
-        <v>6145.6054190052255</v>
+        <v>6397.2053415908649</v>
       </c>
       <c r="AI71" s="1">
-        <v>6286.083452680472</v>
+        <v>6547.0485775111283</v>
       </c>
       <c r="AJ71" s="1">
-        <v>6409.0689374879039</v>
+        <v>6710.4637894329398</v>
       </c>
       <c r="AK71" s="1">
-        <v>6502.7209599380685</v>
+        <v>6841.5766208631703</v>
       </c>
       <c r="AL71" s="1">
-        <v>6549.5469711631513</v>
+        <v>6916.498238823302</v>
       </c>
       <c r="AM71" s="1">
-        <v>6596.3729823882331</v>
+        <v>6972.6894522934008</v>
       </c>
       <c r="AN71" s="1">
-        <v>6622.2385136442808</v>
+        <v>6991.6503193342378</v>
       </c>
       <c r="AO71" s="1">
-        <v>6622.2385136442808</v>
+        <v>7001.0155215792529</v>
       </c>
       <c r="AP71" s="1">
-        <v>6603.5081091542479</v>
+        <v>6991.6503193342378</v>
       </c>
       <c r="AQ71" s="1">
-        <v>6566.0473001741821</v>
+        <v>6982.2851170892209</v>
       </c>
       <c r="AR71" s="1">
-        <v>6478.8271724404876</v>
+        <v>6919.5022256628608</v>
       </c>
       <c r="AS71" s="1">
-        <v>6432.0011612154058</v>
+        <v>6882.041416682795</v>
       </c>
       <c r="AT71" s="1">
-        <v>6375.809947745307</v>
+        <v>6853.9458099477451</v>
       </c>
       <c r="AU71" s="1">
-        <v>6319.6187342752082</v>
+        <v>6797.7545964776464</v>
       </c>
       <c r="AV71" s="1">
-        <v>6252.6144377782075</v>
+        <v>6703.3212308883303</v>
       </c>
       <c r="AW71" s="1">
-        <v>6215.1536287981417</v>
+        <v>6656.4952196632476</v>
       </c>
       <c r="AX71" s="1">
-        <v>6187.0580220630927</v>
+        <v>6600.3040061931488</v>
       </c>
       <c r="AY71" s="1">
-        <v>6158.9624153280438</v>
+        <v>6544.11279272305</v>
       </c>
       <c r="AZ71" s="1">
-        <v>6127.7709309076845</v>
+        <v>6471.5482097929171</v>
       </c>
       <c r="BA71" s="1">
-        <v>6109.0405264176516</v>
+        <v>6405.9917940778014</v>
       </c>
       <c r="BB71" s="1">
-        <v>6090.3101219276177</v>
+        <v>6331.0701761176697</v>
       </c>
       <c r="BC71" s="1">
-        <v>6071.5797174375848</v>
+        <v>6265.5137604025549</v>
       </c>
       <c r="BD71" s="1">
-        <v>6048.0756338300744</v>
+        <v>6205.2471453454618</v>
       </c>
       <c r="BE71" s="1">
-        <v>6029.3452293400424</v>
+        <v>6177.151538610412</v>
       </c>
       <c r="BF71" s="1">
-        <v>6019.9800270950254</v>
+        <v>6139.6907296303461</v>
       </c>
       <c r="BG71" s="1">
-        <v>6001.2496226049934</v>
+        <v>6130.3255273853301</v>
       </c>
       <c r="BH71" s="1">
-        <v>6004.0554286820206</v>
+        <v>6120.70640603832</v>
       </c>
       <c r="BI71" s="1">
-        <v>5994.6902264370037</v>
+        <v>6111.341203793304</v>
       </c>
       <c r="BJ71" s="1">
-        <v>5994.6902264370037</v>
+        <v>6111.341203793304</v>
       </c>
       <c r="BK71" s="1">
-        <v>5994.6902264370037</v>
+        <v>6120.70640603832</v>
       </c>
       <c r="BL71" s="1">
-        <v>6005.6150958002709</v>
+        <v>6146.1021869556807</v>
       </c>
       <c r="BM71" s="1">
-        <v>6005.6150958002709</v>
+        <v>6155.4673892006967</v>
       </c>
       <c r="BN71" s="1">
-        <v>6014.9802980452878</v>
+        <v>6174.1977936907297</v>
       </c>
       <c r="BO71" s="1">
-        <v>6014.9802980452878</v>
+        <v>6192.9281981807626</v>
       </c>
       <c r="BP71" s="1">
-        <v>6040.8565898974257</v>
+        <v>6229.8963421714725</v>
       </c>
       <c r="BQ71" s="1">
-        <v>6059.5869943874586</v>
+        <v>6257.9919489065223</v>
       </c>
       <c r="BR71" s="1">
-        <v>6078.3173988774915</v>
+        <v>6304.8179601316042</v>
       </c>
       <c r="BS71" s="1">
-        <v>6106.4130056125414</v>
+        <v>6351.643971356687</v>
       </c>
       <c r="BT71" s="1">
-        <v>6183.6629378749758</v>
+        <v>6434.3252951422492</v>
       </c>
       <c r="BU71" s="1">
-        <v>6230.4889491000586</v>
+        <v>6490.516508612347</v>
       </c>
       <c r="BV71" s="1">
-        <v>6277.3149603251404</v>
+        <v>6556.0729243274618</v>
       </c>
       <c r="BW71" s="1">
-        <v>6333.5061737952392</v>
+        <v>6612.2641377975615</v>
       </c>
       <c r="BX71" s="1">
-        <v>6413.7879620669637</v>
+        <v>6692.4716856976975</v>
       </c>
       <c r="BY71" s="1">
-        <v>6488.7095800270954</v>
+        <v>6748.6628991677953</v>
       </c>
       <c r="BZ71" s="1">
-        <v>6582.36160247726</v>
+        <v>6814.2193148829119</v>
       </c>
       <c r="CA71" s="1">
-        <v>6685.3788271724407</v>
+        <v>6889.1409328430436</v>
       </c>
       <c r="CB71" s="1">
-        <v>6831.8010450938646</v>
+        <v>6976.896226049932</v>
       </c>
       <c r="CC71" s="1">
-        <v>6953.548674279079</v>
+        <v>7042.4526417650468</v>
       </c>
       <c r="CD71" s="1">
-        <v>7056.5658989742597</v>
+        <v>7117.3742597251785</v>
       </c>
       <c r="CE71" s="1">
-        <v>7140.8527191794083</v>
+        <v>7192.2958776853102</v>
       </c>
       <c r="CF71" s="1">
-        <v>7203.3367137604027</v>
+        <v>7295.4635184826784</v>
       </c>
       <c r="CG71" s="1">
-        <v>7259.5279272305015</v>
+        <v>7351.6547319527772</v>
       </c>
       <c r="CH71" s="1">
-        <v>7268.8931294755175</v>
+        <v>7361.0199341977941</v>
       </c>
       <c r="CI71" s="1">
-        <v>7268.8931294755175</v>
+        <v>7361.0199341977941</v>
       </c>
       <c r="CJ71" s="1">
-        <v>7189.4282949487133</v>
+        <v>7293.9565705438363</v>
       </c>
       <c r="CK71" s="1">
-        <v>7095.7762724985487</v>
+        <v>7209.6697503386877</v>
       </c>
       <c r="CL71" s="1">
-        <v>6992.759047803368</v>
+        <v>7097.2873233984901</v>
       </c>
       <c r="CM71" s="1">
-        <v>6880.3766208631705</v>
+        <v>6956.8092897232436</v>
       </c>
       <c r="CN71" s="1">
-        <v>6690.278923940391</v>
+        <v>6780.3362879814204</v>
       </c>
       <c r="CO71" s="1">
-        <v>6540.4356880201276</v>
+        <v>6649.2234565511899</v>
       </c>
       <c r="CP71" s="1">
-        <v>6390.5924520998642</v>
+        <v>6490.0150183859105</v>
       </c>
       <c r="CQ71" s="1">
-        <v>6240.7492161796017</v>
+        <v>6330.8065802206311</v>
       </c>
       <c r="CR71" s="1">
-        <v>6071.6950648345273</v>
+        <v>6156.5998064640989</v>
       </c>
       <c r="CS71" s="1">
-        <v>5949.9474356493129</v>
+        <v>6025.4869750338694</v>
       </c>
       <c r="CT71" s="1">
-        <v>5846.9302109541322</v>
+        <v>5913.1045480936718</v>
       </c>
       <c r="CU71" s="1">
-        <v>5743.9129862589507</v>
+        <v>5800.7221211534743</v>
       </c>
     </row>
     <row r="72" spans="2:103" ht="15.75" x14ac:dyDescent="0.25">

--- a/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
+++ b/Market Fundamentals/Transelectrica_data/weekly consumtion 2023.xlsx
@@ -8,28 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\15 minute\postare saptamanala si zilnica\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF34CC06-7CFA-4093-9F10-F17D91D562FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3C611B-4F5F-4604-AC2F-8CF1E3484F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="valori brute (gross values)" sheetId="1" r:id="rId1"/>
     <sheet name="valori nete (net values)" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1584,8 +1571,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B1:CY140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:CU13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2036,79 +2023,79 @@
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="C9" s="9">
         <v>45748</v>
       </c>
       <c r="D9" s="1">
+        <v>5960</v>
+      </c>
+      <c r="E9" s="10">
         <v>5900</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F9" s="1">
         <v>5850</v>
       </c>
-      <c r="F9" s="1">
+      <c r="G9" s="1">
         <v>5800</v>
       </c>
-      <c r="G9" s="1">
-        <v>5740</v>
-      </c>
       <c r="H9" s="1">
+        <v>5750</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5700</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5660</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5630</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5600</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5570</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5550</v>
+      </c>
+      <c r="O9" s="1">
+        <v>5540</v>
+      </c>
+      <c r="P9" s="1">
+        <v>5530</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>5530</v>
+      </c>
+      <c r="R9" s="1">
+        <v>5530</v>
+      </c>
+      <c r="S9" s="1">
+        <v>5540</v>
+      </c>
+      <c r="T9" s="1">
+        <v>5540</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5550</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5570</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5590</v>
+      </c>
+      <c r="X9" s="1">
+        <v>5630</v>
+      </c>
+      <c r="Y9" s="1">
         <v>5690</v>
       </c>
-      <c r="I9" s="1">
-        <v>5650</v>
-      </c>
-      <c r="J9" s="1">
-        <v>5610</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5570</v>
-      </c>
-      <c r="L9" s="1">
-        <v>5530</v>
-      </c>
-      <c r="M9" s="1">
-        <v>5490</v>
-      </c>
-      <c r="N9" s="1">
-        <v>5470</v>
-      </c>
-      <c r="O9" s="1">
-        <v>5460</v>
-      </c>
-      <c r="P9" s="1">
-        <v>5460</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>5460</v>
-      </c>
-      <c r="R9" s="1">
-        <v>5470</v>
-      </c>
-      <c r="S9" s="1">
-        <v>5490</v>
-      </c>
-      <c r="T9" s="1">
-        <v>5500</v>
-      </c>
-      <c r="U9" s="1">
-        <v>5520</v>
-      </c>
-      <c r="V9" s="1">
-        <v>5540</v>
-      </c>
-      <c r="W9" s="1">
-        <v>5580</v>
-      </c>
-      <c r="X9" s="1">
-        <v>5620</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>5680</v>
-      </c>
       <c r="Z9" s="1">
-        <v>5760</v>
+        <v>5770</v>
       </c>
       <c r="AA9" s="1">
         <v>5870</v>
@@ -2120,2399 +2107,3175 @@
         <v>6130</v>
       </c>
       <c r="AD9" s="1">
-        <v>6280</v>
+        <v>6290</v>
       </c>
       <c r="AE9" s="1">
-        <v>6440</v>
+        <v>6460</v>
       </c>
       <c r="AF9" s="1">
-        <v>6600</v>
+        <v>6640</v>
       </c>
       <c r="AG9" s="1">
-        <v>6760</v>
+        <v>6800</v>
       </c>
       <c r="AH9" s="1">
-        <v>6910</v>
+        <v>6960</v>
       </c>
       <c r="AI9" s="1">
-        <v>7040</v>
+        <v>7090</v>
       </c>
       <c r="AJ9" s="1">
-        <v>7140</v>
+        <v>7200</v>
       </c>
       <c r="AK9" s="1">
-        <v>7230</v>
+        <v>7270</v>
       </c>
       <c r="AL9" s="1">
-        <v>7280</v>
+        <v>7310</v>
       </c>
       <c r="AM9" s="1">
         <v>7310</v>
       </c>
       <c r="AN9" s="1">
-        <v>7310</v>
+        <v>7290</v>
       </c>
       <c r="AO9" s="1">
-        <v>7290</v>
+        <v>7240</v>
       </c>
       <c r="AP9" s="1">
+        <v>7160</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>6980</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>6780</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>6690</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>6600</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>6430</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>6360</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>6290</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>6230</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BC9" s="1">
+        <v>6140</v>
+      </c>
+      <c r="BD9" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BE9" s="1">
+        <v>6090</v>
+      </c>
+      <c r="BF9" s="1">
+        <v>6080</v>
+      </c>
+      <c r="BG9" s="1">
+        <v>6090</v>
+      </c>
+      <c r="BH9" s="1">
+        <v>6100</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>6130</v>
+      </c>
+      <c r="BL9" s="1">
+        <v>6140</v>
+      </c>
+      <c r="BM9" s="1">
+        <v>6150</v>
+      </c>
+      <c r="BN9" s="1">
+        <v>6160</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>6210</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BR9" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BS9" s="1">
+        <v>6370</v>
+      </c>
+      <c r="BT9" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>6600</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>6680</v>
+      </c>
+      <c r="BX9" s="1">
+        <v>6760</v>
+      </c>
+      <c r="BY9" s="1">
+        <v>6840</v>
+      </c>
+      <c r="BZ9" s="1">
+        <v>6930</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>7020</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>7130</v>
+      </c>
+      <c r="CC9" s="1">
         <v>7250</v>
       </c>
-      <c r="AQ9" s="1">
-        <v>7200</v>
-      </c>
-      <c r="AR9" s="1">
-        <v>7140</v>
-      </c>
-      <c r="AS9" s="1">
-        <v>7080</v>
-      </c>
-      <c r="AT9" s="1">
-        <v>7020</v>
-      </c>
-      <c r="AU9" s="1">
-        <v>6960</v>
-      </c>
-      <c r="AV9" s="1">
-        <v>6910</v>
-      </c>
-      <c r="AW9" s="1">
-        <v>6860</v>
-      </c>
-      <c r="AX9" s="1">
-        <v>6810</v>
-      </c>
-      <c r="AY9" s="1">
-        <v>6770</v>
-      </c>
-      <c r="AZ9" s="1">
+      <c r="CD9" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CE9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="CF9" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>7770</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>7760</v>
+      </c>
+      <c r="CJ9" s="1">
+        <v>7720</v>
+      </c>
+      <c r="CK9" s="1">
+        <v>7630</v>
+      </c>
+      <c r="CL9" s="1">
+        <v>7500</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>7230</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>7050</v>
+      </c>
+      <c r="CP9" s="1">
+        <v>6900</v>
+      </c>
+      <c r="CQ9" s="1">
         <v>6720</v>
       </c>
-      <c r="BA9" s="1">
-        <v>6670</v>
-      </c>
-      <c r="BB9" s="1">
-        <v>6620</v>
-      </c>
-      <c r="BC9" s="1">
-        <v>6580</v>
-      </c>
-      <c r="BD9" s="1">
-        <v>6540</v>
-      </c>
-      <c r="BE9" s="1">
-        <v>6500</v>
-      </c>
-      <c r="BF9" s="1">
-        <v>6480</v>
-      </c>
-      <c r="BG9" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BH9" s="1">
-        <v>6460</v>
-      </c>
-      <c r="BI9" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BJ9" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BK9" s="1">
-        <v>6480</v>
-      </c>
-      <c r="BL9" s="1">
-        <v>6490</v>
-      </c>
-      <c r="BM9" s="1">
-        <v>6510</v>
-      </c>
-      <c r="BN9" s="1">
-        <v>6520</v>
-      </c>
-      <c r="BO9" s="1">
-        <v>6530</v>
-      </c>
-      <c r="BP9" s="1">
-        <v>6560</v>
-      </c>
-      <c r="BQ9" s="1">
-        <v>6590</v>
-      </c>
-      <c r="BR9" s="1">
-        <v>6640</v>
-      </c>
-      <c r="BS9" s="1">
-        <v>6700</v>
-      </c>
-      <c r="BT9" s="1">
-        <v>6770</v>
-      </c>
-      <c r="BU9" s="1">
-        <v>6830</v>
-      </c>
-      <c r="BV9" s="1">
-        <v>6900</v>
-      </c>
-      <c r="BW9" s="1">
-        <v>6960</v>
-      </c>
-      <c r="BX9" s="1">
-        <v>7020</v>
-      </c>
-      <c r="BY9" s="1">
-        <v>7070</v>
-      </c>
-      <c r="BZ9" s="1">
-        <v>7130</v>
-      </c>
-      <c r="CA9" s="1">
-        <v>7210</v>
-      </c>
-      <c r="CB9" s="1">
-        <v>7290</v>
-      </c>
-      <c r="CC9" s="1">
-        <v>7390</v>
-      </c>
-      <c r="CD9" s="1">
-        <v>7480</v>
-      </c>
-      <c r="CE9" s="1">
-        <v>7550</v>
-      </c>
-      <c r="CF9" s="1">
-        <v>7630</v>
-      </c>
-      <c r="CG9" s="1">
-        <v>7690</v>
-      </c>
-      <c r="CH9" s="1">
-        <v>7710</v>
-      </c>
-      <c r="CI9" s="1">
-        <v>7710</v>
-      </c>
-      <c r="CJ9" s="1">
-        <v>7650</v>
-      </c>
-      <c r="CK9" s="1">
-        <v>7550</v>
-      </c>
-      <c r="CL9" s="1">
-        <v>7450</v>
-      </c>
-      <c r="CM9" s="1">
-        <v>7320</v>
-      </c>
-      <c r="CN9" s="1">
-        <v>7160</v>
-      </c>
-      <c r="CO9" s="1">
-        <v>7020</v>
-      </c>
-      <c r="CP9" s="1">
-        <v>6860</v>
-      </c>
-      <c r="CQ9" s="1">
-        <v>6700</v>
-      </c>
       <c r="CR9" s="1">
-        <v>6510</v>
+        <v>6550</v>
       </c>
       <c r="CS9" s="1">
-        <v>6370</v>
+        <v>6400</v>
       </c>
       <c r="CT9" s="1">
-        <v>6240</v>
+        <v>6260</v>
       </c>
       <c r="CU9" s="1">
-        <v>6120</v>
+        <v>6150</v>
       </c>
     </row>
     <row r="10" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="C10" s="9">
         <v>45749</v>
       </c>
       <c r="D10" s="1">
-        <v>5800</v>
+        <v>5930</v>
       </c>
       <c r="E10" s="10">
-        <v>5740</v>
+        <v>5870</v>
       </c>
       <c r="F10" s="1">
-        <v>5690</v>
+        <v>5810</v>
       </c>
       <c r="G10" s="1">
-        <v>5640</v>
+        <v>5750</v>
       </c>
       <c r="H10" s="1">
-        <v>5590</v>
+        <v>5700</v>
       </c>
       <c r="I10" s="1">
-        <v>5550</v>
+        <v>5650</v>
       </c>
       <c r="J10" s="1">
+        <v>5610</v>
+      </c>
+      <c r="K10" s="1">
+        <v>5570</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5540</v>
+      </c>
+      <c r="M10" s="1">
         <v>5510</v>
       </c>
-      <c r="K10" s="1">
+      <c r="N10" s="1">
+        <v>5490</v>
+      </c>
+      <c r="O10" s="1">
         <v>5470</v>
       </c>
-      <c r="L10" s="1">
-        <v>5430</v>
-      </c>
-      <c r="M10" s="1">
-        <v>5390</v>
-      </c>
-      <c r="N10" s="1">
-        <v>5370</v>
-      </c>
-      <c r="O10" s="1">
-        <v>5360</v>
-      </c>
       <c r="P10" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="Q10" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="R10" s="1">
-        <v>5370</v>
+        <v>5480</v>
       </c>
       <c r="S10" s="1">
-        <v>5380</v>
+        <v>5490</v>
       </c>
       <c r="T10" s="1">
-        <v>5390</v>
+        <v>5510</v>
       </c>
       <c r="U10" s="1">
-        <v>5410</v>
+        <v>5530</v>
       </c>
       <c r="V10" s="1">
-        <v>5440</v>
+        <v>5560</v>
       </c>
       <c r="W10" s="1">
-        <v>5470</v>
+        <v>5610</v>
       </c>
       <c r="X10" s="1">
-        <v>5520</v>
+        <v>5660</v>
       </c>
       <c r="Y10" s="1">
-        <v>5580</v>
+        <v>5730</v>
       </c>
       <c r="Z10" s="1">
-        <v>5650</v>
+        <v>5810</v>
       </c>
       <c r="AA10" s="1">
-        <v>5740</v>
+        <v>5920</v>
       </c>
       <c r="AB10" s="1">
-        <v>5840</v>
+        <v>6030</v>
       </c>
       <c r="AC10" s="1">
-        <v>5960</v>
+        <v>6160</v>
       </c>
       <c r="AD10" s="1">
-        <v>6080</v>
+        <v>6310</v>
       </c>
       <c r="AE10" s="1">
-        <v>6210</v>
+        <v>6460</v>
       </c>
       <c r="AF10" s="1">
+        <v>6610</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>6750</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>7090</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>7160</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>7190</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>7190</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>7170</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>7110</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>7040</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>6850</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>6750</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>6660</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>6580</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>6460</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>6420</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>6380</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>6330</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BC10" s="1">
+        <v>6290</v>
+      </c>
+      <c r="BD10" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BE10" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BF10" s="1">
+        <v>6240</v>
+      </c>
+      <c r="BG10" s="1">
+        <v>6240</v>
+      </c>
+      <c r="BH10" s="1">
+        <v>6240</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BL10" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BM10" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BN10" s="1">
+        <v>6290</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>6310</v>
+      </c>
+      <c r="BQ10" s="1">
         <v>6340</v>
       </c>
-      <c r="AG10" s="1">
-        <v>6480</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>6620</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>6740</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>6860</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>6960</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>7040</v>
-      </c>
-      <c r="AM10" s="1">
-        <v>7100</v>
-      </c>
-      <c r="AN10" s="1">
-        <v>7140</v>
-      </c>
-      <c r="AO10" s="1">
+      <c r="BR10" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BS10" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BT10" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>6640</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>6710</v>
+      </c>
+      <c r="BX10" s="1">
+        <v>6780</v>
+      </c>
+      <c r="BY10" s="1">
+        <v>6870</v>
+      </c>
+      <c r="BZ10" s="1">
+        <v>6950</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>7050</v>
+      </c>
+      <c r="CB10" s="1">
         <v>7160</v>
       </c>
-      <c r="AP10" s="1">
-        <v>7150</v>
-      </c>
-      <c r="AQ10" s="1">
-        <v>7120</v>
-      </c>
-      <c r="AR10" s="1">
-        <v>7090</v>
-      </c>
-      <c r="AS10" s="1">
-        <v>7040</v>
-      </c>
-      <c r="AT10" s="1">
-        <v>7000</v>
-      </c>
-      <c r="AU10" s="1">
-        <v>6960</v>
-      </c>
-      <c r="AV10" s="1">
-        <v>6920</v>
-      </c>
-      <c r="AW10" s="1">
-        <v>6890</v>
-      </c>
-      <c r="AX10" s="1">
-        <v>6870</v>
-      </c>
-      <c r="AY10" s="1">
-        <v>6850</v>
-      </c>
-      <c r="AZ10" s="1">
-        <v>6840</v>
-      </c>
-      <c r="BA10" s="1">
-        <v>6830</v>
-      </c>
-      <c r="BB10" s="1">
+      <c r="CC10" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CD10" s="1">
+        <v>7400</v>
+      </c>
+      <c r="CE10" s="1">
+        <v>7520</v>
+      </c>
+      <c r="CF10" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>7730</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>7760</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CJ10" s="1">
+        <v>7680</v>
+      </c>
+      <c r="CK10" s="1">
+        <v>7580</v>
+      </c>
+      <c r="CL10" s="1">
+        <v>7460</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>7320</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>7160</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>6980</v>
+      </c>
+      <c r="CP10" s="1">
         <v>6820</v>
       </c>
-      <c r="BC10" s="1">
-        <v>6810</v>
-      </c>
-      <c r="BD10" s="1">
-        <v>6800</v>
-      </c>
-      <c r="BE10" s="1">
-        <v>6790</v>
-      </c>
-      <c r="BF10" s="1">
-        <v>6770</v>
-      </c>
-      <c r="BG10" s="1">
-        <v>6760</v>
-      </c>
-      <c r="BH10" s="1">
-        <v>6740</v>
-      </c>
-      <c r="BI10" s="1">
-        <v>6720</v>
-      </c>
-      <c r="BJ10" s="1">
-        <v>6710</v>
-      </c>
-      <c r="BK10" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BL10" s="1">
-        <v>6670</v>
-      </c>
-      <c r="BM10" s="1">
-        <v>6640</v>
-      </c>
-      <c r="BN10" s="1">
-        <v>6620</v>
-      </c>
-      <c r="BO10" s="1">
-        <v>6610</v>
-      </c>
-      <c r="BP10" s="1">
-        <v>6610</v>
-      </c>
-      <c r="BQ10" s="1">
-        <v>6620</v>
-      </c>
-      <c r="BR10" s="1">
+      <c r="CQ10" s="1">
         <v>6650</v>
       </c>
-      <c r="BS10" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BT10" s="1">
-        <v>6750</v>
-      </c>
-      <c r="BU10" s="1">
-        <v>6800</v>
-      </c>
-      <c r="BV10" s="1">
-        <v>6850</v>
-      </c>
-      <c r="BW10" s="1">
-        <v>6900</v>
-      </c>
-      <c r="BX10" s="1">
-        <v>6950</v>
-      </c>
-      <c r="BY10" s="1">
-        <v>7010</v>
-      </c>
-      <c r="BZ10" s="1">
-        <v>7080</v>
-      </c>
-      <c r="CA10" s="1">
-        <v>7170</v>
-      </c>
-      <c r="CB10" s="1">
-        <v>7280</v>
-      </c>
-      <c r="CC10" s="1">
-        <v>7410</v>
-      </c>
-      <c r="CD10" s="1">
-        <v>7530</v>
-      </c>
-      <c r="CE10" s="1">
-        <v>7630</v>
-      </c>
-      <c r="CF10" s="1">
-        <v>7720</v>
-      </c>
-      <c r="CG10" s="1">
-        <v>7790</v>
-      </c>
-      <c r="CH10" s="1">
-        <v>7810</v>
-      </c>
-      <c r="CI10" s="1">
-        <v>7800</v>
-      </c>
-      <c r="CJ10" s="1">
-        <v>7730</v>
-      </c>
-      <c r="CK10" s="1">
-        <v>7640</v>
-      </c>
-      <c r="CL10" s="1">
-        <v>7560</v>
-      </c>
-      <c r="CM10" s="1">
-        <v>7430</v>
-      </c>
-      <c r="CN10" s="1">
-        <v>7240</v>
-      </c>
-      <c r="CO10" s="1">
-        <v>7090</v>
-      </c>
-      <c r="CP10" s="1">
-        <v>6930</v>
-      </c>
-      <c r="CQ10" s="1">
-        <v>6760</v>
-      </c>
       <c r="CR10" s="1">
-        <v>6600</v>
+        <v>6470</v>
       </c>
       <c r="CS10" s="1">
-        <v>6460</v>
+        <v>6330</v>
       </c>
       <c r="CT10" s="1">
-        <v>6350</v>
+        <v>6200</v>
       </c>
       <c r="CU10" s="1">
-        <v>6220</v>
+        <v>6100</v>
       </c>
     </row>
     <row r="11" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <v>45743</v>
+        <v>45749</v>
       </c>
       <c r="C11" s="9">
         <v>45750</v>
       </c>
       <c r="D11" s="1">
+        <v>5900</v>
+      </c>
+      <c r="E11" s="1">
         <v>5850</v>
       </c>
-      <c r="E11" s="1">
-        <v>5790</v>
-      </c>
       <c r="F11" s="1">
-        <v>5740</v>
+        <v>5800</v>
       </c>
       <c r="G11" s="1">
-        <v>5690</v>
+        <v>5730</v>
       </c>
       <c r="H11" s="1">
         <v>5640</v>
       </c>
       <c r="I11" s="1">
-        <v>5600</v>
+        <v>5590</v>
       </c>
       <c r="J11" s="1">
-        <v>5560</v>
+        <v>5540</v>
       </c>
       <c r="K11" s="1">
         <v>5520</v>
       </c>
       <c r="L11" s="1">
+        <v>5500</v>
+      </c>
+      <c r="M11" s="1">
         <v>5480</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
+        <v>5460</v>
+      </c>
+      <c r="O11" s="1">
         <v>5440</v>
-      </c>
-      <c r="N11" s="1">
-        <v>5420</v>
-      </c>
-      <c r="O11" s="1">
-        <v>5410</v>
       </c>
       <c r="P11" s="1">
         <v>5410</v>
       </c>
       <c r="Q11" s="1">
-        <v>5410</v>
+        <v>5400</v>
       </c>
       <c r="R11" s="1">
+        <v>5400</v>
+      </c>
+      <c r="S11" s="1">
+        <v>5400</v>
+      </c>
+      <c r="T11" s="1">
         <v>5420</v>
       </c>
-      <c r="S11" s="1">
+      <c r="U11" s="1">
         <v>5430</v>
       </c>
-      <c r="T11" s="1">
-        <v>5440</v>
-      </c>
-      <c r="U11" s="1">
+      <c r="V11" s="1">
         <v>5460</v>
       </c>
-      <c r="V11" s="1">
-        <v>5490</v>
-      </c>
       <c r="W11" s="1">
-        <v>5520</v>
+        <v>5510</v>
       </c>
       <c r="X11" s="1">
         <v>5570</v>
       </c>
       <c r="Y11" s="1">
-        <v>5630</v>
+        <v>5650</v>
       </c>
       <c r="Z11" s="1">
-        <v>5700</v>
+        <v>5750</v>
       </c>
       <c r="AA11" s="1">
-        <v>5790</v>
+        <v>5860</v>
       </c>
       <c r="AB11" s="1">
-        <v>5890</v>
+        <v>5970</v>
       </c>
       <c r="AC11" s="1">
-        <v>6000</v>
+        <v>6110</v>
       </c>
       <c r="AD11" s="1">
-        <v>6130</v>
+        <v>6260</v>
       </c>
       <c r="AE11" s="1">
-        <v>6260</v>
+        <v>6410</v>
       </c>
       <c r="AF11" s="1">
-        <v>6390</v>
+        <v>6630</v>
       </c>
       <c r="AG11" s="1">
-        <v>6530</v>
+        <v>6780</v>
       </c>
       <c r="AH11" s="1">
-        <v>6670</v>
+        <v>6920</v>
       </c>
       <c r="AI11" s="1">
-        <v>6810</v>
+        <v>7040</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6930</v>
+        <v>7130</v>
       </c>
       <c r="AK11" s="1">
-        <v>7040</v>
+        <v>7210</v>
       </c>
       <c r="AL11" s="1">
-        <v>7120</v>
+        <v>7260</v>
       </c>
       <c r="AM11" s="1">
-        <v>7180</v>
+        <v>7270</v>
       </c>
       <c r="AN11" s="1">
-        <v>7210</v>
+        <v>7250</v>
       </c>
       <c r="AO11" s="1">
         <v>7210</v>
       </c>
       <c r="AP11" s="1">
-        <v>7180</v>
+        <v>7140</v>
       </c>
       <c r="AQ11" s="1">
-        <v>7130</v>
+        <v>7060</v>
       </c>
       <c r="AR11" s="1">
-        <v>7070</v>
+        <v>6960</v>
       </c>
       <c r="AS11" s="1">
-        <v>7000</v>
+        <v>6870</v>
       </c>
       <c r="AT11" s="1">
-        <v>6920</v>
+        <v>6770</v>
       </c>
       <c r="AU11" s="1">
-        <v>6860</v>
+        <v>6690</v>
       </c>
       <c r="AV11" s="1">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="AW11" s="1">
-        <v>6760</v>
+        <v>6530</v>
       </c>
       <c r="AX11" s="1">
-        <v>6730</v>
+        <v>6470</v>
       </c>
       <c r="AY11" s="1">
-        <v>6710</v>
+        <v>6420</v>
       </c>
       <c r="AZ11" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>6320</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BC11" s="1">
+        <v>6240</v>
+      </c>
+      <c r="BD11" s="1">
+        <v>6220</v>
+      </c>
+      <c r="BE11" s="1">
+        <v>6210</v>
+      </c>
+      <c r="BF11" s="1">
+        <v>6190</v>
+      </c>
+      <c r="BG11" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BH11" s="1">
+        <v>6160</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BL11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BM11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BN11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>6200</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>6220</v>
+      </c>
+      <c r="BR11" s="1">
+        <v>6260</v>
+      </c>
+      <c r="BS11" s="1">
+        <v>6320</v>
+      </c>
+      <c r="BT11" s="1">
+        <v>6360</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>6440</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BX11" s="1">
         <v>6700</v>
       </c>
-      <c r="BA11" s="1">
-        <v>6690</v>
-      </c>
-      <c r="BB11" s="1">
-        <v>6680</v>
-      </c>
-      <c r="BC11" s="1">
-        <v>6660</v>
-      </c>
-      <c r="BD11" s="1">
-        <v>6630</v>
-      </c>
-      <c r="BE11" s="1">
-        <v>6590</v>
-      </c>
-      <c r="BF11" s="1">
-        <v>6550</v>
-      </c>
-      <c r="BG11" s="1">
-        <v>6510</v>
-      </c>
-      <c r="BH11" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BI11" s="1">
-        <v>6440</v>
-      </c>
-      <c r="BJ11" s="1">
-        <v>6410</v>
-      </c>
-      <c r="BK11" s="1">
-        <v>6390</v>
-      </c>
-      <c r="BL11" s="1">
-        <v>6380</v>
-      </c>
-      <c r="BM11" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BN11" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BO11" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BP11" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BQ11" s="1">
-        <v>6390</v>
-      </c>
-      <c r="BR11" s="1">
-        <v>6410</v>
-      </c>
-      <c r="BS11" s="1">
-        <v>6440</v>
-      </c>
-      <c r="BT11" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BU11" s="1">
-        <v>6510</v>
-      </c>
-      <c r="BV11" s="1">
-        <v>6540</v>
-      </c>
-      <c r="BW11" s="1">
-        <v>6570</v>
-      </c>
-      <c r="BX11" s="1">
-        <v>6610</v>
-      </c>
       <c r="BY11" s="1">
-        <v>6650</v>
+        <v>6770</v>
       </c>
       <c r="BZ11" s="1">
-        <v>6720</v>
+        <v>6850</v>
       </c>
       <c r="CA11" s="1">
-        <v>6820</v>
+        <v>6950</v>
       </c>
       <c r="CB11" s="1">
-        <v>6950</v>
+        <v>7030</v>
       </c>
       <c r="CC11" s="1">
-        <v>7110</v>
+        <v>7160</v>
       </c>
       <c r="CD11" s="1">
         <v>7290</v>
       </c>
       <c r="CE11" s="1">
-        <v>7460</v>
+        <v>7420</v>
       </c>
       <c r="CF11" s="1">
-        <v>7630</v>
+        <v>7600</v>
       </c>
       <c r="CG11" s="1">
-        <v>7760</v>
+        <v>7700</v>
       </c>
       <c r="CH11" s="1">
-        <v>7820</v>
+        <v>7740</v>
       </c>
       <c r="CI11" s="1">
-        <v>7820</v>
+        <v>7750</v>
       </c>
       <c r="CJ11" s="1">
-        <v>7750</v>
+        <v>7670</v>
       </c>
       <c r="CK11" s="1">
-        <v>7650</v>
+        <v>7560</v>
       </c>
       <c r="CL11" s="1">
-        <v>7550</v>
+        <v>7450</v>
       </c>
       <c r="CM11" s="1">
-        <v>7440</v>
+        <v>7320</v>
       </c>
       <c r="CN11" s="1">
-        <v>7280</v>
+        <v>7110</v>
       </c>
       <c r="CO11" s="1">
-        <v>7120</v>
+        <v>6950</v>
       </c>
       <c r="CP11" s="1">
-        <v>6960</v>
+        <v>6760</v>
       </c>
       <c r="CQ11" s="1">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="CR11" s="1">
-        <v>6630</v>
+        <v>6440</v>
       </c>
       <c r="CS11" s="1">
-        <v>6500</v>
+        <v>6250</v>
       </c>
       <c r="CT11" s="1">
-        <v>6380</v>
+        <v>6140</v>
       </c>
       <c r="CU11" s="1">
-        <v>6270</v>
+        <v>6030</v>
       </c>
     </row>
     <row r="12" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>45743</v>
+        <v>45750</v>
       </c>
       <c r="C12" s="9">
         <v>45751</v>
       </c>
       <c r="D12" s="1">
-        <v>5750</v>
+        <v>5880</v>
       </c>
       <c r="E12" s="1">
-        <v>5700</v>
+        <v>5830</v>
       </c>
       <c r="F12" s="1">
-        <v>5650</v>
+        <v>5780</v>
       </c>
       <c r="G12" s="1">
-        <v>5590</v>
+        <v>5720</v>
       </c>
       <c r="H12" s="1">
-        <v>5540</v>
+        <v>5660</v>
       </c>
       <c r="I12" s="1">
+        <v>5610</v>
+      </c>
+      <c r="J12" s="1">
+        <v>5580</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5550</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5520</v>
+      </c>
+      <c r="M12" s="1">
+        <v>5500</v>
+      </c>
+      <c r="N12" s="1">
         <v>5490</v>
       </c>
-      <c r="J12" s="1">
+      <c r="O12" s="1">
+        <v>5470</v>
+      </c>
+      <c r="P12" s="1">
         <v>5450</v>
       </c>
-      <c r="K12" s="1">
-        <v>5410</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5370</v>
-      </c>
-      <c r="M12" s="1">
-        <v>5340</v>
-      </c>
-      <c r="N12" s="1">
-        <v>5320</v>
-      </c>
-      <c r="O12" s="1">
-        <v>5310</v>
-      </c>
-      <c r="P12" s="1">
-        <v>5310</v>
-      </c>
       <c r="Q12" s="1">
-        <v>5320</v>
+        <v>5430</v>
       </c>
       <c r="R12" s="1">
-        <v>5320</v>
+        <v>5430</v>
       </c>
       <c r="S12" s="1">
-        <v>5330</v>
+        <v>5440</v>
       </c>
       <c r="T12" s="1">
-        <v>5340</v>
+        <v>5450</v>
       </c>
       <c r="U12" s="1">
-        <v>5360</v>
+        <v>5460</v>
       </c>
       <c r="V12" s="1">
-        <v>5390</v>
+        <v>5470</v>
       </c>
       <c r="W12" s="1">
-        <v>5420</v>
+        <v>5500</v>
       </c>
       <c r="X12" s="1">
-        <v>5470</v>
+        <v>5560</v>
       </c>
       <c r="Y12" s="1">
-        <v>5530</v>
+        <v>5630</v>
       </c>
       <c r="Z12" s="1">
-        <v>5610</v>
+        <v>5720</v>
       </c>
       <c r="AA12" s="1">
-        <v>5690</v>
+        <v>5820</v>
       </c>
       <c r="AB12" s="1">
-        <v>5790</v>
+        <v>5940</v>
       </c>
       <c r="AC12" s="1">
-        <v>5900</v>
+        <v>6060</v>
       </c>
       <c r="AD12" s="1">
+        <v>6190</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>6360</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>6540</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>7130</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>7180</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>7190</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>7200</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>7180</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>7150</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>7090</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>7000</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>6900</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>6700</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>6600</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>6480</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>6240</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>6080</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>6050</v>
+      </c>
+      <c r="BD12" s="1">
         <v>6030</v>
       </c>
-      <c r="AE12" s="1">
-        <v>6160</v>
-      </c>
-      <c r="AF12" s="1">
-        <v>6290</v>
-      </c>
-      <c r="AG12" s="1">
-        <v>6430</v>
-      </c>
-      <c r="AH12" s="1">
+      <c r="BE12" s="1">
+        <v>6030</v>
+      </c>
+      <c r="BF12" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BG12" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BH12" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>6030</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>6030</v>
+      </c>
+      <c r="BL12" s="1">
+        <v>6040</v>
+      </c>
+      <c r="BM12" s="1">
+        <v>6050</v>
+      </c>
+      <c r="BN12" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>6150</v>
+      </c>
+      <c r="BR12" s="1">
+        <v>6210</v>
+      </c>
+      <c r="BS12" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BT12" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BW12" s="1">
         <v>6570</v>
       </c>
-      <c r="AI12" s="1">
-        <v>6710</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>6830</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>6940</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>7020</v>
-      </c>
-      <c r="AM12" s="1">
-        <v>7080</v>
-      </c>
-      <c r="AN12" s="1">
-        <v>7110</v>
-      </c>
-      <c r="AO12" s="1">
-        <v>7110</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>7080</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>7030</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>6970</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>6890</v>
-      </c>
-      <c r="AT12" s="1">
+      <c r="BX12" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BY12" s="1">
+        <v>6730</v>
+      </c>
+      <c r="BZ12" s="1">
         <v>6820</v>
       </c>
-      <c r="AU12" s="1">
-        <v>6760</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>6700</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>6660</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>6630</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>6610</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>6600</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>6590</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>6580</v>
-      </c>
-      <c r="BC12" s="1">
+      <c r="CA12" s="1">
+        <v>6930</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>7040</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>7160</v>
+      </c>
+      <c r="CD12" s="1">
+        <v>7280</v>
+      </c>
+      <c r="CE12" s="1">
+        <v>7400</v>
+      </c>
+      <c r="CF12" s="1">
+        <v>7540</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>7620</v>
+      </c>
+      <c r="CJ12" s="1">
+        <v>7570</v>
+      </c>
+      <c r="CK12" s="1">
+        <v>7480</v>
+      </c>
+      <c r="CL12" s="1">
+        <v>7380</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>7250</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>7050</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>6900</v>
+      </c>
+      <c r="CP12" s="1">
+        <v>6720</v>
+      </c>
+      <c r="CQ12" s="1">
         <v>6550</v>
       </c>
-      <c r="BD12" s="1">
-        <v>6530</v>
-      </c>
-      <c r="BE12" s="1">
-        <v>6490</v>
-      </c>
-      <c r="BF12" s="1">
-        <v>6450</v>
-      </c>
-      <c r="BG12" s="1">
-        <v>6410</v>
-      </c>
-      <c r="BH12" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BI12" s="1">
-        <v>6340</v>
-      </c>
-      <c r="BJ12" s="1">
-        <v>6310</v>
-      </c>
-      <c r="BK12" s="1">
-        <v>6290</v>
-      </c>
-      <c r="BL12" s="1">
-        <v>6280</v>
-      </c>
-      <c r="BM12" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BN12" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BO12" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BP12" s="1">
-        <v>6270</v>
-      </c>
-      <c r="BQ12" s="1">
-        <v>6290</v>
-      </c>
-      <c r="BR12" s="1">
-        <v>6310</v>
-      </c>
-      <c r="BS12" s="1">
-        <v>6340</v>
-      </c>
-      <c r="BT12" s="1">
-        <v>6370</v>
-      </c>
-      <c r="BU12" s="1">
-        <v>6410</v>
-      </c>
-      <c r="BV12" s="1">
-        <v>6440</v>
-      </c>
-      <c r="BW12" s="1">
-        <v>6470</v>
-      </c>
-      <c r="BX12" s="1">
-        <v>6510</v>
-      </c>
-      <c r="BY12" s="1">
-        <v>6550</v>
-      </c>
-      <c r="BZ12" s="1">
-        <v>6620</v>
-      </c>
-      <c r="CA12" s="1">
-        <v>6720</v>
-      </c>
-      <c r="CB12" s="1">
-        <v>6850</v>
-      </c>
-      <c r="CC12" s="1">
-        <v>7010</v>
-      </c>
-      <c r="CD12" s="1">
-        <v>7190</v>
-      </c>
-      <c r="CE12" s="1">
-        <v>7360</v>
-      </c>
-      <c r="CF12" s="1">
-        <v>7530</v>
-      </c>
-      <c r="CG12" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CH12" s="1">
-        <v>7720</v>
-      </c>
-      <c r="CI12" s="1">
-        <v>7730</v>
-      </c>
-      <c r="CJ12" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CK12" s="1">
-        <v>7580</v>
-      </c>
-      <c r="CL12" s="1">
-        <v>7480</v>
-      </c>
-      <c r="CM12" s="1">
-        <v>7350</v>
-      </c>
-      <c r="CN12" s="1">
-        <v>7180</v>
-      </c>
-      <c r="CO12" s="1">
-        <v>7040</v>
-      </c>
-      <c r="CP12" s="1">
-        <v>6860</v>
-      </c>
-      <c r="CQ12" s="1">
-        <v>6710</v>
-      </c>
       <c r="CR12" s="1">
-        <v>6550</v>
+        <v>6400</v>
       </c>
       <c r="CS12" s="1">
-        <v>6420</v>
+        <v>6260</v>
       </c>
       <c r="CT12" s="1">
-        <v>6300</v>
+        <v>6140</v>
       </c>
       <c r="CU12" s="1">
-        <v>6190</v>
+        <v>6020</v>
       </c>
     </row>
     <row r="13" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C13" s="9">
         <v>45752</v>
       </c>
       <c r="D13" s="1">
+        <v>5820</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5750</v>
+      </c>
+      <c r="F13" s="1">
+        <v>5720</v>
+      </c>
+      <c r="G13" s="1">
+        <v>5650</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5590</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5530</v>
+      </c>
+      <c r="J13" s="1">
+        <v>5480</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5450</v>
+      </c>
+      <c r="L13" s="1">
+        <v>5420</v>
+      </c>
+      <c r="M13" s="1">
+        <v>5390</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5370</v>
+      </c>
+      <c r="O13" s="1">
+        <v>5350</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5330</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>5300</v>
+      </c>
+      <c r="R13" s="1">
+        <v>5310</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5310</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5310</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5330</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5340</v>
+      </c>
+      <c r="W13" s="1">
+        <v>5360</v>
+      </c>
+      <c r="X13" s="1">
+        <v>5380</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>5400</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>5420</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>5450</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>5490</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5530</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>5580</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>5640</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>5720</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>5800</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>5880</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>5970</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>6040</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>6100</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>6150</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>6150</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>6150</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>6130</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>6090</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>6040</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>5990</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>5930</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>5880</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>5830</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>5770</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>5740</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>5720</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>5710</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>5690</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>5670</v>
+      </c>
+      <c r="BC13" s="1">
+        <v>5640</v>
+      </c>
+      <c r="BD13" s="1">
+        <v>5620</v>
+      </c>
+      <c r="BE13" s="1">
+        <v>5610</v>
+      </c>
+      <c r="BF13" s="1">
         <v>5600</v>
       </c>
-      <c r="E13" s="1">
-        <v>5540</v>
-      </c>
-      <c r="F13" s="1">
-        <v>5490</v>
-      </c>
-      <c r="G13" s="1">
-        <v>5430</v>
-      </c>
-      <c r="H13" s="1">
-        <v>5380</v>
-      </c>
-      <c r="I13" s="1">
-        <v>5330</v>
-      </c>
-      <c r="J13" s="1">
-        <v>5290</v>
-      </c>
-      <c r="K13" s="1">
-        <v>5240</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5200</v>
-      </c>
-      <c r="M13" s="1">
-        <v>5170</v>
-      </c>
-      <c r="N13" s="1">
-        <v>5140</v>
-      </c>
-      <c r="O13" s="1">
-        <v>5130</v>
-      </c>
-      <c r="P13" s="1">
-        <v>5120</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>5110</v>
-      </c>
-      <c r="R13" s="1">
-        <v>5110</v>
-      </c>
-      <c r="S13" s="1">
-        <v>5120</v>
-      </c>
-      <c r="T13" s="1">
-        <v>5120</v>
-      </c>
-      <c r="U13" s="1">
-        <v>5120</v>
-      </c>
-      <c r="V13" s="1">
-        <v>5120</v>
-      </c>
-      <c r="W13" s="1">
-        <v>5130</v>
-      </c>
-      <c r="X13" s="1">
-        <v>5140</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>5150</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>5160</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>5180</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>5200</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>5220</v>
-      </c>
-      <c r="AD13" s="1">
-        <v>5260</v>
-      </c>
-      <c r="AE13" s="1">
-        <v>5290</v>
-      </c>
-      <c r="AF13" s="1">
-        <v>5330</v>
-      </c>
-      <c r="AG13" s="1">
-        <v>5370</v>
-      </c>
-      <c r="AH13" s="1">
-        <v>5420</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>5460</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>5500</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>5530</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>5550</v>
-      </c>
-      <c r="AM13" s="1">
-        <v>5560</v>
-      </c>
-      <c r="AN13" s="1">
-        <v>5550</v>
-      </c>
-      <c r="AO13" s="1">
-        <v>5530</v>
-      </c>
-      <c r="AP13" s="1">
-        <v>5490</v>
-      </c>
-      <c r="AQ13" s="1">
-        <v>5440</v>
-      </c>
-      <c r="AR13" s="1">
-        <v>5390</v>
-      </c>
-      <c r="AS13" s="1">
-        <v>5330</v>
-      </c>
-      <c r="AT13" s="1">
-        <v>5260</v>
-      </c>
-      <c r="AU13" s="1">
-        <v>5210</v>
-      </c>
-      <c r="AV13" s="1">
-        <v>5150</v>
-      </c>
-      <c r="AW13" s="1">
-        <v>5110</v>
-      </c>
-      <c r="AX13" s="1">
-        <v>5060</v>
-      </c>
-      <c r="AY13" s="1">
-        <v>5020</v>
-      </c>
-      <c r="AZ13" s="1">
-        <v>4980</v>
-      </c>
-      <c r="BA13" s="1">
-        <v>4940</v>
-      </c>
-      <c r="BB13" s="1">
-        <v>4900</v>
-      </c>
-      <c r="BC13" s="1">
-        <v>4860</v>
-      </c>
-      <c r="BD13" s="1">
-        <v>4820</v>
-      </c>
-      <c r="BE13" s="1">
-        <v>4780</v>
-      </c>
-      <c r="BF13" s="1">
-        <v>4740</v>
-      </c>
       <c r="BG13" s="1">
-        <v>4720</v>
+        <v>5590</v>
       </c>
       <c r="BH13" s="1">
-        <v>4710</v>
+        <v>5590</v>
       </c>
       <c r="BI13" s="1">
-        <v>4720</v>
+        <v>5600</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4730</v>
+        <v>5610</v>
       </c>
       <c r="BK13" s="1">
-        <v>4760</v>
+        <v>5620</v>
       </c>
       <c r="BL13" s="1">
-        <v>4800</v>
+        <v>5630</v>
       </c>
       <c r="BM13" s="1">
-        <v>4850</v>
+        <v>5630</v>
       </c>
       <c r="BN13" s="1">
-        <v>4900</v>
+        <v>5640</v>
       </c>
       <c r="BO13" s="1">
-        <v>4960</v>
+        <v>5650</v>
       </c>
       <c r="BP13" s="1">
-        <v>5030</v>
+        <v>5660</v>
       </c>
       <c r="BQ13" s="1">
-        <v>5100</v>
+        <v>5680</v>
       </c>
       <c r="BR13" s="1">
-        <v>5190</v>
+        <v>5720</v>
       </c>
       <c r="BS13" s="1">
-        <v>5280</v>
+        <v>5760</v>
       </c>
       <c r="BT13" s="1">
-        <v>5380</v>
+        <v>5820</v>
       </c>
       <c r="BU13" s="1">
-        <v>5470</v>
+        <v>5890</v>
       </c>
       <c r="BV13" s="1">
-        <v>5560</v>
+        <v>5960</v>
       </c>
       <c r="BW13" s="1">
-        <v>5650</v>
+        <v>6030</v>
       </c>
       <c r="BX13" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BY13" s="1">
+        <v>6200</v>
+      </c>
+      <c r="BZ13" s="1">
+        <v>6310</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>6440</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>6580</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>6740</v>
+      </c>
+      <c r="CD13" s="1">
+        <v>6880</v>
+      </c>
+      <c r="CE13" s="1">
+        <v>7000</v>
+      </c>
+      <c r="CF13" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CJ13" s="1">
+        <v>6990</v>
+      </c>
+      <c r="CK13" s="1">
+        <v>6840</v>
+      </c>
+      <c r="CL13" s="1">
+        <v>6750</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>6660</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>6540</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>6440</v>
+      </c>
+      <c r="CP13" s="1">
+        <v>6270</v>
+      </c>
+      <c r="CQ13" s="1">
+        <v>6130</v>
+      </c>
+      <c r="CR13" s="1">
+        <v>5980</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>5820</v>
+      </c>
+      <c r="CT13" s="1">
         <v>5730</v>
       </c>
-      <c r="BY13" s="1">
-        <v>5800</v>
-      </c>
-      <c r="BZ13" s="1">
-        <v>5880</v>
-      </c>
-      <c r="CA13" s="1">
-        <v>5970</v>
-      </c>
-      <c r="CB13" s="1">
-        <v>6070</v>
-      </c>
-      <c r="CC13" s="1">
-        <v>6190</v>
-      </c>
-      <c r="CD13" s="1">
-        <v>6300</v>
-      </c>
-      <c r="CE13" s="1">
-        <v>6400</v>
-      </c>
-      <c r="CF13" s="1">
-        <v>6500</v>
-      </c>
-      <c r="CG13" s="1">
-        <v>6590</v>
-      </c>
-      <c r="CH13" s="1">
-        <v>6620</v>
-      </c>
-      <c r="CI13" s="1">
-        <v>6620</v>
-      </c>
-      <c r="CJ13" s="1">
-        <v>6570</v>
-      </c>
-      <c r="CK13" s="1">
-        <v>6500</v>
-      </c>
-      <c r="CL13" s="1">
-        <v>6420</v>
-      </c>
-      <c r="CM13" s="1">
-        <v>6320</v>
-      </c>
-      <c r="CN13" s="1">
-        <v>6190</v>
-      </c>
-      <c r="CO13" s="1">
-        <v>6060</v>
-      </c>
-      <c r="CP13" s="1">
-        <v>5920</v>
-      </c>
-      <c r="CQ13" s="1">
-        <v>5780</v>
-      </c>
-      <c r="CR13" s="1">
+      <c r="CU13" s="1">
         <v>5620</v>
-      </c>
-      <c r="CS13" s="1">
-        <v>5500</v>
-      </c>
-      <c r="CT13" s="1">
-        <v>5390</v>
-      </c>
-      <c r="CU13" s="1">
-        <v>5280</v>
       </c>
     </row>
     <row r="14" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C14" s="9">
         <v>45753</v>
       </c>
       <c r="D14" s="1">
+        <v>5540</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5490</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5440</v>
+      </c>
+      <c r="G14" s="1">
+        <v>5360</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5280</v>
+      </c>
+      <c r="I14" s="1">
+        <v>5220</v>
+      </c>
+      <c r="J14" s="1">
+        <v>5160</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5120</v>
+      </c>
+      <c r="L14" s="1">
+        <v>5080</v>
+      </c>
+      <c r="M14" s="1">
+        <v>5060</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5040</v>
+      </c>
+      <c r="O14" s="1">
+        <v>5030</v>
+      </c>
+      <c r="P14" s="1">
+        <v>5020</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="S14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="U14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="W14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="X14" s="1">
+        <v>5000</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>5010</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>5020</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>5040</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>5070</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>5110</v>
+      </c>
+      <c r="AD14" s="1">
         <v>5150</v>
       </c>
-      <c r="E14" s="10">
+      <c r="AE14" s="1">
+        <v>5190</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>5240</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>5280</v>
+      </c>
+      <c r="AH14" s="1">
+        <v>5330</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>5400</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>5430</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>5450</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>5440</v>
+      </c>
+      <c r="AO14" s="1">
+        <v>5430</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>5400</v>
+      </c>
+      <c r="AQ14" s="1">
+        <v>5370</v>
+      </c>
+      <c r="AR14" s="1">
+        <v>5340</v>
+      </c>
+      <c r="AS14" s="1">
+        <v>5310</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>5280</v>
+      </c>
+      <c r="AU14" s="1">
+        <v>5260</v>
+      </c>
+      <c r="AV14" s="1">
+        <v>5230</v>
+      </c>
+      <c r="AW14" s="1">
+        <v>5210</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>5200</v>
+      </c>
+      <c r="AY14" s="1">
+        <v>5180</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>5160</v>
+      </c>
+      <c r="BA14" s="1">
+        <v>5140</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>5130</v>
+      </c>
+      <c r="BC14" s="1">
+        <v>5110</v>
+      </c>
+      <c r="BD14" s="1">
+        <v>5090</v>
+      </c>
+      <c r="BE14" s="1">
         <v>5080</v>
       </c>
-      <c r="F14" s="1">
-        <v>5040</v>
-      </c>
-      <c r="G14" s="1">
-        <v>4990</v>
-      </c>
-      <c r="H14" s="1">
-        <v>4940</v>
-      </c>
-      <c r="I14" s="1">
-        <v>4900</v>
-      </c>
-      <c r="J14" s="1">
-        <v>4860</v>
-      </c>
-      <c r="K14" s="1">
-        <v>4830</v>
-      </c>
-      <c r="L14" s="1">
-        <v>4800</v>
-      </c>
-      <c r="M14" s="1">
-        <v>4770</v>
-      </c>
-      <c r="N14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="O14" s="1">
-        <v>4710</v>
-      </c>
-      <c r="P14" s="1">
-        <v>4690</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>4670</v>
-      </c>
-      <c r="R14" s="1">
-        <v>4660</v>
-      </c>
-      <c r="S14" s="1">
-        <v>4650</v>
-      </c>
-      <c r="T14" s="1">
-        <v>4650</v>
-      </c>
-      <c r="U14" s="1">
-        <v>4650</v>
-      </c>
-      <c r="V14" s="1">
-        <v>4660</v>
-      </c>
-      <c r="W14" s="1">
-        <v>4670</v>
-      </c>
-      <c r="X14" s="1">
-        <v>4680</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>4690</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>4700</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>4710</v>
-      </c>
-      <c r="AB14" s="1">
-        <v>4720</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>4730</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>4730</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="AG14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="AH14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>4740</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>4730</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>4710</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>4690</v>
-      </c>
-      <c r="AM14" s="1">
-        <v>4660</v>
-      </c>
-      <c r="AN14" s="1">
-        <v>4630</v>
-      </c>
-      <c r="AO14" s="1">
-        <v>4580</v>
-      </c>
-      <c r="AP14" s="1">
-        <v>4540</v>
-      </c>
-      <c r="AQ14" s="1">
-        <v>4500</v>
-      </c>
-      <c r="AR14" s="1">
-        <v>4450</v>
-      </c>
-      <c r="AS14" s="1">
-        <v>4410</v>
-      </c>
-      <c r="AT14" s="1">
-        <v>4380</v>
-      </c>
-      <c r="AU14" s="1">
-        <v>4350</v>
-      </c>
-      <c r="AV14" s="1">
-        <v>4330</v>
-      </c>
-      <c r="AW14" s="1">
-        <v>4320</v>
-      </c>
-      <c r="AX14" s="1">
-        <v>4310</v>
-      </c>
-      <c r="AY14" s="1">
-        <v>4290</v>
-      </c>
-      <c r="AZ14" s="1">
-        <v>4280</v>
-      </c>
-      <c r="BA14" s="1">
-        <v>4270</v>
-      </c>
-      <c r="BB14" s="1">
-        <v>4250</v>
-      </c>
-      <c r="BC14" s="1">
-        <v>4230</v>
-      </c>
-      <c r="BD14" s="1">
-        <v>4220</v>
-      </c>
-      <c r="BE14" s="1">
-        <v>4210</v>
-      </c>
       <c r="BF14" s="1">
-        <v>4200</v>
+        <v>5070</v>
       </c>
       <c r="BG14" s="1">
-        <v>4210</v>
+        <v>5070</v>
       </c>
       <c r="BH14" s="1">
-        <v>4220</v>
+        <v>5070</v>
       </c>
       <c r="BI14" s="1">
-        <v>4240</v>
+        <v>5070</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4260</v>
+        <v>5080</v>
       </c>
       <c r="BK14" s="1">
-        <v>4290</v>
+        <v>5090</v>
       </c>
       <c r="BL14" s="1">
-        <v>4320</v>
+        <v>5100</v>
       </c>
       <c r="BM14" s="1">
-        <v>4350</v>
+        <v>5110</v>
       </c>
       <c r="BN14" s="1">
-        <v>4390</v>
+        <v>5120</v>
       </c>
       <c r="BO14" s="1">
-        <v>4430</v>
+        <v>5140</v>
       </c>
       <c r="BP14" s="1">
-        <v>4480</v>
+        <v>5170</v>
       </c>
       <c r="BQ14" s="1">
-        <v>4540</v>
+        <v>5200</v>
       </c>
       <c r="BR14" s="1">
-        <v>4610</v>
+        <v>5250</v>
       </c>
       <c r="BS14" s="1">
-        <v>4690</v>
+        <v>5310</v>
       </c>
       <c r="BT14" s="1">
-        <v>4770</v>
+        <v>5370</v>
       </c>
       <c r="BU14" s="1">
-        <v>4860</v>
+        <v>5440</v>
       </c>
       <c r="BV14" s="1">
-        <v>4950</v>
+        <v>5510</v>
       </c>
       <c r="BW14" s="1">
-        <v>5030</v>
+        <v>5570</v>
       </c>
       <c r="BX14" s="1">
-        <v>5110</v>
+        <v>5640</v>
       </c>
       <c r="BY14" s="1">
-        <v>5200</v>
+        <v>5710</v>
       </c>
       <c r="BZ14" s="1">
-        <v>5290</v>
+        <v>5780</v>
       </c>
       <c r="CA14" s="1">
-        <v>5380</v>
+        <v>5880</v>
       </c>
       <c r="CB14" s="1">
-        <v>5490</v>
+        <v>5990</v>
       </c>
       <c r="CC14" s="1">
-        <v>5620</v>
+        <v>6110</v>
       </c>
       <c r="CD14" s="1">
+        <v>6240</v>
+      </c>
+      <c r="CE14" s="1">
+        <v>6360</v>
+      </c>
+      <c r="CF14" s="1">
+        <v>6480</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>6580</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>6600</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>6600</v>
+      </c>
+      <c r="CJ14" s="1">
+        <v>6570</v>
+      </c>
+      <c r="CK14" s="1">
+        <v>6460</v>
+      </c>
+      <c r="CL14" s="1">
+        <v>6410</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>6340</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>6230</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>6130</v>
+      </c>
+      <c r="CP14" s="1">
+        <v>5960</v>
+      </c>
+      <c r="CQ14" s="1">
+        <v>5850</v>
+      </c>
+      <c r="CR14" s="1">
         <v>5750</v>
       </c>
-      <c r="CE14" s="1">
-        <v>5870</v>
-      </c>
-      <c r="CF14" s="1">
-        <v>5990</v>
-      </c>
-      <c r="CG14" s="1">
-        <v>6090</v>
-      </c>
-      <c r="CH14" s="1">
-        <v>6130</v>
-      </c>
-      <c r="CI14" s="1">
-        <v>6130</v>
-      </c>
-      <c r="CJ14" s="1">
-        <v>6070</v>
-      </c>
-      <c r="CK14" s="1">
-        <v>6000</v>
-      </c>
-      <c r="CL14" s="1">
-        <v>5930</v>
-      </c>
-      <c r="CM14" s="1">
-        <v>5830</v>
-      </c>
-      <c r="CN14" s="1">
-        <v>5710</v>
-      </c>
-      <c r="CO14" s="1">
-        <v>5610</v>
-      </c>
-      <c r="CP14" s="1">
-        <v>5490</v>
-      </c>
-      <c r="CQ14" s="1">
-        <v>5380</v>
-      </c>
-      <c r="CR14" s="1">
-        <v>5260</v>
-      </c>
       <c r="CS14" s="1">
-        <v>5130</v>
+        <v>5600</v>
       </c>
       <c r="CT14" s="1">
-        <v>5030</v>
+        <v>5510</v>
       </c>
       <c r="CU14" s="1">
-        <v>4920</v>
+        <v>5400</v>
       </c>
     </row>
     <row r="15" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B15" s="8">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="C15" s="9">
         <v>45754</v>
       </c>
       <c r="D15" s="1">
-        <v>4920</v>
+        <v>5400</v>
       </c>
       <c r="E15" s="1">
-        <v>4900</v>
+        <v>5340</v>
       </c>
       <c r="F15" s="1">
-        <v>4880</v>
+        <v>5290</v>
       </c>
       <c r="G15" s="1">
-        <v>4860</v>
+        <v>5230</v>
       </c>
       <c r="H15" s="1">
-        <v>4830</v>
+        <v>5180</v>
       </c>
       <c r="I15" s="1">
-        <v>4800</v>
+        <v>5130</v>
       </c>
       <c r="J15" s="1">
-        <v>4780</v>
+        <v>5090</v>
       </c>
       <c r="K15" s="1">
-        <v>4750</v>
+        <v>5060</v>
       </c>
       <c r="L15" s="1">
-        <v>4710</v>
+        <v>5030</v>
       </c>
       <c r="M15" s="1">
-        <v>4690</v>
+        <v>5010</v>
       </c>
       <c r="N15" s="1">
-        <v>4670</v>
+        <v>5000</v>
       </c>
       <c r="O15" s="1">
-        <v>4660</v>
+        <v>5000</v>
       </c>
       <c r="P15" s="1">
-        <v>4660</v>
+        <v>5000</v>
       </c>
       <c r="Q15" s="1">
-        <v>4660</v>
+        <v>5010</v>
       </c>
       <c r="R15" s="1">
-        <v>4670</v>
+        <v>5010</v>
       </c>
       <c r="S15" s="1">
-        <v>4680</v>
+        <v>5020</v>
       </c>
       <c r="T15" s="1">
-        <v>4700</v>
+        <v>5030</v>
       </c>
       <c r="U15" s="1">
-        <v>4720</v>
+        <v>5050</v>
       </c>
       <c r="V15" s="1">
-        <v>4760</v>
+        <v>5080</v>
       </c>
       <c r="W15" s="1">
-        <v>4800</v>
+        <v>5120</v>
       </c>
       <c r="X15" s="1">
-        <v>4860</v>
+        <v>5180</v>
       </c>
       <c r="Y15" s="1">
-        <v>4940</v>
+        <v>5260</v>
       </c>
       <c r="Z15" s="1">
-        <v>5030</v>
+        <v>5370</v>
       </c>
       <c r="AA15" s="1">
-        <v>5150</v>
+        <v>5500</v>
       </c>
       <c r="AB15" s="1">
-        <v>5290</v>
+        <v>5660</v>
       </c>
       <c r="AC15" s="1">
-        <v>5440</v>
+        <v>5830</v>
       </c>
       <c r="AD15" s="1">
-        <v>5620</v>
+        <v>6030</v>
       </c>
       <c r="AE15" s="1">
-        <v>5800</v>
+        <v>6230</v>
       </c>
       <c r="AF15" s="1">
-        <v>6000</v>
+        <v>6440</v>
       </c>
       <c r="AG15" s="1">
-        <v>6190</v>
+        <v>6640</v>
       </c>
       <c r="AH15" s="1">
-        <v>6390</v>
+        <v>6830</v>
       </c>
       <c r="AI15" s="1">
-        <v>6570</v>
+        <v>6990</v>
       </c>
       <c r="AJ15" s="1">
+        <v>7130</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>7230</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>7250</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>7180</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>7100</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>7020</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>6800</v>
+      </c>
+      <c r="AW15" s="1">
         <v>6740</v>
       </c>
-      <c r="AK15" s="1">
-        <v>6880</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>7000</v>
-      </c>
-      <c r="AM15" s="1">
-        <v>7100</v>
-      </c>
-      <c r="AN15" s="1">
-        <v>7160</v>
-      </c>
-      <c r="AO15" s="1">
-        <v>7190</v>
-      </c>
-      <c r="AP15" s="1">
-        <v>7200</v>
-      </c>
-      <c r="AQ15" s="1">
-        <v>7190</v>
-      </c>
-      <c r="AR15" s="1">
-        <v>7160</v>
-      </c>
-      <c r="AS15" s="1">
-        <v>7120</v>
-      </c>
-      <c r="AT15" s="1">
-        <v>7070</v>
-      </c>
-      <c r="AU15" s="1">
-        <v>7020</v>
-      </c>
-      <c r="AV15" s="1">
-        <v>6960</v>
-      </c>
-      <c r="AW15" s="1">
-        <v>6910</v>
-      </c>
       <c r="AX15" s="1">
-        <v>6850</v>
+        <v>6690</v>
       </c>
       <c r="AY15" s="1">
-        <v>6800</v>
+        <v>6650</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6750</v>
+        <v>6620</v>
       </c>
       <c r="BA15" s="1">
-        <v>6710</v>
+        <v>6590</v>
       </c>
       <c r="BB15" s="1">
-        <v>6660</v>
+        <v>6560</v>
       </c>
       <c r="BC15" s="1">
-        <v>6620</v>
+        <v>6530</v>
       </c>
       <c r="BD15" s="1">
-        <v>6590</v>
+        <v>6510</v>
       </c>
       <c r="BE15" s="1">
-        <v>6560</v>
+        <v>6490</v>
       </c>
       <c r="BF15" s="1">
-        <v>6540</v>
+        <v>6480</v>
       </c>
       <c r="BG15" s="1">
-        <v>6520</v>
+        <v>6470</v>
       </c>
       <c r="BH15" s="1">
-        <v>6510</v>
+        <v>6470</v>
       </c>
       <c r="BI15" s="1">
-        <v>6510</v>
+        <v>6470</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6500</v>
+        <v>6470</v>
       </c>
       <c r="BK15" s="1">
-        <v>6500</v>
+        <v>6470</v>
       </c>
       <c r="BL15" s="1">
-        <v>6490</v>
+        <v>6460</v>
       </c>
       <c r="BM15" s="1">
-        <v>6480</v>
+        <v>6460</v>
       </c>
       <c r="BN15" s="1">
-        <v>6470</v>
+        <v>6460</v>
       </c>
       <c r="BO15" s="1">
         <v>6460</v>
       </c>
       <c r="BP15" s="1">
-        <v>6460</v>
+        <v>6470</v>
       </c>
       <c r="BQ15" s="1">
-        <v>6470</v>
+        <v>6480</v>
       </c>
       <c r="BR15" s="1">
-        <v>6490</v>
+        <v>6510</v>
       </c>
       <c r="BS15" s="1">
-        <v>6510</v>
+        <v>6550</v>
       </c>
       <c r="BT15" s="1">
-        <v>6540</v>
+        <v>6600</v>
       </c>
       <c r="BU15" s="1">
-        <v>6570</v>
+        <v>6650</v>
       </c>
       <c r="BV15" s="1">
-        <v>6600</v>
+        <v>6710</v>
       </c>
       <c r="BW15" s="1">
-        <v>6630</v>
+        <v>6780</v>
       </c>
       <c r="BX15" s="1">
-        <v>6670</v>
+        <v>6850</v>
       </c>
       <c r="BY15" s="1">
-        <v>6720</v>
+        <v>6940</v>
       </c>
       <c r="BZ15" s="1">
-        <v>6800</v>
+        <v>7050</v>
       </c>
       <c r="CA15" s="1">
-        <v>6900</v>
+        <v>7170</v>
       </c>
       <c r="CB15" s="1">
-        <v>7020</v>
+        <v>7310</v>
       </c>
       <c r="CC15" s="1">
-        <v>7170</v>
+        <v>7450</v>
       </c>
       <c r="CD15" s="1">
-        <v>7310</v>
+        <v>7590</v>
       </c>
       <c r="CE15" s="1">
+        <v>7710</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>7810</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>7890</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>7900</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>7890</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>7790</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>7540</v>
+      </c>
+      <c r="CM15" s="1">
         <v>7430</v>
-      </c>
-      <c r="CF15" s="1">
-        <v>7560</v>
-      </c>
-      <c r="CG15" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CH15" s="1">
-        <v>7720</v>
-      </c>
-      <c r="CI15" s="1">
-        <v>7750</v>
-      </c>
-      <c r="CJ15" s="1">
-        <v>7720</v>
-      </c>
-      <c r="CK15" s="1">
-        <v>7660</v>
-      </c>
-      <c r="CL15" s="1">
-        <v>7560</v>
-      </c>
-      <c r="CM15" s="1">
-        <v>7440</v>
       </c>
       <c r="CN15" s="1">
         <v>7270</v>
       </c>
       <c r="CO15" s="1">
-        <v>7120</v>
+        <v>7150</v>
       </c>
       <c r="CP15" s="1">
-        <v>6960</v>
+        <v>6970</v>
       </c>
       <c r="CQ15" s="1">
-        <v>6780</v>
+        <v>6800</v>
       </c>
       <c r="CR15" s="1">
         <v>6610</v>
       </c>
       <c r="CS15" s="1">
-        <v>6470</v>
+        <v>6400</v>
       </c>
       <c r="CT15" s="1">
-        <v>6340</v>
+        <v>6330</v>
       </c>
       <c r="CU15" s="1">
-        <v>6200</v>
+        <v>6220</v>
       </c>
     </row>
     <row r="16" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>45750</v>
+      </c>
       <c r="C16" s="9">
         <v>45755</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
+      <c r="D16" s="1">
+        <v>5960</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5900</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5860</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5800</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5750</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5710</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5680</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5660</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5640</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5630</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5620</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5610</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5610</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5600</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5610</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5610</v>
+      </c>
+      <c r="T16" s="1">
+        <v>5620</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5620</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5640</v>
+      </c>
+      <c r="W16" s="1">
+        <v>5650</v>
+      </c>
+      <c r="X16" s="1">
+        <v>5680</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>5730</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5880</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>5980</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>6110</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>6260</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>6430</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>6590</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>7060</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>7170</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>7250</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>7300</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>7270</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>7210</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>7150</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>7080</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>7010</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>6950</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>6790</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>6750</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>6710</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>6670</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>6590</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>6560</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>6490</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>6500</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>6510</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>6530</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>6540</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>6610</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>6650</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>6700</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>6760</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>6810</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>6870</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>6930</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>7010</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>7220</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>7360</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>7740</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>7830</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>7890</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>7900</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>7880</v>
+      </c>
+      <c r="CJ16" s="1">
+        <v>7780</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CL16" s="1">
+        <v>7550</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>7430</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>7270</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CP16" s="1">
+        <v>6970</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CR16" s="1">
+        <v>6610</v>
+      </c>
+      <c r="CS16" s="1">
+        <v>6410</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>6330</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>6220</v>
+      </c>
     </row>
     <row r="17" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>45750</v>
+      </c>
       <c r="C17" s="9">
         <v>45756</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
+      <c r="D17" s="1">
+        <v>5800</v>
+      </c>
+      <c r="E17" s="10">
+        <v>5640</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5590</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5540</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5500</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5480</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5460</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5430</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5400</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5370</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5360</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5350</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5350</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5370</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5380</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5400</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5410</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5420</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5430</v>
+      </c>
+      <c r="W17" s="1">
+        <v>5440</v>
+      </c>
+      <c r="X17" s="1">
+        <v>5460</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>5500</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5560</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>5640</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>5740</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5860</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>6000</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>6160</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>6470</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>6610</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>6820</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>6880</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>6920</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>6780</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>6710</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>6630</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>6560</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>6490</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>6350</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>6310</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>6280</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>6220</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>6190</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>6160</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>6130</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>6100</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>6090</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>6080</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>6060</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>6080</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>6160</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>6230</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>6380</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>6470</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>6570</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>6680</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>6810</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>6950</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>7240</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>7360</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>7460</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>7540</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>7640</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>7440</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>7320</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>7020</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>6850</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>6690</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>6490</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>6290</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>6210</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>6100</v>
+      </c>
     </row>
     <row r="18" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>45750</v>
+      </c>
       <c r="C18" s="9">
         <v>45757</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
-      <c r="BS18" s="1"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
-      <c r="BW18" s="1"/>
-      <c r="BX18" s="1"/>
-      <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
-      <c r="CI18" s="1"/>
-      <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
-      <c r="CU18" s="1"/>
+      <c r="D18" s="1">
+        <v>5850</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5690</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5640</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5590</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5550</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5530</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5510</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5480</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5450</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5420</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5410</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5400</v>
+      </c>
+      <c r="P18" s="1">
+        <v>5400</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5420</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5430</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5450</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5460</v>
+      </c>
+      <c r="U18" s="1">
+        <v>5470</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5480</v>
+      </c>
+      <c r="W18" s="1">
+        <v>5490</v>
+      </c>
+      <c r="X18" s="1">
+        <v>5510</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>5550</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5610</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5690</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5790</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5910</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>6050</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>6210</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>6360</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>6520</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>6660</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>6780</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>6930</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>6970</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>6940</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>6890</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>6830</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>6760</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>6680</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>6610</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>6540</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>6490</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>6400</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>6360</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>6330</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>6300</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>6270</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>6240</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>6210</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>6150</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>6140</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>6130</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>6120</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>6130</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>6210</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>6280</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>6350</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>6430</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>6620</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>6730</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>6860</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>7000</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>7150</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>7290</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>7510</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>7590</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>7690</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>7710</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>7660</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>7490</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>7370</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>7200</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>7070</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>6900</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>6740</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>6540</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>6340</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>6260</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>6150</v>
+      </c>
     </row>
     <row r="19" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>45750</v>
+      </c>
       <c r="C19" s="9">
         <v>45758</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="1"/>
-      <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="1"/>
-      <c r="AO19" s="1"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="1"/>
-      <c r="AR19" s="1"/>
-      <c r="AS19" s="1"/>
-      <c r="AT19" s="1"/>
-      <c r="AU19" s="1"/>
-      <c r="AV19" s="1"/>
-      <c r="AW19" s="1"/>
-      <c r="AX19" s="1"/>
-      <c r="AY19" s="1"/>
-      <c r="AZ19" s="1"/>
-      <c r="BA19" s="1"/>
-      <c r="BB19" s="1"/>
-      <c r="BC19" s="1"/>
-      <c r="BD19" s="1"/>
-      <c r="BE19" s="1"/>
-      <c r="BF19" s="1"/>
-      <c r="BG19" s="1"/>
-      <c r="BH19" s="1"/>
-      <c r="BI19" s="1"/>
-      <c r="BJ19" s="1"/>
-      <c r="BK19" s="1"/>
-      <c r="BL19" s="1"/>
-      <c r="BM19" s="1"/>
-      <c r="BN19" s="1"/>
-      <c r="BO19" s="1"/>
-      <c r="BP19" s="1"/>
-      <c r="BQ19" s="1"/>
-      <c r="BR19" s="1"/>
-      <c r="BS19" s="1"/>
-      <c r="BT19" s="1"/>
-      <c r="BU19" s="1"/>
-      <c r="BV19" s="1"/>
-      <c r="BW19" s="1"/>
-      <c r="BX19" s="1"/>
-      <c r="BY19" s="1"/>
-      <c r="BZ19" s="1"/>
-      <c r="CA19" s="1"/>
-      <c r="CB19" s="1"/>
-      <c r="CC19" s="1"/>
-      <c r="CD19" s="1"/>
-      <c r="CE19" s="1"/>
-      <c r="CF19" s="1"/>
-      <c r="CG19" s="1"/>
-      <c r="CH19" s="1"/>
-      <c r="CI19" s="1"/>
-      <c r="CJ19" s="1"/>
-      <c r="CK19" s="1"/>
-      <c r="CL19" s="1"/>
-      <c r="CM19" s="1"/>
-      <c r="CN19" s="1"/>
-      <c r="CO19" s="1"/>
-      <c r="CP19" s="1"/>
-      <c r="CQ19" s="1"/>
-      <c r="CR19" s="1"/>
-      <c r="CS19" s="1"/>
-      <c r="CT19" s="1"/>
-      <c r="CU19" s="1"/>
+      <c r="D19" s="1">
+        <v>5750</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5590</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5540</v>
+      </c>
+      <c r="G19" s="1">
+        <v>5490</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5450</v>
+      </c>
+      <c r="I19" s="1">
+        <v>5430</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5410</v>
+      </c>
+      <c r="K19" s="1">
+        <v>5380</v>
+      </c>
+      <c r="L19" s="1">
+        <v>5350</v>
+      </c>
+      <c r="M19" s="1">
+        <v>5320</v>
+      </c>
+      <c r="N19" s="1">
+        <v>5310</v>
+      </c>
+      <c r="O19" s="1">
+        <v>5300</v>
+      </c>
+      <c r="P19" s="1">
+        <v>5300</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>5320</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5330</v>
+      </c>
+      <c r="S19" s="1">
+        <v>5350</v>
+      </c>
+      <c r="T19" s="1">
+        <v>5360</v>
+      </c>
+      <c r="U19" s="1">
+        <v>5370</v>
+      </c>
+      <c r="V19" s="1">
+        <v>5380</v>
+      </c>
+      <c r="W19" s="1">
+        <v>5390</v>
+      </c>
+      <c r="X19" s="1">
+        <v>5410</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>5450</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>5510</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>5590</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>5690</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>5810</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>5950</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>6110</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>6260</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>6420</v>
+      </c>
+      <c r="AH19" s="1">
+        <v>6560</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>6680</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>6770</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>6830</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>6870</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>6840</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>6790</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>6730</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>6660</v>
+      </c>
+      <c r="AR19" s="1">
+        <v>6580</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>6510</v>
+      </c>
+      <c r="AT19" s="1">
+        <v>6440</v>
+      </c>
+      <c r="AU19" s="1">
+        <v>6390</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>6340</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>6300</v>
+      </c>
+      <c r="AX19" s="1">
+        <v>6260</v>
+      </c>
+      <c r="AY19" s="1">
+        <v>6230</v>
+      </c>
+      <c r="AZ19" s="1">
+        <v>6200</v>
+      </c>
+      <c r="BA19" s="1">
+        <v>6170</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>6140</v>
+      </c>
+      <c r="BC19" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BD19" s="1">
+        <v>6080</v>
+      </c>
+      <c r="BE19" s="1">
+        <v>6050</v>
+      </c>
+      <c r="BF19" s="1">
+        <v>6040</v>
+      </c>
+      <c r="BG19" s="1">
+        <v>6030</v>
+      </c>
+      <c r="BH19" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>6020</v>
+      </c>
+      <c r="BL19" s="1">
+        <v>6010</v>
+      </c>
+      <c r="BM19" s="1">
+        <v>6010</v>
+      </c>
+      <c r="BN19" s="1">
+        <v>6010</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>6010</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>6010</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>6030</v>
+      </c>
+      <c r="BR19" s="1">
+        <v>6070</v>
+      </c>
+      <c r="BS19" s="1">
+        <v>6110</v>
+      </c>
+      <c r="BT19" s="1">
+        <v>6180</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>6250</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>6330</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>6420</v>
+      </c>
+      <c r="BX19" s="1">
+        <v>6520</v>
+      </c>
+      <c r="BY19" s="1">
+        <v>6630</v>
+      </c>
+      <c r="BZ19" s="1">
+        <v>6760</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>6900</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>7050</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>7190</v>
+      </c>
+      <c r="CD19" s="1">
+        <v>7310</v>
+      </c>
+      <c r="CE19" s="1">
+        <v>7410</v>
+      </c>
+      <c r="CF19" s="1">
+        <v>7490</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>7590</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>7610</v>
+      </c>
+      <c r="CJ19" s="1">
+        <v>7560</v>
+      </c>
+      <c r="CK19" s="1">
+        <v>7460</v>
+      </c>
+      <c r="CL19" s="1">
+        <v>7390</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>7270</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>7100</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>6970</v>
+      </c>
+      <c r="CP19" s="1">
+        <v>6800</v>
+      </c>
+      <c r="CQ19" s="1">
+        <v>6640</v>
+      </c>
+      <c r="CR19" s="1">
+        <v>6440</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>6240</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>6160</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>6050</v>
+      </c>
     </row>
     <row r="20" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="8"/>
@@ -34215,8 +34978,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B3:CY140"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:CU12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -34589,2483 +35352,3259 @@
     </row>
     <row r="8" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B8" s="8">
-        <v>45746</v>
+        <v>45747</v>
       </c>
       <c r="C8" s="9">
         <v>45748</v>
       </c>
       <c r="D8" s="1">
-        <v>5555.9713566866658</v>
+        <v>5644.6515192568222</v>
       </c>
       <c r="E8" s="10">
-        <v>5509.145345461583</v>
+        <v>5588.4603057867234</v>
       </c>
       <c r="F8" s="1">
-        <v>5462.3193342365012</v>
+        <v>5541.6342945616416</v>
       </c>
       <c r="G8" s="1">
-        <v>5406.1281207664024</v>
+        <v>5494.8082833365588</v>
       </c>
       <c r="H8" s="1">
-        <v>5389.6708341397325</v>
+        <v>5401.1151538610411</v>
       </c>
       <c r="I8" s="1">
-        <v>5352.2100251596676</v>
+        <v>5354.2891426359593</v>
       </c>
       <c r="J8" s="1">
-        <v>5314.7492161796017</v>
+        <v>5316.8283336558934</v>
       </c>
       <c r="K8" s="1">
-        <v>5277.2884071995359</v>
+        <v>5288.7327269208436</v>
       </c>
       <c r="L8" s="1">
-        <v>5241.1225856396359</v>
+        <v>5268.1277336946005</v>
       </c>
       <c r="M8" s="1">
-        <v>5203.66177665957</v>
+        <v>5240.0321269595506</v>
       </c>
       <c r="N8" s="1">
-        <v>5184.9313721695371</v>
+        <v>5221.3017224695186</v>
       </c>
       <c r="O8" s="1">
-        <v>5175.5661699245211</v>
+        <v>5211.9365202245017</v>
       </c>
       <c r="P8" s="1">
-        <v>5175.1472034062317</v>
+        <v>5200.6669247145346</v>
       </c>
       <c r="Q8" s="1">
-        <v>5175.1472034062317</v>
+        <v>5200.6669247145346</v>
       </c>
       <c r="R8" s="1">
-        <v>5184.5124056512486</v>
+        <v>5200.6669247145346</v>
       </c>
       <c r="S8" s="1">
-        <v>5203.2428101412816</v>
+        <v>5210.0321269595506</v>
       </c>
       <c r="T8" s="1">
-        <v>5215.2043352041801</v>
+        <v>5206.8581381846334</v>
       </c>
       <c r="U8" s="1">
-        <v>5233.934739694213</v>
+        <v>5216.2233404296494</v>
       </c>
       <c r="V8" s="1">
-        <v>5252.6651441842459</v>
+        <v>5234.9537449196823</v>
       </c>
       <c r="W8" s="1">
-        <v>5290.1259531643118</v>
+        <v>5253.6841494097152</v>
       </c>
       <c r="X8" s="1">
-        <v>5329.738726533772</v>
+        <v>5292.7319527772406</v>
       </c>
       <c r="Y8" s="1">
-        <v>5385.9299400038708</v>
+        <v>5348.9231662473394</v>
       </c>
       <c r="Z8" s="1">
-        <v>5460.8515579640025</v>
+        <v>5423.8447842074702</v>
       </c>
       <c r="AA8" s="1">
-        <v>5563.8687826591831</v>
+        <v>5517.4968066576348</v>
       </c>
       <c r="AB8" s="1">
-        <v>5708.7909425198377</v>
+        <v>5615.9136829881945</v>
       </c>
       <c r="AC8" s="1">
-        <v>5839.9037739500673</v>
+        <v>5747.026514418425</v>
       </c>
       <c r="AD8" s="1">
-        <v>5980.3818076253137</v>
+        <v>5896.8697503386875</v>
       </c>
       <c r="AE8" s="1">
-        <v>6130.2250435455771</v>
+        <v>6056.0781885039678</v>
       </c>
       <c r="AF8" s="1">
-        <v>6284.8229146506674</v>
+        <v>6223.2552738532995</v>
       </c>
       <c r="AG8" s="1">
-        <v>6434.6661505709308</v>
+        <v>6373.0985097735629</v>
       </c>
       <c r="AH8" s="1">
-        <v>6575.1441842461782</v>
+        <v>6522.9417456938263</v>
       </c>
       <c r="AI8" s="1">
-        <v>6696.8918134313917</v>
+        <v>6644.6893748790399</v>
       </c>
       <c r="AJ8" s="1">
-        <v>6804.1158118831045</v>
+        <v>6746.7544029417459</v>
       </c>
       <c r="AK8" s="1">
-        <v>6888.4026320882522</v>
+        <v>6812.3108186568606</v>
       </c>
       <c r="AL8" s="1">
-        <v>6935.2286433133349</v>
+        <v>6849.7716276369265</v>
       </c>
       <c r="AM8" s="1">
-        <v>6963.3242500483839</v>
+        <v>6849.7716276369265</v>
       </c>
       <c r="AN8" s="1">
-        <v>6954.1895103541719</v>
+        <v>6833.5804141668277</v>
       </c>
       <c r="AO8" s="1">
-        <v>6935.4591058641381</v>
+        <v>6786.7544029417459</v>
       </c>
       <c r="AP8" s="1">
-        <v>6897.9982968840723</v>
+        <v>6711.8327849816142</v>
       </c>
       <c r="AQ8" s="1">
-        <v>6851.1722856589895</v>
+        <v>6636.9111670214825</v>
       </c>
       <c r="AR8" s="1">
-        <v>6769.6589897425974</v>
+        <v>6536.1494097155028</v>
       </c>
       <c r="AS8" s="1">
-        <v>6713.4677762724987</v>
+        <v>6442.4973872653381</v>
       </c>
       <c r="AT8" s="1">
-        <v>6657.2765628023999</v>
+        <v>6348.8453648151735</v>
       </c>
       <c r="AU8" s="1">
-        <v>6601.0853493323011</v>
+        <v>6264.5585446100249</v>
       </c>
       <c r="AV8" s="1">
-        <v>6525.3823882330171</v>
+        <v>6185.6040255467387</v>
       </c>
       <c r="AW8" s="1">
-        <v>6478.5563770079352</v>
+        <v>6101.317205341591</v>
       </c>
       <c r="AX8" s="1">
-        <v>6431.7303657828525</v>
+        <v>6026.3955873814593</v>
       </c>
       <c r="AY8" s="1">
-        <v>6394.2695568027866</v>
+        <v>5960.8391716663446</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6340.4353783626866</v>
+        <v>5896.9332301141867</v>
       </c>
       <c r="BA8" s="1">
-        <v>6293.6093671376038</v>
+        <v>5840.7420166440879</v>
       </c>
       <c r="BB8" s="1">
-        <v>6246.783355912522</v>
+        <v>5793.9160054190052</v>
       </c>
       <c r="BC8" s="1">
-        <v>6209.3225469324561</v>
+        <v>5756.4551964389393</v>
       </c>
       <c r="BD8" s="1">
-        <v>6167.786336365396</v>
+        <v>5726.7725953164309</v>
       </c>
       <c r="BE8" s="1">
-        <v>6130.3255273853301</v>
+        <v>5708.0421908263979</v>
       </c>
       <c r="BF8" s="1">
-        <v>6111.5951228952972</v>
+        <v>5698.6769885813819</v>
       </c>
       <c r="BG8" s="1">
-        <v>6102.2299206502803</v>
+        <v>5708.0421908263979</v>
       </c>
       <c r="BH8" s="1">
-        <v>6092.6107993032711</v>
+        <v>5716.4551964389393</v>
       </c>
       <c r="BI8" s="1">
-        <v>6101.9760015482871</v>
+        <v>5725.8203986839562</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6101.9760015482871</v>
+        <v>5735.1856009289722</v>
       </c>
       <c r="BK8" s="1">
-        <v>6111.341203793304</v>
+        <v>5744.5508031739892</v>
       </c>
       <c r="BL8" s="1">
-        <v>6127.3717824656478</v>
+        <v>5750.4880975420938</v>
       </c>
       <c r="BM8" s="1">
-        <v>6146.1021869556807</v>
+        <v>5759.8532997871107</v>
       </c>
       <c r="BN8" s="1">
-        <v>6155.4673892006967</v>
+        <v>5769.2185020321267</v>
       </c>
       <c r="BO8" s="1">
-        <v>6164.8325914457137</v>
+        <v>5787.9489065221596</v>
       </c>
       <c r="BP8" s="1">
-        <v>6211.1659376814396</v>
+        <v>5814.267079543255</v>
       </c>
       <c r="BQ8" s="1">
-        <v>6239.2615444164894</v>
+        <v>5861.0930907683378</v>
       </c>
       <c r="BR8" s="1">
-        <v>6286.0875556415713</v>
+        <v>5907.9191019934196</v>
       </c>
       <c r="BS8" s="1">
-        <v>6342.27876911167</v>
+        <v>5964.1103154635184</v>
       </c>
       <c r="BT8" s="1">
-        <v>6434.3252951422492</v>
+        <v>6030.047609831624</v>
       </c>
       <c r="BU8" s="1">
-        <v>6490.516508612347</v>
+        <v>6104.9692277917557</v>
       </c>
       <c r="BV8" s="1">
-        <v>6556.0729243274618</v>
+        <v>6179.8908457518874</v>
       </c>
       <c r="BW8" s="1">
-        <v>6612.2641377975615</v>
+        <v>6254.8124637120191</v>
       </c>
       <c r="BX8" s="1">
-        <v>6683.1064834526805</v>
+        <v>6330.8767176311203</v>
       </c>
       <c r="BY8" s="1">
-        <v>6729.9324946777633</v>
+        <v>6405.798335591252</v>
       </c>
       <c r="BZ8" s="1">
-        <v>6786.1237081478612</v>
+        <v>6490.0851557964006</v>
       </c>
       <c r="CA8" s="1">
-        <v>6861.0453261079929</v>
+        <v>6574.3719760015483</v>
       </c>
       <c r="CB8" s="1">
-        <v>6958.1658215598982</v>
+        <v>6677.9605186762146</v>
       </c>
       <c r="CC8" s="1">
-        <v>7051.8178440100637</v>
+        <v>6790.3429456164122</v>
       </c>
       <c r="CD8" s="1">
-        <v>7136.1046642152123</v>
+        <v>6912.0905748016257</v>
       </c>
       <c r="CE8" s="1">
-        <v>7201.6610799303271</v>
+        <v>7024.4730017418233</v>
       </c>
       <c r="CF8" s="1">
-        <v>7286.0983162376624</v>
+        <v>7140.0928972324364</v>
       </c>
       <c r="CG8" s="1">
-        <v>7342.2895297077612</v>
+        <v>7233.744919682601</v>
       </c>
       <c r="CH8" s="1">
-        <v>7361.0199341977941</v>
+        <v>7280.5709309076838</v>
       </c>
       <c r="CI8" s="1">
-        <v>7361.0199341977941</v>
+        <v>7271.2057286626668</v>
       </c>
       <c r="CJ8" s="1">
-        <v>7284.5913682988194</v>
+        <v>7238.8867814979676</v>
       </c>
       <c r="CK8" s="1">
-        <v>7190.9393458486547</v>
+        <v>7154.5999612928199</v>
       </c>
       <c r="CL8" s="1">
-        <v>7097.2873233984901</v>
+        <v>7032.8523321076063</v>
       </c>
       <c r="CM8" s="1">
-        <v>6975.5396942132766</v>
+        <v>6920.4699051674088</v>
       </c>
       <c r="CN8" s="1">
-        <v>6799.0666924714533</v>
+        <v>6775.9926456357653</v>
       </c>
       <c r="CO8" s="1">
-        <v>6667.9538610412228</v>
+        <v>6607.4190052254698</v>
       </c>
       <c r="CP8" s="1">
-        <v>6518.1106251209603</v>
+        <v>6466.9409715502225</v>
       </c>
       <c r="CQ8" s="1">
-        <v>6368.2673892006969</v>
+        <v>6298.3673311399261</v>
       </c>
       <c r="CR8" s="1">
-        <v>6165.9650087091159</v>
+        <v>6142.2059221985683</v>
       </c>
       <c r="CS8" s="1">
-        <v>6034.8521772788863</v>
+        <v>6001.7278885233209</v>
       </c>
       <c r="CT8" s="1">
-        <v>5913.1045480936718</v>
+        <v>5870.6150570930904</v>
       </c>
       <c r="CU8" s="1">
-        <v>5800.7221211534743</v>
+        <v>5767.5978323979098</v>
       </c>
     </row>
     <row r="9" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B9" s="8">
-        <v>45743</v>
+        <v>45748</v>
       </c>
       <c r="C9" s="9">
         <v>45749</v>
       </c>
       <c r="D9" s="1">
-        <v>5438.8000774143602</v>
+        <v>5570.3870718018197</v>
       </c>
       <c r="E9" s="10">
-        <v>5382.6088639442614</v>
+        <v>5514.195858331721</v>
       </c>
       <c r="F9" s="1">
-        <v>5335.7828527191796</v>
+        <v>5458.0046448616222</v>
       </c>
       <c r="G9" s="1">
-        <v>5288.9568414940968</v>
+        <v>5401.8134313915234</v>
       </c>
       <c r="H9" s="1">
-        <v>5245.1143797174373</v>
+        <v>5415.3566866653764</v>
       </c>
       <c r="I9" s="1">
-        <v>5207.6535707373714</v>
+        <v>5368.5306754402945</v>
       </c>
       <c r="J9" s="1">
-        <v>5170.1927617573065</v>
+        <v>5331.0698664602287</v>
       </c>
       <c r="K9" s="1">
-        <v>5132.7319527772406</v>
+        <v>5293.6090574801628</v>
       </c>
       <c r="L9" s="1">
-        <v>5096.5407393071418</v>
+        <v>5235.976311205729</v>
       </c>
       <c r="M9" s="1">
-        <v>5059.079930327076</v>
+        <v>5207.8807044706791</v>
       </c>
       <c r="N9" s="1">
-        <v>5040.3495258370431</v>
+        <v>5189.1502999806462</v>
       </c>
       <c r="O9" s="1">
-        <v>5030.9843235920262</v>
+        <v>5170.4198954906133</v>
       </c>
       <c r="P9" s="1">
-        <v>5029.8416876330557</v>
+        <v>5139.8016644087475</v>
       </c>
       <c r="Q9" s="1">
-        <v>5029.8416876330557</v>
+        <v>5139.8016644087475</v>
       </c>
       <c r="R9" s="1">
-        <v>5039.2068898780726</v>
+        <v>5158.5320688987804</v>
       </c>
       <c r="S9" s="1">
-        <v>5048.5720921230886</v>
+        <v>5167.8972711437973</v>
       </c>
       <c r="T9" s="1">
-        <v>5057.4929359396165</v>
+        <v>5182.0190439326498</v>
       </c>
       <c r="U9" s="1">
-        <v>5076.2233404296494</v>
+        <v>5200.7494484226827</v>
       </c>
       <c r="V9" s="1">
-        <v>5104.3189471646992</v>
+        <v>5228.8450551577316</v>
       </c>
       <c r="W9" s="1">
-        <v>5132.4145538997482</v>
+        <v>5275.6710663828144</v>
       </c>
       <c r="X9" s="1">
-        <v>5178.415328043352</v>
+        <v>5325.8361137991096</v>
       </c>
       <c r="Y9" s="1">
-        <v>5234.6065415134508</v>
+        <v>5391.3925295142253</v>
       </c>
       <c r="Z9" s="1">
-        <v>5300.1629572285656</v>
+        <v>5466.3141474743561</v>
       </c>
       <c r="AA9" s="1">
-        <v>5384.4497774337142</v>
+        <v>5569.3313721695376</v>
       </c>
       <c r="AB9" s="1">
-        <v>5472.8329785175147</v>
+        <v>5698.3245209986453</v>
       </c>
       <c r="AC9" s="1">
-        <v>5585.2154054577122</v>
+        <v>5820.0721501838589</v>
       </c>
       <c r="AD9" s="1">
-        <v>5697.5978323979098</v>
+        <v>5960.5501838591063</v>
       </c>
       <c r="AE9" s="1">
-        <v>5819.3454615831233</v>
+        <v>6101.0282175343527</v>
       </c>
       <c r="AF9" s="1">
-        <v>5948.9011031546352</v>
+        <v>6215.6826785368685</v>
       </c>
       <c r="AG9" s="1">
-        <v>6080.0139345848656</v>
+        <v>6346.795509967099</v>
       </c>
       <c r="AH9" s="1">
-        <v>6211.1267660150961</v>
+        <v>6477.9083413973294</v>
       </c>
       <c r="AI9" s="1">
-        <v>6323.5091929552937</v>
+        <v>6580.9255660925101</v>
       </c>
       <c r="AJ9" s="1">
-        <v>6435.8916198954903</v>
+        <v>6671.204877104703</v>
       </c>
       <c r="AK9" s="1">
-        <v>6529.5436423456549</v>
+        <v>6736.7612928198178</v>
       </c>
       <c r="AL9" s="1">
-        <v>6604.4652603057866</v>
+        <v>6764.8568995548676</v>
       </c>
       <c r="AM9" s="1">
-        <v>6660.6564737758854</v>
+        <v>6764.8568995548676</v>
       </c>
       <c r="AN9" s="1">
-        <v>6688.1509580027096</v>
+        <v>6727.7808399458099</v>
       </c>
       <c r="AO9" s="1">
-        <v>6706.8813624927425</v>
+        <v>6671.5896264757112</v>
       </c>
       <c r="AP9" s="1">
-        <v>6697.5161602477265</v>
+        <v>6606.0332107605964</v>
       </c>
       <c r="AQ9" s="1">
-        <v>6669.4205535126766</v>
+        <v>6521.7463905554478</v>
       </c>
       <c r="AR9" s="1">
-        <v>6652.1799883878457</v>
+        <v>6451.2644861621829</v>
       </c>
       <c r="AS9" s="1">
-        <v>6605.3539771627638</v>
+        <v>6357.6124637120183</v>
       </c>
       <c r="AT9" s="1">
-        <v>6567.893168182698</v>
+        <v>6273.3256435068706</v>
       </c>
       <c r="AU9" s="1">
-        <v>6530.4323592026321</v>
+        <v>6198.4040255467389</v>
       </c>
       <c r="AV9" s="1">
-        <v>6489.988000774144</v>
+        <v>6117.999690342559</v>
       </c>
       <c r="AW9" s="1">
-        <v>6461.8923940390941</v>
+        <v>6071.1736791174762</v>
       </c>
       <c r="AX9" s="1">
-        <v>6443.1619895490612</v>
+        <v>6033.7128701374104</v>
       </c>
       <c r="AY9" s="1">
-        <v>6424.4315850590283</v>
+        <v>5996.2520611573445</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6415.7011805689954</v>
+        <v>5967.4772208244631</v>
       </c>
       <c r="BA9" s="1">
-        <v>6406.3359783239794</v>
+        <v>5948.7468163344302</v>
       </c>
       <c r="BB9" s="1">
-        <v>6396.9707760789624</v>
+        <v>5930.0164118443972</v>
       </c>
       <c r="BC9" s="1">
-        <v>6387.6055738339464</v>
+        <v>5911.2860073543643</v>
       </c>
       <c r="BD9" s="1">
-        <v>6375.8916198954903</v>
+        <v>5922.0927424037163</v>
       </c>
       <c r="BE9" s="1">
-        <v>6366.5264176504743</v>
+        <v>5903.3623379136834</v>
       </c>
       <c r="BF9" s="1">
-        <v>6347.7960131604414</v>
+        <v>5893.9971356686665</v>
       </c>
       <c r="BG9" s="1">
-        <v>6338.4308109154244</v>
+        <v>5893.9971356686665</v>
       </c>
       <c r="BH9" s="1">
-        <v>6313.7333075285469</v>
+        <v>5899.8055351267658</v>
       </c>
       <c r="BI9" s="1">
-        <v>6295.002903038514</v>
+        <v>5909.1707373717827</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6285.6377007934971</v>
+        <v>5918.5359396167987</v>
       </c>
       <c r="BK9" s="1">
-        <v>6266.9072963034641</v>
+        <v>5927.9011418618156</v>
       </c>
       <c r="BL9" s="1">
-        <v>6251.6047996903426</v>
+        <v>5943.9297851751508</v>
       </c>
       <c r="BM9" s="1">
-        <v>6223.5091929552937</v>
+        <v>5953.2949874201677</v>
       </c>
       <c r="BN9" s="1">
-        <v>6204.7787884652607</v>
+        <v>5962.6601896651828</v>
       </c>
       <c r="BO9" s="1">
-        <v>6195.4135862202438</v>
+        <v>5972.0253919101997</v>
       </c>
       <c r="BP9" s="1">
-        <v>6186.0820592219861</v>
+        <v>5938.7321850203216</v>
       </c>
       <c r="BQ9" s="1">
-        <v>6195.4472614670021</v>
+        <v>5966.8277917553705</v>
       </c>
       <c r="BR9" s="1">
-        <v>6223.542868202052</v>
+        <v>6004.2886007354364</v>
       </c>
       <c r="BS9" s="1">
-        <v>6261.0036771821178</v>
+        <v>6060.4798142055351</v>
       </c>
       <c r="BT9" s="1">
-        <v>6326.462937874976</v>
+        <v>6106.9840139345852</v>
       </c>
       <c r="BU9" s="1">
-        <v>6373.2889491000578</v>
+        <v>6172.5404296496999</v>
       </c>
       <c r="BV9" s="1">
-        <v>6420.1149603251406</v>
+        <v>6238.0968453648156</v>
       </c>
       <c r="BW9" s="1">
-        <v>6466.9409715502225</v>
+        <v>6303.6532610799304</v>
       </c>
       <c r="BX9" s="1">
-        <v>6511.8625895103542</v>
+        <v>6408.5544416489256</v>
       </c>
       <c r="BY9" s="1">
-        <v>6568.0538029804529</v>
+        <v>6492.8412618540742</v>
       </c>
       <c r="BZ9" s="1">
-        <v>6633.6102186955677</v>
+        <v>6567.7628798142059</v>
       </c>
       <c r="CA9" s="1">
-        <v>6717.8970389007163</v>
+        <v>6661.4149022643705</v>
       </c>
       <c r="CB9" s="1">
-        <v>6825.1039287787889</v>
+        <v>6776.9820785755755</v>
       </c>
       <c r="CC9" s="1">
-        <v>6946.8515579640025</v>
+        <v>6889.3645055157731</v>
       </c>
       <c r="CD9" s="1">
-        <v>7059.2339849042</v>
+        <v>7001.7469324559706</v>
       </c>
       <c r="CE9" s="1">
-        <v>7152.8860073543647</v>
+        <v>7114.1293593961682</v>
       </c>
       <c r="CF9" s="1">
-        <v>7234.6971163150765</v>
+        <v>7243.3148829107804</v>
       </c>
       <c r="CG9" s="1">
-        <v>7300.2535320301913</v>
+        <v>7327.6017031159281</v>
       </c>
       <c r="CH9" s="1">
-        <v>7318.9839365202242</v>
+        <v>7355.697309850977</v>
       </c>
       <c r="CI9" s="1">
-        <v>7309.6187342752082</v>
+        <v>7336.9669053609441</v>
       </c>
       <c r="CJ9" s="1">
-        <v>7245.5223533965554</v>
+        <v>7316.6163731372162</v>
       </c>
       <c r="CK9" s="1">
-        <v>7161.2355331914068</v>
+        <v>7222.9643506870525</v>
       </c>
       <c r="CL9" s="1">
-        <v>7086.3139152312751</v>
+        <v>7110.581923746855</v>
       </c>
       <c r="CM9" s="1">
-        <v>6964.5662860460616</v>
+        <v>6979.4690923166236</v>
       </c>
       <c r="CN9" s="1">
-        <v>6791.0710276756336</v>
+        <v>6825.7789820011612</v>
       </c>
       <c r="CO9" s="1">
-        <v>6650.5929940003871</v>
+        <v>6657.2053415908649</v>
       </c>
       <c r="CP9" s="1">
-        <v>6500.7497580801237</v>
+        <v>6507.3621056706015</v>
       </c>
       <c r="CQ9" s="1">
-        <v>6341.5413199148443</v>
+        <v>6348.1536675053221</v>
       </c>
       <c r="CR9" s="1">
-        <v>6180.017805302884</v>
+        <v>6162.1992645635764</v>
       </c>
       <c r="CS9" s="1">
-        <v>6048.9049738726535</v>
+        <v>6031.086433133346</v>
       </c>
       <c r="CT9" s="1">
-        <v>5945.8877491774729</v>
+        <v>5909.3388039481324</v>
       </c>
       <c r="CU9" s="1">
-        <v>5824.1401199922584</v>
+        <v>5815.6867814979678</v>
       </c>
     </row>
     <row r="10" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B10" s="8">
-        <v>45743</v>
+        <v>45749</v>
       </c>
       <c r="C10" s="9">
         <v>45750</v>
       </c>
       <c r="D10" s="1">
-        <v>5485.626088639443</v>
+        <v>5592.1294368105282</v>
       </c>
       <c r="E10" s="1">
-        <v>5429.4348751693442</v>
+        <v>5545.3034255854454</v>
       </c>
       <c r="F10" s="1">
-        <v>5382.6088639442614</v>
+        <v>5498.4774143603627</v>
       </c>
       <c r="G10" s="1">
-        <v>5335.7828527191796</v>
+        <v>5432.9209986452479</v>
       </c>
       <c r="H10" s="1">
-        <v>5291.94039094252</v>
+        <v>5297.958273659764</v>
       </c>
       <c r="I10" s="1">
-        <v>5254.4795819624542</v>
+        <v>5251.1322624346822</v>
       </c>
       <c r="J10" s="1">
-        <v>5217.0187729823883</v>
+        <v>5204.3062512095994</v>
       </c>
       <c r="K10" s="1">
-        <v>5179.5579640023225</v>
+        <v>5185.5758467195665</v>
       </c>
       <c r="L10" s="1">
-        <v>5143.3667505322237</v>
+        <v>5159.9896264757117</v>
       </c>
       <c r="M10" s="1">
-        <v>5105.9059415521579</v>
+        <v>5141.2592219856788</v>
       </c>
       <c r="N10" s="1">
-        <v>5087.1755370621249</v>
+        <v>5122.5288174956459</v>
       </c>
       <c r="O10" s="1">
-        <v>5077.8103348171089</v>
+        <v>5103.7984130056129</v>
       </c>
       <c r="P10" s="1">
-        <v>5076.6676988581385</v>
+        <v>5072.4653377201475</v>
       </c>
       <c r="Q10" s="1">
-        <v>5076.6676988581385</v>
+        <v>5063.1001354751306</v>
       </c>
       <c r="R10" s="1">
-        <v>5086.0329011031545</v>
+        <v>5063.1001354751306</v>
       </c>
       <c r="S10" s="1">
-        <v>5095.3981033481714</v>
+        <v>5063.1001354751306</v>
       </c>
       <c r="T10" s="1">
-        <v>5104.3189471646992</v>
+        <v>5083.8745887362111</v>
       </c>
       <c r="U10" s="1">
-        <v>5123.0493516547322</v>
+        <v>5093.2397909812271</v>
       </c>
       <c r="V10" s="1">
-        <v>5151.1449583897811</v>
+        <v>5121.335397716276</v>
       </c>
       <c r="W10" s="1">
-        <v>5179.2405651248309</v>
+        <v>5168.1614089413588</v>
       </c>
       <c r="X10" s="1">
-        <v>5225.2413392684348</v>
+        <v>5236.0519450358042</v>
       </c>
       <c r="Y10" s="1">
-        <v>5281.4325527385326</v>
+        <v>5310.9735629959359</v>
       </c>
       <c r="Z10" s="1">
-        <v>5346.9889684536483</v>
+        <v>5404.6255854461006</v>
       </c>
       <c r="AA10" s="1">
-        <v>5431.275788658796</v>
+        <v>5507.6428101412812</v>
       </c>
       <c r="AB10" s="1">
-        <v>5519.6589897425974</v>
+        <v>5636.0582930133542</v>
       </c>
       <c r="AC10" s="1">
-        <v>5622.6762144377781</v>
+        <v>5767.1711244435846</v>
       </c>
       <c r="AD10" s="1">
-        <v>5744.4238436229925</v>
+        <v>5907.6491581188311</v>
       </c>
       <c r="AE10" s="1">
-        <v>5866.1714728082061</v>
+        <v>6048.1271917940776</v>
       </c>
       <c r="AF10" s="1">
-        <v>5995.7271143797179</v>
+        <v>6238.7995355138382</v>
       </c>
       <c r="AG10" s="1">
-        <v>6126.8399458099475</v>
+        <v>6379.2775691890847</v>
       </c>
       <c r="AH10" s="1">
-        <v>6257.952777240178</v>
+        <v>6510.3904006193152</v>
       </c>
       <c r="AI10" s="1">
-        <v>6389.0656086704084</v>
+        <v>6622.7728275595127</v>
       </c>
       <c r="AJ10" s="1">
-        <v>6501.448035610606</v>
+        <v>6721.691736017031</v>
       </c>
       <c r="AK10" s="1">
-        <v>6604.4652603057866</v>
+        <v>6796.6133539771627</v>
       </c>
       <c r="AL10" s="1">
-        <v>6679.3868782659183</v>
+        <v>6843.4393652022454</v>
       </c>
       <c r="AM10" s="1">
-        <v>6735.5780917360171</v>
+        <v>6852.8045674472614</v>
       </c>
       <c r="AN10" s="1">
-        <v>6753.7073737178243</v>
+        <v>6821.9876137023421</v>
       </c>
       <c r="AO10" s="1">
-        <v>6753.7073737178243</v>
+        <v>6784.5268047222762</v>
       </c>
       <c r="AP10" s="1">
-        <v>6725.6117669827754</v>
+        <v>6718.9703890071605</v>
       </c>
       <c r="AQ10" s="1">
-        <v>6678.7857557576936</v>
+        <v>6644.0487710470297</v>
       </c>
       <c r="AR10" s="1">
-        <v>6633.4495838978128</v>
+        <v>6539.8083220437393</v>
       </c>
       <c r="AS10" s="1">
-        <v>6567.893168182698</v>
+        <v>6455.5215018385916</v>
       </c>
       <c r="AT10" s="1">
-        <v>6492.9715502225663</v>
+        <v>6361.869479388427</v>
       </c>
       <c r="AU10" s="1">
-        <v>6436.7803367524675</v>
+        <v>6286.9478614282953</v>
       </c>
       <c r="AV10" s="1">
-        <v>6377.6055738339464</v>
+        <v>6203.4926262821755</v>
       </c>
       <c r="AW10" s="1">
-        <v>6340.1447648538806</v>
+        <v>6137.9362105670607</v>
       </c>
       <c r="AX10" s="1">
-        <v>6312.0491581188307</v>
+        <v>6081.7449970969619</v>
       </c>
       <c r="AY10" s="1">
-        <v>6293.3187536287978</v>
+        <v>6034.9189858718792</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6284.5883491387649</v>
+        <v>5990.1668279465839</v>
       </c>
       <c r="BA10" s="1">
-        <v>6275.2231468937489</v>
+        <v>5952.7060189665181</v>
       </c>
       <c r="BB10" s="1">
-        <v>6265.857944648732</v>
+        <v>5915.2452099864522</v>
       </c>
       <c r="BC10" s="1">
-        <v>6247.1275401587</v>
+        <v>5877.7844010063864</v>
       </c>
       <c r="BD10" s="1">
-        <v>6216.6831817302109</v>
+        <v>5869.1409328430427</v>
       </c>
       <c r="BE10" s="1">
-        <v>6179.222372750145</v>
+        <v>5859.7757305980258</v>
       </c>
       <c r="BF10" s="1">
-        <v>6141.7615637700792</v>
+        <v>5841.0453261079929</v>
       </c>
       <c r="BG10" s="1">
-        <v>6104.3007547900133</v>
+        <v>5831.6801238629769</v>
       </c>
       <c r="BH10" s="1">
-        <v>6060.8728469131029</v>
+        <v>5799.8601896651826</v>
       </c>
       <c r="BI10" s="1">
-        <v>6032.777240178053</v>
+        <v>5809.2253919101995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6004.6816334430041</v>
+        <v>5809.2253919101995</v>
       </c>
       <c r="BK10" s="1">
-        <v>5985.9512289529712</v>
+        <v>5818.5905941552155</v>
       </c>
       <c r="BL10" s="1">
-        <v>5980.0139345848656</v>
+        <v>5812.6596477646608</v>
       </c>
       <c r="BM10" s="1">
-        <v>5970.6487323398487</v>
+        <v>5812.6596477646608</v>
       </c>
       <c r="BN10" s="1">
-        <v>5970.6487323398487</v>
+        <v>5812.6596477646608</v>
       </c>
       <c r="BO10" s="1">
-        <v>5970.6487323398487</v>
+        <v>5812.6596477646608</v>
       </c>
       <c r="BP10" s="1">
-        <v>5961.317205341591</v>
+        <v>5859.2088252370813</v>
       </c>
       <c r="BQ10" s="1">
-        <v>5980.047609831624</v>
+        <v>5877.9392297271143</v>
       </c>
       <c r="BR10" s="1">
-        <v>5998.7780143216569</v>
+        <v>5915.4000387071801</v>
       </c>
       <c r="BS10" s="1">
-        <v>6026.8736210567058</v>
+        <v>5971.5912521772789</v>
       </c>
       <c r="BT10" s="1">
-        <v>6064.237275014515</v>
+        <v>5998.3303270756724</v>
       </c>
       <c r="BU10" s="1">
-        <v>6101.6980839945809</v>
+        <v>6073.2519450358041</v>
       </c>
       <c r="BV10" s="1">
-        <v>6129.7936907296307</v>
+        <v>6138.8083607509197</v>
       </c>
       <c r="BW10" s="1">
-        <v>6157.8892974646797</v>
+        <v>6213.7299787110514</v>
       </c>
       <c r="BX10" s="1">
-        <v>6193.4457131797953</v>
+        <v>6335.0484226824074</v>
       </c>
       <c r="BY10" s="1">
-        <v>6230.9065221598603</v>
+        <v>6400.6048383975231</v>
       </c>
       <c r="BZ10" s="1">
-        <v>6296.462937874976</v>
+        <v>6475.5264563576548</v>
       </c>
       <c r="CA10" s="1">
-        <v>6390.1149603251406</v>
+        <v>6569.1784788078185</v>
       </c>
       <c r="CB10" s="1">
-        <v>6516.0522546932461</v>
+        <v>6650.2830269014903</v>
       </c>
       <c r="CC10" s="1">
-        <v>6665.8954906135086</v>
+        <v>6772.0306560867039</v>
       </c>
       <c r="CD10" s="1">
-        <v>6834.4691310238049</v>
+        <v>6893.7782852719183</v>
       </c>
       <c r="CE10" s="1">
-        <v>6993.6775691890844</v>
+        <v>7015.5259144571319</v>
       </c>
       <c r="CF10" s="1">
-        <v>7150.4102961099288</v>
+        <v>7192.4979291658601</v>
       </c>
       <c r="CG10" s="1">
-        <v>7272.1579252951424</v>
+        <v>7286.1499516160238</v>
       </c>
       <c r="CH10" s="1">
-        <v>7328.3491387652412</v>
+        <v>7323.6107605960897</v>
       </c>
       <c r="CI10" s="1">
-        <v>7328.3491387652412</v>
+        <v>7332.9759628411066</v>
       </c>
       <c r="CJ10" s="1">
-        <v>7264.2527578865884</v>
+        <v>7249.1544803561064</v>
       </c>
       <c r="CK10" s="1">
-        <v>7170.6007354364237</v>
+        <v>7146.1372556609258</v>
       </c>
       <c r="CL10" s="1">
-        <v>7076.9487129862591</v>
+        <v>7043.1200309657452</v>
       </c>
       <c r="CM10" s="1">
-        <v>6973.9314882910785</v>
+        <v>6921.3724017805307</v>
       </c>
       <c r="CN10" s="1">
-        <v>6828.5318366556994</v>
+        <v>6681.2956841494097</v>
       </c>
       <c r="CO10" s="1">
-        <v>6678.6886007354369</v>
+        <v>6531.4524482291463</v>
       </c>
       <c r="CP10" s="1">
-        <v>6528.8453648151735</v>
+        <v>6353.513605573834</v>
       </c>
       <c r="CQ10" s="1">
-        <v>6379.0021288949101</v>
+        <v>6203.6703696535706</v>
       </c>
       <c r="CR10" s="1">
-        <v>6208.1134120379329</v>
+        <v>6039.2458293013351</v>
       </c>
       <c r="CS10" s="1">
-        <v>6086.3657828527193</v>
+        <v>5861.3069866460228</v>
       </c>
       <c r="CT10" s="1">
-        <v>5973.9833559125218</v>
+        <v>5758.2897619508421</v>
       </c>
       <c r="CU10" s="1">
-        <v>5870.9661312173412</v>
+        <v>5655.2725372556606</v>
       </c>
     </row>
     <row r="11" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
-        <v>45743</v>
+        <v>45750</v>
       </c>
       <c r="C11" s="9">
         <v>45751</v>
       </c>
       <c r="D11" s="1">
-        <v>5391.9740661892783</v>
+        <v>5515.6006967292433</v>
       </c>
       <c r="E11" s="1">
-        <v>5345.1480549641956</v>
+        <v>5468.7746855041614</v>
       </c>
       <c r="F11" s="1">
-        <v>5298.3220437391137</v>
+        <v>5421.9486742790787</v>
       </c>
       <c r="G11" s="1">
-        <v>5242.130830269015</v>
+        <v>5365.7574608089799</v>
       </c>
       <c r="H11" s="1">
-        <v>5198.2883684923554</v>
+        <v>5321.2973098509774</v>
       </c>
       <c r="I11" s="1">
-        <v>5151.4623572672735</v>
+        <v>5274.4712986258955</v>
       </c>
       <c r="J11" s="1">
-        <v>5114.0015482872077</v>
+        <v>5246.3756918908457</v>
       </c>
       <c r="K11" s="1">
-        <v>5076.5407393071418</v>
+        <v>5218.2800851557968</v>
       </c>
       <c r="L11" s="1">
-        <v>5040.3495258370431</v>
+        <v>5201.8711050899947</v>
       </c>
       <c r="M11" s="1">
-        <v>5012.2539191019932</v>
+        <v>5183.1407005999617</v>
       </c>
       <c r="N11" s="1">
-        <v>4993.5235146119603</v>
+        <v>5173.7754983549448</v>
       </c>
       <c r="O11" s="1">
-        <v>4984.1583123669443</v>
+        <v>5155.0450938649119</v>
       </c>
       <c r="P11" s="1">
-        <v>4983.0156764079738</v>
+        <v>5131.9282368879431</v>
       </c>
       <c r="Q11" s="1">
-        <v>4992.3808786529898</v>
+        <v>5113.1978323979101</v>
       </c>
       <c r="R11" s="1">
-        <v>4992.3808786529898</v>
+        <v>5113.1978323979101</v>
       </c>
       <c r="S11" s="1">
-        <v>5001.7460808980068</v>
+        <v>5122.5630346429261</v>
       </c>
       <c r="T11" s="1">
-        <v>5010.6669247145346</v>
+        <v>5129.7191407006003</v>
       </c>
       <c r="U11" s="1">
-        <v>5029.3973292045675</v>
+        <v>5139.0843429456163</v>
       </c>
       <c r="V11" s="1">
-        <v>5057.4929359396165</v>
+        <v>5148.4495451906332</v>
       </c>
       <c r="W11" s="1">
-        <v>5085.5885426746663</v>
+        <v>5176.5451519256821</v>
       </c>
       <c r="X11" s="1">
-        <v>5131.5893168182702</v>
+        <v>5224.6807818850393</v>
       </c>
       <c r="Y11" s="1">
-        <v>5187.7805302883689</v>
+        <v>5290.237197600155</v>
       </c>
       <c r="Z11" s="1">
-        <v>5262.7021482484997</v>
+        <v>5374.5240178053027</v>
       </c>
       <c r="AA11" s="1">
-        <v>5337.6237662086314</v>
+        <v>5468.1760402554673</v>
       </c>
       <c r="AB11" s="1">
-        <v>5426.0069672924328</v>
+        <v>5595.1778594929356</v>
       </c>
       <c r="AC11" s="1">
-        <v>5529.0241919876134</v>
+        <v>5707.5602864331331</v>
       </c>
       <c r="AD11" s="1">
-        <v>5650.7718211728279</v>
+        <v>5829.3079156183476</v>
       </c>
       <c r="AE11" s="1">
-        <v>5772.5194503580415</v>
+        <v>5988.516353783627</v>
       </c>
       <c r="AF11" s="1">
-        <v>5902.0750919295533</v>
+        <v>6163.8315463518484</v>
       </c>
       <c r="AG11" s="1">
-        <v>6033.1879233597829</v>
+        <v>6341.7703890071607</v>
       </c>
       <c r="AH11" s="1">
-        <v>6164.3007547900133</v>
+        <v>6491.6136249274241</v>
       </c>
       <c r="AI11" s="1">
-        <v>6295.4135862202438</v>
+        <v>6613.3612541126377</v>
       </c>
       <c r="AJ11" s="1">
-        <v>6407.7960131604414</v>
+        <v>6732.7499129088446</v>
       </c>
       <c r="AK11" s="1">
-        <v>6510.813237855622</v>
+        <v>6779.5759241339274</v>
       </c>
       <c r="AL11" s="1">
-        <v>6585.7348558157537</v>
+        <v>6788.9411263789434</v>
       </c>
       <c r="AM11" s="1">
-        <v>6641.9260692858525</v>
+        <v>6798.3063286239594</v>
       </c>
       <c r="AN11" s="1">
-        <v>6660.0553512676606</v>
+        <v>6752.8255467389199</v>
       </c>
       <c r="AO11" s="1">
-        <v>6660.0553512676606</v>
+        <v>6724.729940003871</v>
       </c>
       <c r="AP11" s="1">
-        <v>6631.9597445326108</v>
+        <v>6668.5387265337722</v>
       </c>
       <c r="AQ11" s="1">
-        <v>6585.1337333075289</v>
+        <v>6584.2519063286236</v>
       </c>
       <c r="AR11" s="1">
-        <v>6539.7975614476491</v>
+        <v>6476.3550222566291</v>
       </c>
       <c r="AS11" s="1">
-        <v>6464.8759434875174</v>
+        <v>6382.7029998064645</v>
       </c>
       <c r="AT11" s="1">
-        <v>6399.3195277724017</v>
+        <v>6289.0509773562999</v>
       </c>
       <c r="AU11" s="1">
-        <v>6343.1283143023029</v>
+        <v>6195.3989549061353</v>
       </c>
       <c r="AV11" s="1">
-        <v>6283.9535513837818</v>
+        <v>6050.4196632475323</v>
       </c>
       <c r="AW11" s="1">
-        <v>6246.492742403716</v>
+        <v>5966.1328430423846</v>
       </c>
       <c r="AX11" s="1">
-        <v>6218.397135668667</v>
+        <v>5891.2112250822529</v>
       </c>
       <c r="AY11" s="1">
-        <v>6199.6667311786341</v>
+        <v>5825.6548093671381</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6190.9363266886012</v>
+        <v>5775.3779756144768</v>
       </c>
       <c r="BA11" s="1">
-        <v>6181.5711244435843</v>
+        <v>5728.551964389394</v>
       </c>
       <c r="BB11" s="1">
-        <v>6172.2059221985683</v>
+        <v>5691.0911554093282</v>
       </c>
       <c r="BC11" s="1">
-        <v>6144.1103154635184</v>
+        <v>5662.9955486742792</v>
       </c>
       <c r="BD11" s="1">
-        <v>6123.0311592800463</v>
+        <v>5664.9468550416104</v>
       </c>
       <c r="BE11" s="1">
-        <v>6085.5703502999804</v>
+        <v>5664.9468550416104</v>
       </c>
       <c r="BF11" s="1">
-        <v>6048.1095413199146</v>
+        <v>5655.5816527965935</v>
       </c>
       <c r="BG11" s="1">
-        <v>6010.6487323398487</v>
+        <v>5655.5816527965935</v>
       </c>
       <c r="BH11" s="1">
-        <v>5967.2208244629383</v>
+        <v>5652.439403909425</v>
       </c>
       <c r="BI11" s="1">
-        <v>5939.1252177278884</v>
+        <v>5652.439403909425</v>
       </c>
       <c r="BJ11" s="1">
-        <v>5911.0296109928395</v>
+        <v>5661.8046061544419</v>
       </c>
       <c r="BK11" s="1">
-        <v>5892.2992065028066</v>
+        <v>5661.8046061544419</v>
       </c>
       <c r="BL11" s="1">
-        <v>5886.361912134701</v>
+        <v>5664.6313915231276</v>
       </c>
       <c r="BM11" s="1">
-        <v>5876.996709889685</v>
+        <v>5673.9965937681445</v>
       </c>
       <c r="BN11" s="1">
-        <v>5876.996709889685</v>
+        <v>5683.3617960131605</v>
       </c>
       <c r="BO11" s="1">
-        <v>5876.996709889685</v>
+        <v>5692.7269982581765</v>
       </c>
       <c r="BP11" s="1">
-        <v>5867.6651828914264</v>
+        <v>5751.6947551770854</v>
       </c>
       <c r="BQ11" s="1">
-        <v>5886.3955873814593</v>
+        <v>5789.1555641571513</v>
       </c>
       <c r="BR11" s="1">
-        <v>5905.1259918714923</v>
+        <v>5845.34677762725</v>
       </c>
       <c r="BS11" s="1">
-        <v>5933.2215986065412</v>
+        <v>5901.5379910973488</v>
       </c>
       <c r="BT11" s="1">
-        <v>5970.5852525643504</v>
+        <v>5990.4251596671184</v>
       </c>
       <c r="BU11" s="1">
-        <v>6008.0460615444163</v>
+        <v>6055.9815753822331</v>
       </c>
       <c r="BV11" s="1">
-        <v>6036.1416682794661</v>
+        <v>6121.5379910973488</v>
       </c>
       <c r="BW11" s="1">
-        <v>6064.237275014515</v>
+        <v>6196.4596090574805</v>
       </c>
       <c r="BX11" s="1">
-        <v>6099.7936907296307</v>
+        <v>6287.1369072963034</v>
       </c>
       <c r="BY11" s="1">
-        <v>6137.2544997096966</v>
+        <v>6362.0585252564351</v>
       </c>
       <c r="BZ11" s="1">
-        <v>6202.8109154248114</v>
+        <v>6446.3453454615828</v>
       </c>
       <c r="CA11" s="1">
-        <v>6296.462937874976</v>
+        <v>6549.3625701567644</v>
       </c>
       <c r="CB11" s="1">
-        <v>6422.4002322430815</v>
+        <v>6684.824308109155</v>
       </c>
       <c r="CC11" s="1">
-        <v>6572.243468163344</v>
+        <v>6797.2067350493526</v>
       </c>
       <c r="CD11" s="1">
-        <v>6740.8171085736403</v>
+        <v>6909.5891619895501</v>
       </c>
       <c r="CE11" s="1">
-        <v>6900.0255467389197</v>
+        <v>7021.9715889297477</v>
       </c>
       <c r="CF11" s="1">
-        <v>7056.7582736597642</v>
+        <v>7176.3878459454227</v>
       </c>
       <c r="CG11" s="1">
-        <v>7178.5059028449778</v>
+        <v>7241.9442616605384</v>
       </c>
       <c r="CH11" s="1">
-        <v>7234.6971163150765</v>
+        <v>7251.3094639055544</v>
       </c>
       <c r="CI11" s="1">
-        <v>7244.0623185600934</v>
+        <v>7251.3094639055544</v>
       </c>
       <c r="CJ11" s="1">
-        <v>7179.9659376814398</v>
+        <v>7192.3651635378355</v>
       </c>
       <c r="CK11" s="1">
-        <v>7105.0443197213081</v>
+        <v>7108.0783433326887</v>
       </c>
       <c r="CL11" s="1">
-        <v>7011.3922972711443</v>
+        <v>7014.4263208825232</v>
       </c>
       <c r="CM11" s="1">
-        <v>6889.6446680859299</v>
+        <v>6892.6786916973088</v>
       </c>
       <c r="CN11" s="1">
-        <v>6734.8798142055348</v>
+        <v>6678.9607122121151</v>
       </c>
       <c r="CO11" s="1">
-        <v>6603.7669827753052</v>
+        <v>6538.4826785368687</v>
       </c>
       <c r="CP11" s="1">
-        <v>6435.1933423650089</v>
+        <v>6369.9090381265723</v>
       </c>
       <c r="CQ11" s="1">
-        <v>6294.7153086897624</v>
+        <v>6210.7005999612929</v>
       </c>
       <c r="CR11" s="1">
-        <v>6133.1917940778012</v>
+        <v>6051.8705631894718</v>
       </c>
       <c r="CS11" s="1">
-        <v>6011.4441648925877</v>
+        <v>5920.7577317592413</v>
       </c>
       <c r="CT11" s="1">
-        <v>5899.0617379523901</v>
+        <v>5808.3753048190438</v>
       </c>
       <c r="CU11" s="1">
-        <v>5796.0445132572095</v>
+        <v>5695.9928778788462</v>
       </c>
     </row>
     <row r="12" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B12" s="8">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C12" s="9">
         <v>45752</v>
       </c>
       <c r="D12" s="1">
-        <v>5251.4960325140319</v>
+        <v>5459.4094832591445</v>
       </c>
       <c r="E12" s="1">
-        <v>5195.3048190439331</v>
+        <v>5393.8530675440297</v>
       </c>
       <c r="F12" s="1">
-        <v>5148.4788078188503</v>
+        <v>5365.7574608089799</v>
       </c>
       <c r="G12" s="1">
-        <v>5092.2875943487516</v>
+        <v>5300.2010450938651</v>
       </c>
       <c r="H12" s="1">
-        <v>5048.445132572092</v>
+        <v>5255.7408941358626</v>
       </c>
       <c r="I12" s="1">
-        <v>5001.6191213470102</v>
+        <v>5199.5496806657638</v>
       </c>
       <c r="J12" s="1">
-        <v>4964.1583123669443</v>
+        <v>5152.7236694406811</v>
       </c>
       <c r="K12" s="1">
-        <v>4917.3323011418615</v>
+        <v>5124.6280627056321</v>
       </c>
       <c r="L12" s="1">
-        <v>4881.1410876717628</v>
+        <v>5108.21908263983</v>
       </c>
       <c r="M12" s="1">
-        <v>4853.0454809367138</v>
+        <v>5080.1234759047802</v>
       </c>
       <c r="N12" s="1">
-        <v>4824.9498742016649</v>
+        <v>5061.3930714147473</v>
       </c>
       <c r="O12" s="1">
-        <v>4815.584671956648</v>
+        <v>5042.6626669247144</v>
       </c>
       <c r="P12" s="1">
-        <v>4805.0768337526615</v>
+        <v>5019.5458099477455</v>
       </c>
       <c r="Q12" s="1">
-        <v>4795.7116315076446</v>
+        <v>4991.4502032126957</v>
       </c>
       <c r="R12" s="1">
-        <v>4795.7116315076446</v>
+        <v>5000.8154054577126</v>
       </c>
       <c r="S12" s="1">
-        <v>4805.0768337526615</v>
+        <v>5000.8154054577126</v>
       </c>
       <c r="T12" s="1">
-        <v>4804.6324753241724</v>
+        <v>4998.6063092703698</v>
       </c>
       <c r="U12" s="1">
-        <v>4804.6324753241724</v>
+        <v>5017.3367137604027</v>
       </c>
       <c r="V12" s="1">
-        <v>4804.6324753241724</v>
+        <v>5026.7019160054188</v>
       </c>
       <c r="W12" s="1">
-        <v>4813.9976775691894</v>
+        <v>5045.4323204954517</v>
       </c>
       <c r="X12" s="1">
-        <v>4822.5376427327274</v>
+        <v>5056.1071414747439</v>
       </c>
       <c r="Y12" s="1">
-        <v>4831.9028449777434</v>
+        <v>5074.8375459647768</v>
       </c>
       <c r="Z12" s="1">
-        <v>4841.2680472227603</v>
+        <v>5093.5679504548098</v>
       </c>
       <c r="AA12" s="1">
-        <v>4859.9984517127932</v>
+        <v>5121.6635571898587</v>
       </c>
       <c r="AB12" s="1">
-        <v>4873.460034836462</v>
+        <v>5173.7437584671961</v>
       </c>
       <c r="AC12" s="1">
-        <v>4892.1904393264949</v>
+        <v>5211.204567447262</v>
       </c>
       <c r="AD12" s="1">
-        <v>4929.6512483065608</v>
+        <v>5258.0305786723438</v>
       </c>
       <c r="AE12" s="1">
-        <v>4957.7468550416106</v>
+        <v>5314.2217921424426</v>
       </c>
       <c r="AF12" s="1">
-        <v>5003.0156764079738</v>
+        <v>5395.8849622604994</v>
       </c>
       <c r="AG12" s="1">
-        <v>5040.4764853880397</v>
+        <v>5470.8065802206311</v>
       </c>
       <c r="AH12" s="1">
-        <v>5087.3024966131215</v>
+        <v>5545.7281981807628</v>
       </c>
       <c r="AI12" s="1">
-        <v>5124.7633055931874</v>
+        <v>5630.0150183859105</v>
       </c>
       <c r="AJ12" s="1">
-        <v>5162.2241145732532</v>
+        <v>5711.9428682020516</v>
       </c>
       <c r="AK12" s="1">
-        <v>5190.3197213083031</v>
+        <v>5768.1340816721504</v>
       </c>
       <c r="AL12" s="1">
-        <v>5209.050125798336</v>
+        <v>5814.9600928972322</v>
       </c>
       <c r="AM12" s="1">
-        <v>5218.415328043352</v>
+        <v>5814.9600928972322</v>
       </c>
       <c r="AN12" s="1">
-        <v>5199.0838010450943</v>
+        <v>5788.2097155022257</v>
       </c>
       <c r="AO12" s="1">
-        <v>5180.3533965550614</v>
+        <v>5769.4793110121927</v>
       </c>
       <c r="AP12" s="1">
-        <v>5142.8925875749956</v>
+        <v>5732.0185020321269</v>
       </c>
       <c r="AQ12" s="1">
-        <v>5096.0665763499128</v>
+        <v>5685.192490807045</v>
       </c>
       <c r="AR12" s="1">
-        <v>5060.0956067350498</v>
+        <v>5624.1216179601315</v>
       </c>
       <c r="AS12" s="1">
-        <v>5003.9043932649511</v>
+        <v>5567.9304044900327</v>
       </c>
       <c r="AT12" s="1">
-        <v>4938.3479775498354</v>
+        <v>5521.1043932649509</v>
       </c>
       <c r="AU12" s="1">
-        <v>4891.5219663247535</v>
+        <v>5474.2783820398681</v>
       </c>
       <c r="AV12" s="1">
-        <v>4832.3472034062315</v>
+        <v>5404.2207083413978</v>
       </c>
       <c r="AW12" s="1">
-        <v>4794.8863944261657</v>
+        <v>5385.4903038513648</v>
       </c>
       <c r="AX12" s="1">
-        <v>4748.0603832010838</v>
+        <v>5357.394697116315</v>
       </c>
       <c r="AY12" s="1">
-        <v>4710.599574221018</v>
+        <v>5338.6642926262821</v>
       </c>
       <c r="AZ12" s="1">
-        <v>4673.7735629959361</v>
+        <v>5344.5786723437195</v>
       </c>
       <c r="BA12" s="1">
-        <v>4636.3127540158703</v>
+        <v>5325.8482678536866</v>
       </c>
       <c r="BB12" s="1">
-        <v>4598.8519450358044</v>
+        <v>5307.1178633636537</v>
       </c>
       <c r="BC12" s="1">
-        <v>4561.3911360557386</v>
+        <v>5279.0222566286047</v>
       </c>
       <c r="BD12" s="1">
-        <v>4521.5815753822335</v>
+        <v>5280.9735629959359</v>
       </c>
       <c r="BE12" s="1">
-        <v>4484.1207664021676</v>
+        <v>5271.608360750919</v>
       </c>
       <c r="BF12" s="1">
-        <v>4446.6599574221018</v>
+        <v>5262.243158505903</v>
       </c>
       <c r="BG12" s="1">
-        <v>4427.9295529320689</v>
+        <v>5252.8779562608861</v>
       </c>
       <c r="BH12" s="1">
-        <v>4412.5972517902073</v>
+        <v>5249.7357073737176</v>
       </c>
       <c r="BI12" s="1">
-        <v>4421.9624540352233</v>
+        <v>5259.1009096187345</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4431.3276562802403</v>
+        <v>5268.4661118637505</v>
       </c>
       <c r="BK12" s="1">
-        <v>4459.4232630152892</v>
+        <v>5277.8313141087674</v>
       </c>
       <c r="BL12" s="1">
-        <v>4500.3119798722664</v>
+        <v>5280.6580994774531</v>
       </c>
       <c r="BM12" s="1">
-        <v>4547.1379910973483</v>
+        <v>5280.6580994774531</v>
       </c>
       <c r="BN12" s="1">
-        <v>4593.964002322431</v>
+        <v>5290.02330172247</v>
       </c>
       <c r="BO12" s="1">
-        <v>4650.1552157925298</v>
+        <v>5299.388503967486</v>
       </c>
       <c r="BP12" s="1">
-        <v>4706.3801045093869</v>
+        <v>5330.2606541513451</v>
       </c>
       <c r="BQ12" s="1">
-        <v>4771.9365202245017</v>
+        <v>5348.991058641378</v>
       </c>
       <c r="BR12" s="1">
-        <v>4856.2233404296494</v>
+        <v>5386.4518676214439</v>
       </c>
       <c r="BS12" s="1">
-        <v>4940.510160634798</v>
+        <v>5423.9126766015097</v>
       </c>
       <c r="BT12" s="1">
-        <v>5043.430230307722</v>
+        <v>5494.0694406812463</v>
       </c>
       <c r="BU12" s="1">
-        <v>5127.7170505128706</v>
+        <v>5559.625856396362</v>
       </c>
       <c r="BV12" s="1">
-        <v>5212.0038707180183</v>
+        <v>5625.1822721114768</v>
       </c>
       <c r="BW12" s="1">
-        <v>5296.290690923166</v>
+        <v>5690.7386878265916</v>
       </c>
       <c r="BX12" s="1">
-        <v>5369.3079156183476</v>
+        <v>5781.4159860654154</v>
       </c>
       <c r="BY12" s="1">
-        <v>5434.8643313334624</v>
+        <v>5865.7028062705631</v>
       </c>
       <c r="BZ12" s="1">
-        <v>5509.7859492935941</v>
+        <v>5968.7200309657446</v>
       </c>
       <c r="CA12" s="1">
-        <v>5594.0727694987418</v>
+        <v>6090.4676601509582</v>
       </c>
       <c r="CB12" s="1">
-        <v>5691.9144571317984</v>
+        <v>6254.0250048383987</v>
       </c>
       <c r="CC12" s="1">
-        <v>5804.296884071995</v>
+        <v>6403.8682407586621</v>
       </c>
       <c r="CD12" s="1">
-        <v>5907.3141087671765</v>
+        <v>6534.9810721888916</v>
       </c>
       <c r="CE12" s="1">
-        <v>6000.9661312173412</v>
+        <v>6647.3634991290892</v>
       </c>
       <c r="CF12" s="1">
-        <v>6092.14244242307</v>
+        <v>6764.3189471646992</v>
       </c>
       <c r="CG12" s="1">
-        <v>6176.4292626282177</v>
+        <v>6811.1449583897811</v>
       </c>
       <c r="CH12" s="1">
-        <v>6204.5248693632666</v>
+        <v>6811.1449583897811</v>
       </c>
       <c r="CI12" s="1">
-        <v>6204.5248693632666</v>
+        <v>6764.3189471646992</v>
       </c>
       <c r="CJ12" s="1">
-        <v>6159.1588929746467</v>
+        <v>6649.1834333268816</v>
       </c>
       <c r="CK12" s="1">
-        <v>6093.602477259532</v>
+        <v>6508.7053996516352</v>
       </c>
       <c r="CL12" s="1">
-        <v>6018.6808592994003</v>
+        <v>6424.4185794464865</v>
       </c>
       <c r="CM12" s="1">
-        <v>5925.0288368492356</v>
+        <v>6340.1317592413398</v>
       </c>
       <c r="CN12" s="1">
-        <v>5807.7247919489064</v>
+        <v>6201.335397716276</v>
       </c>
       <c r="CO12" s="1">
-        <v>5685.9771627636928</v>
+        <v>6107.6833752661123</v>
       </c>
       <c r="CP12" s="1">
-        <v>5554.8643313334624</v>
+        <v>5948.474937100832</v>
       </c>
       <c r="CQ12" s="1">
-        <v>5423.7514999032319</v>
+        <v>5817.3621056706015</v>
       </c>
       <c r="CR12" s="1">
-        <v>5262.2279852912716</v>
+        <v>5658.5320688987804</v>
       </c>
       <c r="CS12" s="1">
-        <v>5149.845558351074</v>
+        <v>5508.6888329785179</v>
       </c>
       <c r="CT12" s="1">
-        <v>5046.8283336558934</v>
+        <v>5424.4020127733693</v>
       </c>
       <c r="CU12" s="1">
-        <v>4943.8111089607119</v>
+        <v>5321.3847880781886</v>
       </c>
     </row>
     <row r="13" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B13" s="8">
-        <v>45744</v>
+        <v>45750</v>
       </c>
       <c r="C13" s="9">
         <v>45753</v>
       </c>
       <c r="D13" s="1">
-        <v>4778.2814786142826</v>
+        <v>5205.1441842461782</v>
       </c>
       <c r="E13" s="10">
-        <v>4712.7250628991678</v>
+        <v>5158.3181730210954</v>
       </c>
       <c r="F13" s="1">
-        <v>4675.264253919102</v>
+        <v>5111.4921617960135</v>
       </c>
       <c r="G13" s="1">
-        <v>4628.4382426940201</v>
+        <v>5036.5705438358818</v>
       </c>
       <c r="H13" s="1">
-        <v>4582.7929552932073</v>
+        <v>5022.0181923746859</v>
       </c>
       <c r="I13" s="1">
-        <v>4545.3321463131415</v>
+        <v>4965.8269789045862</v>
       </c>
       <c r="J13" s="1">
-        <v>4507.8713373330756</v>
+        <v>4909.6357654344883</v>
       </c>
       <c r="K13" s="1">
-        <v>4479.7757305980258</v>
+        <v>4872.1749564544225</v>
       </c>
       <c r="L13" s="1">
-        <v>4459.875362879814</v>
+        <v>4805.1770079349726</v>
       </c>
       <c r="M13" s="1">
-        <v>4431.7797561447651</v>
+        <v>4786.4466034449397</v>
       </c>
       <c r="N13" s="1">
-        <v>4403.6841494097152</v>
+        <v>4767.7161989549068</v>
       </c>
       <c r="O13" s="1">
-        <v>4375.5885426746663</v>
+        <v>4758.3509967098898</v>
       </c>
       <c r="P13" s="1">
-        <v>4353.1318753628802</v>
+        <v>4727.732765628024</v>
       </c>
       <c r="Q13" s="1">
-        <v>4334.4014708728473</v>
+        <v>4718.367563383008</v>
       </c>
       <c r="R13" s="1">
-        <v>4325.0362686278304</v>
+        <v>4718.367563383008</v>
       </c>
       <c r="S13" s="1">
-        <v>4315.6710663828144</v>
+        <v>4718.367563383008</v>
       </c>
       <c r="T13" s="1">
-        <v>4326.6721114766788</v>
+        <v>4704.3937294368106</v>
       </c>
       <c r="U13" s="1">
-        <v>4326.6721114766788</v>
+        <v>4704.3937294368106</v>
       </c>
       <c r="V13" s="1">
-        <v>4336.0373137216957</v>
+        <v>4704.3937294368106</v>
       </c>
       <c r="W13" s="1">
-        <v>4345.4025159667117</v>
+        <v>4704.3937294368106</v>
       </c>
       <c r="X13" s="1">
-        <v>4369.7045093864908</v>
+        <v>4707.732765628024</v>
       </c>
       <c r="Y13" s="1">
-        <v>4379.0697116315077</v>
+        <v>4717.09796787304</v>
       </c>
       <c r="Z13" s="1">
-        <v>4388.4349138765238</v>
+        <v>4726.463170118057</v>
       </c>
       <c r="AA13" s="1">
-        <v>4397.8001161215407</v>
+        <v>4745.1935746080899</v>
       </c>
       <c r="AB13" s="1">
-        <v>4415.424037158893</v>
+        <v>4799.2651054770658</v>
       </c>
       <c r="AC13" s="1">
-        <v>4424.7892394039091</v>
+        <v>4836.7259144571317</v>
       </c>
       <c r="AD13" s="1">
-        <v>4424.7892394039091</v>
+        <v>4874.1867234371975</v>
       </c>
       <c r="AE13" s="1">
-        <v>4434.154441648926</v>
+        <v>4911.6475324172634</v>
       </c>
       <c r="AF13" s="1">
-        <v>4432.2183084962262</v>
+        <v>4932.6499709696145</v>
       </c>
       <c r="AG13" s="1">
-        <v>4432.2183084962262</v>
+        <v>4970.1107799496804</v>
       </c>
       <c r="AH13" s="1">
-        <v>4432.2183084962262</v>
+        <v>5016.9367911747631</v>
       </c>
       <c r="AI13" s="1">
-        <v>4432.2183084962262</v>
+        <v>5054.397600154829</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4413.3247919489067</v>
+        <v>5088.4856976969231</v>
       </c>
       <c r="AK13" s="1">
-        <v>4394.5943874588738</v>
+        <v>5116.5813044319721</v>
       </c>
       <c r="AL13" s="1">
-        <v>4375.8639829688409</v>
+        <v>5125.946506676989</v>
       </c>
       <c r="AM13" s="1">
-        <v>4347.7683762337911</v>
+        <v>5135.311708922005</v>
       </c>
       <c r="AN13" s="1">
-        <v>4317.7429843235923</v>
+        <v>5107.6008515579642</v>
       </c>
       <c r="AO13" s="1">
-        <v>4270.9169730985095</v>
+        <v>5098.2356493129473</v>
       </c>
       <c r="AP13" s="1">
-        <v>4233.4561641184437</v>
+        <v>5070.1400425778984</v>
       </c>
       <c r="AQ13" s="1">
-        <v>4195.9953551383778</v>
+        <v>5042.0444358428485</v>
       </c>
       <c r="AR13" s="1">
-        <v>4135.3434488097546</v>
+        <v>5037.1189471646994</v>
       </c>
       <c r="AS13" s="1">
-        <v>4097.8826398296887</v>
+        <v>5009.0233404296496</v>
       </c>
       <c r="AT13" s="1">
-        <v>4069.7870330946389</v>
+        <v>4980.9277336946006</v>
       </c>
       <c r="AU13" s="1">
-        <v>4041.69142635959</v>
+        <v>4962.1973292045677</v>
       </c>
       <c r="AV13" s="1">
-        <v>3992.1733307528548</v>
+        <v>4919.2538029804527</v>
       </c>
       <c r="AW13" s="1">
-        <v>3982.8081285078379</v>
+        <v>4900.5233984904198</v>
       </c>
       <c r="AX13" s="1">
-        <v>3973.4429262628219</v>
+        <v>4891.1581962454038</v>
       </c>
       <c r="AY13" s="1">
-        <v>3954.7125217727889</v>
+        <v>4872.4277917553709</v>
       </c>
       <c r="AZ13" s="1">
-        <v>3957.338649119411</v>
+        <v>4853.0181536675054</v>
       </c>
       <c r="BA13" s="1">
-        <v>3947.973446874395</v>
+        <v>4834.2877491774725</v>
       </c>
       <c r="BB13" s="1">
-        <v>3929.2430423843621</v>
+        <v>4824.9225469324565</v>
       </c>
       <c r="BC13" s="1">
-        <v>3910.5126378943291</v>
+        <v>4806.1921424424236</v>
       </c>
       <c r="BD13" s="1">
-        <v>3884.065028062706</v>
+        <v>4816.9988774917747</v>
       </c>
       <c r="BE13" s="1">
-        <v>3874.6998258176891</v>
+        <v>4807.6336752467587</v>
       </c>
       <c r="BF13" s="1">
-        <v>3865.3346235726731</v>
+        <v>4798.2684730017418</v>
       </c>
       <c r="BG13" s="1">
-        <v>3874.6998258176891</v>
+        <v>4798.2684730017418</v>
       </c>
       <c r="BH13" s="1">
-        <v>3901.3569189084578</v>
+        <v>4804.076872459842</v>
       </c>
       <c r="BI13" s="1">
-        <v>3920.0873233984908</v>
+        <v>4804.076872459842</v>
       </c>
       <c r="BJ13" s="1">
-        <v>3938.8177278885237</v>
+        <v>4813.442074704858</v>
       </c>
       <c r="BK13" s="1">
-        <v>3966.9133346235735</v>
+        <v>4822.8072769498749</v>
       </c>
       <c r="BL13" s="1">
-        <v>4020.8832978517512</v>
+        <v>4848.2011225082251</v>
       </c>
       <c r="BM13" s="1">
-        <v>4048.978904586801</v>
+        <v>4857.5663247532411</v>
       </c>
       <c r="BN13" s="1">
-        <v>4086.4397135668669</v>
+        <v>4866.9315269982581</v>
       </c>
       <c r="BO13" s="1">
-        <v>4123.9005225469327</v>
+        <v>4885.661931488291</v>
       </c>
       <c r="BP13" s="1">
-        <v>4226.0682020514805</v>
+        <v>4871.0991290884458</v>
       </c>
       <c r="BQ13" s="1">
-        <v>4282.2594155215793</v>
+        <v>4899.1947358234956</v>
       </c>
       <c r="BR13" s="1">
-        <v>4347.8158312366941</v>
+        <v>4946.0207470485775</v>
       </c>
       <c r="BS13" s="1">
-        <v>4422.7374491968258</v>
+        <v>5002.2119605186763</v>
       </c>
       <c r="BT13" s="1">
-        <v>4523.3302883684928</v>
+        <v>5048.7161602477263</v>
       </c>
       <c r="BU13" s="1">
-        <v>4607.6171085736405</v>
+        <v>5114.2725759628411</v>
       </c>
       <c r="BV13" s="1">
-        <v>4691.9039287787891</v>
+        <v>5179.8289916779568</v>
       </c>
       <c r="BW13" s="1">
-        <v>4766.8255467389199</v>
+        <v>5236.0202051480546</v>
       </c>
       <c r="BX13" s="1">
-        <v>4837.0306173795243</v>
+        <v>5340.9213857170507</v>
       </c>
       <c r="BY13" s="1">
-        <v>4921.317437584672</v>
+        <v>5406.4778014321655</v>
       </c>
       <c r="BZ13" s="1">
-        <v>5005.6042577898197</v>
+        <v>5472.0342171472812</v>
       </c>
       <c r="CA13" s="1">
-        <v>5089.8910779949683</v>
+        <v>5565.6862395974458</v>
       </c>
       <c r="CB13" s="1">
-        <v>5192.9717824656473</v>
+        <v>5681.2534159086508</v>
       </c>
       <c r="CC13" s="1">
-        <v>5314.7194116508617</v>
+        <v>5793.6358428488484</v>
       </c>
       <c r="CD13" s="1">
-        <v>5436.4670408360753</v>
+        <v>5915.3834720340628</v>
       </c>
       <c r="CE13" s="1">
-        <v>5548.8494677762728</v>
+        <v>6027.7658989742595</v>
       </c>
       <c r="CF13" s="1">
-        <v>5651.329049738727</v>
+        <v>6156.9514224888717</v>
       </c>
       <c r="CG13" s="1">
-        <v>5744.9810721888907</v>
+        <v>6250.6034449390363</v>
       </c>
       <c r="CH13" s="1">
-        <v>5782.4418811689566</v>
+        <v>6269.3338494290692</v>
       </c>
       <c r="CI13" s="1">
-        <v>5782.4418811689566</v>
+        <v>6269.3338494290692</v>
       </c>
       <c r="CJ13" s="1">
-        <v>5712.1962454035229</v>
+        <v>6277.0789239403912</v>
       </c>
       <c r="CK13" s="1">
-        <v>5646.6398296884072</v>
+        <v>6174.0616992452087</v>
       </c>
       <c r="CL13" s="1">
-        <v>5581.0834139732924</v>
+        <v>6127.2356880201278</v>
       </c>
       <c r="CM13" s="1">
-        <v>5487.4313915231278</v>
+        <v>6061.679272305013</v>
       </c>
       <c r="CN13" s="1">
-        <v>5346.178362686278</v>
+        <v>5954.8151732146307</v>
       </c>
       <c r="CO13" s="1">
-        <v>5252.5263402361143</v>
+        <v>5861.163150764467</v>
       </c>
       <c r="CP13" s="1">
-        <v>5140.1439132959167</v>
+        <v>5701.9547125991867</v>
       </c>
       <c r="CQ13" s="1">
-        <v>5037.1266886007352</v>
+        <v>5598.937487904006</v>
       </c>
       <c r="CR13" s="1">
-        <v>4903.6753241726337</v>
+        <v>5487.9047029223921</v>
       </c>
       <c r="CS13" s="1">
-        <v>4781.9276949874202</v>
+        <v>5347.4266692471456</v>
       </c>
       <c r="CT13" s="1">
-        <v>4688.2756725372556</v>
+        <v>5263.1398490419979</v>
       </c>
       <c r="CU13" s="1">
-        <v>4585.2584478420749</v>
+        <v>5160.1226243468163</v>
       </c>
     </row>
     <row r="14" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B14" s="8">
-        <v>45746</v>
+        <v>45750</v>
       </c>
       <c r="C14" s="9">
         <v>45754</v>
       </c>
       <c r="D14" s="1">
-        <v>4641.0508225275789</v>
+        <v>5074.0313528159477</v>
       </c>
       <c r="E14" s="1">
-        <v>4622.320418037546</v>
+        <v>5017.8401393458489</v>
       </c>
       <c r="F14" s="1">
-        <v>4603.5900135475131</v>
+        <v>4971.0141281207661</v>
       </c>
       <c r="G14" s="1">
-        <v>4584.8596090574802</v>
+        <v>4914.8229146506674</v>
       </c>
       <c r="H14" s="1">
-        <v>4547.7689181343139</v>
+        <v>4928.3661699245213</v>
       </c>
       <c r="I14" s="1">
-        <v>4519.673311399265</v>
+        <v>4881.5401586994394</v>
       </c>
       <c r="J14" s="1">
-        <v>4500.9429069092321</v>
+        <v>4844.0793497193736</v>
       </c>
       <c r="K14" s="1">
-        <v>4472.8473001741822</v>
+        <v>4815.9837429843237</v>
       </c>
       <c r="L14" s="1">
-        <v>4435.3864911941164</v>
+        <v>4758.3509967098898</v>
       </c>
       <c r="M14" s="1">
-        <v>4416.6560867040835</v>
+        <v>4739.6205922198569</v>
       </c>
       <c r="N14" s="1">
-        <v>4397.9256822140505</v>
+        <v>4730.2553899748409</v>
       </c>
       <c r="O14" s="1">
-        <v>4388.5604799690345</v>
+        <v>4730.2553899748409</v>
       </c>
       <c r="P14" s="1">
-        <v>4388.5604799690345</v>
+        <v>4709.0023611379911</v>
       </c>
       <c r="Q14" s="1">
-        <v>4388.5604799690345</v>
+        <v>4718.367563383008</v>
       </c>
       <c r="R14" s="1">
-        <v>4397.9256822140505</v>
+        <v>4718.367563383008</v>
       </c>
       <c r="S14" s="1">
-        <v>4407.2908844590675</v>
+        <v>4727.732765628024</v>
       </c>
       <c r="T14" s="1">
-        <v>4427.4178440100641</v>
+        <v>4732.4893361718596</v>
       </c>
       <c r="U14" s="1">
-        <v>4446.148248500097</v>
+        <v>4751.2197406618925</v>
       </c>
       <c r="V14" s="1">
-        <v>4483.6090574801628</v>
+        <v>4779.3153473969423</v>
       </c>
       <c r="W14" s="1">
-        <v>4521.0698664602287</v>
+        <v>4816.7761563770082</v>
       </c>
       <c r="X14" s="1">
-        <v>4577.2610799303275</v>
+        <v>4876.3064060383203</v>
       </c>
       <c r="Y14" s="1">
-        <v>4652.1826978904592</v>
+        <v>4951.228023998452</v>
       </c>
       <c r="Z14" s="1">
-        <v>4736.4695180956069</v>
+        <v>5054.2452486936327</v>
       </c>
       <c r="AA14" s="1">
-        <v>4848.8519450358044</v>
+        <v>5175.9928778788462</v>
       </c>
       <c r="AB14" s="1">
-        <v>4979.9647764660349</v>
+        <v>5351.8120379330367</v>
       </c>
       <c r="AC14" s="1">
-        <v>5120.4428101412814</v>
+        <v>5511.0204760983161</v>
       </c>
       <c r="AD14" s="1">
-        <v>5289.0164505515777</v>
+        <v>5698.3245209986453</v>
       </c>
       <c r="AE14" s="1">
-        <v>5457.5900909618731</v>
+        <v>5885.6285658989746</v>
       </c>
       <c r="AF14" s="1">
-        <v>5644.8941358622023</v>
+        <v>6056.4742403715891</v>
       </c>
       <c r="AG14" s="1">
-        <v>5822.8329785175147</v>
+        <v>6243.7782852719183</v>
       </c>
       <c r="AH14" s="1">
-        <v>6010.1370234178439</v>
+        <v>6421.7171279272306</v>
       </c>
       <c r="AI14" s="1">
-        <v>6178.7106638281402</v>
+        <v>6571.560363847494</v>
       </c>
       <c r="AJ14" s="1">
-        <v>6337.9191019934196</v>
+        <v>6708.6656860847688</v>
       </c>
       <c r="AK14" s="1">
-        <v>6469.0319334236501</v>
+        <v>6802.3177085349334</v>
       </c>
       <c r="AL14" s="1">
-        <v>6581.4143603638477</v>
+        <v>6867.8741242500482</v>
       </c>
       <c r="AM14" s="1">
-        <v>6675.0663828140123</v>
+        <v>6867.8741242500482</v>
       </c>
       <c r="AN14" s="1">
-        <v>6729.8610412231474</v>
+        <v>6849.5284691310235</v>
       </c>
       <c r="AO14" s="1">
-        <v>6757.9566479581963</v>
+        <v>6849.5284691310235</v>
       </c>
       <c r="AP14" s="1">
-        <v>6767.3218502032132</v>
+        <v>6802.7024579059416</v>
       </c>
       <c r="AQ14" s="1">
-        <v>6757.9566479581963</v>
+        <v>6737.1460421908268</v>
       </c>
       <c r="AR14" s="1">
-        <v>6729.5436423456549</v>
+        <v>6685.394542287594</v>
       </c>
       <c r="AS14" s="1">
-        <v>6692.0828333655891</v>
+        <v>6610.4729243274633</v>
       </c>
       <c r="AT14" s="1">
-        <v>6645.2568221405072</v>
+        <v>6535.5513063673316</v>
       </c>
       <c r="AU14" s="1">
-        <v>6598.4308109154244</v>
+        <v>6469.9948906522159</v>
       </c>
       <c r="AV14" s="1">
-        <v>6542.2395974453266</v>
+        <v>6389.590555448036</v>
       </c>
       <c r="AW14" s="1">
-        <v>6495.4135862202438</v>
+        <v>6333.3993419779372</v>
       </c>
       <c r="AX14" s="1">
-        <v>6439.222372750145</v>
+        <v>6286.5733307528544</v>
       </c>
       <c r="AY14" s="1">
-        <v>6392.3963615250632</v>
+        <v>6249.1125217727886</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6345.5703502999804</v>
+        <v>6220.3376814399071</v>
       </c>
       <c r="BA14" s="1">
-        <v>6308.1095413199146</v>
+        <v>6192.2420747048582</v>
       </c>
       <c r="BB14" s="1">
-        <v>6261.2835300948327</v>
+        <v>6164.1464679698083</v>
       </c>
       <c r="BC14" s="1">
-        <v>6223.8227211147669</v>
+        <v>6136.0508612347594</v>
       </c>
       <c r="BD14" s="1">
-        <v>6195.7271143797179</v>
+        <v>6146.8575962841105</v>
       </c>
       <c r="BE14" s="1">
-        <v>6167.6315076446681</v>
+        <v>6128.1271917940776</v>
       </c>
       <c r="BF14" s="1">
-        <v>6148.9011031546352</v>
+        <v>6118.7619895490616</v>
       </c>
       <c r="BG14" s="1">
-        <v>6130.1706986646022</v>
+        <v>6109.3967873040447</v>
       </c>
       <c r="BH14" s="1">
-        <v>6120.8054964195862</v>
+        <v>6115.2051867621449</v>
       </c>
       <c r="BI14" s="1">
-        <v>6120.8054964195862</v>
+        <v>6115.2051867621449</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6111.4402941745693</v>
+        <v>6115.2051867621449</v>
       </c>
       <c r="BK14" s="1">
-        <v>6111.4402941745693</v>
+        <v>6115.2051867621449</v>
       </c>
       <c r="BL14" s="1">
-        <v>6102.0750919295533</v>
+        <v>6121.8686278304631</v>
       </c>
       <c r="BM14" s="1">
-        <v>6092.7098896845364</v>
+        <v>6121.8686278304631</v>
       </c>
       <c r="BN14" s="1">
-        <v>6083.3446874395204</v>
+        <v>6121.8686278304631</v>
       </c>
       <c r="BO14" s="1">
-        <v>6073.9794851945035</v>
+        <v>6121.8686278304631</v>
       </c>
       <c r="BP14" s="1">
-        <v>6073.9794851945035</v>
+        <v>6088.5754209405841</v>
       </c>
       <c r="BQ14" s="1">
-        <v>6083.3446874395204</v>
+        <v>6097.940623185601</v>
       </c>
       <c r="BR14" s="1">
-        <v>6102.0750919295533</v>
+        <v>6126.0362299206499</v>
       </c>
       <c r="BS14" s="1">
-        <v>6120.8054964195862</v>
+        <v>6163.4970389007158</v>
       </c>
       <c r="BT14" s="1">
-        <v>6148.9011031546352</v>
+        <v>6200.6360363847498</v>
       </c>
       <c r="BU14" s="1">
-        <v>6176.996709889685</v>
+        <v>6247.4620476098316</v>
       </c>
       <c r="BV14" s="1">
-        <v>6205.0923166247339</v>
+        <v>6303.6532610799304</v>
       </c>
       <c r="BW14" s="1">
-        <v>6233.1879233597829</v>
+        <v>6369.2096767950452</v>
       </c>
       <c r="BX14" s="1">
-        <v>6270.9661312173412</v>
+        <v>6474.1108573640413</v>
       </c>
       <c r="BY14" s="1">
-        <v>6317.792142442423</v>
+        <v>6558.397677569189</v>
       </c>
       <c r="BZ14" s="1">
-        <v>6392.7137604025547</v>
+        <v>6661.4149022643705</v>
       </c>
       <c r="CA14" s="1">
-        <v>6486.3657828527193</v>
+        <v>6773.7973292045672</v>
       </c>
       <c r="CB14" s="1">
-        <v>6598.7482097929169</v>
+        <v>6917.4601122508229</v>
       </c>
       <c r="CC14" s="1">
-        <v>6739.2262434681634</v>
+        <v>7048.5729436810525</v>
       </c>
       <c r="CD14" s="1">
-        <v>6870.3390748983938</v>
+        <v>7179.685775111283</v>
       </c>
       <c r="CE14" s="1">
-        <v>6982.7215018385914</v>
+        <v>7292.0682020514805</v>
       </c>
       <c r="CF14" s="1">
-        <v>7105.8656860847686</v>
+        <v>7402.5233210760598</v>
       </c>
       <c r="CG14" s="1">
-        <v>7199.5177085349333</v>
+        <v>7477.4449390361915</v>
       </c>
       <c r="CH14" s="1">
-        <v>7255.708922005032</v>
+        <v>7486.8101412812075</v>
       </c>
       <c r="CI14" s="1">
-        <v>7283.804528740081</v>
+        <v>7477.4449390361915</v>
       </c>
       <c r="CJ14" s="1">
-        <v>7255.708922005032</v>
+        <v>7419.6335978323968</v>
       </c>
       <c r="CK14" s="1">
-        <v>7199.5177085349333</v>
+        <v>7279.1555641571504</v>
       </c>
       <c r="CL14" s="1">
-        <v>7105.8656860847686</v>
+        <v>7185.5035417069867</v>
       </c>
       <c r="CM14" s="1">
-        <v>6993.4832591445711</v>
+        <v>7082.486317011806</v>
       </c>
       <c r="CN14" s="1">
-        <v>6834.2748209792917</v>
+        <v>6928.7962066963419</v>
       </c>
       <c r="CO14" s="1">
-        <v>6693.7967873040452</v>
+        <v>6816.4137797561452</v>
       </c>
       <c r="CP14" s="1">
-        <v>6543.9535513837818</v>
+        <v>6647.8401393458489</v>
       </c>
       <c r="CQ14" s="1">
-        <v>6375.3799109734855</v>
+        <v>6488.6317011805695</v>
       </c>
       <c r="CR14" s="1">
-        <v>6214.7749177472424</v>
+        <v>6293.3120959938069</v>
       </c>
       <c r="CS14" s="1">
-        <v>6083.6620863170119</v>
+        <v>6096.6428488484617</v>
       </c>
       <c r="CT14" s="1">
-        <v>5961.9144571317984</v>
+        <v>6031.086433133346</v>
       </c>
       <c r="CU14" s="1">
-        <v>5830.8016257015679</v>
+        <v>5928.0692084381653</v>
       </c>
     </row>
     <row r="15" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B15" s="8"/>
+      <c r="B15" s="8">
+        <v>45750</v>
+      </c>
       <c r="C15" s="9">
         <v>45755</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="1"/>
-      <c r="AO15" s="1"/>
-      <c r="AP15" s="1"/>
-      <c r="AQ15" s="1"/>
-      <c r="AR15" s="1"/>
-      <c r="AS15" s="1"/>
-      <c r="AT15" s="1"/>
-      <c r="AU15" s="1"/>
-      <c r="AV15" s="1"/>
-      <c r="AW15" s="1"/>
-      <c r="AX15" s="1"/>
-      <c r="AY15" s="1"/>
-      <c r="AZ15" s="1"/>
-      <c r="BA15" s="1"/>
-      <c r="BB15" s="1"/>
-      <c r="BC15" s="1"/>
-      <c r="BD15" s="1"/>
-      <c r="BE15" s="1"/>
-      <c r="BF15" s="1"/>
-      <c r="BG15" s="1"/>
-      <c r="BH15" s="1"/>
-      <c r="BI15" s="1"/>
-      <c r="BJ15" s="1"/>
-      <c r="BK15" s="1"/>
-      <c r="BL15" s="1"/>
-      <c r="BM15" s="1"/>
-      <c r="BN15" s="1"/>
-      <c r="BO15" s="1"/>
-      <c r="BP15" s="1"/>
-      <c r="BQ15" s="1"/>
-      <c r="BR15" s="1"/>
-      <c r="BS15" s="1"/>
-      <c r="BT15" s="1"/>
-      <c r="BU15" s="1"/>
-      <c r="BV15" s="1"/>
-      <c r="BW15" s="1"/>
-      <c r="BX15" s="1"/>
-      <c r="BY15" s="1"/>
-      <c r="BZ15" s="1"/>
-      <c r="CA15" s="1"/>
-      <c r="CB15" s="1"/>
-      <c r="CC15" s="1"/>
-      <c r="CD15" s="1"/>
-      <c r="CE15" s="1"/>
-      <c r="CF15" s="1"/>
-      <c r="CG15" s="1"/>
-      <c r="CH15" s="1"/>
-      <c r="CI15" s="1"/>
-      <c r="CJ15" s="1"/>
-      <c r="CK15" s="1"/>
-      <c r="CL15" s="1"/>
-      <c r="CM15" s="1"/>
-      <c r="CN15" s="1"/>
-      <c r="CO15" s="1"/>
-      <c r="CP15" s="1"/>
-      <c r="CQ15" s="1"/>
-      <c r="CR15" s="1"/>
-      <c r="CS15" s="1"/>
-      <c r="CT15" s="1"/>
-      <c r="CU15" s="1"/>
+      <c r="D15" s="1">
+        <v>5598.4826785368687</v>
+      </c>
+      <c r="E15" s="10">
+        <v>5542.2914650667699</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5504.830656086704</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5448.6394426166053</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5462.1826978904592</v>
+      </c>
+      <c r="I15" s="1">
+        <v>5424.7218889103933</v>
+      </c>
+      <c r="J15" s="1">
+        <v>5396.6262821753435</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5377.8958776853106</v>
+      </c>
+      <c r="L15" s="1">
+        <v>5329.6283336558936</v>
+      </c>
+      <c r="M15" s="1">
+        <v>5320.2631314108767</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5310.8979291658607</v>
+      </c>
+      <c r="O15" s="1">
+        <v>5301.5327269208437</v>
+      </c>
+      <c r="P15" s="1">
+        <v>5280.2796980839948</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>5270.9144958389779</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5280.2796980839948</v>
+      </c>
+      <c r="S15" s="1">
+        <v>5280.2796980839948</v>
+      </c>
+      <c r="T15" s="1">
+        <v>5285.0362686278304</v>
+      </c>
+      <c r="U15" s="1">
+        <v>5285.0362686278304</v>
+      </c>
+      <c r="V15" s="1">
+        <v>5303.7666731178633</v>
+      </c>
+      <c r="W15" s="1">
+        <v>5313.1318753628802</v>
+      </c>
+      <c r="X15" s="1">
+        <v>5344.5665182891426</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>5391.3925295142253</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>5447.5837429843241</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5531.8705631894718</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>5651.4985097735635</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>5773.246138958777</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>5913.7241726340235</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>6072.9326107993038</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>6196.9522740468356</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>6356.1607122121159</v>
+      </c>
+      <c r="AH15" s="1">
+        <v>6506.0039481323784</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>6637.1167795626088</v>
+      </c>
+      <c r="AJ15" s="1">
+        <v>6746.1264950648347</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>6821.0481130249664</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>6867.8741242500482</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>6867.8741242500482</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>6849.5284691310235</v>
+      </c>
+      <c r="AO15" s="1">
+        <v>6821.4328623959746</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>6765.2416489258758</v>
+      </c>
+      <c r="AQ15" s="1">
+        <v>6709.050435455777</v>
+      </c>
+      <c r="AR15" s="1">
+        <v>6666.6641377975611</v>
+      </c>
+      <c r="AS15" s="1">
+        <v>6601.1077220824463</v>
+      </c>
+      <c r="AT15" s="1">
+        <v>6544.9165086123476</v>
+      </c>
+      <c r="AU15" s="1">
+        <v>6488.7252951422488</v>
+      </c>
+      <c r="AV15" s="1">
+        <v>6427.0513644281018</v>
+      </c>
+      <c r="AW15" s="1">
+        <v>6380.225353203019</v>
+      </c>
+      <c r="AX15" s="1">
+        <v>6342.7645442229532</v>
+      </c>
+      <c r="AY15" s="1">
+        <v>6305.3037352428873</v>
+      </c>
+      <c r="AZ15" s="1">
+        <v>6267.1636926649899</v>
+      </c>
+      <c r="BA15" s="1">
+        <v>6229.702883684924</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>6192.2420747048582</v>
+      </c>
+      <c r="BC15" s="1">
+        <v>6164.1464679698083</v>
+      </c>
+      <c r="BD15" s="1">
+        <v>6165.5880007741434</v>
+      </c>
+      <c r="BE15" s="1">
+        <v>6146.8575962841105</v>
+      </c>
+      <c r="BF15" s="1">
+        <v>6137.4923940390945</v>
+      </c>
+      <c r="BG15" s="1">
+        <v>6128.1271917940776</v>
+      </c>
+      <c r="BH15" s="1">
+        <v>6143.3007934971938</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>6143.3007934971938</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>6152.6659957422098</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>6152.6659957422098</v>
+      </c>
+      <c r="BL15" s="1">
+        <v>6178.0598413005609</v>
+      </c>
+      <c r="BM15" s="1">
+        <v>6178.0598413005609</v>
+      </c>
+      <c r="BN15" s="1">
+        <v>6178.0598413005609</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>6187.4250435455779</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>6154.1318366556998</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>6182.2274433907487</v>
+      </c>
+      <c r="BR15" s="1">
+        <v>6219.6882523708146</v>
+      </c>
+      <c r="BS15" s="1">
+        <v>6257.1490613508804</v>
+      </c>
+      <c r="BT15" s="1">
+        <v>6294.2880588349144</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>6350.4792723050123</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>6397.305283530095</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>6453.4964970001938</v>
+      </c>
+      <c r="BX15" s="1">
+        <v>6549.032475324173</v>
+      </c>
+      <c r="BY15" s="1">
+        <v>6623.9540932843047</v>
+      </c>
+      <c r="BZ15" s="1">
+        <v>6708.2409134894524</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>6820.6233404296499</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>6964.2861234759048</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>7104.7641571511513</v>
+      </c>
+      <c r="CD15" s="1">
+        <v>7226.5117863363657</v>
+      </c>
+      <c r="CE15" s="1">
+        <v>7320.1638087865304</v>
+      </c>
+      <c r="CF15" s="1">
+        <v>7421.2537255660927</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>7477.4449390361915</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>7486.8101412812075</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>7468.0797367911746</v>
+      </c>
+      <c r="CJ15" s="1">
+        <v>7410.2683955873817</v>
+      </c>
+      <c r="CK15" s="1">
+        <v>7279.1555641571504</v>
+      </c>
+      <c r="CL15" s="1">
+        <v>7194.8687439520036</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>7082.486317011806</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>6928.7962066963419</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>6816.4137797561452</v>
+      </c>
+      <c r="CP15" s="1">
+        <v>6647.8401393458489</v>
+      </c>
+      <c r="CQ15" s="1">
+        <v>6488.6317011805695</v>
+      </c>
+      <c r="CR15" s="1">
+        <v>6293.3120959938069</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>6106.0080510934777</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>6031.086433133346</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>5928.0692084381653</v>
+      </c>
     </row>
     <row r="16" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B16" s="8"/>
+      <c r="B16" s="8">
+        <v>45750</v>
+      </c>
       <c r="C16" s="9">
         <v>45756</v>
       </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="1"/>
-      <c r="AO16" s="1"/>
-      <c r="AP16" s="1"/>
-      <c r="AQ16" s="1"/>
-      <c r="AR16" s="1"/>
-      <c r="AS16" s="1"/>
-      <c r="AT16" s="1"/>
-      <c r="AU16" s="1"/>
-      <c r="AV16" s="1"/>
-      <c r="AW16" s="1"/>
-      <c r="AX16" s="1"/>
-      <c r="AY16" s="1"/>
-      <c r="AZ16" s="1"/>
-      <c r="BA16" s="1"/>
-      <c r="BB16" s="1"/>
-      <c r="BC16" s="1"/>
-      <c r="BD16" s="1"/>
-      <c r="BE16" s="1"/>
-      <c r="BF16" s="1"/>
-      <c r="BG16" s="1"/>
-      <c r="BH16" s="1"/>
-      <c r="BI16" s="1"/>
-      <c r="BJ16" s="1"/>
-      <c r="BK16" s="1"/>
-      <c r="BL16" s="1"/>
-      <c r="BM16" s="1"/>
-      <c r="BN16" s="1"/>
-      <c r="BO16" s="1"/>
-      <c r="BP16" s="1"/>
-      <c r="BQ16" s="1"/>
-      <c r="BR16" s="1"/>
-      <c r="BS16" s="1"/>
-      <c r="BT16" s="1"/>
-      <c r="BU16" s="1"/>
-      <c r="BV16" s="1"/>
-      <c r="BW16" s="1"/>
-      <c r="BX16" s="1"/>
-      <c r="BY16" s="1"/>
-      <c r="BZ16" s="1"/>
-      <c r="CA16" s="1"/>
-      <c r="CB16" s="1"/>
-      <c r="CC16" s="1"/>
-      <c r="CD16" s="1"/>
-      <c r="CE16" s="1"/>
-      <c r="CF16" s="1"/>
-      <c r="CG16" s="1"/>
-      <c r="CH16" s="1"/>
-      <c r="CI16" s="1"/>
-      <c r="CJ16" s="1"/>
-      <c r="CK16" s="1"/>
-      <c r="CL16" s="1"/>
-      <c r="CM16" s="1"/>
-      <c r="CN16" s="1"/>
-      <c r="CO16" s="1"/>
-      <c r="CP16" s="1"/>
-      <c r="CQ16" s="1"/>
-      <c r="CR16" s="1"/>
-      <c r="CS16" s="1"/>
-      <c r="CT16" s="1"/>
-      <c r="CU16" s="1"/>
+      <c r="D16" s="1">
+        <v>5448.6394426166053</v>
+      </c>
+      <c r="E16" s="10">
+        <v>5298.7962066963419</v>
+      </c>
+      <c r="F16" s="1">
+        <v>5251.97019547126</v>
+      </c>
+      <c r="G16" s="1">
+        <v>5205.1441842461782</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5228.0526417650472</v>
+      </c>
+      <c r="I16" s="1">
+        <v>5209.3222372750151</v>
+      </c>
+      <c r="J16" s="1">
+        <v>5190.5918327849813</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5162.4962260499324</v>
+      </c>
+      <c r="L16" s="1">
+        <v>5104.8634797754985</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5076.7678730404486</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5067.4026707954326</v>
+      </c>
+      <c r="O16" s="1">
+        <v>5058.0374685504157</v>
+      </c>
+      <c r="P16" s="1">
+        <v>5036.7844397135668</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>5055.5148442035998</v>
+      </c>
+      <c r="R16" s="1">
+        <v>5064.8800464486167</v>
+      </c>
+      <c r="S16" s="1">
+        <v>5083.6104509386496</v>
+      </c>
+      <c r="T16" s="1">
+        <v>5088.3670214824851</v>
+      </c>
+      <c r="U16" s="1">
+        <v>5097.7322237275012</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5107.0974259725181</v>
+      </c>
+      <c r="W16" s="1">
+        <v>5116.4626282175341</v>
+      </c>
+      <c r="X16" s="1">
+        <v>5138.5320688987804</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>5175.9928778788462</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>5232.184091348945</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5307.1057093090767</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>5426.7336558931684</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>5539.1160828333659</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>5670.2289142635964</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>5820.0721501838589</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>5934.7266111863755</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>6084.569847106638</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>6215.6826785368685</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>6328.065105477066</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>6418.3444164892589</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>6474.5356299593577</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>6511.9964389394236</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>6511.9964389394236</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>6465.555177085349</v>
+      </c>
+      <c r="AO16" s="1">
+        <v>6418.7291658602671</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>6362.5379523901684</v>
+      </c>
+      <c r="AQ16" s="1">
+        <v>6296.9815366750536</v>
+      </c>
+      <c r="AR16" s="1">
+        <v>6245.2300367718217</v>
+      </c>
+      <c r="AS16" s="1">
+        <v>6179.673621056706</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>6114.1172053415912</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>6067.2911941165084</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>6005.6172634023615</v>
+      </c>
+      <c r="AW16" s="1">
+        <v>5968.1564544222956</v>
+      </c>
+      <c r="AX16" s="1">
+        <v>5930.6956454422298</v>
+      </c>
+      <c r="AY16" s="1">
+        <v>5902.6000387071799</v>
+      </c>
+      <c r="AZ16" s="1">
+        <v>5873.8251983742985</v>
+      </c>
+      <c r="BA16" s="1">
+        <v>5845.7295916392495</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>5817.6339849041997</v>
+      </c>
+      <c r="BC16" s="1">
+        <v>5789.5383781691507</v>
+      </c>
+      <c r="BD16" s="1">
+        <v>5790.9799109734859</v>
+      </c>
+      <c r="BE16" s="1">
+        <v>5762.884304238436</v>
+      </c>
+      <c r="BF16" s="1">
+        <v>5753.51910199342</v>
+      </c>
+      <c r="BG16" s="1">
+        <v>5744.1538997484031</v>
+      </c>
+      <c r="BH16" s="1">
+        <v>5740.5970969614864</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>5740.5970969614864</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>5740.5970969614864</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>5740.5970969614864</v>
+      </c>
+      <c r="BL16" s="1">
+        <v>5747.2605380298046</v>
+      </c>
+      <c r="BM16" s="1">
+        <v>5747.2605380298046</v>
+      </c>
+      <c r="BN16" s="1">
+        <v>5747.2605380298046</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>5747.2605380298046</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>5704.6021288949105</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>5723.3325333849425</v>
+      </c>
+      <c r="BR16" s="1">
+        <v>5760.7933423650084</v>
+      </c>
+      <c r="BS16" s="1">
+        <v>5798.2541513450742</v>
+      </c>
+      <c r="BT16" s="1">
+        <v>5854.1235533191411</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>5919.6799690342559</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>5994.6015869943876</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>6078.8884071995353</v>
+      </c>
+      <c r="BX16" s="1">
+        <v>6211.8851945035804</v>
+      </c>
+      <c r="BY16" s="1">
+        <v>6314.9024191987619</v>
+      </c>
+      <c r="BZ16" s="1">
+        <v>6436.6500483839754</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>6567.7628798142059</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>6720.7908651054768</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>6851.9036965357072</v>
+      </c>
+      <c r="CD16" s="1">
+        <v>6964.2861234759048</v>
+      </c>
+      <c r="CE16" s="1">
+        <v>7057.9381459260694</v>
+      </c>
+      <c r="CF16" s="1">
+        <v>7149.6628604606158</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>7215.2192761757306</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>7243.3148829107804</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>7262.0452874008133</v>
+      </c>
+      <c r="CJ16" s="1">
+        <v>7251.0599574221014</v>
+      </c>
+      <c r="CK16" s="1">
+        <v>7157.4079349719377</v>
+      </c>
+      <c r="CL16" s="1">
+        <v>7091.8515192568211</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>6979.4690923166236</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>6816.4137797561452</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>6694.6661505709308</v>
+      </c>
+      <c r="CP16" s="1">
+        <v>6535.4577124056514</v>
+      </c>
+      <c r="CQ16" s="1">
+        <v>6385.614476485388</v>
+      </c>
+      <c r="CR16" s="1">
+        <v>6180.9296690536094</v>
+      </c>
+      <c r="CS16" s="1">
+        <v>5993.6256241532801</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>5918.7040061931493</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>5815.6867814979678</v>
+      </c>
     </row>
     <row r="17" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>45750</v>
+      </c>
       <c r="C17" s="9">
         <v>45757</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="1"/>
-      <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="1"/>
-      <c r="AO17" s="1"/>
-      <c r="AP17" s="1"/>
-      <c r="AQ17" s="1"/>
-      <c r="AR17" s="1"/>
-      <c r="AS17" s="1"/>
-      <c r="AT17" s="1"/>
-      <c r="AU17" s="1"/>
-      <c r="AV17" s="1"/>
-      <c r="AW17" s="1"/>
-      <c r="AX17" s="1"/>
-      <c r="AY17" s="1"/>
-      <c r="AZ17" s="1"/>
-      <c r="BA17" s="1"/>
-      <c r="BB17" s="1"/>
-      <c r="BC17" s="1"/>
-      <c r="BD17" s="1"/>
-      <c r="BE17" s="1"/>
-      <c r="BF17" s="1"/>
-      <c r="BG17" s="1"/>
-      <c r="BH17" s="1"/>
-      <c r="BI17" s="1"/>
-      <c r="BJ17" s="1"/>
-      <c r="BK17" s="1"/>
-      <c r="BL17" s="1"/>
-      <c r="BM17" s="1"/>
-      <c r="BN17" s="1"/>
-      <c r="BO17" s="1"/>
-      <c r="BP17" s="1"/>
-      <c r="BQ17" s="1"/>
-      <c r="BR17" s="1"/>
-      <c r="BS17" s="1"/>
-      <c r="BT17" s="1"/>
-      <c r="BU17" s="1"/>
-      <c r="BV17" s="1"/>
-      <c r="BW17" s="1"/>
-      <c r="BX17" s="1"/>
-      <c r="BY17" s="1"/>
-      <c r="BZ17" s="1"/>
-      <c r="CA17" s="1"/>
-      <c r="CB17" s="1"/>
-      <c r="CC17" s="1"/>
-      <c r="CD17" s="1"/>
-      <c r="CE17" s="1"/>
-      <c r="CF17" s="1"/>
-      <c r="CG17" s="1"/>
-      <c r="CH17" s="1"/>
-      <c r="CI17" s="1"/>
-      <c r="CJ17" s="1"/>
-      <c r="CK17" s="1"/>
-      <c r="CL17" s="1"/>
-      <c r="CM17" s="1"/>
-      <c r="CN17" s="1"/>
-      <c r="CO17" s="1"/>
-      <c r="CP17" s="1"/>
-      <c r="CQ17" s="1"/>
-      <c r="CR17" s="1"/>
-      <c r="CS17" s="1"/>
-      <c r="CT17" s="1"/>
-      <c r="CU17" s="1"/>
+      <c r="D17" s="1">
+        <v>5495.465453841688</v>
+      </c>
+      <c r="E17" s="1">
+        <v>5345.6222179214246</v>
+      </c>
+      <c r="F17" s="1">
+        <v>5298.7962066963419</v>
+      </c>
+      <c r="G17" s="1">
+        <v>5251.97019547126</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5274.8786529901299</v>
+      </c>
+      <c r="I17" s="1">
+        <v>5256.148248500097</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5237.4178440100641</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5209.3222372750151</v>
+      </c>
+      <c r="L17" s="1">
+        <v>5151.6894910005803</v>
+      </c>
+      <c r="M17" s="1">
+        <v>5123.5938842655314</v>
+      </c>
+      <c r="N17" s="1">
+        <v>5114.2286820205145</v>
+      </c>
+      <c r="O17" s="1">
+        <v>5104.8634797754985</v>
+      </c>
+      <c r="P17" s="1">
+        <v>5083.6104509386496</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>5102.3408554286825</v>
+      </c>
+      <c r="R17" s="1">
+        <v>5111.7060576736985</v>
+      </c>
+      <c r="S17" s="1">
+        <v>5130.4364621637314</v>
+      </c>
+      <c r="T17" s="1">
+        <v>5135.193032707567</v>
+      </c>
+      <c r="U17" s="1">
+        <v>5144.5582349525839</v>
+      </c>
+      <c r="V17" s="1">
+        <v>5153.9234371975999</v>
+      </c>
+      <c r="W17" s="1">
+        <v>5163.2886394426168</v>
+      </c>
+      <c r="X17" s="1">
+        <v>5185.3580801238631</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>5222.818889103929</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>5279.0101025740278</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>5353.9317205341595</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>5473.5596671182502</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>5585.9420940584478</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>5717.0549254886782</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>5866.8981614089416</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>5981.5526224114574</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>6131.3958583317208</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>6262.5086897619512</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>6374.8911167021488</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>6465.1704277143408</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>6521.3616411844396</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>6558.8224501645054</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>6558.8224501645054</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>6512.3811883104318</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>6465.555177085349</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>6409.3639636152511</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>6343.8075479001354</v>
+      </c>
+      <c r="AR17" s="1">
+        <v>6292.0560479969035</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>6226.4996322817888</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>6160.9432165666731</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>6114.1172053415912</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>6052.4432746274433</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>6014.9824656473775</v>
+      </c>
+      <c r="AX17" s="1">
+        <v>5977.5216566673116</v>
+      </c>
+      <c r="AY17" s="1">
+        <v>5949.4260499322627</v>
+      </c>
+      <c r="AZ17" s="1">
+        <v>5920.6512095993812</v>
+      </c>
+      <c r="BA17" s="1">
+        <v>5892.5556028643314</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>5864.4599961292824</v>
+      </c>
+      <c r="BC17" s="1">
+        <v>5836.3643893942326</v>
+      </c>
+      <c r="BD17" s="1">
+        <v>5837.8059221985677</v>
+      </c>
+      <c r="BE17" s="1">
+        <v>5809.7103154635188</v>
+      </c>
+      <c r="BF17" s="1">
+        <v>5800.3451132185019</v>
+      </c>
+      <c r="BG17" s="1">
+        <v>5790.9799109734859</v>
+      </c>
+      <c r="BH17" s="1">
+        <v>5787.4231081865682</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>5787.4231081865682</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>5787.4231081865682</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>5787.4231081865682</v>
+      </c>
+      <c r="BL17" s="1">
+        <v>5794.0865492548874</v>
+      </c>
+      <c r="BM17" s="1">
+        <v>5794.0865492548874</v>
+      </c>
+      <c r="BN17" s="1">
+        <v>5794.0865492548874</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>5794.0865492548874</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>5751.4281401199923</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>5770.1585446100253</v>
+      </c>
+      <c r="BR17" s="1">
+        <v>5807.6193535900911</v>
+      </c>
+      <c r="BS17" s="1">
+        <v>5845.080162570157</v>
+      </c>
+      <c r="BT17" s="1">
+        <v>5900.949564544223</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>5966.5059802593378</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>6041.4275982194695</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>6125.7144184246181</v>
+      </c>
+      <c r="BX17" s="1">
+        <v>6258.7112057286631</v>
+      </c>
+      <c r="BY17" s="1">
+        <v>6361.7284304238437</v>
+      </c>
+      <c r="BZ17" s="1">
+        <v>6483.4760596090573</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>6614.5888910392878</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>6767.6168763305595</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>6898.72970776079</v>
+      </c>
+      <c r="CD17" s="1">
+        <v>7011.1121347009876</v>
+      </c>
+      <c r="CE17" s="1">
+        <v>7104.7641571511513</v>
+      </c>
+      <c r="CF17" s="1">
+        <v>7196.4888716856976</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>7262.0452874008133</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>7290.1408941358623</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>7308.8712986258952</v>
+      </c>
+      <c r="CJ17" s="1">
+        <v>7297.8859686471842</v>
+      </c>
+      <c r="CK17" s="1">
+        <v>7204.2339461970187</v>
+      </c>
+      <c r="CL17" s="1">
+        <v>7138.6775304819039</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>7026.2951035417063</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>6863.2397909812271</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>6741.4921617960135</v>
+      </c>
+      <c r="CP17" s="1">
+        <v>6582.2837236307332</v>
+      </c>
+      <c r="CQ17" s="1">
+        <v>6432.4404877104707</v>
+      </c>
+      <c r="CR17" s="1">
+        <v>6227.7556802786921</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>6040.4516353783629</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>5965.5300174182312</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>5862.5127927230506</v>
+      </c>
     </row>
     <row r="18" spans="2:99" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>45750</v>
+      </c>
       <c r="C18" s="9">
         <v>45758</v>
       </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="1"/>
-      <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="1"/>
-      <c r="AO18" s="1"/>
-      <c r="AP18" s="1"/>
-      <c r="AQ18" s="1"/>
-      <c r="AR18" s="1"/>
-      <c r="AS18" s="1"/>
-      <c r="AT18" s="1"/>
-      <c r="AU18" s="1"/>
-      <c r="AV18" s="1"/>
-      <c r="AW18" s="1"/>
-      <c r="AX18" s="1"/>
-      <c r="AY18" s="1"/>
-      <c r="AZ18" s="1"/>
-      <c r="BA18" s="1"/>
-      <c r="BB18" s="1"/>
-      <c r="BC18" s="1"/>
-      <c r="BD18" s="1"/>
-      <c r="BE18" s="1"/>
-      <c r="BF18" s="1"/>
-      <c r="BG18" s="1"/>
-      <c r="BH18" s="1"/>
-      <c r="BI18" s="1"/>
-      <c r="BJ18" s="1"/>
-      <c r="BK18" s="1"/>
-      <c r="BL18" s="1"/>
-      <c r="BM18" s="1"/>
-      <c r="BN18" s="1"/>
-      <c r="BO18" s="1"/>
-      <c r="BP18" s="1"/>
-      <c r="BQ18" s="1"/>
-      <c r="BR18" s="1"/>
-      <c r="BS18" s="1"/>
-      <c r="BT18" s="1"/>
-      <c r="BU18" s="1"/>
-      <c r="BV18" s="1"/>
-      <c r="BW18" s="1"/>
-      <c r="BX18" s="1"/>
-      <c r="BY18" s="1"/>
-      <c r="BZ18" s="1"/>
-      <c r="CA18" s="1"/>
-      <c r="CB18" s="1"/>
-      <c r="CC18" s="1"/>
-      <c r="CD18" s="1"/>
-      <c r="CE18" s="1"/>
-      <c r="CF18" s="1"/>
-      <c r="CG18" s="1"/>
-      <c r="CH18" s="1"/>
-      <c r="CI18" s="1"/>
-      <c r="CJ18" s="1"/>
-      <c r="CK18" s="1"/>
-      <c r="CL18" s="1"/>
-      <c r="CM18" s="1"/>
-      <c r="CN18" s="1"/>
-      <c r="CO18" s="1"/>
-      <c r="CP18" s="1"/>
-      <c r="CQ18" s="1"/>
-      <c r="CR18" s="1"/>
-      <c r="CS18" s="1"/>
-      <c r="CT18" s="1"/>
-      <c r="CU18" s="1"/>
+      <c r="D18" s="1">
+        <v>5401.8134313915234</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5251.97019547126</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5205.1441842461782</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5158.3181730210954</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5181.2266305399653</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5162.4962260499324</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5143.7658215598995</v>
+      </c>
+      <c r="K18" s="1">
+        <v>5115.6702148248496</v>
+      </c>
+      <c r="L18" s="1">
+        <v>5058.0374685504157</v>
+      </c>
+      <c r="M18" s="1">
+        <v>5029.9418618153668</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5020.5766595703508</v>
+      </c>
+      <c r="O18" s="1">
+        <v>5011.2114573253339</v>
+      </c>
+      <c r="P18" s="1">
+        <v>4989.958428488485</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>5008.6888329785179</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5018.0540352235339</v>
+      </c>
+      <c r="S18" s="1">
+        <v>5036.7844397135668</v>
+      </c>
+      <c r="T18" s="1">
+        <v>5041.5410102574024</v>
+      </c>
+      <c r="U18" s="1">
+        <v>5050.9062125024193</v>
+      </c>
+      <c r="V18" s="1">
+        <v>5060.2714147474353</v>
+      </c>
+      <c r="W18" s="1">
+        <v>5069.6366169924522</v>
+      </c>
+      <c r="X18" s="1">
+        <v>5091.7060576736985</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>5129.1668666537644</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>5185.3580801238631</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>5260.2796980839948</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>5379.9076446680856</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>5492.2900716082831</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>5623.4029030385136</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>5773.246138958777</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>5887.9005999612928</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>6037.7438358815562</v>
+      </c>
+      <c r="AH18" s="1">
+        <v>6168.8566673117866</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>6281.2390942519842</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>6371.5184052641762</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>6427.709618734275</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>6465.1704277143408</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>6465.1704277143408</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>6418.7291658602671</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>6371.9031546351853</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>6315.7119411650865</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>6250.1555254499708</v>
+      </c>
+      <c r="AR18" s="1">
+        <v>6198.4040255467389</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>6132.8476098316241</v>
+      </c>
+      <c r="AT18" s="1">
+        <v>6067.2911941165084</v>
+      </c>
+      <c r="AU18" s="1">
+        <v>6020.4651828914266</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>5958.7912521772787</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>5921.3304431972128</v>
+      </c>
+      <c r="AX18" s="1">
+        <v>5883.869634217147</v>
+      </c>
+      <c r="AY18" s="1">
+        <v>5855.7740274820981</v>
+      </c>
+      <c r="AZ18" s="1">
+        <v>5826.9991871492166</v>
+      </c>
+      <c r="BA18" s="1">
+        <v>5798.9035804141668</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>5770.8079736791178</v>
+      </c>
+      <c r="BC18" s="1">
+        <v>5742.712366944068</v>
+      </c>
+      <c r="BD18" s="1">
+        <v>5744.1538997484031</v>
+      </c>
+      <c r="BE18" s="1">
+        <v>5716.0582930133542</v>
+      </c>
+      <c r="BF18" s="1">
+        <v>5706.6930907683372</v>
+      </c>
+      <c r="BG18" s="1">
+        <v>5697.3278885233212</v>
+      </c>
+      <c r="BH18" s="1">
+        <v>5693.7710857364045</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>5693.7710857364045</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>5693.7710857364045</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>5693.7710857364045</v>
+      </c>
+      <c r="BL18" s="1">
+        <v>5700.4345268047236</v>
+      </c>
+      <c r="BM18" s="1">
+        <v>5700.4345268047236</v>
+      </c>
+      <c r="BN18" s="1">
+        <v>5700.4345268047236</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>5700.4345268047236</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>5657.7761176698277</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>5676.5065221598607</v>
+      </c>
+      <c r="BR18" s="1">
+        <v>5713.9673311399265</v>
+      </c>
+      <c r="BS18" s="1">
+        <v>5751.4281401199923</v>
+      </c>
+      <c r="BT18" s="1">
+        <v>5807.2975420940584</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>5872.8539578091741</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>5947.7755757693049</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>6032.0623959744535</v>
+      </c>
+      <c r="BX18" s="1">
+        <v>6165.0591832784985</v>
+      </c>
+      <c r="BY18" s="1">
+        <v>6268.0764079736791</v>
+      </c>
+      <c r="BZ18" s="1">
+        <v>6389.8240371588927</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>6520.9368685891232</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>6673.9648538803949</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>6805.0776853106254</v>
+      </c>
+      <c r="CD18" s="1">
+        <v>6917.4601122508229</v>
+      </c>
+      <c r="CE18" s="1">
+        <v>7011.1121347009876</v>
+      </c>
+      <c r="CF18" s="1">
+        <v>7102.836849235533</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>7168.3932649506487</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>7196.4888716856976</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>7215.2192761757306</v>
+      </c>
+      <c r="CJ18" s="1">
+        <v>7204.2339461970187</v>
+      </c>
+      <c r="CK18" s="1">
+        <v>7110.581923746855</v>
+      </c>
+      <c r="CL18" s="1">
+        <v>7045.0255080317402</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>6932.6430810915426</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>6769.5877685310625</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>6647.8401393458489</v>
+      </c>
+      <c r="CP18" s="1">
+        <v>6488.6317011805695</v>
+      </c>
+      <c r="CQ18" s="1">
+        <v>6338.7884652603061</v>
+      </c>
+      <c r="CR18" s="1">
+        <v>6134.1036578285275</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>5946.7996129281983</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>5871.8779949680666</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>5768.8607702728859</v>
+      </c>
     </row>
     <row r="19" spans="2:99" ht="15" x14ac:dyDescent="0.2">
       <c r="B19" s="8"/>
